--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10101_顧客検索.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10101_顧客検索.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B292E2-4258-4C71-BA63-2DA39FD9C26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31582F1E-033D-4BFA-837C-035C15740B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8588,7 +8588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -8991,74 +8991,14 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -9168,16 +9108,82 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -10182,12 +10188,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="144" t="str">
+      <c r="I25" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="144"/>
-      <c r="K25" s="144"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -10747,57 +10753,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="176" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="156" t="s">
         <v>465</v>
       </c>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="182" t="s">
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="191" t="s">
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="171" t="s">
         <v>499</v>
       </c>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="173" t="s">
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="200" t="str">
+      <c r="AB1" s="155"/>
+      <c r="AC1" s="180" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="201"/>
-      <c r="AE1" s="201"/>
-      <c r="AF1" s="202"/>
-      <c r="AG1" s="167" t="str">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="147" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="169"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10805,53 +10811,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="176" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="156" t="s">
         <v>466</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="173" t="s">
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="179" t="str">
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="167" t="str">
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="147" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="169"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10859,45 +10865,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="176" t="s">
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="156" t="s">
         <v>467</v>
       </c>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="200"/>
-      <c r="AD3" s="201"/>
-      <c r="AE3" s="201"/>
-      <c r="AF3" s="202"/>
-      <c r="AG3" s="167"/>
-      <c r="AH3" s="168"/>
-      <c r="AI3" s="169"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="155"/>
+      <c r="AC3" s="180"/>
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10934,85 +10940,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="171"/>
-      <c r="D7" s="170" t="s">
+      <c r="C7" s="151"/>
+      <c r="D7" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="172"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="170" t="s">
+      <c r="E7" s="152"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="172"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="170" t="s">
+      <c r="H7" s="152"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="170" t="s">
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="172"/>
-      <c r="S7" s="172"/>
-      <c r="T7" s="172"/>
-      <c r="U7" s="172"/>
-      <c r="V7" s="172"/>
-      <c r="W7" s="172"/>
-      <c r="X7" s="172"/>
-      <c r="Y7" s="172"/>
-      <c r="Z7" s="172"/>
-      <c r="AA7" s="172"/>
-      <c r="AB7" s="172"/>
-      <c r="AC7" s="172"/>
-      <c r="AD7" s="172"/>
-      <c r="AE7" s="171"/>
-      <c r="AF7" s="170" t="s">
+      <c r="R7" s="152"/>
+      <c r="S7" s="152"/>
+      <c r="T7" s="152"/>
+      <c r="U7" s="152"/>
+      <c r="V7" s="152"/>
+      <c r="W7" s="152"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="152"/>
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="151"/>
+      <c r="AF7" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="172"/>
-      <c r="AH7" s="172"/>
-      <c r="AI7" s="171"/>
+      <c r="AG7" s="152"/>
+      <c r="AH7" s="152"/>
+      <c r="AI7" s="151"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="164"/>
-      <c r="R8" s="165"/>
-      <c r="S8" s="165"/>
-      <c r="T8" s="165"/>
-      <c r="U8" s="165"/>
-      <c r="V8" s="165"/>
-      <c r="W8" s="165"/>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="165"/>
-      <c r="Z8" s="165"/>
-      <c r="AA8" s="165"/>
-      <c r="AB8" s="165"/>
-      <c r="AC8" s="165"/>
-      <c r="AD8" s="165"/>
-      <c r="AE8" s="166"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
+      <c r="P8" s="203"/>
+      <c r="Q8" s="201"/>
+      <c r="R8" s="202"/>
+      <c r="S8" s="202"/>
+      <c r="T8" s="202"/>
+      <c r="U8" s="202"/>
+      <c r="V8" s="202"/>
+      <c r="W8" s="202"/>
+      <c r="X8" s="202"/>
+      <c r="Y8" s="202"/>
+      <c r="Z8" s="202"/>
+      <c r="AA8" s="202"/>
+      <c r="AB8" s="202"/>
+      <c r="AC8" s="202"/>
+      <c r="AD8" s="202"/>
+      <c r="AE8" s="203"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -11020,934 +11026,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="154"/>
-      <c r="R9" s="155"/>
-      <c r="S9" s="155"/>
-      <c r="T9" s="155"/>
-      <c r="U9" s="155"/>
-      <c r="V9" s="155"/>
-      <c r="W9" s="155"/>
-      <c r="X9" s="155"/>
-      <c r="Y9" s="155"/>
-      <c r="Z9" s="155"/>
-      <c r="AA9" s="155"/>
-      <c r="AB9" s="155"/>
-      <c r="AC9" s="155"/>
-      <c r="AD9" s="155"/>
-      <c r="AE9" s="156"/>
-      <c r="AF9" s="151"/>
-      <c r="AG9" s="152"/>
-      <c r="AH9" s="152"/>
-      <c r="AI9" s="153"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="190"/>
+      <c r="N9" s="190"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="191"/>
+      <c r="Q9" s="192"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="193"/>
+      <c r="T9" s="193"/>
+      <c r="U9" s="193"/>
+      <c r="V9" s="193"/>
+      <c r="W9" s="193"/>
+      <c r="X9" s="193"/>
+      <c r="Y9" s="193"/>
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="193"/>
+      <c r="AB9" s="193"/>
+      <c r="AC9" s="193"/>
+      <c r="AD9" s="193"/>
+      <c r="AE9" s="194"/>
+      <c r="AF9" s="189"/>
+      <c r="AG9" s="190"/>
+      <c r="AH9" s="190"/>
+      <c r="AI9" s="191"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="155"/>
-      <c r="T10" s="155"/>
-      <c r="U10" s="155"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="155"/>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="155"/>
-      <c r="Z10" s="155"/>
-      <c r="AA10" s="155"/>
-      <c r="AB10" s="155"/>
-      <c r="AC10" s="155"/>
-      <c r="AD10" s="155"/>
-      <c r="AE10" s="156"/>
-      <c r="AF10" s="151"/>
-      <c r="AG10" s="152"/>
-      <c r="AH10" s="152"/>
-      <c r="AI10" s="153"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="190"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="191"/>
+      <c r="Q10" s="192"/>
+      <c r="R10" s="193"/>
+      <c r="S10" s="193"/>
+      <c r="T10" s="193"/>
+      <c r="U10" s="193"/>
+      <c r="V10" s="193"/>
+      <c r="W10" s="193"/>
+      <c r="X10" s="193"/>
+      <c r="Y10" s="193"/>
+      <c r="Z10" s="193"/>
+      <c r="AA10" s="193"/>
+      <c r="AB10" s="193"/>
+      <c r="AC10" s="193"/>
+      <c r="AD10" s="193"/>
+      <c r="AE10" s="194"/>
+      <c r="AF10" s="189"/>
+      <c r="AG10" s="190"/>
+      <c r="AH10" s="190"/>
+      <c r="AI10" s="191"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="155"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="155"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="155"/>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="155"/>
-      <c r="Z11" s="155"/>
-      <c r="AA11" s="155"/>
-      <c r="AB11" s="155"/>
-      <c r="AC11" s="155"/>
-      <c r="AD11" s="155"/>
-      <c r="AE11" s="156"/>
-      <c r="AF11" s="151"/>
-      <c r="AG11" s="152"/>
-      <c r="AH11" s="152"/>
-      <c r="AI11" s="153"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="190"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="191"/>
+      <c r="Q11" s="192"/>
+      <c r="R11" s="193"/>
+      <c r="S11" s="193"/>
+      <c r="T11" s="193"/>
+      <c r="U11" s="193"/>
+      <c r="V11" s="193"/>
+      <c r="W11" s="193"/>
+      <c r="X11" s="193"/>
+      <c r="Y11" s="193"/>
+      <c r="Z11" s="193"/>
+      <c r="AA11" s="193"/>
+      <c r="AB11" s="193"/>
+      <c r="AC11" s="193"/>
+      <c r="AD11" s="193"/>
+      <c r="AE11" s="194"/>
+      <c r="AF11" s="189"/>
+      <c r="AG11" s="190"/>
+      <c r="AH11" s="190"/>
+      <c r="AI11" s="191"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="155"/>
-      <c r="S12" s="155"/>
-      <c r="T12" s="155"/>
-      <c r="U12" s="155"/>
-      <c r="V12" s="155"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="155"/>
-      <c r="AE12" s="156"/>
-      <c r="AF12" s="151"/>
-      <c r="AG12" s="152"/>
-      <c r="AH12" s="152"/>
-      <c r="AI12" s="153"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="191"/>
+      <c r="Q12" s="192"/>
+      <c r="R12" s="193"/>
+      <c r="S12" s="193"/>
+      <c r="T12" s="193"/>
+      <c r="U12" s="193"/>
+      <c r="V12" s="193"/>
+      <c r="W12" s="193"/>
+      <c r="X12" s="193"/>
+      <c r="Y12" s="193"/>
+      <c r="Z12" s="193"/>
+      <c r="AA12" s="193"/>
+      <c r="AB12" s="193"/>
+      <c r="AC12" s="193"/>
+      <c r="AD12" s="193"/>
+      <c r="AE12" s="194"/>
+      <c r="AF12" s="189"/>
+      <c r="AG12" s="190"/>
+      <c r="AH12" s="190"/>
+      <c r="AI12" s="191"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="155"/>
-      <c r="S13" s="155"/>
-      <c r="T13" s="155"/>
-      <c r="U13" s="155"/>
-      <c r="V13" s="155"/>
-      <c r="W13" s="155"/>
-      <c r="X13" s="155"/>
-      <c r="Y13" s="155"/>
-      <c r="Z13" s="155"/>
-      <c r="AA13" s="155"/>
-      <c r="AB13" s="155"/>
-      <c r="AC13" s="155"/>
-      <c r="AD13" s="155"/>
-      <c r="AE13" s="156"/>
-      <c r="AF13" s="151"/>
-      <c r="AG13" s="152"/>
-      <c r="AH13" s="152"/>
-      <c r="AI13" s="153"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="190"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="191"/>
+      <c r="Q13" s="192"/>
+      <c r="R13" s="193"/>
+      <c r="S13" s="193"/>
+      <c r="T13" s="193"/>
+      <c r="U13" s="193"/>
+      <c r="V13" s="193"/>
+      <c r="W13" s="193"/>
+      <c r="X13" s="193"/>
+      <c r="Y13" s="193"/>
+      <c r="Z13" s="193"/>
+      <c r="AA13" s="193"/>
+      <c r="AB13" s="193"/>
+      <c r="AC13" s="193"/>
+      <c r="AD13" s="193"/>
+      <c r="AE13" s="194"/>
+      <c r="AF13" s="189"/>
+      <c r="AG13" s="190"/>
+      <c r="AH13" s="190"/>
+      <c r="AI13" s="191"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="155"/>
-      <c r="T14" s="155"/>
-      <c r="U14" s="155"/>
-      <c r="V14" s="155"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="155"/>
-      <c r="AC14" s="155"/>
-      <c r="AD14" s="155"/>
-      <c r="AE14" s="156"/>
-      <c r="AF14" s="151"/>
-      <c r="AG14" s="152"/>
-      <c r="AH14" s="152"/>
-      <c r="AI14" s="153"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="190"/>
+      <c r="P14" s="191"/>
+      <c r="Q14" s="192"/>
+      <c r="R14" s="193"/>
+      <c r="S14" s="193"/>
+      <c r="T14" s="193"/>
+      <c r="U14" s="193"/>
+      <c r="V14" s="193"/>
+      <c r="W14" s="193"/>
+      <c r="X14" s="193"/>
+      <c r="Y14" s="193"/>
+      <c r="Z14" s="193"/>
+      <c r="AA14" s="193"/>
+      <c r="AB14" s="193"/>
+      <c r="AC14" s="193"/>
+      <c r="AD14" s="193"/>
+      <c r="AE14" s="194"/>
+      <c r="AF14" s="189"/>
+      <c r="AG14" s="190"/>
+      <c r="AH14" s="190"/>
+      <c r="AI14" s="191"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="152"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="155"/>
-      <c r="S15" s="155"/>
-      <c r="T15" s="155"/>
-      <c r="U15" s="155"/>
-      <c r="V15" s="155"/>
-      <c r="W15" s="155"/>
-      <c r="X15" s="155"/>
-      <c r="Y15" s="155"/>
-      <c r="Z15" s="155"/>
-      <c r="AA15" s="155"/>
-      <c r="AB15" s="155"/>
-      <c r="AC15" s="155"/>
-      <c r="AD15" s="155"/>
-      <c r="AE15" s="156"/>
-      <c r="AF15" s="151"/>
-      <c r="AG15" s="152"/>
-      <c r="AH15" s="152"/>
-      <c r="AI15" s="153"/>
+      <c r="B15" s="183"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="190"/>
+      <c r="N15" s="190"/>
+      <c r="O15" s="190"/>
+      <c r="P15" s="191"/>
+      <c r="Q15" s="192"/>
+      <c r="R15" s="193"/>
+      <c r="S15" s="193"/>
+      <c r="T15" s="193"/>
+      <c r="U15" s="193"/>
+      <c r="V15" s="193"/>
+      <c r="W15" s="193"/>
+      <c r="X15" s="193"/>
+      <c r="Y15" s="193"/>
+      <c r="Z15" s="193"/>
+      <c r="AA15" s="193"/>
+      <c r="AB15" s="193"/>
+      <c r="AC15" s="193"/>
+      <c r="AD15" s="193"/>
+      <c r="AE15" s="194"/>
+      <c r="AF15" s="189"/>
+      <c r="AG15" s="190"/>
+      <c r="AH15" s="190"/>
+      <c r="AI15" s="191"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="154"/>
-      <c r="R16" s="155"/>
-      <c r="S16" s="155"/>
-      <c r="T16" s="155"/>
-      <c r="U16" s="155"/>
-      <c r="V16" s="155"/>
-      <c r="W16" s="155"/>
-      <c r="X16" s="155"/>
-      <c r="Y16" s="155"/>
-      <c r="Z16" s="155"/>
-      <c r="AA16" s="155"/>
-      <c r="AB16" s="155"/>
-      <c r="AC16" s="155"/>
-      <c r="AD16" s="155"/>
-      <c r="AE16" s="156"/>
-      <c r="AF16" s="151"/>
-      <c r="AG16" s="152"/>
-      <c r="AH16" s="152"/>
-      <c r="AI16" s="153"/>
+      <c r="B16" s="183"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="190"/>
+      <c r="N16" s="190"/>
+      <c r="O16" s="190"/>
+      <c r="P16" s="191"/>
+      <c r="Q16" s="192"/>
+      <c r="R16" s="193"/>
+      <c r="S16" s="193"/>
+      <c r="T16" s="193"/>
+      <c r="U16" s="193"/>
+      <c r="V16" s="193"/>
+      <c r="W16" s="193"/>
+      <c r="X16" s="193"/>
+      <c r="Y16" s="193"/>
+      <c r="Z16" s="193"/>
+      <c r="AA16" s="193"/>
+      <c r="AB16" s="193"/>
+      <c r="AC16" s="193"/>
+      <c r="AD16" s="193"/>
+      <c r="AE16" s="194"/>
+      <c r="AF16" s="189"/>
+      <c r="AG16" s="190"/>
+      <c r="AH16" s="190"/>
+      <c r="AI16" s="191"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="152"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="155"/>
-      <c r="S17" s="155"/>
-      <c r="T17" s="155"/>
-      <c r="U17" s="155"/>
-      <c r="V17" s="155"/>
-      <c r="W17" s="155"/>
-      <c r="X17" s="155"/>
-      <c r="Y17" s="155"/>
-      <c r="Z17" s="155"/>
-      <c r="AA17" s="155"/>
-      <c r="AB17" s="155"/>
-      <c r="AC17" s="155"/>
-      <c r="AD17" s="155"/>
-      <c r="AE17" s="156"/>
-      <c r="AF17" s="151"/>
-      <c r="AG17" s="152"/>
-      <c r="AH17" s="152"/>
-      <c r="AI17" s="153"/>
+      <c r="B17" s="183"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="190"/>
+      <c r="L17" s="190"/>
+      <c r="M17" s="190"/>
+      <c r="N17" s="190"/>
+      <c r="O17" s="190"/>
+      <c r="P17" s="191"/>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="193"/>
+      <c r="S17" s="193"/>
+      <c r="T17" s="193"/>
+      <c r="U17" s="193"/>
+      <c r="V17" s="193"/>
+      <c r="W17" s="193"/>
+      <c r="X17" s="193"/>
+      <c r="Y17" s="193"/>
+      <c r="Z17" s="193"/>
+      <c r="AA17" s="193"/>
+      <c r="AB17" s="193"/>
+      <c r="AC17" s="193"/>
+      <c r="AD17" s="193"/>
+      <c r="AE17" s="194"/>
+      <c r="AF17" s="189"/>
+      <c r="AG17" s="190"/>
+      <c r="AH17" s="190"/>
+      <c r="AI17" s="191"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="155"/>
-      <c r="W18" s="155"/>
-      <c r="X18" s="155"/>
-      <c r="Y18" s="155"/>
-      <c r="Z18" s="155"/>
-      <c r="AA18" s="155"/>
-      <c r="AB18" s="155"/>
-      <c r="AC18" s="155"/>
-      <c r="AD18" s="155"/>
-      <c r="AE18" s="156"/>
-      <c r="AF18" s="151"/>
-      <c r="AG18" s="152"/>
-      <c r="AH18" s="152"/>
-      <c r="AI18" s="153"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="190"/>
+      <c r="L18" s="190"/>
+      <c r="M18" s="190"/>
+      <c r="N18" s="190"/>
+      <c r="O18" s="190"/>
+      <c r="P18" s="191"/>
+      <c r="Q18" s="192"/>
+      <c r="R18" s="193"/>
+      <c r="S18" s="193"/>
+      <c r="T18" s="193"/>
+      <c r="U18" s="193"/>
+      <c r="V18" s="193"/>
+      <c r="W18" s="193"/>
+      <c r="X18" s="193"/>
+      <c r="Y18" s="193"/>
+      <c r="Z18" s="193"/>
+      <c r="AA18" s="193"/>
+      <c r="AB18" s="193"/>
+      <c r="AC18" s="193"/>
+      <c r="AD18" s="193"/>
+      <c r="AE18" s="194"/>
+      <c r="AF18" s="189"/>
+      <c r="AG18" s="190"/>
+      <c r="AH18" s="190"/>
+      <c r="AI18" s="191"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="155"/>
-      <c r="W19" s="155"/>
-      <c r="X19" s="155"/>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="155"/>
-      <c r="AA19" s="155"/>
-      <c r="AB19" s="155"/>
-      <c r="AC19" s="155"/>
-      <c r="AD19" s="155"/>
-      <c r="AE19" s="156"/>
-      <c r="AF19" s="151"/>
-      <c r="AG19" s="152"/>
-      <c r="AH19" s="152"/>
-      <c r="AI19" s="153"/>
+      <c r="B19" s="183"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="190"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="190"/>
+      <c r="N19" s="190"/>
+      <c r="O19" s="190"/>
+      <c r="P19" s="191"/>
+      <c r="Q19" s="192"/>
+      <c r="R19" s="193"/>
+      <c r="S19" s="193"/>
+      <c r="T19" s="193"/>
+      <c r="U19" s="193"/>
+      <c r="V19" s="193"/>
+      <c r="W19" s="193"/>
+      <c r="X19" s="193"/>
+      <c r="Y19" s="193"/>
+      <c r="Z19" s="193"/>
+      <c r="AA19" s="193"/>
+      <c r="AB19" s="193"/>
+      <c r="AC19" s="193"/>
+      <c r="AD19" s="193"/>
+      <c r="AE19" s="194"/>
+      <c r="AF19" s="189"/>
+      <c r="AG19" s="190"/>
+      <c r="AH19" s="190"/>
+      <c r="AI19" s="191"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="154"/>
-      <c r="R20" s="155"/>
-      <c r="S20" s="155"/>
-      <c r="T20" s="155"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="155"/>
-      <c r="AA20" s="155"/>
-      <c r="AB20" s="155"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="156"/>
-      <c r="AF20" s="151"/>
-      <c r="AG20" s="152"/>
-      <c r="AH20" s="152"/>
-      <c r="AI20" s="153"/>
+      <c r="B20" s="183"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="190"/>
+      <c r="L20" s="190"/>
+      <c r="M20" s="190"/>
+      <c r="N20" s="190"/>
+      <c r="O20" s="190"/>
+      <c r="P20" s="191"/>
+      <c r="Q20" s="192"/>
+      <c r="R20" s="193"/>
+      <c r="S20" s="193"/>
+      <c r="T20" s="193"/>
+      <c r="U20" s="193"/>
+      <c r="V20" s="193"/>
+      <c r="W20" s="193"/>
+      <c r="X20" s="193"/>
+      <c r="Y20" s="193"/>
+      <c r="Z20" s="193"/>
+      <c r="AA20" s="193"/>
+      <c r="AB20" s="193"/>
+      <c r="AC20" s="193"/>
+      <c r="AD20" s="193"/>
+      <c r="AE20" s="194"/>
+      <c r="AF20" s="189"/>
+      <c r="AG20" s="190"/>
+      <c r="AH20" s="190"/>
+      <c r="AI20" s="191"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="152"/>
-      <c r="L21" s="152"/>
-      <c r="M21" s="152"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="155"/>
-      <c r="S21" s="155"/>
-      <c r="T21" s="155"/>
-      <c r="U21" s="155"/>
-      <c r="V21" s="155"/>
-      <c r="W21" s="155"/>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="155"/>
-      <c r="AA21" s="155"/>
-      <c r="AB21" s="155"/>
-      <c r="AC21" s="155"/>
-      <c r="AD21" s="155"/>
-      <c r="AE21" s="156"/>
-      <c r="AF21" s="151"/>
-      <c r="AG21" s="152"/>
-      <c r="AH21" s="152"/>
-      <c r="AI21" s="153"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="190"/>
+      <c r="L21" s="190"/>
+      <c r="M21" s="190"/>
+      <c r="N21" s="190"/>
+      <c r="O21" s="190"/>
+      <c r="P21" s="191"/>
+      <c r="Q21" s="192"/>
+      <c r="R21" s="193"/>
+      <c r="S21" s="193"/>
+      <c r="T21" s="193"/>
+      <c r="U21" s="193"/>
+      <c r="V21" s="193"/>
+      <c r="W21" s="193"/>
+      <c r="X21" s="193"/>
+      <c r="Y21" s="193"/>
+      <c r="Z21" s="193"/>
+      <c r="AA21" s="193"/>
+      <c r="AB21" s="193"/>
+      <c r="AC21" s="193"/>
+      <c r="AD21" s="193"/>
+      <c r="AE21" s="194"/>
+      <c r="AF21" s="189"/>
+      <c r="AG21" s="190"/>
+      <c r="AH21" s="190"/>
+      <c r="AI21" s="191"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="155"/>
-      <c r="S22" s="155"/>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="155"/>
-      <c r="Y22" s="155"/>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="155"/>
-      <c r="AB22" s="155"/>
-      <c r="AC22" s="155"/>
-      <c r="AD22" s="155"/>
-      <c r="AE22" s="156"/>
-      <c r="AF22" s="151"/>
-      <c r="AG22" s="152"/>
-      <c r="AH22" s="152"/>
-      <c r="AI22" s="153"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="190"/>
+      <c r="L22" s="190"/>
+      <c r="M22" s="190"/>
+      <c r="N22" s="190"/>
+      <c r="O22" s="190"/>
+      <c r="P22" s="191"/>
+      <c r="Q22" s="192"/>
+      <c r="R22" s="193"/>
+      <c r="S22" s="193"/>
+      <c r="T22" s="193"/>
+      <c r="U22" s="193"/>
+      <c r="V22" s="193"/>
+      <c r="W22" s="193"/>
+      <c r="X22" s="193"/>
+      <c r="Y22" s="193"/>
+      <c r="Z22" s="193"/>
+      <c r="AA22" s="193"/>
+      <c r="AB22" s="193"/>
+      <c r="AC22" s="193"/>
+      <c r="AD22" s="193"/>
+      <c r="AE22" s="194"/>
+      <c r="AF22" s="189"/>
+      <c r="AG22" s="190"/>
+      <c r="AH22" s="190"/>
+      <c r="AI22" s="191"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="155"/>
-      <c r="S23" s="155"/>
-      <c r="T23" s="155"/>
-      <c r="U23" s="155"/>
-      <c r="V23" s="155"/>
-      <c r="W23" s="155"/>
-      <c r="X23" s="155"/>
-      <c r="Y23" s="155"/>
-      <c r="Z23" s="155"/>
-      <c r="AA23" s="155"/>
-      <c r="AB23" s="155"/>
-      <c r="AC23" s="155"/>
-      <c r="AD23" s="155"/>
-      <c r="AE23" s="156"/>
-      <c r="AF23" s="151"/>
-      <c r="AG23" s="152"/>
-      <c r="AH23" s="152"/>
-      <c r="AI23" s="153"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="190"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="190"/>
+      <c r="O23" s="190"/>
+      <c r="P23" s="191"/>
+      <c r="Q23" s="192"/>
+      <c r="R23" s="193"/>
+      <c r="S23" s="193"/>
+      <c r="T23" s="193"/>
+      <c r="U23" s="193"/>
+      <c r="V23" s="193"/>
+      <c r="W23" s="193"/>
+      <c r="X23" s="193"/>
+      <c r="Y23" s="193"/>
+      <c r="Z23" s="193"/>
+      <c r="AA23" s="193"/>
+      <c r="AB23" s="193"/>
+      <c r="AC23" s="193"/>
+      <c r="AD23" s="193"/>
+      <c r="AE23" s="194"/>
+      <c r="AF23" s="189"/>
+      <c r="AG23" s="190"/>
+      <c r="AH23" s="190"/>
+      <c r="AI23" s="191"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="155"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="155"/>
-      <c r="U24" s="155"/>
-      <c r="V24" s="155"/>
-      <c r="W24" s="155"/>
-      <c r="X24" s="155"/>
-      <c r="Y24" s="155"/>
-      <c r="Z24" s="155"/>
-      <c r="AA24" s="155"/>
-      <c r="AB24" s="155"/>
-      <c r="AC24" s="155"/>
-      <c r="AD24" s="155"/>
-      <c r="AE24" s="156"/>
-      <c r="AF24" s="151"/>
-      <c r="AG24" s="152"/>
-      <c r="AH24" s="152"/>
-      <c r="AI24" s="153"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="184"/>
+      <c r="D24" s="185"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="190"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="190"/>
+      <c r="N24" s="190"/>
+      <c r="O24" s="190"/>
+      <c r="P24" s="191"/>
+      <c r="Q24" s="192"/>
+      <c r="R24" s="193"/>
+      <c r="S24" s="193"/>
+      <c r="T24" s="193"/>
+      <c r="U24" s="193"/>
+      <c r="V24" s="193"/>
+      <c r="W24" s="193"/>
+      <c r="X24" s="193"/>
+      <c r="Y24" s="193"/>
+      <c r="Z24" s="193"/>
+      <c r="AA24" s="193"/>
+      <c r="AB24" s="193"/>
+      <c r="AC24" s="193"/>
+      <c r="AD24" s="193"/>
+      <c r="AE24" s="194"/>
+      <c r="AF24" s="189"/>
+      <c r="AG24" s="190"/>
+      <c r="AH24" s="190"/>
+      <c r="AI24" s="191"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="152"/>
-      <c r="M25" s="152"/>
-      <c r="N25" s="152"/>
-      <c r="O25" s="152"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="155"/>
-      <c r="S25" s="155"/>
-      <c r="T25" s="155"/>
-      <c r="U25" s="155"/>
-      <c r="V25" s="155"/>
-      <c r="W25" s="155"/>
-      <c r="X25" s="155"/>
-      <c r="Y25" s="155"/>
-      <c r="Z25" s="155"/>
-      <c r="AA25" s="155"/>
-      <c r="AB25" s="155"/>
-      <c r="AC25" s="155"/>
-      <c r="AD25" s="155"/>
-      <c r="AE25" s="156"/>
-      <c r="AF25" s="151"/>
-      <c r="AG25" s="152"/>
-      <c r="AH25" s="152"/>
-      <c r="AI25" s="153"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="184"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="190"/>
+      <c r="L25" s="190"/>
+      <c r="M25" s="190"/>
+      <c r="N25" s="190"/>
+      <c r="O25" s="190"/>
+      <c r="P25" s="191"/>
+      <c r="Q25" s="192"/>
+      <c r="R25" s="193"/>
+      <c r="S25" s="193"/>
+      <c r="T25" s="193"/>
+      <c r="U25" s="193"/>
+      <c r="V25" s="193"/>
+      <c r="W25" s="193"/>
+      <c r="X25" s="193"/>
+      <c r="Y25" s="193"/>
+      <c r="Z25" s="193"/>
+      <c r="AA25" s="193"/>
+      <c r="AB25" s="193"/>
+      <c r="AC25" s="193"/>
+      <c r="AD25" s="193"/>
+      <c r="AE25" s="194"/>
+      <c r="AF25" s="189"/>
+      <c r="AG25" s="190"/>
+      <c r="AH25" s="190"/>
+      <c r="AI25" s="191"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="155"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="155"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="155"/>
-      <c r="AE26" s="156"/>
-      <c r="AF26" s="151"/>
-      <c r="AG26" s="152"/>
-      <c r="AH26" s="152"/>
-      <c r="AI26" s="153"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="184"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="190"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="190"/>
+      <c r="N26" s="190"/>
+      <c r="O26" s="190"/>
+      <c r="P26" s="191"/>
+      <c r="Q26" s="192"/>
+      <c r="R26" s="193"/>
+      <c r="S26" s="193"/>
+      <c r="T26" s="193"/>
+      <c r="U26" s="193"/>
+      <c r="V26" s="193"/>
+      <c r="W26" s="193"/>
+      <c r="X26" s="193"/>
+      <c r="Y26" s="193"/>
+      <c r="Z26" s="193"/>
+      <c r="AA26" s="193"/>
+      <c r="AB26" s="193"/>
+      <c r="AC26" s="193"/>
+      <c r="AD26" s="193"/>
+      <c r="AE26" s="194"/>
+      <c r="AF26" s="189"/>
+      <c r="AG26" s="190"/>
+      <c r="AH26" s="190"/>
+      <c r="AI26" s="191"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="152"/>
-      <c r="O27" s="152"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="155"/>
-      <c r="AC27" s="155"/>
-      <c r="AD27" s="155"/>
-      <c r="AE27" s="156"/>
-      <c r="AF27" s="151"/>
-      <c r="AG27" s="152"/>
-      <c r="AH27" s="152"/>
-      <c r="AI27" s="153"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="188"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="190"/>
+      <c r="L27" s="190"/>
+      <c r="M27" s="190"/>
+      <c r="N27" s="190"/>
+      <c r="O27" s="190"/>
+      <c r="P27" s="191"/>
+      <c r="Q27" s="192"/>
+      <c r="R27" s="193"/>
+      <c r="S27" s="193"/>
+      <c r="T27" s="193"/>
+      <c r="U27" s="193"/>
+      <c r="V27" s="193"/>
+      <c r="W27" s="193"/>
+      <c r="X27" s="193"/>
+      <c r="Y27" s="193"/>
+      <c r="Z27" s="193"/>
+      <c r="AA27" s="193"/>
+      <c r="AB27" s="193"/>
+      <c r="AC27" s="193"/>
+      <c r="AD27" s="193"/>
+      <c r="AE27" s="194"/>
+      <c r="AF27" s="189"/>
+      <c r="AG27" s="190"/>
+      <c r="AH27" s="190"/>
+      <c r="AI27" s="191"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="156"/>
-      <c r="AF28" s="151"/>
-      <c r="AG28" s="152"/>
-      <c r="AH28" s="152"/>
-      <c r="AI28" s="153"/>
+      <c r="B28" s="183"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="190"/>
+      <c r="L28" s="190"/>
+      <c r="M28" s="190"/>
+      <c r="N28" s="190"/>
+      <c r="O28" s="190"/>
+      <c r="P28" s="191"/>
+      <c r="Q28" s="192"/>
+      <c r="R28" s="193"/>
+      <c r="S28" s="193"/>
+      <c r="T28" s="193"/>
+      <c r="U28" s="193"/>
+      <c r="V28" s="193"/>
+      <c r="W28" s="193"/>
+      <c r="X28" s="193"/>
+      <c r="Y28" s="193"/>
+      <c r="Z28" s="193"/>
+      <c r="AA28" s="193"/>
+      <c r="AB28" s="193"/>
+      <c r="AC28" s="193"/>
+      <c r="AD28" s="193"/>
+      <c r="AE28" s="194"/>
+      <c r="AF28" s="189"/>
+      <c r="AG28" s="190"/>
+      <c r="AH28" s="190"/>
+      <c r="AI28" s="191"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="152"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="152"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="155"/>
-      <c r="S29" s="155"/>
-      <c r="T29" s="155"/>
-      <c r="U29" s="155"/>
-      <c r="V29" s="155"/>
-      <c r="W29" s="155"/>
-      <c r="X29" s="155"/>
-      <c r="Y29" s="155"/>
-      <c r="Z29" s="155"/>
-      <c r="AA29" s="155"/>
-      <c r="AB29" s="155"/>
-      <c r="AC29" s="155"/>
-      <c r="AD29" s="155"/>
-      <c r="AE29" s="156"/>
-      <c r="AF29" s="151"/>
-      <c r="AG29" s="152"/>
-      <c r="AH29" s="152"/>
-      <c r="AI29" s="153"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="187"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="188"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="190"/>
+      <c r="L29" s="190"/>
+      <c r="M29" s="190"/>
+      <c r="N29" s="190"/>
+      <c r="O29" s="190"/>
+      <c r="P29" s="191"/>
+      <c r="Q29" s="192"/>
+      <c r="R29" s="193"/>
+      <c r="S29" s="193"/>
+      <c r="T29" s="193"/>
+      <c r="U29" s="193"/>
+      <c r="V29" s="193"/>
+      <c r="W29" s="193"/>
+      <c r="X29" s="193"/>
+      <c r="Y29" s="193"/>
+      <c r="Z29" s="193"/>
+      <c r="AA29" s="193"/>
+      <c r="AB29" s="193"/>
+      <c r="AC29" s="193"/>
+      <c r="AD29" s="193"/>
+      <c r="AE29" s="194"/>
+      <c r="AF29" s="189"/>
+      <c r="AG29" s="190"/>
+      <c r="AH29" s="190"/>
+      <c r="AI29" s="191"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="154"/>
-      <c r="R30" s="155"/>
-      <c r="S30" s="155"/>
-      <c r="T30" s="155"/>
-      <c r="U30" s="155"/>
-      <c r="V30" s="155"/>
-      <c r="W30" s="155"/>
-      <c r="X30" s="155"/>
-      <c r="Y30" s="155"/>
-      <c r="Z30" s="155"/>
-      <c r="AA30" s="155"/>
-      <c r="AB30" s="155"/>
-      <c r="AC30" s="155"/>
-      <c r="AD30" s="155"/>
-      <c r="AE30" s="156"/>
-      <c r="AF30" s="151"/>
-      <c r="AG30" s="152"/>
-      <c r="AH30" s="152"/>
-      <c r="AI30" s="153"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="190"/>
+      <c r="L30" s="190"/>
+      <c r="M30" s="190"/>
+      <c r="N30" s="190"/>
+      <c r="O30" s="190"/>
+      <c r="P30" s="191"/>
+      <c r="Q30" s="192"/>
+      <c r="R30" s="193"/>
+      <c r="S30" s="193"/>
+      <c r="T30" s="193"/>
+      <c r="U30" s="193"/>
+      <c r="V30" s="193"/>
+      <c r="W30" s="193"/>
+      <c r="X30" s="193"/>
+      <c r="Y30" s="193"/>
+      <c r="Z30" s="193"/>
+      <c r="AA30" s="193"/>
+      <c r="AB30" s="193"/>
+      <c r="AC30" s="193"/>
+      <c r="AD30" s="193"/>
+      <c r="AE30" s="194"/>
+      <c r="AF30" s="189"/>
+      <c r="AG30" s="190"/>
+      <c r="AH30" s="190"/>
+      <c r="AI30" s="191"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="152"/>
-      <c r="L31" s="152"/>
-      <c r="M31" s="152"/>
-      <c r="N31" s="152"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="154"/>
-      <c r="R31" s="155"/>
-      <c r="S31" s="155"/>
-      <c r="T31" s="155"/>
-      <c r="U31" s="155"/>
-      <c r="V31" s="155"/>
-      <c r="W31" s="155"/>
-      <c r="X31" s="155"/>
-      <c r="Y31" s="155"/>
-      <c r="Z31" s="155"/>
-      <c r="AA31" s="155"/>
-      <c r="AB31" s="155"/>
-      <c r="AC31" s="155"/>
-      <c r="AD31" s="155"/>
-      <c r="AE31" s="156"/>
-      <c r="AF31" s="151"/>
-      <c r="AG31" s="152"/>
-      <c r="AH31" s="152"/>
-      <c r="AI31" s="153"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="185"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="190"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="190"/>
+      <c r="N31" s="190"/>
+      <c r="O31" s="190"/>
+      <c r="P31" s="191"/>
+      <c r="Q31" s="192"/>
+      <c r="R31" s="193"/>
+      <c r="S31" s="193"/>
+      <c r="T31" s="193"/>
+      <c r="U31" s="193"/>
+      <c r="V31" s="193"/>
+      <c r="W31" s="193"/>
+      <c r="X31" s="193"/>
+      <c r="Y31" s="193"/>
+      <c r="Z31" s="193"/>
+      <c r="AA31" s="193"/>
+      <c r="AB31" s="193"/>
+      <c r="AC31" s="193"/>
+      <c r="AD31" s="193"/>
+      <c r="AE31" s="194"/>
+      <c r="AF31" s="189"/>
+      <c r="AG31" s="190"/>
+      <c r="AH31" s="190"/>
+      <c r="AI31" s="191"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="152"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="154"/>
-      <c r="R32" s="155"/>
-      <c r="S32" s="155"/>
-      <c r="T32" s="155"/>
-      <c r="U32" s="155"/>
-      <c r="V32" s="155"/>
-      <c r="W32" s="155"/>
-      <c r="X32" s="155"/>
-      <c r="Y32" s="155"/>
-      <c r="Z32" s="155"/>
-      <c r="AA32" s="155"/>
-      <c r="AB32" s="155"/>
-      <c r="AC32" s="155"/>
-      <c r="AD32" s="155"/>
-      <c r="AE32" s="156"/>
-      <c r="AF32" s="151"/>
-      <c r="AG32" s="152"/>
-      <c r="AH32" s="152"/>
-      <c r="AI32" s="153"/>
+      <c r="B32" s="183"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="185"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="189"/>
+      <c r="K32" s="204"/>
+      <c r="L32" s="190"/>
+      <c r="M32" s="190"/>
+      <c r="N32" s="190"/>
+      <c r="O32" s="190"/>
+      <c r="P32" s="191"/>
+      <c r="Q32" s="192"/>
+      <c r="R32" s="193"/>
+      <c r="S32" s="193"/>
+      <c r="T32" s="193"/>
+      <c r="U32" s="193"/>
+      <c r="V32" s="193"/>
+      <c r="W32" s="193"/>
+      <c r="X32" s="193"/>
+      <c r="Y32" s="193"/>
+      <c r="Z32" s="193"/>
+      <c r="AA32" s="193"/>
+      <c r="AB32" s="193"/>
+      <c r="AC32" s="193"/>
+      <c r="AD32" s="193"/>
+      <c r="AE32" s="194"/>
+      <c r="AF32" s="189"/>
+      <c r="AG32" s="190"/>
+      <c r="AH32" s="190"/>
+      <c r="AI32" s="191"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="152"/>
-      <c r="N33" s="152"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="153"/>
-      <c r="Q33" s="154"/>
-      <c r="R33" s="155"/>
-      <c r="S33" s="155"/>
-      <c r="T33" s="155"/>
-      <c r="U33" s="155"/>
-      <c r="V33" s="155"/>
-      <c r="W33" s="155"/>
-      <c r="X33" s="155"/>
-      <c r="Y33" s="155"/>
-      <c r="Z33" s="155"/>
-      <c r="AA33" s="155"/>
-      <c r="AB33" s="155"/>
-      <c r="AC33" s="155"/>
-      <c r="AD33" s="155"/>
-      <c r="AE33" s="156"/>
-      <c r="AF33" s="151"/>
-      <c r="AG33" s="152"/>
-      <c r="AH33" s="152"/>
-      <c r="AI33" s="153"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="184"/>
+      <c r="D33" s="185"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="190"/>
+      <c r="L33" s="190"/>
+      <c r="M33" s="190"/>
+      <c r="N33" s="190"/>
+      <c r="O33" s="190"/>
+      <c r="P33" s="191"/>
+      <c r="Q33" s="192"/>
+      <c r="R33" s="193"/>
+      <c r="S33" s="193"/>
+      <c r="T33" s="193"/>
+      <c r="U33" s="193"/>
+      <c r="V33" s="193"/>
+      <c r="W33" s="193"/>
+      <c r="X33" s="193"/>
+      <c r="Y33" s="193"/>
+      <c r="Z33" s="193"/>
+      <c r="AA33" s="193"/>
+      <c r="AB33" s="193"/>
+      <c r="AC33" s="193"/>
+      <c r="AD33" s="193"/>
+      <c r="AE33" s="194"/>
+      <c r="AF33" s="189"/>
+      <c r="AG33" s="190"/>
+      <c r="AH33" s="190"/>
+      <c r="AI33" s="191"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -11971,161 +12132,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -15879,7 +15885,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="203" t="s">
+      <c r="B112" s="205" t="s">
         <v>196</v>
       </c>
       <c r="C112" s="48"/>
@@ -15915,7 +15921,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="203"/>
+      <c r="B113" s="205"/>
       <c r="C113" s="48"/>
       <c r="D113" s="117"/>
       <c r="E113" s="60"/>
@@ -16587,7 +16593,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="203" t="s">
+      <c r="B132" s="205" t="s">
         <v>224</v>
       </c>
       <c r="C132" s="48"/>
@@ -16623,7 +16629,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="203"/>
+      <c r="B133" s="205"/>
       <c r="C133" s="48"/>
       <c r="D133" s="117"/>
       <c r="E133" s="117"/>
@@ -24171,7 +24177,7 @@
       <c r="B55" s="70"/>
       <c r="C55" s="70"/>
       <c r="D55" s="70"/>
-      <c r="E55" s="205" t="s">
+      <c r="E55" s="144" t="s">
         <v>103</v>
       </c>
       <c r="F55" s="115" t="s">
@@ -24187,7 +24193,7 @@
       <c r="J55" s="79" t="s">
         <v>572</v>
       </c>
-      <c r="K55" s="206" t="s">
+      <c r="K55" s="145" t="s">
         <v>573</v>
       </c>
       <c r="L55" s="108"/>
@@ -24228,7 +24234,7 @@
       <c r="J56" s="79" t="s">
         <v>574</v>
       </c>
-      <c r="K56" s="206" t="s">
+      <c r="K56" s="145" t="s">
         <v>575</v>
       </c>
       <c r="L56" s="108"/>
@@ -24255,32 +24261,32 @@
       <c r="B57" s="70"/>
       <c r="C57" s="70"/>
       <c r="D57" s="70"/>
-      <c r="E57" s="73" t="s">
+      <c r="E57" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="F57" s="68" t="s">
+      <c r="F57" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="G57" s="57"/>
-      <c r="H57" s="106" t="s">
+      <c r="G57" s="107"/>
+      <c r="H57" s="207" t="s">
         <v>570</v>
       </c>
-      <c r="I57" s="106" t="s">
+      <c r="I57" s="207" t="s">
         <v>571</v>
       </c>
-      <c r="J57" s="79" t="s">
+      <c r="J57" s="112" t="s">
         <v>576</v>
       </c>
-      <c r="K57" s="206" t="s">
+      <c r="K57" s="208" t="s">
         <v>577</v>
       </c>
-      <c r="L57" s="58"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="58"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="58"/>
-      <c r="Q57" s="69"/>
-      <c r="R57" s="57"/>
+      <c r="L57" s="108"/>
+      <c r="M57" s="108"/>
+      <c r="N57" s="108"/>
+      <c r="O57" s="108"/>
+      <c r="P57" s="108"/>
+      <c r="Q57" s="114"/>
+      <c r="R57" s="107"/>
     </row>
     <row r="58" spans="1:18" ht="56.25">
       <c r="A58" s="40" t="str" cm="1">
@@ -24298,30 +24304,30 @@
       <c r="B58" s="70"/>
       <c r="C58" s="70"/>
       <c r="D58" s="70"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="68" t="s">
+      <c r="E58" s="144"/>
+      <c r="F58" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="G58" s="57"/>
-      <c r="H58" s="106" t="s">
+      <c r="G58" s="107"/>
+      <c r="H58" s="207" t="s">
         <v>570</v>
       </c>
-      <c r="I58" s="106" t="s">
+      <c r="I58" s="207" t="s">
         <v>571</v>
       </c>
-      <c r="J58" s="79" t="s">
+      <c r="J58" s="112" t="s">
         <v>578</v>
       </c>
-      <c r="K58" s="206" t="s">
+      <c r="K58" s="208" t="s">
         <v>575</v>
       </c>
-      <c r="L58" s="58"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="58"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="58"/>
-      <c r="Q58" s="69"/>
-      <c r="R58" s="57"/>
+      <c r="L58" s="108"/>
+      <c r="M58" s="108"/>
+      <c r="N58" s="108"/>
+      <c r="O58" s="108"/>
+      <c r="P58" s="108"/>
+      <c r="Q58" s="114"/>
+      <c r="R58" s="107"/>
     </row>
     <row r="59" spans="1:18" ht="22.5">
       <c r="A59" s="40" t="str" cm="1">
@@ -24339,7 +24345,7 @@
       <c r="B59" s="70"/>
       <c r="C59" s="70"/>
       <c r="D59" s="70"/>
-      <c r="E59" s="73"/>
+      <c r="E59" s="144"/>
       <c r="F59" s="68" t="s">
         <v>109</v>
       </c>
@@ -24374,7 +24380,7 @@
       <c r="B60" s="70"/>
       <c r="C60" s="70"/>
       <c r="D60" s="70"/>
-      <c r="E60" s="73"/>
+      <c r="E60" s="144"/>
       <c r="F60" s="68" t="s">
         <v>110</v>
       </c>
@@ -24409,7 +24415,7 @@
       <c r="B61" s="70"/>
       <c r="C61" s="70"/>
       <c r="D61" s="70"/>
-      <c r="E61" s="73"/>
+      <c r="E61" s="144"/>
       <c r="F61" s="68" t="s">
         <v>111</v>
       </c>
@@ -24444,7 +24450,7 @@
       <c r="B62" s="70"/>
       <c r="C62" s="70"/>
       <c r="D62" s="70"/>
-      <c r="E62" s="72"/>
+      <c r="E62" s="116"/>
       <c r="F62" s="68" t="s">
         <v>112</v>
       </c>
@@ -25290,7 +25296,7 @@
       <c r="J85" s="79" t="s">
         <v>576</v>
       </c>
-      <c r="K85" s="206" t="s">
+      <c r="K85" s="145" t="s">
         <v>577</v>
       </c>
       <c r="L85" s="108"/>
@@ -25328,7 +25334,7 @@
       <c r="J86" s="79" t="s">
         <v>572</v>
       </c>
-      <c r="K86" s="206" t="s">
+      <c r="K86" s="145" t="s">
         <v>573</v>
       </c>
       <c r="L86" s="108"/>
@@ -25366,7 +25372,7 @@
       <c r="J87" s="79" t="s">
         <v>579</v>
       </c>
-      <c r="K87" s="206" t="s">
+      <c r="K87" s="145" t="s">
         <v>580</v>
       </c>
       <c r="L87" s="108"/>
@@ -25404,7 +25410,7 @@
       <c r="J88" s="79" t="s">
         <v>581</v>
       </c>
-      <c r="K88" s="206" t="s">
+      <c r="K88" s="145" t="s">
         <v>582</v>
       </c>
       <c r="L88" s="108"/>
@@ -26753,7 +26759,7 @@
 )</f>
         <v>45-2-1</v>
       </c>
-      <c r="B124" s="204" t="s">
+      <c r="B124" s="206" t="s">
         <v>443</v>
       </c>
       <c r="C124" s="73"/>
@@ -26790,7 +26796,7 @@
 )</f>
         <v>45-3-1</v>
       </c>
-      <c r="B125" s="204"/>
+      <c r="B125" s="206"/>
       <c r="C125" s="73"/>
       <c r="D125" s="67"/>
       <c r="E125" s="85"/>
@@ -27481,7 +27487,7 @@
 )</f>
         <v>52-2-1</v>
       </c>
-      <c r="B144" s="204" t="s">
+      <c r="B144" s="206" t="s">
         <v>224</v>
       </c>
       <c r="C144" s="73"/>
@@ -27518,7 +27524,7 @@
 )</f>
         <v>52-3-1</v>
       </c>
-      <c r="B145" s="204"/>
+      <c r="B145" s="206"/>
       <c r="C145" s="73"/>
       <c r="D145" s="67"/>
       <c r="E145" s="73"/>

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10101_顧客検索.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10101_顧客検索.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3081043D-8878-4D30-99BD-821C5C487AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB349F25-0154-4B53-B8F9-4FE1485BFBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="612">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -5930,17 +5930,6 @@
     <rPh sb="14" eb="16">
       <t>タンタイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テストデータシート名</t>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データNo</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -6751,10 +6740,6 @@
       <t>ニホ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下のリクエストを送信する。
-・「顧客名」："invalid parameter"</t>
   </si>
   <si>
     <t>以下のレスポンスが返される。
@@ -8130,6 +8115,97 @@
     <rPh sb="40" eb="42">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientServiceTest#testFindClientForSearchResultUpperLimitError()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientServiceTest#testFindClient()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>以下のリクエストを送信する。
+・「顧客名」："invalid parameter"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientSearchFormInvalidClientName()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindAll()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindByClientName()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindByIndustryCode()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindNoClients()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindClientNameNoClients()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindIndustryCodeNoClients()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindIndustryCodeNoClients()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindByIndustryCodeAndClientName()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindIndustryCodeAndClientNameNoClients()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindOverUpperLimit()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindByClientName()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindCodeAndName1000()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientSearchForm()</t>
+  </si>
+  <si>
+    <t>テストデータシート名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>testFindNoClients</t>
+  </si>
+  <si>
+    <t>testFindIndustryCodeNoClients</t>
+  </si>
+  <si>
+    <t>testFindIndustryCodeNoClients</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>testFindIndustryCodeAndClientNa</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>testFindCodeAndName1000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>testFindOverUpperLimit</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -8722,7 +8798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -9137,8 +9213,113 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -9248,113 +9429,11 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -10290,12 +10369,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="148" t="str">
+      <c r="I25" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -10855,57 +10934,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="158" t="s">
-        <v>462</v>
-      </c>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="164" t="s">
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="193" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="173" t="s">
-        <v>496</v>
-      </c>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="155" t="s">
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="208" t="s">
+        <v>494</v>
+      </c>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="182" t="str">
+      <c r="AB1" s="192"/>
+      <c r="AC1" s="217" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="184"/>
-      <c r="AG1" s="149" t="str">
+      <c r="AD1" s="218"/>
+      <c r="AE1" s="218"/>
+      <c r="AF1" s="219"/>
+      <c r="AG1" s="184" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="185"/>
+      <c r="AI1" s="186"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10913,53 +10992,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="158" t="s">
-        <v>463</v>
-      </c>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="155" t="s">
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="193" t="s">
+        <v>461</v>
+      </c>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="161" t="str">
+      <c r="AB2" s="192"/>
+      <c r="AC2" s="196" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="149" t="str">
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="184" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="186"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10967,45 +11046,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158" t="s">
-        <v>464</v>
-      </c>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="179"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="182"/>
-      <c r="AD3" s="183"/>
-      <c r="AE3" s="183"/>
-      <c r="AF3" s="184"/>
-      <c r="AG3" s="149"/>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="193" t="s">
+        <v>462</v>
+      </c>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="192"/>
+      <c r="AC3" s="217"/>
+      <c r="AD3" s="218"/>
+      <c r="AE3" s="218"/>
+      <c r="AF3" s="219"/>
+      <c r="AG3" s="184"/>
+      <c r="AH3" s="185"/>
+      <c r="AI3" s="186"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -11042,85 +11121,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="152" t="s">
+      <c r="C7" s="188"/>
+      <c r="D7" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="154"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="152" t="s">
+      <c r="E7" s="189"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="154"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="152" t="s">
+      <c r="H7" s="189"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="154"/>
-      <c r="L7" s="154"/>
-      <c r="M7" s="154"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="152" t="s">
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="154"/>
-      <c r="S7" s="154"/>
-      <c r="T7" s="154"/>
-      <c r="U7" s="154"/>
-      <c r="V7" s="154"/>
-      <c r="W7" s="154"/>
-      <c r="X7" s="154"/>
-      <c r="Y7" s="154"/>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="154"/>
-      <c r="AB7" s="154"/>
-      <c r="AC7" s="154"/>
-      <c r="AD7" s="154"/>
-      <c r="AE7" s="153"/>
-      <c r="AF7" s="152" t="s">
+      <c r="R7" s="189"/>
+      <c r="S7" s="189"/>
+      <c r="T7" s="189"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="189"/>
+      <c r="W7" s="189"/>
+      <c r="X7" s="189"/>
+      <c r="Y7" s="189"/>
+      <c r="Z7" s="189"/>
+      <c r="AA7" s="189"/>
+      <c r="AB7" s="189"/>
+      <c r="AC7" s="189"/>
+      <c r="AD7" s="189"/>
+      <c r="AE7" s="188"/>
+      <c r="AF7" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="154"/>
-      <c r="AH7" s="154"/>
-      <c r="AI7" s="153"/>
+      <c r="AG7" s="189"/>
+      <c r="AH7" s="189"/>
+      <c r="AI7" s="188"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="204"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="204"/>
-      <c r="P8" s="205"/>
-      <c r="Q8" s="203"/>
-      <c r="R8" s="204"/>
-      <c r="S8" s="204"/>
-      <c r="T8" s="204"/>
-      <c r="U8" s="204"/>
-      <c r="V8" s="204"/>
-      <c r="W8" s="204"/>
-      <c r="X8" s="204"/>
-      <c r="Y8" s="204"/>
-      <c r="Z8" s="204"/>
-      <c r="AA8" s="204"/>
-      <c r="AB8" s="204"/>
-      <c r="AC8" s="204"/>
-      <c r="AD8" s="204"/>
-      <c r="AE8" s="205"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="182"/>
+      <c r="M8" s="182"/>
+      <c r="N8" s="182"/>
+      <c r="O8" s="182"/>
+      <c r="P8" s="183"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="182"/>
+      <c r="S8" s="182"/>
+      <c r="T8" s="182"/>
+      <c r="U8" s="182"/>
+      <c r="V8" s="182"/>
+      <c r="W8" s="182"/>
+      <c r="X8" s="182"/>
+      <c r="Y8" s="182"/>
+      <c r="Z8" s="182"/>
+      <c r="AA8" s="182"/>
+      <c r="AB8" s="182"/>
+      <c r="AC8" s="182"/>
+      <c r="AD8" s="182"/>
+      <c r="AE8" s="183"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -11128,1089 +11207,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="185"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="192"/>
-      <c r="N9" s="192"/>
-      <c r="O9" s="192"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="194"/>
-      <c r="R9" s="195"/>
-      <c r="S9" s="195"/>
-      <c r="T9" s="195"/>
-      <c r="U9" s="195"/>
-      <c r="V9" s="195"/>
-      <c r="W9" s="195"/>
-      <c r="X9" s="195"/>
-      <c r="Y9" s="195"/>
-      <c r="Z9" s="195"/>
-      <c r="AA9" s="195"/>
-      <c r="AB9" s="195"/>
-      <c r="AC9" s="195"/>
-      <c r="AD9" s="195"/>
-      <c r="AE9" s="196"/>
-      <c r="AF9" s="191"/>
-      <c r="AG9" s="192"/>
-      <c r="AH9" s="192"/>
-      <c r="AI9" s="193"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="169"/>
+      <c r="N9" s="169"/>
+      <c r="O9" s="169"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="171"/>
+      <c r="R9" s="172"/>
+      <c r="S9" s="172"/>
+      <c r="T9" s="172"/>
+      <c r="U9" s="172"/>
+      <c r="V9" s="172"/>
+      <c r="W9" s="172"/>
+      <c r="X9" s="172"/>
+      <c r="Y9" s="172"/>
+      <c r="Z9" s="172"/>
+      <c r="AA9" s="172"/>
+      <c r="AB9" s="172"/>
+      <c r="AC9" s="172"/>
+      <c r="AD9" s="172"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="168"/>
+      <c r="AG9" s="169"/>
+      <c r="AH9" s="169"/>
+      <c r="AI9" s="170"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="185"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="192"/>
-      <c r="M10" s="192"/>
-      <c r="N10" s="192"/>
-      <c r="O10" s="192"/>
-      <c r="P10" s="193"/>
-      <c r="Q10" s="194"/>
-      <c r="R10" s="195"/>
-      <c r="S10" s="195"/>
-      <c r="T10" s="195"/>
-      <c r="U10" s="195"/>
-      <c r="V10" s="195"/>
-      <c r="W10" s="195"/>
-      <c r="X10" s="195"/>
-      <c r="Y10" s="195"/>
-      <c r="Z10" s="195"/>
-      <c r="AA10" s="195"/>
-      <c r="AB10" s="195"/>
-      <c r="AC10" s="195"/>
-      <c r="AD10" s="195"/>
-      <c r="AE10" s="196"/>
-      <c r="AF10" s="191"/>
-      <c r="AG10" s="192"/>
-      <c r="AH10" s="192"/>
-      <c r="AI10" s="193"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="171"/>
+      <c r="R10" s="172"/>
+      <c r="S10" s="172"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="172"/>
+      <c r="V10" s="172"/>
+      <c r="W10" s="172"/>
+      <c r="X10" s="172"/>
+      <c r="Y10" s="172"/>
+      <c r="Z10" s="172"/>
+      <c r="AA10" s="172"/>
+      <c r="AB10" s="172"/>
+      <c r="AC10" s="172"/>
+      <c r="AD10" s="172"/>
+      <c r="AE10" s="173"/>
+      <c r="AF10" s="168"/>
+      <c r="AG10" s="169"/>
+      <c r="AH10" s="169"/>
+      <c r="AI10" s="170"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="185"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="191"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="192"/>
-      <c r="N11" s="192"/>
-      <c r="O11" s="192"/>
-      <c r="P11" s="193"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="195"/>
-      <c r="S11" s="195"/>
-      <c r="T11" s="195"/>
-      <c r="U11" s="195"/>
-      <c r="V11" s="195"/>
-      <c r="W11" s="195"/>
-      <c r="X11" s="195"/>
-      <c r="Y11" s="195"/>
-      <c r="Z11" s="195"/>
-      <c r="AA11" s="195"/>
-      <c r="AB11" s="195"/>
-      <c r="AC11" s="195"/>
-      <c r="AD11" s="195"/>
-      <c r="AE11" s="196"/>
-      <c r="AF11" s="191"/>
-      <c r="AG11" s="192"/>
-      <c r="AH11" s="192"/>
-      <c r="AI11" s="193"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="169"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="171"/>
+      <c r="R11" s="172"/>
+      <c r="S11" s="172"/>
+      <c r="T11" s="172"/>
+      <c r="U11" s="172"/>
+      <c r="V11" s="172"/>
+      <c r="W11" s="172"/>
+      <c r="X11" s="172"/>
+      <c r="Y11" s="172"/>
+      <c r="Z11" s="172"/>
+      <c r="AA11" s="172"/>
+      <c r="AB11" s="172"/>
+      <c r="AC11" s="172"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="168"/>
+      <c r="AG11" s="169"/>
+      <c r="AH11" s="169"/>
+      <c r="AI11" s="170"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="185"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="191"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="192"/>
-      <c r="N12" s="192"/>
-      <c r="O12" s="192"/>
-      <c r="P12" s="193"/>
-      <c r="Q12" s="194"/>
-      <c r="R12" s="195"/>
-      <c r="S12" s="195"/>
-      <c r="T12" s="195"/>
-      <c r="U12" s="195"/>
-      <c r="V12" s="195"/>
-      <c r="W12" s="195"/>
-      <c r="X12" s="195"/>
-      <c r="Y12" s="195"/>
-      <c r="Z12" s="195"/>
-      <c r="AA12" s="195"/>
-      <c r="AB12" s="195"/>
-      <c r="AC12" s="195"/>
-      <c r="AD12" s="195"/>
-      <c r="AE12" s="196"/>
-      <c r="AF12" s="191"/>
-      <c r="AG12" s="192"/>
-      <c r="AH12" s="192"/>
-      <c r="AI12" s="193"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="171"/>
+      <c r="R12" s="172"/>
+      <c r="S12" s="172"/>
+      <c r="T12" s="172"/>
+      <c r="U12" s="172"/>
+      <c r="V12" s="172"/>
+      <c r="W12" s="172"/>
+      <c r="X12" s="172"/>
+      <c r="Y12" s="172"/>
+      <c r="Z12" s="172"/>
+      <c r="AA12" s="172"/>
+      <c r="AB12" s="172"/>
+      <c r="AC12" s="172"/>
+      <c r="AD12" s="172"/>
+      <c r="AE12" s="173"/>
+      <c r="AF12" s="168"/>
+      <c r="AG12" s="169"/>
+      <c r="AH12" s="169"/>
+      <c r="AI12" s="170"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="185"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="192"/>
-      <c r="N13" s="192"/>
-      <c r="O13" s="192"/>
-      <c r="P13" s="193"/>
-      <c r="Q13" s="194"/>
-      <c r="R13" s="195"/>
-      <c r="S13" s="195"/>
-      <c r="T13" s="195"/>
-      <c r="U13" s="195"/>
-      <c r="V13" s="195"/>
-      <c r="W13" s="195"/>
-      <c r="X13" s="195"/>
-      <c r="Y13" s="195"/>
-      <c r="Z13" s="195"/>
-      <c r="AA13" s="195"/>
-      <c r="AB13" s="195"/>
-      <c r="AC13" s="195"/>
-      <c r="AD13" s="195"/>
-      <c r="AE13" s="196"/>
-      <c r="AF13" s="191"/>
-      <c r="AG13" s="192"/>
-      <c r="AH13" s="192"/>
-      <c r="AI13" s="193"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="169"/>
+      <c r="L13" s="169"/>
+      <c r="M13" s="169"/>
+      <c r="N13" s="169"/>
+      <c r="O13" s="169"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="171"/>
+      <c r="R13" s="172"/>
+      <c r="S13" s="172"/>
+      <c r="T13" s="172"/>
+      <c r="U13" s="172"/>
+      <c r="V13" s="172"/>
+      <c r="W13" s="172"/>
+      <c r="X13" s="172"/>
+      <c r="Y13" s="172"/>
+      <c r="Z13" s="172"/>
+      <c r="AA13" s="172"/>
+      <c r="AB13" s="172"/>
+      <c r="AC13" s="172"/>
+      <c r="AD13" s="172"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="168"/>
+      <c r="AG13" s="169"/>
+      <c r="AH13" s="169"/>
+      <c r="AI13" s="170"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="185"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="192"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="192"/>
-      <c r="N14" s="192"/>
-      <c r="O14" s="192"/>
-      <c r="P14" s="193"/>
-      <c r="Q14" s="194"/>
-      <c r="R14" s="195"/>
-      <c r="S14" s="195"/>
-      <c r="T14" s="195"/>
-      <c r="U14" s="195"/>
-      <c r="V14" s="195"/>
-      <c r="W14" s="195"/>
-      <c r="X14" s="195"/>
-      <c r="Y14" s="195"/>
-      <c r="Z14" s="195"/>
-      <c r="AA14" s="195"/>
-      <c r="AB14" s="195"/>
-      <c r="AC14" s="195"/>
-      <c r="AD14" s="195"/>
-      <c r="AE14" s="196"/>
-      <c r="AF14" s="191"/>
-      <c r="AG14" s="192"/>
-      <c r="AH14" s="192"/>
-      <c r="AI14" s="193"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="169"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="171"/>
+      <c r="R14" s="172"/>
+      <c r="S14" s="172"/>
+      <c r="T14" s="172"/>
+      <c r="U14" s="172"/>
+      <c r="V14" s="172"/>
+      <c r="W14" s="172"/>
+      <c r="X14" s="172"/>
+      <c r="Y14" s="172"/>
+      <c r="Z14" s="172"/>
+      <c r="AA14" s="172"/>
+      <c r="AB14" s="172"/>
+      <c r="AC14" s="172"/>
+      <c r="AD14" s="172"/>
+      <c r="AE14" s="173"/>
+      <c r="AF14" s="168"/>
+      <c r="AG14" s="169"/>
+      <c r="AH14" s="169"/>
+      <c r="AI14" s="170"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="185"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="191"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="192"/>
-      <c r="O15" s="192"/>
-      <c r="P15" s="193"/>
-      <c r="Q15" s="194"/>
-      <c r="R15" s="195"/>
-      <c r="S15" s="195"/>
-      <c r="T15" s="195"/>
-      <c r="U15" s="195"/>
-      <c r="V15" s="195"/>
-      <c r="W15" s="195"/>
-      <c r="X15" s="195"/>
-      <c r="Y15" s="195"/>
-      <c r="Z15" s="195"/>
-      <c r="AA15" s="195"/>
-      <c r="AB15" s="195"/>
-      <c r="AC15" s="195"/>
-      <c r="AD15" s="195"/>
-      <c r="AE15" s="196"/>
-      <c r="AF15" s="191"/>
-      <c r="AG15" s="192"/>
-      <c r="AH15" s="192"/>
-      <c r="AI15" s="193"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="169"/>
+      <c r="M15" s="169"/>
+      <c r="N15" s="169"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="171"/>
+      <c r="R15" s="172"/>
+      <c r="S15" s="172"/>
+      <c r="T15" s="172"/>
+      <c r="U15" s="172"/>
+      <c r="V15" s="172"/>
+      <c r="W15" s="172"/>
+      <c r="X15" s="172"/>
+      <c r="Y15" s="172"/>
+      <c r="Z15" s="172"/>
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="172"/>
+      <c r="AC15" s="172"/>
+      <c r="AD15" s="172"/>
+      <c r="AE15" s="173"/>
+      <c r="AF15" s="168"/>
+      <c r="AG15" s="169"/>
+      <c r="AH15" s="169"/>
+      <c r="AI15" s="170"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="185"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="192"/>
-      <c r="M16" s="192"/>
-      <c r="N16" s="192"/>
-      <c r="O16" s="192"/>
-      <c r="P16" s="193"/>
-      <c r="Q16" s="194"/>
-      <c r="R16" s="195"/>
-      <c r="S16" s="195"/>
-      <c r="T16" s="195"/>
-      <c r="U16" s="195"/>
-      <c r="V16" s="195"/>
-      <c r="W16" s="195"/>
-      <c r="X16" s="195"/>
-      <c r="Y16" s="195"/>
-      <c r="Z16" s="195"/>
-      <c r="AA16" s="195"/>
-      <c r="AB16" s="195"/>
-      <c r="AC16" s="195"/>
-      <c r="AD16" s="195"/>
-      <c r="AE16" s="196"/>
-      <c r="AF16" s="191"/>
-      <c r="AG16" s="192"/>
-      <c r="AH16" s="192"/>
-      <c r="AI16" s="193"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="169"/>
+      <c r="M16" s="169"/>
+      <c r="N16" s="169"/>
+      <c r="O16" s="169"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="171"/>
+      <c r="R16" s="172"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="172"/>
+      <c r="U16" s="172"/>
+      <c r="V16" s="172"/>
+      <c r="W16" s="172"/>
+      <c r="X16" s="172"/>
+      <c r="Y16" s="172"/>
+      <c r="Z16" s="172"/>
+      <c r="AA16" s="172"/>
+      <c r="AB16" s="172"/>
+      <c r="AC16" s="172"/>
+      <c r="AD16" s="172"/>
+      <c r="AE16" s="173"/>
+      <c r="AF16" s="168"/>
+      <c r="AG16" s="169"/>
+      <c r="AH16" s="169"/>
+      <c r="AI16" s="170"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="185"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="191"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="192"/>
-      <c r="O17" s="192"/>
-      <c r="P17" s="193"/>
-      <c r="Q17" s="194"/>
-      <c r="R17" s="195"/>
-      <c r="S17" s="195"/>
-      <c r="T17" s="195"/>
-      <c r="U17" s="195"/>
-      <c r="V17" s="195"/>
-      <c r="W17" s="195"/>
-      <c r="X17" s="195"/>
-      <c r="Y17" s="195"/>
-      <c r="Z17" s="195"/>
-      <c r="AA17" s="195"/>
-      <c r="AB17" s="195"/>
-      <c r="AC17" s="195"/>
-      <c r="AD17" s="195"/>
-      <c r="AE17" s="196"/>
-      <c r="AF17" s="191"/>
-      <c r="AG17" s="192"/>
-      <c r="AH17" s="192"/>
-      <c r="AI17" s="193"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="169"/>
+      <c r="O17" s="169"/>
+      <c r="P17" s="170"/>
+      <c r="Q17" s="171"/>
+      <c r="R17" s="172"/>
+      <c r="S17" s="172"/>
+      <c r="T17" s="172"/>
+      <c r="U17" s="172"/>
+      <c r="V17" s="172"/>
+      <c r="W17" s="172"/>
+      <c r="X17" s="172"/>
+      <c r="Y17" s="172"/>
+      <c r="Z17" s="172"/>
+      <c r="AA17" s="172"/>
+      <c r="AB17" s="172"/>
+      <c r="AC17" s="172"/>
+      <c r="AD17" s="172"/>
+      <c r="AE17" s="173"/>
+      <c r="AF17" s="168"/>
+      <c r="AG17" s="169"/>
+      <c r="AH17" s="169"/>
+      <c r="AI17" s="170"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="185"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="191"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="192"/>
-      <c r="P18" s="193"/>
-      <c r="Q18" s="194"/>
-      <c r="R18" s="195"/>
-      <c r="S18" s="195"/>
-      <c r="T18" s="195"/>
-      <c r="U18" s="195"/>
-      <c r="V18" s="195"/>
-      <c r="W18" s="195"/>
-      <c r="X18" s="195"/>
-      <c r="Y18" s="195"/>
-      <c r="Z18" s="195"/>
-      <c r="AA18" s="195"/>
-      <c r="AB18" s="195"/>
-      <c r="AC18" s="195"/>
-      <c r="AD18" s="195"/>
-      <c r="AE18" s="196"/>
-      <c r="AF18" s="191"/>
-      <c r="AG18" s="192"/>
-      <c r="AH18" s="192"/>
-      <c r="AI18" s="193"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="169"/>
+      <c r="N18" s="169"/>
+      <c r="O18" s="169"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="171"/>
+      <c r="R18" s="172"/>
+      <c r="S18" s="172"/>
+      <c r="T18" s="172"/>
+      <c r="U18" s="172"/>
+      <c r="V18" s="172"/>
+      <c r="W18" s="172"/>
+      <c r="X18" s="172"/>
+      <c r="Y18" s="172"/>
+      <c r="Z18" s="172"/>
+      <c r="AA18" s="172"/>
+      <c r="AB18" s="172"/>
+      <c r="AC18" s="172"/>
+      <c r="AD18" s="172"/>
+      <c r="AE18" s="173"/>
+      <c r="AF18" s="168"/>
+      <c r="AG18" s="169"/>
+      <c r="AH18" s="169"/>
+      <c r="AI18" s="170"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="185"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="189"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="191"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="192"/>
-      <c r="M19" s="192"/>
-      <c r="N19" s="192"/>
-      <c r="O19" s="192"/>
-      <c r="P19" s="193"/>
-      <c r="Q19" s="194"/>
-      <c r="R19" s="195"/>
-      <c r="S19" s="195"/>
-      <c r="T19" s="195"/>
-      <c r="U19" s="195"/>
-      <c r="V19" s="195"/>
-      <c r="W19" s="195"/>
-      <c r="X19" s="195"/>
-      <c r="Y19" s="195"/>
-      <c r="Z19" s="195"/>
-      <c r="AA19" s="195"/>
-      <c r="AB19" s="195"/>
-      <c r="AC19" s="195"/>
-      <c r="AD19" s="195"/>
-      <c r="AE19" s="196"/>
-      <c r="AF19" s="191"/>
-      <c r="AG19" s="192"/>
-      <c r="AH19" s="192"/>
-      <c r="AI19" s="193"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="168"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="169"/>
+      <c r="M19" s="169"/>
+      <c r="N19" s="169"/>
+      <c r="O19" s="169"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="171"/>
+      <c r="R19" s="172"/>
+      <c r="S19" s="172"/>
+      <c r="T19" s="172"/>
+      <c r="U19" s="172"/>
+      <c r="V19" s="172"/>
+      <c r="W19" s="172"/>
+      <c r="X19" s="172"/>
+      <c r="Y19" s="172"/>
+      <c r="Z19" s="172"/>
+      <c r="AA19" s="172"/>
+      <c r="AB19" s="172"/>
+      <c r="AC19" s="172"/>
+      <c r="AD19" s="172"/>
+      <c r="AE19" s="173"/>
+      <c r="AF19" s="168"/>
+      <c r="AG19" s="169"/>
+      <c r="AH19" s="169"/>
+      <c r="AI19" s="170"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="185"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="189"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="191"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="192"/>
-      <c r="M20" s="192"/>
-      <c r="N20" s="192"/>
-      <c r="O20" s="192"/>
-      <c r="P20" s="193"/>
-      <c r="Q20" s="194"/>
-      <c r="R20" s="195"/>
-      <c r="S20" s="195"/>
-      <c r="T20" s="195"/>
-      <c r="U20" s="195"/>
-      <c r="V20" s="195"/>
-      <c r="W20" s="195"/>
-      <c r="X20" s="195"/>
-      <c r="Y20" s="195"/>
-      <c r="Z20" s="195"/>
-      <c r="AA20" s="195"/>
-      <c r="AB20" s="195"/>
-      <c r="AC20" s="195"/>
-      <c r="AD20" s="195"/>
-      <c r="AE20" s="196"/>
-      <c r="AF20" s="191"/>
-      <c r="AG20" s="192"/>
-      <c r="AH20" s="192"/>
-      <c r="AI20" s="193"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="169"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="169"/>
+      <c r="O20" s="169"/>
+      <c r="P20" s="170"/>
+      <c r="Q20" s="171"/>
+      <c r="R20" s="172"/>
+      <c r="S20" s="172"/>
+      <c r="T20" s="172"/>
+      <c r="U20" s="172"/>
+      <c r="V20" s="172"/>
+      <c r="W20" s="172"/>
+      <c r="X20" s="172"/>
+      <c r="Y20" s="172"/>
+      <c r="Z20" s="172"/>
+      <c r="AA20" s="172"/>
+      <c r="AB20" s="172"/>
+      <c r="AC20" s="172"/>
+      <c r="AD20" s="172"/>
+      <c r="AE20" s="173"/>
+      <c r="AF20" s="168"/>
+      <c r="AG20" s="169"/>
+      <c r="AH20" s="169"/>
+      <c r="AI20" s="170"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="185"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="187"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="191"/>
-      <c r="K21" s="192"/>
-      <c r="L21" s="192"/>
-      <c r="M21" s="192"/>
-      <c r="N21" s="192"/>
-      <c r="O21" s="192"/>
-      <c r="P21" s="193"/>
-      <c r="Q21" s="194"/>
-      <c r="R21" s="195"/>
-      <c r="S21" s="195"/>
-      <c r="T21" s="195"/>
-      <c r="U21" s="195"/>
-      <c r="V21" s="195"/>
-      <c r="W21" s="195"/>
-      <c r="X21" s="195"/>
-      <c r="Y21" s="195"/>
-      <c r="Z21" s="195"/>
-      <c r="AA21" s="195"/>
-      <c r="AB21" s="195"/>
-      <c r="AC21" s="195"/>
-      <c r="AD21" s="195"/>
-      <c r="AE21" s="196"/>
-      <c r="AF21" s="191"/>
-      <c r="AG21" s="192"/>
-      <c r="AH21" s="192"/>
-      <c r="AI21" s="193"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="169"/>
+      <c r="M21" s="169"/>
+      <c r="N21" s="169"/>
+      <c r="O21" s="169"/>
+      <c r="P21" s="170"/>
+      <c r="Q21" s="171"/>
+      <c r="R21" s="172"/>
+      <c r="S21" s="172"/>
+      <c r="T21" s="172"/>
+      <c r="U21" s="172"/>
+      <c r="V21" s="172"/>
+      <c r="W21" s="172"/>
+      <c r="X21" s="172"/>
+      <c r="Y21" s="172"/>
+      <c r="Z21" s="172"/>
+      <c r="AA21" s="172"/>
+      <c r="AB21" s="172"/>
+      <c r="AC21" s="172"/>
+      <c r="AD21" s="172"/>
+      <c r="AE21" s="173"/>
+      <c r="AF21" s="168"/>
+      <c r="AG21" s="169"/>
+      <c r="AH21" s="169"/>
+      <c r="AI21" s="170"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="185"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="191"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="192"/>
-      <c r="M22" s="192"/>
-      <c r="N22" s="192"/>
-      <c r="O22" s="192"/>
-      <c r="P22" s="193"/>
-      <c r="Q22" s="194"/>
-      <c r="R22" s="195"/>
-      <c r="S22" s="195"/>
-      <c r="T22" s="195"/>
-      <c r="U22" s="195"/>
-      <c r="V22" s="195"/>
-      <c r="W22" s="195"/>
-      <c r="X22" s="195"/>
-      <c r="Y22" s="195"/>
-      <c r="Z22" s="195"/>
-      <c r="AA22" s="195"/>
-      <c r="AB22" s="195"/>
-      <c r="AC22" s="195"/>
-      <c r="AD22" s="195"/>
-      <c r="AE22" s="196"/>
-      <c r="AF22" s="191"/>
-      <c r="AG22" s="192"/>
-      <c r="AH22" s="192"/>
-      <c r="AI22" s="193"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="169"/>
+      <c r="L22" s="169"/>
+      <c r="M22" s="169"/>
+      <c r="N22" s="169"/>
+      <c r="O22" s="169"/>
+      <c r="P22" s="170"/>
+      <c r="Q22" s="171"/>
+      <c r="R22" s="172"/>
+      <c r="S22" s="172"/>
+      <c r="T22" s="172"/>
+      <c r="U22" s="172"/>
+      <c r="V22" s="172"/>
+      <c r="W22" s="172"/>
+      <c r="X22" s="172"/>
+      <c r="Y22" s="172"/>
+      <c r="Z22" s="172"/>
+      <c r="AA22" s="172"/>
+      <c r="AB22" s="172"/>
+      <c r="AC22" s="172"/>
+      <c r="AD22" s="172"/>
+      <c r="AE22" s="173"/>
+      <c r="AF22" s="168"/>
+      <c r="AG22" s="169"/>
+      <c r="AH22" s="169"/>
+      <c r="AI22" s="170"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="185"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="191"/>
-      <c r="K23" s="192"/>
-      <c r="L23" s="192"/>
-      <c r="M23" s="192"/>
-      <c r="N23" s="192"/>
-      <c r="O23" s="192"/>
-      <c r="P23" s="193"/>
-      <c r="Q23" s="194"/>
-      <c r="R23" s="195"/>
-      <c r="S23" s="195"/>
-      <c r="T23" s="195"/>
-      <c r="U23" s="195"/>
-      <c r="V23" s="195"/>
-      <c r="W23" s="195"/>
-      <c r="X23" s="195"/>
-      <c r="Y23" s="195"/>
-      <c r="Z23" s="195"/>
-      <c r="AA23" s="195"/>
-      <c r="AB23" s="195"/>
-      <c r="AC23" s="195"/>
-      <c r="AD23" s="195"/>
-      <c r="AE23" s="196"/>
-      <c r="AF23" s="191"/>
-      <c r="AG23" s="192"/>
-      <c r="AH23" s="192"/>
-      <c r="AI23" s="193"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="169"/>
+      <c r="L23" s="169"/>
+      <c r="M23" s="169"/>
+      <c r="N23" s="169"/>
+      <c r="O23" s="169"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="171"/>
+      <c r="R23" s="172"/>
+      <c r="S23" s="172"/>
+      <c r="T23" s="172"/>
+      <c r="U23" s="172"/>
+      <c r="V23" s="172"/>
+      <c r="W23" s="172"/>
+      <c r="X23" s="172"/>
+      <c r="Y23" s="172"/>
+      <c r="Z23" s="172"/>
+      <c r="AA23" s="172"/>
+      <c r="AB23" s="172"/>
+      <c r="AC23" s="172"/>
+      <c r="AD23" s="172"/>
+      <c r="AE23" s="173"/>
+      <c r="AF23" s="168"/>
+      <c r="AG23" s="169"/>
+      <c r="AH23" s="169"/>
+      <c r="AI23" s="170"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="185"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="189"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="190"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="191"/>
-      <c r="K24" s="192"/>
-      <c r="L24" s="192"/>
-      <c r="M24" s="192"/>
-      <c r="N24" s="192"/>
-      <c r="O24" s="192"/>
-      <c r="P24" s="193"/>
-      <c r="Q24" s="194"/>
-      <c r="R24" s="195"/>
-      <c r="S24" s="195"/>
-      <c r="T24" s="195"/>
-      <c r="U24" s="195"/>
-      <c r="V24" s="195"/>
-      <c r="W24" s="195"/>
-      <c r="X24" s="195"/>
-      <c r="Y24" s="195"/>
-      <c r="Z24" s="195"/>
-      <c r="AA24" s="195"/>
-      <c r="AB24" s="195"/>
-      <c r="AC24" s="195"/>
-      <c r="AD24" s="195"/>
-      <c r="AE24" s="196"/>
-      <c r="AF24" s="191"/>
-      <c r="AG24" s="192"/>
-      <c r="AH24" s="192"/>
-      <c r="AI24" s="193"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="169"/>
+      <c r="L24" s="169"/>
+      <c r="M24" s="169"/>
+      <c r="N24" s="169"/>
+      <c r="O24" s="169"/>
+      <c r="P24" s="170"/>
+      <c r="Q24" s="171"/>
+      <c r="R24" s="172"/>
+      <c r="S24" s="172"/>
+      <c r="T24" s="172"/>
+      <c r="U24" s="172"/>
+      <c r="V24" s="172"/>
+      <c r="W24" s="172"/>
+      <c r="X24" s="172"/>
+      <c r="Y24" s="172"/>
+      <c r="Z24" s="172"/>
+      <c r="AA24" s="172"/>
+      <c r="AB24" s="172"/>
+      <c r="AC24" s="172"/>
+      <c r="AD24" s="172"/>
+      <c r="AE24" s="173"/>
+      <c r="AF24" s="168"/>
+      <c r="AG24" s="169"/>
+      <c r="AH24" s="169"/>
+      <c r="AI24" s="170"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="185"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="190"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="191"/>
-      <c r="K25" s="192"/>
-      <c r="L25" s="192"/>
-      <c r="M25" s="192"/>
-      <c r="N25" s="192"/>
-      <c r="O25" s="192"/>
-      <c r="P25" s="193"/>
-      <c r="Q25" s="194"/>
-      <c r="R25" s="195"/>
-      <c r="S25" s="195"/>
-      <c r="T25" s="195"/>
-      <c r="U25" s="195"/>
-      <c r="V25" s="195"/>
-      <c r="W25" s="195"/>
-      <c r="X25" s="195"/>
-      <c r="Y25" s="195"/>
-      <c r="Z25" s="195"/>
-      <c r="AA25" s="195"/>
-      <c r="AB25" s="195"/>
-      <c r="AC25" s="195"/>
-      <c r="AD25" s="195"/>
-      <c r="AE25" s="196"/>
-      <c r="AF25" s="191"/>
-      <c r="AG25" s="192"/>
-      <c r="AH25" s="192"/>
-      <c r="AI25" s="193"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="169"/>
+      <c r="L25" s="169"/>
+      <c r="M25" s="169"/>
+      <c r="N25" s="169"/>
+      <c r="O25" s="169"/>
+      <c r="P25" s="170"/>
+      <c r="Q25" s="171"/>
+      <c r="R25" s="172"/>
+      <c r="S25" s="172"/>
+      <c r="T25" s="172"/>
+      <c r="U25" s="172"/>
+      <c r="V25" s="172"/>
+      <c r="W25" s="172"/>
+      <c r="X25" s="172"/>
+      <c r="Y25" s="172"/>
+      <c r="Z25" s="172"/>
+      <c r="AA25" s="172"/>
+      <c r="AB25" s="172"/>
+      <c r="AC25" s="172"/>
+      <c r="AD25" s="172"/>
+      <c r="AE25" s="173"/>
+      <c r="AF25" s="168"/>
+      <c r="AG25" s="169"/>
+      <c r="AH25" s="169"/>
+      <c r="AI25" s="170"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="185"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="189"/>
-      <c r="G26" s="185"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="191"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="192"/>
-      <c r="M26" s="192"/>
-      <c r="N26" s="192"/>
-      <c r="O26" s="192"/>
-      <c r="P26" s="193"/>
-      <c r="Q26" s="194"/>
-      <c r="R26" s="195"/>
-      <c r="S26" s="195"/>
-      <c r="T26" s="195"/>
-      <c r="U26" s="195"/>
-      <c r="V26" s="195"/>
-      <c r="W26" s="195"/>
-      <c r="X26" s="195"/>
-      <c r="Y26" s="195"/>
-      <c r="Z26" s="195"/>
-      <c r="AA26" s="195"/>
-      <c r="AB26" s="195"/>
-      <c r="AC26" s="195"/>
-      <c r="AD26" s="195"/>
-      <c r="AE26" s="196"/>
-      <c r="AF26" s="191"/>
-      <c r="AG26" s="192"/>
-      <c r="AH26" s="192"/>
-      <c r="AI26" s="193"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="169"/>
+      <c r="L26" s="169"/>
+      <c r="M26" s="169"/>
+      <c r="N26" s="169"/>
+      <c r="O26" s="169"/>
+      <c r="P26" s="170"/>
+      <c r="Q26" s="171"/>
+      <c r="R26" s="172"/>
+      <c r="S26" s="172"/>
+      <c r="T26" s="172"/>
+      <c r="U26" s="172"/>
+      <c r="V26" s="172"/>
+      <c r="W26" s="172"/>
+      <c r="X26" s="172"/>
+      <c r="Y26" s="172"/>
+      <c r="Z26" s="172"/>
+      <c r="AA26" s="172"/>
+      <c r="AB26" s="172"/>
+      <c r="AC26" s="172"/>
+      <c r="AD26" s="172"/>
+      <c r="AE26" s="173"/>
+      <c r="AF26" s="168"/>
+      <c r="AG26" s="169"/>
+      <c r="AH26" s="169"/>
+      <c r="AI26" s="170"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="185"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="189"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="191"/>
-      <c r="K27" s="192"/>
-      <c r="L27" s="192"/>
-      <c r="M27" s="192"/>
-      <c r="N27" s="192"/>
-      <c r="O27" s="192"/>
-      <c r="P27" s="193"/>
-      <c r="Q27" s="194"/>
-      <c r="R27" s="195"/>
-      <c r="S27" s="195"/>
-      <c r="T27" s="195"/>
-      <c r="U27" s="195"/>
-      <c r="V27" s="195"/>
-      <c r="W27" s="195"/>
-      <c r="X27" s="195"/>
-      <c r="Y27" s="195"/>
-      <c r="Z27" s="195"/>
-      <c r="AA27" s="195"/>
-      <c r="AB27" s="195"/>
-      <c r="AC27" s="195"/>
-      <c r="AD27" s="195"/>
-      <c r="AE27" s="196"/>
-      <c r="AF27" s="191"/>
-      <c r="AG27" s="192"/>
-      <c r="AH27" s="192"/>
-      <c r="AI27" s="193"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="168"/>
+      <c r="K27" s="169"/>
+      <c r="L27" s="169"/>
+      <c r="M27" s="169"/>
+      <c r="N27" s="169"/>
+      <c r="O27" s="169"/>
+      <c r="P27" s="170"/>
+      <c r="Q27" s="171"/>
+      <c r="R27" s="172"/>
+      <c r="S27" s="172"/>
+      <c r="T27" s="172"/>
+      <c r="U27" s="172"/>
+      <c r="V27" s="172"/>
+      <c r="W27" s="172"/>
+      <c r="X27" s="172"/>
+      <c r="Y27" s="172"/>
+      <c r="Z27" s="172"/>
+      <c r="AA27" s="172"/>
+      <c r="AB27" s="172"/>
+      <c r="AC27" s="172"/>
+      <c r="AD27" s="172"/>
+      <c r="AE27" s="173"/>
+      <c r="AF27" s="168"/>
+      <c r="AG27" s="169"/>
+      <c r="AH27" s="169"/>
+      <c r="AI27" s="170"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="189"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="191"/>
-      <c r="K28" s="192"/>
-      <c r="L28" s="192"/>
-      <c r="M28" s="192"/>
-      <c r="N28" s="192"/>
-      <c r="O28" s="192"/>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="194"/>
-      <c r="R28" s="195"/>
-      <c r="S28" s="195"/>
-      <c r="T28" s="195"/>
-      <c r="U28" s="195"/>
-      <c r="V28" s="195"/>
-      <c r="W28" s="195"/>
-      <c r="X28" s="195"/>
-      <c r="Y28" s="195"/>
-      <c r="Z28" s="195"/>
-      <c r="AA28" s="195"/>
-      <c r="AB28" s="195"/>
-      <c r="AC28" s="195"/>
-      <c r="AD28" s="195"/>
-      <c r="AE28" s="196"/>
-      <c r="AF28" s="191"/>
-      <c r="AG28" s="192"/>
-      <c r="AH28" s="192"/>
-      <c r="AI28" s="193"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="169"/>
+      <c r="L28" s="169"/>
+      <c r="M28" s="169"/>
+      <c r="N28" s="169"/>
+      <c r="O28" s="169"/>
+      <c r="P28" s="170"/>
+      <c r="Q28" s="171"/>
+      <c r="R28" s="172"/>
+      <c r="S28" s="172"/>
+      <c r="T28" s="172"/>
+      <c r="U28" s="172"/>
+      <c r="V28" s="172"/>
+      <c r="W28" s="172"/>
+      <c r="X28" s="172"/>
+      <c r="Y28" s="172"/>
+      <c r="Z28" s="172"/>
+      <c r="AA28" s="172"/>
+      <c r="AB28" s="172"/>
+      <c r="AC28" s="172"/>
+      <c r="AD28" s="172"/>
+      <c r="AE28" s="173"/>
+      <c r="AF28" s="168"/>
+      <c r="AG28" s="169"/>
+      <c r="AH28" s="169"/>
+      <c r="AI28" s="170"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="185"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="190"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="192"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="192"/>
-      <c r="N29" s="192"/>
-      <c r="O29" s="192"/>
-      <c r="P29" s="193"/>
-      <c r="Q29" s="194"/>
-      <c r="R29" s="195"/>
-      <c r="S29" s="195"/>
-      <c r="T29" s="195"/>
-      <c r="U29" s="195"/>
-      <c r="V29" s="195"/>
-      <c r="W29" s="195"/>
-      <c r="X29" s="195"/>
-      <c r="Y29" s="195"/>
-      <c r="Z29" s="195"/>
-      <c r="AA29" s="195"/>
-      <c r="AB29" s="195"/>
-      <c r="AC29" s="195"/>
-      <c r="AD29" s="195"/>
-      <c r="AE29" s="196"/>
-      <c r="AF29" s="191"/>
-      <c r="AG29" s="192"/>
-      <c r="AH29" s="192"/>
-      <c r="AI29" s="193"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="169"/>
+      <c r="L29" s="169"/>
+      <c r="M29" s="169"/>
+      <c r="N29" s="169"/>
+      <c r="O29" s="169"/>
+      <c r="P29" s="170"/>
+      <c r="Q29" s="171"/>
+      <c r="R29" s="172"/>
+      <c r="S29" s="172"/>
+      <c r="T29" s="172"/>
+      <c r="U29" s="172"/>
+      <c r="V29" s="172"/>
+      <c r="W29" s="172"/>
+      <c r="X29" s="172"/>
+      <c r="Y29" s="172"/>
+      <c r="Z29" s="172"/>
+      <c r="AA29" s="172"/>
+      <c r="AB29" s="172"/>
+      <c r="AC29" s="172"/>
+      <c r="AD29" s="172"/>
+      <c r="AE29" s="173"/>
+      <c r="AF29" s="168"/>
+      <c r="AG29" s="169"/>
+      <c r="AH29" s="169"/>
+      <c r="AI29" s="170"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="185"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="190"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="192"/>
-      <c r="L30" s="192"/>
-      <c r="M30" s="192"/>
-      <c r="N30" s="192"/>
-      <c r="O30" s="192"/>
-      <c r="P30" s="193"/>
-      <c r="Q30" s="194"/>
-      <c r="R30" s="195"/>
-      <c r="S30" s="195"/>
-      <c r="T30" s="195"/>
-      <c r="U30" s="195"/>
-      <c r="V30" s="195"/>
-      <c r="W30" s="195"/>
-      <c r="X30" s="195"/>
-      <c r="Y30" s="195"/>
-      <c r="Z30" s="195"/>
-      <c r="AA30" s="195"/>
-      <c r="AB30" s="195"/>
-      <c r="AC30" s="195"/>
-      <c r="AD30" s="195"/>
-      <c r="AE30" s="196"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="192"/>
-      <c r="AH30" s="192"/>
-      <c r="AI30" s="193"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="169"/>
+      <c r="L30" s="169"/>
+      <c r="M30" s="169"/>
+      <c r="N30" s="169"/>
+      <c r="O30" s="169"/>
+      <c r="P30" s="170"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="172"/>
+      <c r="S30" s="172"/>
+      <c r="T30" s="172"/>
+      <c r="U30" s="172"/>
+      <c r="V30" s="172"/>
+      <c r="W30" s="172"/>
+      <c r="X30" s="172"/>
+      <c r="Y30" s="172"/>
+      <c r="Z30" s="172"/>
+      <c r="AA30" s="172"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="172"/>
+      <c r="AD30" s="172"/>
+      <c r="AE30" s="173"/>
+      <c r="AF30" s="168"/>
+      <c r="AG30" s="169"/>
+      <c r="AH30" s="169"/>
+      <c r="AI30" s="170"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="185"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="187"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="191"/>
-      <c r="K31" s="192"/>
-      <c r="L31" s="192"/>
-      <c r="M31" s="192"/>
-      <c r="N31" s="192"/>
-      <c r="O31" s="192"/>
-      <c r="P31" s="193"/>
-      <c r="Q31" s="194"/>
-      <c r="R31" s="195"/>
-      <c r="S31" s="195"/>
-      <c r="T31" s="195"/>
-      <c r="U31" s="195"/>
-      <c r="V31" s="195"/>
-      <c r="W31" s="195"/>
-      <c r="X31" s="195"/>
-      <c r="Y31" s="195"/>
-      <c r="Z31" s="195"/>
-      <c r="AA31" s="195"/>
-      <c r="AB31" s="195"/>
-      <c r="AC31" s="195"/>
-      <c r="AD31" s="195"/>
-      <c r="AE31" s="196"/>
-      <c r="AF31" s="191"/>
-      <c r="AG31" s="192"/>
-      <c r="AH31" s="192"/>
-      <c r="AI31" s="193"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="169"/>
+      <c r="L31" s="169"/>
+      <c r="M31" s="169"/>
+      <c r="N31" s="169"/>
+      <c r="O31" s="169"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="171"/>
+      <c r="R31" s="172"/>
+      <c r="S31" s="172"/>
+      <c r="T31" s="172"/>
+      <c r="U31" s="172"/>
+      <c r="V31" s="172"/>
+      <c r="W31" s="172"/>
+      <c r="X31" s="172"/>
+      <c r="Y31" s="172"/>
+      <c r="Z31" s="172"/>
+      <c r="AA31" s="172"/>
+      <c r="AB31" s="172"/>
+      <c r="AC31" s="172"/>
+      <c r="AD31" s="172"/>
+      <c r="AE31" s="173"/>
+      <c r="AF31" s="168"/>
+      <c r="AG31" s="169"/>
+      <c r="AH31" s="169"/>
+      <c r="AI31" s="170"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="185"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="191"/>
-      <c r="K32" s="206"/>
-      <c r="L32" s="192"/>
-      <c r="M32" s="192"/>
-      <c r="N32" s="192"/>
-      <c r="O32" s="192"/>
-      <c r="P32" s="193"/>
-      <c r="Q32" s="194"/>
-      <c r="R32" s="195"/>
-      <c r="S32" s="195"/>
-      <c r="T32" s="195"/>
-      <c r="U32" s="195"/>
-      <c r="V32" s="195"/>
-      <c r="W32" s="195"/>
-      <c r="X32" s="195"/>
-      <c r="Y32" s="195"/>
-      <c r="Z32" s="195"/>
-      <c r="AA32" s="195"/>
-      <c r="AB32" s="195"/>
-      <c r="AC32" s="195"/>
-      <c r="AD32" s="195"/>
-      <c r="AE32" s="196"/>
-      <c r="AF32" s="191"/>
-      <c r="AG32" s="192"/>
-      <c r="AH32" s="192"/>
-      <c r="AI32" s="193"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="168"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="169"/>
+      <c r="M32" s="169"/>
+      <c r="N32" s="169"/>
+      <c r="O32" s="169"/>
+      <c r="P32" s="170"/>
+      <c r="Q32" s="171"/>
+      <c r="R32" s="172"/>
+      <c r="S32" s="172"/>
+      <c r="T32" s="172"/>
+      <c r="U32" s="172"/>
+      <c r="V32" s="172"/>
+      <c r="W32" s="172"/>
+      <c r="X32" s="172"/>
+      <c r="Y32" s="172"/>
+      <c r="Z32" s="172"/>
+      <c r="AA32" s="172"/>
+      <c r="AB32" s="172"/>
+      <c r="AC32" s="172"/>
+      <c r="AD32" s="172"/>
+      <c r="AE32" s="173"/>
+      <c r="AF32" s="168"/>
+      <c r="AG32" s="169"/>
+      <c r="AH32" s="169"/>
+      <c r="AI32" s="170"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="185"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="191"/>
-      <c r="K33" s="192"/>
-      <c r="L33" s="192"/>
-      <c r="M33" s="192"/>
-      <c r="N33" s="192"/>
-      <c r="O33" s="192"/>
-      <c r="P33" s="193"/>
-      <c r="Q33" s="194"/>
-      <c r="R33" s="195"/>
-      <c r="S33" s="195"/>
-      <c r="T33" s="195"/>
-      <c r="U33" s="195"/>
-      <c r="V33" s="195"/>
-      <c r="W33" s="195"/>
-      <c r="X33" s="195"/>
-      <c r="Y33" s="195"/>
-      <c r="Z33" s="195"/>
-      <c r="AA33" s="195"/>
-      <c r="AB33" s="195"/>
-      <c r="AC33" s="195"/>
-      <c r="AD33" s="195"/>
-      <c r="AE33" s="196"/>
-      <c r="AF33" s="191"/>
-      <c r="AG33" s="192"/>
-      <c r="AH33" s="192"/>
-      <c r="AI33" s="193"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="169"/>
+      <c r="L33" s="169"/>
+      <c r="M33" s="169"/>
+      <c r="N33" s="169"/>
+      <c r="O33" s="169"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="171"/>
+      <c r="R33" s="172"/>
+      <c r="S33" s="172"/>
+      <c r="T33" s="172"/>
+      <c r="U33" s="172"/>
+      <c r="V33" s="172"/>
+      <c r="W33" s="172"/>
+      <c r="X33" s="172"/>
+      <c r="Y33" s="172"/>
+      <c r="Z33" s="172"/>
+      <c r="AA33" s="172"/>
+      <c r="AB33" s="172"/>
+      <c r="AC33" s="172"/>
+      <c r="AD33" s="172"/>
+      <c r="AE33" s="173"/>
+      <c r="AF33" s="168"/>
+      <c r="AG33" s="169"/>
+      <c r="AH33" s="169"/>
+      <c r="AI33" s="170"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12234,6 +12158,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -12251,9 +12330,9 @@
   <dimension ref="A1:Q295"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="M40" sqref="M40:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -12273,7 +12352,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="28" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -12283,17 +12362,17 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="28" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="28" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>8</v>
@@ -12304,7 +12383,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="28" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="N7" s="28" t="s">
         <v>9</v>
@@ -12399,7 +12478,7 @@
 )</f>
         <v>1-1-1</v>
       </c>
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="148" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="41" t="s">
@@ -12441,7 +12520,7 @@
 )</f>
         <v>2-1-1</v>
       </c>
-      <c r="B12" s="210"/>
+      <c r="B12" s="149"/>
       <c r="C12" s="44"/>
       <c r="D12" s="117"/>
       <c r="E12" s="41" t="s">
@@ -12477,7 +12556,7 @@
 )</f>
         <v>3-1-1</v>
       </c>
-      <c r="B13" s="210"/>
+      <c r="B13" s="149"/>
       <c r="C13" s="44"/>
       <c r="D13" s="41" t="s">
         <v>47</v>
@@ -12515,7 +12594,7 @@
 )</f>
         <v>3-2-1</v>
       </c>
-      <c r="B14" s="210"/>
+      <c r="B14" s="149"/>
       <c r="C14" s="44"/>
       <c r="D14" s="117"/>
       <c r="E14" s="117"/>
@@ -12549,7 +12628,7 @@
 )</f>
         <v>3-3-1</v>
       </c>
-      <c r="B15" s="210"/>
+      <c r="B15" s="149"/>
       <c r="C15" s="44"/>
       <c r="D15" s="117"/>
       <c r="E15" s="117"/>
@@ -12583,7 +12662,7 @@
 )</f>
         <v>3-4-1</v>
       </c>
-      <c r="B16" s="210"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="44"/>
       <c r="D16" s="117"/>
       <c r="E16" s="117"/>
@@ -12617,7 +12696,7 @@
 )</f>
         <v>3-5-1</v>
       </c>
-      <c r="B17" s="210"/>
+      <c r="B17" s="149"/>
       <c r="C17" s="44"/>
       <c r="D17" s="46"/>
       <c r="E17" s="47"/>
@@ -12651,7 +12730,7 @@
 )</f>
         <v>4-1-1</v>
       </c>
-      <c r="B18" s="210"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="44"/>
       <c r="D18" s="48" t="s">
         <v>54</v>
@@ -12689,7 +12768,7 @@
 )</f>
         <v>4-2-1</v>
       </c>
-      <c r="B19" s="210"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="44"/>
       <c r="D19" s="48"/>
       <c r="E19" s="117"/>
@@ -12723,7 +12802,7 @@
 )</f>
         <v>4-3-1</v>
       </c>
-      <c r="B20" s="210"/>
+      <c r="B20" s="149"/>
       <c r="C20" s="44"/>
       <c r="D20" s="48"/>
       <c r="E20" s="47"/>
@@ -12757,7 +12836,7 @@
 )</f>
         <v>5-1-1</v>
       </c>
-      <c r="B21" s="210"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="44"/>
       <c r="D21" s="48"/>
       <c r="E21" s="117" t="s">
@@ -12793,7 +12872,7 @@
 )</f>
         <v>5-2-1</v>
       </c>
-      <c r="B22" s="210"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="44"/>
       <c r="D22" s="48"/>
       <c r="E22" s="117"/>
@@ -12827,7 +12906,7 @@
 )</f>
         <v>5-3-1</v>
       </c>
-      <c r="B23" s="210"/>
+      <c r="B23" s="149"/>
       <c r="C23" s="44"/>
       <c r="D23" s="48"/>
       <c r="E23" s="117"/>
@@ -12861,7 +12940,7 @@
 )</f>
         <v>5-4-1</v>
       </c>
-      <c r="B24" s="210"/>
+      <c r="B24" s="149"/>
       <c r="C24" s="44"/>
       <c r="D24" s="46"/>
       <c r="E24" s="47"/>
@@ -12895,7 +12974,7 @@
 )</f>
         <v>6-1-1</v>
       </c>
-      <c r="B25" s="210"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="44"/>
       <c r="D25" s="48" t="s">
         <v>64</v>
@@ -12933,7 +13012,7 @@
 )</f>
         <v>6-2-1</v>
       </c>
-      <c r="B26" s="210"/>
+      <c r="B26" s="149"/>
       <c r="C26" s="44"/>
       <c r="D26" s="48"/>
       <c r="E26" s="117"/>
@@ -12967,7 +13046,7 @@
 )</f>
         <v>7-1-1</v>
       </c>
-      <c r="B27" s="210"/>
+      <c r="B27" s="149"/>
       <c r="C27" s="44"/>
       <c r="D27" s="49" t="s">
         <v>67</v>
@@ -13005,7 +13084,7 @@
 )</f>
         <v>7-2-1</v>
       </c>
-      <c r="B28" s="210"/>
+      <c r="B28" s="149"/>
       <c r="C28" s="44"/>
       <c r="D28" s="48"/>
       <c r="E28" s="117"/>
@@ -13039,7 +13118,7 @@
 )</f>
         <v>8-1-1</v>
       </c>
-      <c r="B29" s="210"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="44"/>
       <c r="D29" s="117"/>
       <c r="E29" s="41" t="s">
@@ -13075,7 +13154,7 @@
 )</f>
         <v>8-2-1</v>
       </c>
-      <c r="B30" s="210"/>
+      <c r="B30" s="149"/>
       <c r="C30" s="44"/>
       <c r="D30" s="48"/>
       <c r="E30" s="117"/>
@@ -13109,7 +13188,7 @@
 )</f>
         <v>8-3-1</v>
       </c>
-      <c r="B31" s="210"/>
+      <c r="B31" s="149"/>
       <c r="C31" s="44"/>
       <c r="D31" s="48"/>
       <c r="E31" s="117"/>
@@ -13143,7 +13222,7 @@
 )</f>
         <v>8-4-1</v>
       </c>
-      <c r="B32" s="210"/>
+      <c r="B32" s="149"/>
       <c r="C32" s="44"/>
       <c r="D32" s="48"/>
       <c r="E32" s="117"/>
@@ -13177,7 +13256,7 @@
 )</f>
         <v>9-1-1</v>
       </c>
-      <c r="B33" s="210"/>
+      <c r="B33" s="149"/>
       <c r="C33" s="44"/>
       <c r="D33" s="48"/>
       <c r="E33" s="41" t="s">
@@ -13213,7 +13292,7 @@
 )</f>
         <v>9-2-1</v>
       </c>
-      <c r="B34" s="210"/>
+      <c r="B34" s="149"/>
       <c r="C34" s="44"/>
       <c r="D34" s="48"/>
       <c r="E34" s="47"/>
@@ -13247,7 +13326,7 @@
 )</f>
         <v>10-1-1</v>
       </c>
-      <c r="B35" s="210"/>
+      <c r="B35" s="149"/>
       <c r="C35" s="50"/>
       <c r="D35" s="117"/>
       <c r="E35" s="41" t="s">
@@ -13283,8 +13362,8 @@
 )</f>
         <v>11-1-1</v>
       </c>
-      <c r="B36" s="210"/>
-      <c r="C36" s="212" t="s">
+      <c r="B36" s="149"/>
+      <c r="C36" s="151" t="s">
         <v>82</v>
       </c>
       <c r="D36" s="49" t="s">
@@ -13300,7 +13379,7 @@
       <c r="H36" s="45"/>
       <c r="I36" s="45"/>
       <c r="J36" s="55" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K36" s="121"/>
       <c r="L36" s="57"/>
@@ -13323,8 +13402,8 @@
 )</f>
         <v>11-2-1</v>
       </c>
-      <c r="B37" s="210"/>
-      <c r="C37" s="210"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
       <c r="D37" s="48"/>
       <c r="E37" s="117"/>
       <c r="F37" s="45" t="s">
@@ -13334,7 +13413,7 @@
       <c r="H37" s="45"/>
       <c r="I37" s="45"/>
       <c r="J37" s="55" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K37" s="121"/>
       <c r="L37" s="57"/>
@@ -13357,8 +13436,8 @@
 )</f>
         <v>11-3-1</v>
       </c>
-      <c r="B38" s="210"/>
-      <c r="C38" s="210"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="149"/>
       <c r="D38" s="48"/>
       <c r="E38" s="117"/>
       <c r="F38" s="41" t="s">
@@ -13368,7 +13447,7 @@
       <c r="H38" s="45"/>
       <c r="I38" s="55"/>
       <c r="J38" s="55" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K38" s="55"/>
       <c r="L38" s="57"/>
@@ -13391,8 +13470,8 @@
 )</f>
         <v>11-4-1</v>
       </c>
-      <c r="B39" s="210"/>
-      <c r="C39" s="210"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="149"/>
       <c r="D39" s="46"/>
       <c r="E39" s="47"/>
       <c r="F39" s="122" t="s">
@@ -13402,7 +13481,7 @@
       <c r="H39" s="45"/>
       <c r="I39" s="55"/>
       <c r="J39" s="55" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K39" s="55"/>
       <c r="L39" s="57"/>
@@ -13412,7 +13491,7 @@
       <c r="P39" s="119"/>
       <c r="Q39" s="58"/>
     </row>
-    <row r="40" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="40" spans="1:17" s="32" customFormat="1" ht="56.25">
       <c r="A40" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -13425,38 +13504,46 @@
 )</f>
         <v>12-1-1</v>
       </c>
-      <c r="B40" s="210"/>
-      <c r="C40" s="210"/>
-      <c r="D40" s="213" t="s">
+      <c r="B40" s="149"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="152" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="214" t="s">
+      <c r="E40" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="215" t="s">
+      <c r="F40" s="154" t="s">
+        <v>584</v>
+      </c>
+      <c r="G40" s="154"/>
+      <c r="H40" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="I40" s="54" t="s">
+        <v>578</v>
+      </c>
+      <c r="J40" s="53" t="s">
+        <v>581</v>
+      </c>
+      <c r="K40" s="155" t="s">
+        <v>583</v>
+      </c>
+      <c r="L40" s="107" t="s">
         <v>587</v>
       </c>
-      <c r="G40" s="215"/>
-      <c r="H40" s="54" t="s">
-        <v>582</v>
-      </c>
-      <c r="I40" s="54" t="s">
-        <v>581</v>
-      </c>
-      <c r="J40" s="53" t="s">
-        <v>584</v>
-      </c>
-      <c r="K40" s="216" t="s">
-        <v>586</v>
-      </c>
-      <c r="L40" s="107"/>
-      <c r="M40" s="217"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="218"/>
-      <c r="P40" s="217"/>
+      <c r="M40" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="N40" s="160">
+        <v>44858</v>
+      </c>
+      <c r="O40" s="160" t="s">
+        <v>589</v>
+      </c>
+      <c r="P40" s="156"/>
       <c r="Q40" s="108"/>
     </row>
-    <row r="41" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="41" spans="1:17" s="32" customFormat="1" ht="78.75">
       <c r="A41" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E41),
@@ -13469,31 +13556,39 @@
 )</f>
         <v>12-2-1</v>
       </c>
-      <c r="B41" s="211"/>
-      <c r="C41" s="211"/>
-      <c r="D41" s="219"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="215" t="s">
+      <c r="B41" s="150"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="154" t="s">
+        <v>585</v>
+      </c>
+      <c r="G41" s="154"/>
+      <c r="H41" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>578</v>
+      </c>
+      <c r="J41" s="53" t="s">
+        <v>582</v>
+      </c>
+      <c r="K41" s="53" t="s">
+        <v>580</v>
+      </c>
+      <c r="L41" s="107" t="s">
+        <v>586</v>
+      </c>
+      <c r="M41" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="G41" s="215"/>
-      <c r="H41" s="54" t="s">
-        <v>582</v>
-      </c>
-      <c r="I41" s="54" t="s">
-        <v>581</v>
-      </c>
-      <c r="J41" s="53" t="s">
-        <v>585</v>
-      </c>
-      <c r="K41" s="53" t="s">
-        <v>583</v>
-      </c>
-      <c r="L41" s="107"/>
-      <c r="M41" s="217"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="218"/>
-      <c r="P41" s="217"/>
+      <c r="N41" s="160">
+        <v>44858</v>
+      </c>
+      <c r="O41" s="160" t="s">
+        <v>589</v>
+      </c>
+      <c r="P41" s="156"/>
       <c r="Q41" s="108"/>
     </row>
     <row r="42" spans="1:17" s="32" customFormat="1" ht="22.5">
@@ -13525,7 +13620,7 @@
         <v>94</v>
       </c>
       <c r="G42" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H42" s="45"/>
       <c r="I42" s="45"/>
@@ -13559,7 +13654,7 @@
         <v>95</v>
       </c>
       <c r="G43" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H43" s="45"/>
       <c r="I43" s="45"/>
@@ -13593,7 +13688,7 @@
         <v>96</v>
       </c>
       <c r="G44" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H44" s="45"/>
       <c r="I44" s="45"/>
@@ -13629,7 +13724,7 @@
         <v>98</v>
       </c>
       <c r="G45" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H45" s="45"/>
       <c r="I45" s="45"/>
@@ -13663,7 +13758,7 @@
         <v>99</v>
       </c>
       <c r="G46" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H46" s="45"/>
       <c r="I46" s="45"/>
@@ -13697,7 +13792,7 @@
         <v>96</v>
       </c>
       <c r="G47" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H47" s="45"/>
       <c r="I47" s="45"/>
@@ -13733,7 +13828,7 @@
         <v>101</v>
       </c>
       <c r="G48" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H48" s="45"/>
       <c r="I48" s="45"/>
@@ -13767,7 +13862,7 @@
         <v>102</v>
       </c>
       <c r="G49" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H49" s="45"/>
       <c r="I49" s="45"/>
@@ -13803,7 +13898,7 @@
         <v>104</v>
       </c>
       <c r="G50" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H50" s="45"/>
       <c r="I50" s="45"/>
@@ -13837,7 +13932,7 @@
         <v>105</v>
       </c>
       <c r="G51" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H51" s="45"/>
       <c r="I51" s="45"/>
@@ -13871,7 +13966,7 @@
         <v>106</v>
       </c>
       <c r="G52" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H52" s="45"/>
       <c r="I52" s="45"/>
@@ -13905,7 +14000,7 @@
         <v>107</v>
       </c>
       <c r="G53" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H53" s="45"/>
       <c r="I53" s="45"/>
@@ -13939,7 +14034,7 @@
         <v>108</v>
       </c>
       <c r="G54" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H54" s="45"/>
       <c r="I54" s="45"/>
@@ -13973,7 +14068,7 @@
         <v>109</v>
       </c>
       <c r="G55" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H55" s="45"/>
       <c r="I55" s="45"/>
@@ -14009,7 +14104,7 @@
         <v>111</v>
       </c>
       <c r="G56" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H56" s="45"/>
       <c r="I56" s="45"/>
@@ -14045,7 +14140,7 @@
         <v>113</v>
       </c>
       <c r="G57" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H57" s="45"/>
       <c r="I57" s="45"/>
@@ -14081,7 +14176,7 @@
         <v>115</v>
       </c>
       <c r="G58" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H58" s="45"/>
       <c r="I58" s="45"/>
@@ -14119,7 +14214,7 @@
         <v>117</v>
       </c>
       <c r="G59" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H59" s="45"/>
       <c r="I59" s="45"/>
@@ -14153,7 +14248,7 @@
         <v>118</v>
       </c>
       <c r="G60" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H60" s="45"/>
       <c r="I60" s="45"/>
@@ -14187,7 +14282,7 @@
         <v>119</v>
       </c>
       <c r="G61" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H61" s="45"/>
       <c r="I61" s="45"/>
@@ -14221,7 +14316,7 @@
         <v>120</v>
       </c>
       <c r="G62" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H62" s="45"/>
       <c r="I62" s="45"/>
@@ -14255,7 +14350,7 @@
         <v>121</v>
       </c>
       <c r="G63" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H63" s="45"/>
       <c r="I63" s="45"/>
@@ -14291,7 +14386,7 @@
         <v>123</v>
       </c>
       <c r="G64" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H64" s="45"/>
       <c r="I64" s="45"/>
@@ -14325,7 +14420,7 @@
         <v>124</v>
       </c>
       <c r="G65" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H65" s="45"/>
       <c r="I65" s="45"/>
@@ -14359,7 +14454,7 @@
         <v>125</v>
       </c>
       <c r="G66" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H66" s="45"/>
       <c r="I66" s="45"/>
@@ -14393,7 +14488,7 @@
         <v>126</v>
       </c>
       <c r="G67" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H67" s="45"/>
       <c r="I67" s="45"/>
@@ -14427,7 +14522,7 @@
         <v>127</v>
       </c>
       <c r="G68" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H68" s="45"/>
       <c r="I68" s="45"/>
@@ -14461,7 +14556,7 @@
         <v>128</v>
       </c>
       <c r="G69" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H69" s="45"/>
       <c r="I69" s="45"/>
@@ -14495,7 +14590,7 @@
         <v>129</v>
       </c>
       <c r="G70" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H70" s="45"/>
       <c r="I70" s="45"/>
@@ -14529,7 +14624,7 @@
         <v>130</v>
       </c>
       <c r="G71" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H71" s="45"/>
       <c r="I71" s="45"/>
@@ -14565,7 +14660,7 @@
         <v>132</v>
       </c>
       <c r="G72" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H72" s="45"/>
       <c r="I72" s="45"/>
@@ -14601,7 +14696,7 @@
         <v>134</v>
       </c>
       <c r="G73" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H73" s="45"/>
       <c r="I73" s="45"/>
@@ -14635,7 +14730,7 @@
         <v>135</v>
       </c>
       <c r="G74" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H74" s="45"/>
       <c r="I74" s="45"/>
@@ -14669,7 +14764,7 @@
         <v>136</v>
       </c>
       <c r="G75" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H75" s="45"/>
       <c r="I75" s="45"/>
@@ -14703,7 +14798,7 @@
         <v>137</v>
       </c>
       <c r="G76" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H76" s="45"/>
       <c r="I76" s="45"/>
@@ -14737,7 +14832,7 @@
         <v>138</v>
       </c>
       <c r="G77" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H77" s="45"/>
       <c r="I77" s="45"/>
@@ -14777,7 +14872,7 @@
         <v>142</v>
       </c>
       <c r="G78" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H78" s="45"/>
       <c r="I78" s="45"/>
@@ -14811,7 +14906,7 @@
         <v>143</v>
       </c>
       <c r="G79" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H79" s="45"/>
       <c r="I79" s="45"/>
@@ -14847,7 +14942,7 @@
         <v>145</v>
       </c>
       <c r="G80" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H80" s="45"/>
       <c r="I80" s="45"/>
@@ -14883,7 +14978,7 @@
         <v>147</v>
       </c>
       <c r="G81" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H81" s="45"/>
       <c r="I81" s="45"/>
@@ -14917,7 +15012,7 @@
         <v>148</v>
       </c>
       <c r="G82" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H82" s="45"/>
       <c r="I82" s="45"/>
@@ -14953,7 +15048,7 @@
         <v>150</v>
       </c>
       <c r="G83" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H83" s="45"/>
       <c r="I83" s="45"/>
@@ -14989,7 +15084,7 @@
         <v>152</v>
       </c>
       <c r="G84" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H84" s="45"/>
       <c r="I84" s="45"/>
@@ -15029,7 +15124,7 @@
         <v>154</v>
       </c>
       <c r="G85" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H85" s="45"/>
       <c r="I85" s="45"/>
@@ -15065,7 +15160,7 @@
         <v>155</v>
       </c>
       <c r="G86" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H86" s="45"/>
       <c r="I86" s="45"/>
@@ -15101,7 +15196,7 @@
         <v>157</v>
       </c>
       <c r="G87" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H87" s="45"/>
       <c r="I87" s="45"/>
@@ -15141,7 +15236,7 @@
         <v>159</v>
       </c>
       <c r="G88" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H88" s="45"/>
       <c r="I88" s="45"/>
@@ -15175,7 +15270,7 @@
         <v>160</v>
       </c>
       <c r="G89" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H89" s="45"/>
       <c r="I89" s="45"/>
@@ -15211,7 +15306,7 @@
         <v>161</v>
       </c>
       <c r="G90" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H90" s="45"/>
       <c r="I90" s="45"/>
@@ -15247,7 +15342,7 @@
         <v>162</v>
       </c>
       <c r="G91" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H91" s="45"/>
       <c r="I91" s="45"/>
@@ -15281,7 +15376,7 @@
         <v>163</v>
       </c>
       <c r="G92" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H92" s="45"/>
       <c r="I92" s="45"/>
@@ -15317,7 +15412,7 @@
         <v>164</v>
       </c>
       <c r="G93" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H93" s="45"/>
       <c r="I93" s="45"/>
@@ -15357,7 +15452,7 @@
         <v>167</v>
       </c>
       <c r="G94" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H94" s="45"/>
       <c r="I94" s="45"/>
@@ -15391,7 +15486,7 @@
         <v>168</v>
       </c>
       <c r="G95" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
@@ -15425,7 +15520,7 @@
         <v>169</v>
       </c>
       <c r="G96" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H96" s="45"/>
       <c r="I96" s="45"/>
@@ -15459,7 +15554,7 @@
         <v>170</v>
       </c>
       <c r="G97" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H97" s="45"/>
       <c r="I97" s="45"/>
@@ -15493,7 +15588,7 @@
         <v>171</v>
       </c>
       <c r="G98" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H98" s="45"/>
       <c r="I98" s="45"/>
@@ -15529,7 +15624,7 @@
         <v>173</v>
       </c>
       <c r="G99" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H99" s="45"/>
       <c r="I99" s="45"/>
@@ -15563,7 +15658,7 @@
         <v>174</v>
       </c>
       <c r="G100" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H100" s="45"/>
       <c r="I100" s="45"/>
@@ -15597,7 +15692,7 @@
         <v>175</v>
       </c>
       <c r="G101" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H101" s="45"/>
       <c r="I101" s="45"/>
@@ -15631,7 +15726,7 @@
         <v>176</v>
       </c>
       <c r="G102" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H102" s="45"/>
       <c r="I102" s="45"/>
@@ -15665,7 +15760,7 @@
         <v>177</v>
       </c>
       <c r="G103" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H103" s="45"/>
       <c r="I103" s="45"/>
@@ -15701,7 +15796,7 @@
         <v>178</v>
       </c>
       <c r="G104" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H104" s="45"/>
       <c r="I104" s="45"/>
@@ -15743,7 +15838,7 @@
         <v>181</v>
       </c>
       <c r="G105" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H105" s="45"/>
       <c r="I105" s="45"/>
@@ -15783,7 +15878,7 @@
         <v>183</v>
       </c>
       <c r="G106" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H106" s="45"/>
       <c r="I106" s="45"/>
@@ -15817,7 +15912,7 @@
         <v>184</v>
       </c>
       <c r="G107" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H107" s="45"/>
       <c r="I107" s="45"/>
@@ -15857,7 +15952,7 @@
         <v>186</v>
       </c>
       <c r="G108" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H108" s="45"/>
       <c r="I108" s="45"/>
@@ -15897,7 +15992,7 @@
         <v>188</v>
       </c>
       <c r="G109" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H109" s="45"/>
       <c r="I109" s="45"/>
@@ -15931,7 +16026,7 @@
         <v>189</v>
       </c>
       <c r="G110" s="125" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H110" s="45"/>
       <c r="I110" s="45"/>
@@ -15973,7 +16068,7 @@
         <v>192</v>
       </c>
       <c r="G111" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H111" s="45"/>
       <c r="I111" s="45"/>
@@ -15999,7 +16094,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="207" t="s">
+      <c r="B112" s="220" t="s">
         <v>193</v>
       </c>
       <c r="C112" s="48"/>
@@ -16009,7 +16104,7 @@
         <v>194</v>
       </c>
       <c r="G112" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H112" s="45"/>
       <c r="I112" s="45"/>
@@ -16035,7 +16130,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="207"/>
+      <c r="B113" s="220"/>
       <c r="C113" s="48"/>
       <c r="D113" s="117"/>
       <c r="E113" s="60"/>
@@ -16043,7 +16138,7 @@
         <v>195</v>
       </c>
       <c r="G113" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H113" s="45"/>
       <c r="I113" s="45"/>
@@ -16077,7 +16172,7 @@
         <v>196</v>
       </c>
       <c r="G114" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H114" s="45"/>
       <c r="I114" s="45"/>
@@ -16113,7 +16208,7 @@
         <v>197</v>
       </c>
       <c r="G115" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H115" s="45"/>
       <c r="I115" s="45"/>
@@ -16147,7 +16242,7 @@
         <v>198</v>
       </c>
       <c r="G116" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H116" s="45"/>
       <c r="I116" s="45"/>
@@ -16181,7 +16276,7 @@
         <v>199</v>
       </c>
       <c r="G117" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H117" s="45"/>
       <c r="I117" s="45"/>
@@ -16215,7 +16310,7 @@
         <v>200</v>
       </c>
       <c r="G118" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H118" s="45"/>
       <c r="I118" s="45"/>
@@ -16249,7 +16344,7 @@
         <v>201</v>
       </c>
       <c r="G119" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H119" s="45"/>
       <c r="I119" s="45"/>
@@ -16285,7 +16380,7 @@
         <v>204</v>
       </c>
       <c r="G120" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H120" s="45"/>
       <c r="I120" s="45"/>
@@ -16319,7 +16414,7 @@
         <v>205</v>
       </c>
       <c r="G121" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H121" s="45"/>
       <c r="I121" s="45"/>
@@ -16353,7 +16448,7 @@
         <v>206</v>
       </c>
       <c r="G122" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H122" s="45"/>
       <c r="I122" s="45"/>
@@ -16387,7 +16482,7 @@
         <v>207</v>
       </c>
       <c r="G123" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H123" s="45"/>
       <c r="I123" s="45"/>
@@ -16421,7 +16516,7 @@
         <v>208</v>
       </c>
       <c r="G124" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H124" s="45"/>
       <c r="I124" s="45"/>
@@ -16457,7 +16552,7 @@
         <v>210</v>
       </c>
       <c r="G125" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H125" s="45"/>
       <c r="I125" s="45"/>
@@ -16495,7 +16590,7 @@
         <v>211</v>
       </c>
       <c r="G126" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H126" s="45"/>
       <c r="I126" s="45"/>
@@ -16535,7 +16630,7 @@
         <v>214</v>
       </c>
       <c r="G127" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H127" s="45"/>
       <c r="I127" s="45"/>
@@ -16571,7 +16666,7 @@
         <v>216</v>
       </c>
       <c r="G128" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H128" s="45"/>
       <c r="I128" s="45"/>
@@ -16605,7 +16700,7 @@
         <v>217</v>
       </c>
       <c r="G129" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H129" s="45"/>
       <c r="I129" s="45"/>
@@ -16639,7 +16734,7 @@
         <v>218</v>
       </c>
       <c r="G130" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H130" s="45"/>
       <c r="I130" s="45"/>
@@ -16681,7 +16776,7 @@
         <v>220</v>
       </c>
       <c r="G131" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H131" s="45"/>
       <c r="I131" s="45"/>
@@ -16707,7 +16802,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="207" t="s">
+      <c r="B132" s="220" t="s">
         <v>221</v>
       </c>
       <c r="C132" s="48"/>
@@ -16717,7 +16812,7 @@
         <v>222</v>
       </c>
       <c r="G132" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H132" s="45"/>
       <c r="I132" s="45"/>
@@ -16743,7 +16838,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="207"/>
+      <c r="B133" s="220"/>
       <c r="C133" s="48"/>
       <c r="D133" s="117"/>
       <c r="E133" s="117"/>
@@ -16751,7 +16846,7 @@
         <v>223</v>
       </c>
       <c r="G133" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H133" s="45"/>
       <c r="I133" s="45"/>
@@ -16785,7 +16880,7 @@
         <v>224</v>
       </c>
       <c r="G134" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H134" s="45"/>
       <c r="I134" s="45"/>
@@ -16821,7 +16916,7 @@
         <v>226</v>
       </c>
       <c r="G135" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H135" s="45"/>
       <c r="I135" s="45"/>
@@ -16855,7 +16950,7 @@
         <v>227</v>
       </c>
       <c r="G136" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H136" s="45"/>
       <c r="I136" s="45"/>
@@ -16893,7 +16988,7 @@
         <v>228</v>
       </c>
       <c r="G137" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H137" s="45"/>
       <c r="I137" s="45"/>
@@ -16933,7 +17028,7 @@
         <v>231</v>
       </c>
       <c r="G138" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H138" s="45"/>
       <c r="I138" s="45"/>
@@ -16969,7 +17064,7 @@
         <v>233</v>
       </c>
       <c r="G139" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H139" s="45"/>
       <c r="I139" s="45"/>
@@ -17005,7 +17100,7 @@
         <v>235</v>
       </c>
       <c r="G140" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H140" s="45"/>
       <c r="I140" s="45"/>
@@ -17041,7 +17136,7 @@
         <v>236</v>
       </c>
       <c r="G141" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H141" s="45"/>
       <c r="I141" s="45"/>
@@ -17077,7 +17172,7 @@
         <v>239</v>
       </c>
       <c r="G142" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H142" s="45"/>
       <c r="I142" s="45"/>
@@ -17113,7 +17208,7 @@
         <v>241</v>
       </c>
       <c r="G143" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H143" s="45"/>
       <c r="I143" s="45"/>
@@ -17147,7 +17242,7 @@
         <v>243</v>
       </c>
       <c r="G144" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H144" s="45"/>
       <c r="I144" s="45"/>
@@ -17181,7 +17276,7 @@
         <v>244</v>
       </c>
       <c r="G145" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H145" s="45"/>
       <c r="I145" s="45"/>
@@ -17215,7 +17310,7 @@
         <v>245</v>
       </c>
       <c r="G146" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H146" s="45"/>
       <c r="I146" s="45"/>
@@ -17249,7 +17344,7 @@
         <v>246</v>
       </c>
       <c r="G147" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H147" s="45"/>
       <c r="I147" s="45"/>
@@ -17283,7 +17378,7 @@
         <v>247</v>
       </c>
       <c r="G148" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H148" s="45"/>
       <c r="I148" s="45"/>
@@ -17321,7 +17416,7 @@
         <v>249</v>
       </c>
       <c r="G149" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H149" s="45"/>
       <c r="I149" s="45"/>
@@ -17355,7 +17450,7 @@
         <v>250</v>
       </c>
       <c r="G150" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H150" s="45"/>
       <c r="I150" s="45"/>
@@ -17391,7 +17486,7 @@
         <v>251</v>
       </c>
       <c r="G151" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H151" s="45"/>
       <c r="I151" s="45"/>
@@ -17425,7 +17520,7 @@
         <v>252</v>
       </c>
       <c r="G152" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H152" s="45"/>
       <c r="I152" s="45"/>
@@ -17459,7 +17554,7 @@
         <v>253</v>
       </c>
       <c r="G153" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H153" s="45"/>
       <c r="I153" s="45"/>
@@ -17493,7 +17588,7 @@
         <v>254</v>
       </c>
       <c r="G154" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H154" s="45"/>
       <c r="I154" s="45"/>
@@ -17527,7 +17622,7 @@
         <v>255</v>
       </c>
       <c r="G155" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H155" s="45"/>
       <c r="I155" s="45"/>
@@ -17561,7 +17656,7 @@
         <v>256</v>
       </c>
       <c r="G156" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H156" s="45"/>
       <c r="I156" s="45"/>
@@ -17595,7 +17690,7 @@
         <v>257</v>
       </c>
       <c r="G157" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H157" s="45"/>
       <c r="I157" s="45"/>
@@ -17629,7 +17724,7 @@
         <v>258</v>
       </c>
       <c r="G158" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H158" s="45"/>
       <c r="I158" s="45"/>
@@ -17663,7 +17758,7 @@
         <v>259</v>
       </c>
       <c r="G159" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H159" s="45"/>
       <c r="I159" s="45"/>
@@ -17697,7 +17792,7 @@
         <v>260</v>
       </c>
       <c r="G160" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H160" s="45"/>
       <c r="I160" s="45"/>
@@ -17731,7 +17826,7 @@
         <v>261</v>
       </c>
       <c r="G161" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H161" s="45"/>
       <c r="I161" s="45"/>
@@ -17767,7 +17862,7 @@
         <v>262</v>
       </c>
       <c r="G162" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H162" s="45"/>
       <c r="I162" s="45"/>
@@ -17801,7 +17896,7 @@
         <v>263</v>
       </c>
       <c r="G163" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H163" s="45"/>
       <c r="I163" s="45"/>
@@ -17835,7 +17930,7 @@
         <v>264</v>
       </c>
       <c r="G164" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H164" s="45"/>
       <c r="I164" s="45"/>
@@ -17869,7 +17964,7 @@
         <v>265</v>
       </c>
       <c r="G165" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H165" s="45"/>
       <c r="I165" s="45"/>
@@ -17903,7 +17998,7 @@
         <v>266</v>
       </c>
       <c r="G166" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H166" s="45"/>
       <c r="I166" s="45"/>
@@ -17937,7 +18032,7 @@
         <v>267</v>
       </c>
       <c r="G167" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H167" s="45"/>
       <c r="I167" s="45"/>
@@ -17971,7 +18066,7 @@
         <v>268</v>
       </c>
       <c r="G168" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H168" s="45"/>
       <c r="I168" s="45"/>
@@ -18007,7 +18102,7 @@
         <v>269</v>
       </c>
       <c r="G169" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H169" s="45"/>
       <c r="I169" s="45"/>
@@ -18041,7 +18136,7 @@
         <v>270</v>
       </c>
       <c r="G170" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H170" s="45"/>
       <c r="I170" s="45"/>
@@ -18075,7 +18170,7 @@
         <v>271</v>
       </c>
       <c r="G171" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H171" s="45"/>
       <c r="I171" s="45"/>
@@ -18109,7 +18204,7 @@
         <v>272</v>
       </c>
       <c r="G172" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H172" s="45"/>
       <c r="I172" s="45"/>
@@ -18143,7 +18238,7 @@
         <v>273</v>
       </c>
       <c r="G173" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H173" s="45"/>
       <c r="I173" s="45"/>
@@ -18177,7 +18272,7 @@
         <v>274</v>
       </c>
       <c r="G174" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H174" s="45"/>
       <c r="I174" s="45"/>
@@ -18211,7 +18306,7 @@
         <v>275</v>
       </c>
       <c r="G175" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H175" s="45"/>
       <c r="I175" s="45"/>
@@ -18245,7 +18340,7 @@
         <v>276</v>
       </c>
       <c r="G176" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H176" s="45"/>
       <c r="I176" s="45"/>
@@ -18279,7 +18374,7 @@
         <v>277</v>
       </c>
       <c r="G177" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H177" s="45"/>
       <c r="I177" s="45"/>
@@ -18315,7 +18410,7 @@
         <v>278</v>
       </c>
       <c r="G178" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H178" s="45"/>
       <c r="I178" s="45"/>
@@ -18351,7 +18446,7 @@
         <v>280</v>
       </c>
       <c r="G179" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H179" s="45"/>
       <c r="I179" s="45"/>
@@ -20147,7 +20242,7 @@
         <v>347</v>
       </c>
       <c r="G230" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H230" s="45"/>
       <c r="I230" s="45"/>
@@ -20183,7 +20278,7 @@
         <v>348</v>
       </c>
       <c r="G231" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H231" s="45"/>
       <c r="I231" s="45"/>
@@ -20217,7 +20312,7 @@
         <v>349</v>
       </c>
       <c r="G232" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H232" s="45"/>
       <c r="I232" s="45"/>
@@ -20251,7 +20346,7 @@
         <v>350</v>
       </c>
       <c r="G233" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H233" s="45"/>
       <c r="I233" s="45"/>
@@ -20285,7 +20380,7 @@
         <v>351</v>
       </c>
       <c r="G234" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H234" s="45"/>
       <c r="I234" s="45"/>
@@ -20319,7 +20414,7 @@
         <v>352</v>
       </c>
       <c r="G235" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H235" s="45"/>
       <c r="I235" s="45"/>
@@ -20355,7 +20450,7 @@
         <v>353</v>
       </c>
       <c r="G236" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H236" s="45"/>
       <c r="I236" s="45"/>
@@ -20389,7 +20484,7 @@
         <v>354</v>
       </c>
       <c r="G237" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H237" s="45"/>
       <c r="I237" s="45"/>
@@ -20423,7 +20518,7 @@
         <v>355</v>
       </c>
       <c r="G238" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H238" s="45"/>
       <c r="I238" s="45"/>
@@ -20457,7 +20552,7 @@
         <v>356</v>
       </c>
       <c r="G239" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H239" s="45"/>
       <c r="I239" s="45"/>
@@ -20491,7 +20586,7 @@
         <v>357</v>
       </c>
       <c r="G240" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H240" s="45"/>
       <c r="I240" s="45"/>
@@ -20527,7 +20622,7 @@
         <v>358</v>
       </c>
       <c r="G241" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H241" s="45"/>
       <c r="I241" s="45"/>
@@ -20567,7 +20662,7 @@
         <v>359</v>
       </c>
       <c r="G242" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H242" s="45"/>
       <c r="I242" s="45"/>
@@ -20609,7 +20704,7 @@
         <v>362</v>
       </c>
       <c r="G243" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H243" s="45"/>
       <c r="I243" s="45"/>
@@ -20643,7 +20738,7 @@
         <v>363</v>
       </c>
       <c r="G244" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H244" s="45"/>
       <c r="I244" s="45"/>
@@ -20681,7 +20776,7 @@
         <v>364</v>
       </c>
       <c r="G245" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H245" s="45"/>
       <c r="I245" s="45"/>
@@ -20715,7 +20810,7 @@
         <v>365</v>
       </c>
       <c r="G246" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H246" s="45"/>
       <c r="I246" s="45"/>
@@ -20755,7 +20850,7 @@
         <v>367</v>
       </c>
       <c r="G247" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H247" s="45"/>
       <c r="I247" s="45"/>
@@ -20791,7 +20886,7 @@
         <v>368</v>
       </c>
       <c r="G248" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H248" s="45"/>
       <c r="I248" s="45"/>
@@ -20827,7 +20922,7 @@
         <v>369</v>
       </c>
       <c r="G249" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H249" s="45"/>
       <c r="I249" s="45"/>
@@ -20863,7 +20958,7 @@
         <v>370</v>
       </c>
       <c r="G250" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H250" s="45"/>
       <c r="I250" s="45"/>
@@ -20901,7 +20996,7 @@
         <v>371</v>
       </c>
       <c r="G251" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H251" s="45"/>
       <c r="I251" s="45"/>
@@ -20935,7 +21030,7 @@
         <v>372</v>
       </c>
       <c r="G252" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H252" s="45"/>
       <c r="I252" s="45"/>
@@ -20971,7 +21066,7 @@
         <v>373</v>
       </c>
       <c r="G253" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H253" s="45"/>
       <c r="I253" s="45"/>
@@ -21005,7 +21100,7 @@
         <v>374</v>
       </c>
       <c r="G254" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H254" s="45"/>
       <c r="I254" s="45"/>
@@ -21039,7 +21134,7 @@
         <v>375</v>
       </c>
       <c r="G255" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H255" s="45"/>
       <c r="I255" s="45"/>
@@ -21073,7 +21168,7 @@
         <v>376</v>
       </c>
       <c r="G256" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H256" s="45"/>
       <c r="I256" s="45"/>
@@ -21107,7 +21202,7 @@
         <v>377</v>
       </c>
       <c r="G257" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H257" s="45"/>
       <c r="I257" s="45"/>
@@ -21141,7 +21236,7 @@
         <v>378</v>
       </c>
       <c r="G258" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H258" s="45"/>
       <c r="I258" s="45"/>
@@ -21175,7 +21270,7 @@
         <v>379</v>
       </c>
       <c r="G259" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H259" s="45"/>
       <c r="I259" s="45"/>
@@ -21209,7 +21304,7 @@
         <v>380</v>
       </c>
       <c r="G260" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H260" s="45"/>
       <c r="I260" s="45"/>
@@ -21243,7 +21338,7 @@
         <v>381</v>
       </c>
       <c r="G261" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H261" s="45"/>
       <c r="I261" s="45"/>
@@ -21277,7 +21372,7 @@
         <v>382</v>
       </c>
       <c r="G262" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H262" s="45"/>
       <c r="I262" s="45"/>
@@ -21311,7 +21406,7 @@
         <v>383</v>
       </c>
       <c r="G263" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H263" s="45"/>
       <c r="I263" s="45"/>
@@ -21347,7 +21442,7 @@
         <v>384</v>
       </c>
       <c r="G264" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H264" s="45"/>
       <c r="I264" s="45"/>
@@ -21381,7 +21476,7 @@
         <v>385</v>
       </c>
       <c r="G265" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H265" s="45"/>
       <c r="I265" s="45"/>
@@ -21415,7 +21510,7 @@
         <v>386</v>
       </c>
       <c r="G266" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H266" s="45"/>
       <c r="I266" s="45"/>
@@ -21449,7 +21544,7 @@
         <v>387</v>
       </c>
       <c r="G267" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H267" s="45"/>
       <c r="I267" s="45"/>
@@ -21483,7 +21578,7 @@
         <v>388</v>
       </c>
       <c r="G268" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H268" s="45"/>
       <c r="I268" s="45"/>
@@ -21517,7 +21612,7 @@
         <v>389</v>
       </c>
       <c r="G269" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H269" s="45"/>
       <c r="I269" s="45"/>
@@ -21553,7 +21648,7 @@
         <v>390</v>
       </c>
       <c r="G270" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H270" s="45"/>
       <c r="I270" s="45"/>
@@ -21587,7 +21682,7 @@
         <v>391</v>
       </c>
       <c r="G271" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H271" s="45"/>
       <c r="I271" s="45"/>
@@ -21621,7 +21716,7 @@
         <v>392</v>
       </c>
       <c r="G272" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H272" s="45"/>
       <c r="I272" s="45"/>
@@ -21655,7 +21750,7 @@
         <v>393</v>
       </c>
       <c r="G273" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H273" s="45"/>
       <c r="I273" s="45"/>
@@ -21689,7 +21784,7 @@
         <v>394</v>
       </c>
       <c r="G274" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H274" s="45"/>
       <c r="I274" s="45"/>
@@ -21723,7 +21818,7 @@
         <v>395</v>
       </c>
       <c r="G275" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H275" s="45"/>
       <c r="I275" s="45"/>
@@ -21757,7 +21852,7 @@
         <v>396</v>
       </c>
       <c r="G276" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H276" s="45"/>
       <c r="I276" s="45"/>
@@ -21791,7 +21886,7 @@
         <v>397</v>
       </c>
       <c r="G277" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H277" s="45"/>
       <c r="I277" s="45"/>
@@ -21827,7 +21922,7 @@
         <v>398</v>
       </c>
       <c r="G278" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H278" s="45"/>
       <c r="I278" s="45"/>
@@ -21873,7 +21968,7 @@
       <c r="I279" s="45"/>
       <c r="J279" s="58"/>
       <c r="K279" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L279" s="57"/>
       <c r="M279" s="58"/>
@@ -21907,7 +22002,7 @@
       <c r="I280" s="45"/>
       <c r="J280" s="58"/>
       <c r="K280" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L280" s="57"/>
       <c r="M280" s="58"/>
@@ -21941,7 +22036,7 @@
       <c r="I281" s="45"/>
       <c r="J281" s="58"/>
       <c r="K281" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L281" s="57"/>
       <c r="M281" s="58"/>
@@ -21975,7 +22070,7 @@
       <c r="I282" s="45"/>
       <c r="J282" s="58"/>
       <c r="K282" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L282" s="57"/>
       <c r="M282" s="58"/>
@@ -22015,7 +22110,7 @@
       <c r="I283" s="45"/>
       <c r="J283" s="58"/>
       <c r="K283" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L283" s="57"/>
       <c r="M283" s="58"/>
@@ -22051,7 +22146,7 @@
       <c r="I284" s="45"/>
       <c r="J284" s="58"/>
       <c r="K284" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L284" s="57"/>
       <c r="M284" s="58"/>
@@ -22087,7 +22182,7 @@
       <c r="I285" s="45"/>
       <c r="J285" s="58"/>
       <c r="K285" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L285" s="57"/>
       <c r="M285" s="58"/>
@@ -22123,7 +22218,7 @@
       <c r="I286" s="45"/>
       <c r="J286" s="58"/>
       <c r="K286" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L286" s="57"/>
       <c r="M286" s="58"/>
@@ -22161,7 +22256,7 @@
       <c r="I287" s="45"/>
       <c r="J287" s="58"/>
       <c r="K287" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L287" s="57"/>
       <c r="M287" s="58"/>
@@ -22195,7 +22290,7 @@
       <c r="I288" s="45"/>
       <c r="J288" s="58"/>
       <c r="K288" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L288" s="57"/>
       <c r="M288" s="58"/>
@@ -22229,7 +22324,7 @@
       <c r="I289" s="45"/>
       <c r="J289" s="58"/>
       <c r="K289" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L289" s="57"/>
       <c r="M289" s="58"/>
@@ -22263,7 +22358,7 @@
       <c r="I290" s="45"/>
       <c r="J290" s="58"/>
       <c r="K290" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L290" s="57"/>
       <c r="M290" s="58"/>
@@ -22297,7 +22392,7 @@
       <c r="I291" s="45"/>
       <c r="J291" s="58"/>
       <c r="K291" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L291" s="57"/>
       <c r="M291" s="58"/>
@@ -22331,7 +22426,7 @@
       <c r="I292" s="45"/>
       <c r="J292" s="58"/>
       <c r="K292" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L292" s="57"/>
       <c r="M292" s="58"/>
@@ -22365,7 +22460,7 @@
       <c r="I293" s="45"/>
       <c r="J293" s="58"/>
       <c r="K293" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L293" s="57"/>
       <c r="M293" s="58"/>
@@ -22399,7 +22494,7 @@
       <c r="I294" s="45"/>
       <c r="J294" s="58"/>
       <c r="K294" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L294" s="57"/>
       <c r="M294" s="58"/>
@@ -22433,7 +22528,7 @@
       <c r="I295" s="45"/>
       <c r="J295" s="58"/>
       <c r="K295" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L295" s="57"/>
       <c r="M295" s="58"/>
@@ -22474,7 +22569,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -22493,7 +22588,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="28" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -22503,17 +22598,17 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="28" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="28" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>8</v>
@@ -22524,7 +22619,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="28" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>9</v>
@@ -22589,10 +22684,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>419</v>
+        <v>28</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>420</v>
+        <v>605</v>
       </c>
       <c r="N10" s="38" t="s">
         <v>2</v>
@@ -22624,7 +22719,7 @@
         <v>1-1-1</v>
       </c>
       <c r="B11" s="115" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C11" s="66" t="s">
         <v>40</v>
@@ -22639,7 +22734,7 @@
         <v>43</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H11" s="58"/>
       <c r="I11" s="58"/>
@@ -22676,7 +22771,7 @@
         <v>46</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H12" s="58"/>
       <c r="I12" s="58"/>
@@ -22715,7 +22810,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
@@ -22750,7 +22845,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H14" s="58"/>
       <c r="I14" s="58"/>
@@ -22785,7 +22880,7 @@
         <v>51</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H15" s="58"/>
       <c r="I15" s="58"/>
@@ -22820,7 +22915,7 @@
         <v>52</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="58"/>
@@ -22855,7 +22950,7 @@
         <v>53</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H17" s="58"/>
       <c r="I17" s="58"/>
@@ -22894,7 +22989,7 @@
         <v>56</v>
       </c>
       <c r="G18" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H18" s="58"/>
       <c r="I18" s="58"/>
@@ -22929,7 +23024,7 @@
         <v>57</v>
       </c>
       <c r="G19" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H19" s="58"/>
       <c r="I19" s="58"/>
@@ -22964,7 +23059,7 @@
         <v>58</v>
       </c>
       <c r="G20" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H20" s="58"/>
       <c r="I20" s="58"/>
@@ -23001,7 +23096,7 @@
         <v>60</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H21" s="58"/>
       <c r="I21" s="58"/>
@@ -23036,7 +23131,7 @@
         <v>61</v>
       </c>
       <c r="G22" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H22" s="58"/>
       <c r="I22" s="58"/>
@@ -23068,10 +23163,10 @@
       <c r="D23" s="73"/>
       <c r="E23" s="73"/>
       <c r="F23" s="68" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G23" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H23" s="58"/>
       <c r="I23" s="58"/>
@@ -23103,10 +23198,10 @@
       <c r="D24" s="74"/>
       <c r="E24" s="72"/>
       <c r="F24" s="68" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G24" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H24" s="58"/>
       <c r="I24" s="58"/>
@@ -23145,7 +23240,7 @@
         <v>65</v>
       </c>
       <c r="G25" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H25" s="58"/>
       <c r="I25" s="58"/>
@@ -23180,7 +23275,7 @@
         <v>66</v>
       </c>
       <c r="G26" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H26" s="58"/>
       <c r="I26" s="58"/>
@@ -23219,7 +23314,7 @@
         <v>69</v>
       </c>
       <c r="G27" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H27" s="58"/>
       <c r="I27" s="58"/>
@@ -23254,7 +23349,7 @@
         <v>70</v>
       </c>
       <c r="G28" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H28" s="58"/>
       <c r="I28" s="58"/>
@@ -23291,7 +23386,7 @@
         <v>72</v>
       </c>
       <c r="G29" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H29" s="58"/>
       <c r="I29" s="58"/>
@@ -23326,7 +23421,7 @@
         <v>73</v>
       </c>
       <c r="G30" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H30" s="58"/>
       <c r="I30" s="58"/>
@@ -23361,7 +23456,7 @@
         <v>74</v>
       </c>
       <c r="G31" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H31" s="58"/>
       <c r="I31" s="58"/>
@@ -23396,7 +23491,7 @@
         <v>75</v>
       </c>
       <c r="G32" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H32" s="58"/>
       <c r="I32" s="58"/>
@@ -23427,13 +23522,13 @@
       <c r="C33" s="71"/>
       <c r="D33" s="73"/>
       <c r="E33" s="73" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F33" s="68" t="s">
         <v>77</v>
       </c>
       <c r="G33" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H33" s="58"/>
       <c r="I33" s="58"/>
@@ -23468,7 +23563,7 @@
         <v>78</v>
       </c>
       <c r="G34" s="57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H34" s="58"/>
       <c r="I34" s="58"/>
@@ -23502,10 +23597,10 @@
         <v>79</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G35" s="57" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H35" s="45"/>
       <c r="I35" s="45"/>
@@ -23537,16 +23632,16 @@
         <v>82</v>
       </c>
       <c r="D36" s="98" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E36" s="66" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F36" s="72" t="s">
         <v>85</v>
       </c>
       <c r="G36" s="109" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H36" s="58"/>
       <c r="I36" s="58"/>
@@ -23578,10 +23673,10 @@
       <c r="D37" s="73"/>
       <c r="E37" s="67"/>
       <c r="F37" s="68" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G37" s="109" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H37" s="58"/>
       <c r="I37" s="58"/>
@@ -23616,7 +23711,7 @@
         <v>87</v>
       </c>
       <c r="G38" s="109" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H38" s="58"/>
       <c r="I38" s="58"/>
@@ -23651,7 +23746,7 @@
         <v>88</v>
       </c>
       <c r="G39" s="109" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H39" s="58"/>
       <c r="I39" s="58"/>
@@ -23687,10 +23782,10 @@
         <v>48</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G40" s="109" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
@@ -23722,10 +23817,10 @@
       <c r="D41" s="73"/>
       <c r="E41" s="67"/>
       <c r="F41" s="68" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G41" s="109" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H41" s="58"/>
       <c r="I41" s="58"/>
@@ -23754,35 +23849,43 @@
       </c>
       <c r="B42" s="111"/>
       <c r="C42" s="115" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D42" s="115" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="115" t="s">
+        <v>488</v>
+      </c>
+      <c r="F42" s="112" t="s">
         <v>490</v>
-      </c>
-      <c r="F42" s="112" t="s">
-        <v>492</v>
       </c>
       <c r="G42" s="113"/>
       <c r="H42" s="108" t="s">
+        <v>501</v>
+      </c>
+      <c r="I42" s="108" t="s">
+        <v>502</v>
+      </c>
+      <c r="J42" s="107" t="s">
+        <v>590</v>
+      </c>
+      <c r="K42" s="107" t="s">
         <v>503</v>
       </c>
-      <c r="I42" s="108" t="s">
-        <v>504</v>
-      </c>
-      <c r="J42" s="107" t="s">
-        <v>505</v>
-      </c>
-      <c r="K42" s="107" t="s">
-        <v>506</v>
-      </c>
-      <c r="L42" s="108"/>
+      <c r="L42" s="108" t="s">
+        <v>591</v>
+      </c>
       <c r="M42" s="108"/>
-      <c r="N42" s="108"/>
-      <c r="O42" s="108"/>
-      <c r="P42" s="108"/>
+      <c r="N42" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O42" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P42" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q42" s="114"/>
       <c r="R42" s="107"/>
     </row>
@@ -23804,26 +23907,34 @@
       <c r="D43" s="116"/>
       <c r="E43" s="116"/>
       <c r="F43" s="112" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G43" s="113"/>
       <c r="H43" s="108" t="s">
+        <v>504</v>
+      </c>
+      <c r="I43" s="108" t="s">
+        <v>505</v>
+      </c>
+      <c r="J43" s="107" t="s">
         <v>507</v>
       </c>
-      <c r="I43" s="108" t="s">
-        <v>508</v>
-      </c>
-      <c r="J43" s="107" t="s">
-        <v>510</v>
-      </c>
       <c r="K43" s="107" t="s">
-        <v>509</v>
-      </c>
-      <c r="L43" s="108"/>
+        <v>506</v>
+      </c>
+      <c r="L43" s="108" t="s">
+        <v>592</v>
+      </c>
       <c r="M43" s="108"/>
-      <c r="N43" s="108"/>
-      <c r="O43" s="108"/>
-      <c r="P43" s="108"/>
+      <c r="N43" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O43" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P43" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q43" s="114"/>
       <c r="R43" s="107"/>
     </row>
@@ -23846,16 +23957,16 @@
         <v>83</v>
       </c>
       <c r="E44" s="66" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G44" s="109"/>
       <c r="H44" s="58"/>
       <c r="I44" s="58"/>
       <c r="J44" s="57" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K44" s="57"/>
       <c r="L44" s="58"/>
@@ -23884,13 +23995,13 @@
       <c r="D45" s="72"/>
       <c r="E45" s="72"/>
       <c r="F45" s="68" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G45" s="109"/>
       <c r="H45" s="58"/>
       <c r="I45" s="58"/>
       <c r="J45" s="57" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K45" s="57"/>
       <c r="L45" s="58"/>
@@ -23931,22 +24042,30 @@
       </c>
       <c r="G46" s="53"/>
       <c r="H46" s="52" t="s">
+        <v>508</v>
+      </c>
+      <c r="I46" s="52" t="s">
+        <v>509</v>
+      </c>
+      <c r="J46" s="81" t="s">
+        <v>510</v>
+      </c>
+      <c r="K46" s="81" t="s">
         <v>511</v>
       </c>
-      <c r="I46" s="52" t="s">
-        <v>512</v>
-      </c>
-      <c r="J46" s="81" t="s">
-        <v>513</v>
-      </c>
-      <c r="K46" s="81" t="s">
-        <v>514</v>
-      </c>
-      <c r="L46" s="54"/>
+      <c r="L46" s="54" t="s">
+        <v>593</v>
+      </c>
       <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
+      <c r="N46" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O46" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P46" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q46" s="77"/>
       <c r="R46" s="53"/>
     </row>
@@ -23970,22 +24089,30 @@
       <c r="F47" s="76"/>
       <c r="G47" s="53"/>
       <c r="H47" s="52" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I47" s="52" t="s">
+        <v>509</v>
+      </c>
+      <c r="J47" s="81" t="s">
         <v>512</v>
       </c>
-      <c r="J47" s="81" t="s">
-        <v>515</v>
-      </c>
       <c r="K47" s="81" t="s">
-        <v>516</v>
-      </c>
-      <c r="L47" s="54"/>
+        <v>513</v>
+      </c>
+      <c r="L47" s="54" t="s">
+        <v>594</v>
+      </c>
       <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
+      <c r="N47" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O47" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P47" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q47" s="77"/>
       <c r="R47" s="53"/>
     </row>
@@ -24011,26 +24138,34 @@
       </c>
       <c r="G48" s="53"/>
       <c r="H48" s="51" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I48" s="52" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J48" s="81" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K48" s="81" t="s">
-        <v>518</v>
-      </c>
-      <c r="L48" s="54"/>
+        <v>515</v>
+      </c>
+      <c r="L48" s="54" t="s">
+        <v>596</v>
+      </c>
       <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
+      <c r="N48" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O48" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P48" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q48" s="77"/>
       <c r="R48" s="53"/>
     </row>
-    <row r="49" spans="1:18" ht="45">
+    <row r="49" spans="1:18" ht="56.25">
       <c r="A49" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -24050,22 +24185,32 @@
       <c r="F49" s="76"/>
       <c r="G49" s="53"/>
       <c r="H49" s="51" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I49" s="52" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J49" s="81" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K49" s="81" t="s">
-        <v>518</v>
-      </c>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
+        <v>515</v>
+      </c>
+      <c r="L49" s="54" t="s">
+        <v>598</v>
+      </c>
+      <c r="M49" s="54" t="s">
+        <v>608</v>
+      </c>
+      <c r="N49" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O49" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P49" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q49" s="77"/>
       <c r="R49" s="53"/>
     </row>
@@ -24091,22 +24236,30 @@
       </c>
       <c r="G50" s="107"/>
       <c r="H50" s="52" t="s">
+        <v>508</v>
+      </c>
+      <c r="I50" s="52" t="s">
+        <v>509</v>
+      </c>
+      <c r="J50" s="81" t="s">
+        <v>510</v>
+      </c>
+      <c r="K50" s="81" t="s">
         <v>511</v>
       </c>
-      <c r="I50" s="52" t="s">
-        <v>512</v>
-      </c>
-      <c r="J50" s="81" t="s">
-        <v>513</v>
-      </c>
-      <c r="K50" s="81" t="s">
-        <v>514</v>
-      </c>
-      <c r="L50" s="108"/>
+      <c r="L50" s="54" t="s">
+        <v>593</v>
+      </c>
       <c r="M50" s="108"/>
-      <c r="N50" s="108"/>
-      <c r="O50" s="108"/>
-      <c r="P50" s="108"/>
+      <c r="N50" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O50" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P50" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q50" s="114"/>
       <c r="R50" s="107"/>
     </row>
@@ -24130,22 +24283,30 @@
       <c r="F51" s="111"/>
       <c r="G51" s="107"/>
       <c r="H51" s="51" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I51" s="52" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J51" s="81" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K51" s="81" t="s">
-        <v>518</v>
-      </c>
-      <c r="L51" s="108"/>
+        <v>515</v>
+      </c>
+      <c r="L51" s="54" t="s">
+        <v>596</v>
+      </c>
       <c r="M51" s="108"/>
-      <c r="N51" s="108"/>
-      <c r="O51" s="108"/>
-      <c r="P51" s="108"/>
+      <c r="N51" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O51" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P51" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q51" s="114"/>
       <c r="R51" s="107"/>
     </row>
@@ -24169,26 +24330,34 @@
       <c r="F52" s="111"/>
       <c r="G52" s="107"/>
       <c r="H52" s="52" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I52" s="52" t="s">
+        <v>509</v>
+      </c>
+      <c r="J52" s="81" t="s">
         <v>512</v>
       </c>
-      <c r="J52" s="81" t="s">
-        <v>515</v>
-      </c>
       <c r="K52" s="81" t="s">
-        <v>516</v>
-      </c>
-      <c r="L52" s="108"/>
+        <v>513</v>
+      </c>
+      <c r="L52" s="54" t="s">
+        <v>594</v>
+      </c>
       <c r="M52" s="108"/>
-      <c r="N52" s="108"/>
-      <c r="O52" s="108"/>
-      <c r="P52" s="108"/>
+      <c r="N52" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O52" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P52" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q52" s="114"/>
       <c r="R52" s="107"/>
     </row>
-    <row r="53" spans="1:18" ht="45">
+    <row r="53" spans="1:18" ht="56.25">
       <c r="A53" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -24208,22 +24377,32 @@
       <c r="F53" s="116"/>
       <c r="G53" s="107"/>
       <c r="H53" s="51" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I53" s="52" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J53" s="81" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K53" s="81" t="s">
-        <v>518</v>
-      </c>
-      <c r="L53" s="108"/>
-      <c r="M53" s="108"/>
-      <c r="N53" s="108"/>
-      <c r="O53" s="108"/>
-      <c r="P53" s="108"/>
+        <v>515</v>
+      </c>
+      <c r="L53" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="M53" s="108" t="s">
+        <v>608</v>
+      </c>
+      <c r="N53" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O53" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P53" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q53" s="114"/>
       <c r="R53" s="107"/>
     </row>
@@ -24251,26 +24430,34 @@
       </c>
       <c r="G54" s="53"/>
       <c r="H54" s="54" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I54" s="54" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J54" s="82" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K54" s="53" t="s">
-        <v>521</v>
-      </c>
-      <c r="L54" s="54"/>
+        <v>518</v>
+      </c>
+      <c r="L54" s="54" t="s">
+        <v>599</v>
+      </c>
       <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
+      <c r="N54" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O54" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P54" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q54" s="77"/>
       <c r="R54" s="53"/>
     </row>
-    <row r="55" spans="1:18" ht="56.25">
+    <row r="55" spans="1:18" ht="67.5">
       <c r="A55" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -24292,22 +24479,32 @@
       </c>
       <c r="G55" s="53"/>
       <c r="H55" s="54" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I55" s="54" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J55" s="82" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K55" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
+        <v>515</v>
+      </c>
+      <c r="L55" s="54" t="s">
+        <v>600</v>
+      </c>
+      <c r="M55" s="54" t="s">
+        <v>609</v>
+      </c>
+      <c r="N55" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O55" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P55" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q55" s="77"/>
       <c r="R55" s="53"/>
     </row>
@@ -24333,22 +24530,30 @@
       </c>
       <c r="G56" s="53"/>
       <c r="H56" s="54" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I56" s="54" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J56" s="82" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K56" s="53" t="s">
-        <v>524</v>
-      </c>
-      <c r="L56" s="54"/>
+        <v>521</v>
+      </c>
+      <c r="L56" s="54" t="s">
+        <v>592</v>
+      </c>
       <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
+      <c r="N56" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O56" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P56" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q56" s="77"/>
       <c r="R56" s="53"/>
     </row>
@@ -24376,26 +24581,34 @@
       </c>
       <c r="G57" s="107"/>
       <c r="H57" s="106" t="s">
+        <v>564</v>
+      </c>
+      <c r="I57" s="106" t="s">
+        <v>565</v>
+      </c>
+      <c r="J57" s="79" t="s">
+        <v>566</v>
+      </c>
+      <c r="K57" s="145" t="s">
         <v>567</v>
       </c>
-      <c r="I57" s="106" t="s">
-        <v>568</v>
-      </c>
-      <c r="J57" s="79" t="s">
-        <v>569</v>
-      </c>
-      <c r="K57" s="145" t="s">
-        <v>570</v>
-      </c>
-      <c r="L57" s="108"/>
+      <c r="L57" s="54" t="s">
+        <v>594</v>
+      </c>
       <c r="M57" s="108"/>
-      <c r="N57" s="108"/>
-      <c r="O57" s="108"/>
-      <c r="P57" s="108"/>
+      <c r="N57" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O57" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P57" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q57" s="114"/>
       <c r="R57" s="107"/>
     </row>
-    <row r="58" spans="1:18" ht="45">
+    <row r="58" spans="1:18" ht="56.25">
       <c r="A58" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -24417,22 +24630,32 @@
       </c>
       <c r="G58" s="107"/>
       <c r="H58" s="106" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I58" s="106" t="s">
+        <v>565</v>
+      </c>
+      <c r="J58" s="79" t="s">
         <v>568</v>
       </c>
-      <c r="J58" s="79" t="s">
-        <v>571</v>
-      </c>
       <c r="K58" s="145" t="s">
-        <v>572</v>
-      </c>
-      <c r="L58" s="108"/>
-      <c r="M58" s="108"/>
-      <c r="N58" s="108"/>
-      <c r="O58" s="108"/>
-      <c r="P58" s="108"/>
+        <v>569</v>
+      </c>
+      <c r="L58" s="54" t="s">
+        <v>598</v>
+      </c>
+      <c r="M58" s="108" t="s">
+        <v>608</v>
+      </c>
+      <c r="N58" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O58" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P58" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q58" s="114"/>
       <c r="R58" s="107"/>
     </row>
@@ -24460,22 +24683,30 @@
       </c>
       <c r="G59" s="107"/>
       <c r="H59" s="146" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I59" s="146" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J59" s="112" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="K59" s="147" t="s">
-        <v>574</v>
-      </c>
-      <c r="L59" s="108"/>
+        <v>571</v>
+      </c>
+      <c r="L59" s="54" t="s">
+        <v>593</v>
+      </c>
       <c r="M59" s="108"/>
-      <c r="N59" s="108"/>
-      <c r="O59" s="108"/>
-      <c r="P59" s="108"/>
+      <c r="N59" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O59" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P59" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q59" s="114"/>
       <c r="R59" s="107"/>
     </row>
@@ -24501,22 +24732,32 @@
       </c>
       <c r="G60" s="107"/>
       <c r="H60" s="146" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I60" s="146" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J60" s="112" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K60" s="147" t="s">
-        <v>572</v>
-      </c>
-      <c r="L60" s="108"/>
-      <c r="M60" s="108"/>
-      <c r="N60" s="108"/>
-      <c r="O60" s="108"/>
-      <c r="P60" s="108"/>
+        <v>569</v>
+      </c>
+      <c r="L60" s="54" t="s">
+        <v>598</v>
+      </c>
+      <c r="M60" s="108" t="s">
+        <v>607</v>
+      </c>
+      <c r="N60" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O60" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P60" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q60" s="114"/>
       <c r="R60" s="107"/>
     </row>
@@ -24544,7 +24785,7 @@
       <c r="H61" s="58"/>
       <c r="I61" s="58"/>
       <c r="J61" s="57" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K61" s="57"/>
       <c r="L61" s="58"/>
@@ -24579,7 +24820,7 @@
       <c r="H62" s="58"/>
       <c r="I62" s="58"/>
       <c r="J62" s="57" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K62" s="57"/>
       <c r="L62" s="58"/>
@@ -24614,7 +24855,7 @@
       <c r="H63" s="58"/>
       <c r="I63" s="58"/>
       <c r="J63" s="57" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K63" s="57"/>
       <c r="L63" s="58"/>
@@ -24649,7 +24890,7 @@
       <c r="H64" s="58"/>
       <c r="I64" s="58"/>
       <c r="J64" s="57" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K64" s="57"/>
       <c r="L64" s="58"/>
@@ -24686,7 +24927,7 @@
       <c r="H65" s="45"/>
       <c r="I65" s="45"/>
       <c r="J65" s="56" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K65" s="56"/>
       <c r="L65" s="58"/>
@@ -24714,7 +24955,7 @@
       <c r="C66" s="70"/>
       <c r="D66" s="70"/>
       <c r="E66" s="68" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F66" s="68" t="s">
         <v>113</v>
@@ -24723,7 +24964,7 @@
       <c r="H66" s="58"/>
       <c r="I66" s="58"/>
       <c r="J66" s="57" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K66" s="57"/>
       <c r="L66" s="58"/>
@@ -24758,22 +24999,32 @@
       </c>
       <c r="G67" s="53"/>
       <c r="H67" s="54" t="s">
+        <v>526</v>
+      </c>
+      <c r="I67" s="54" t="s">
+        <v>527</v>
+      </c>
+      <c r="J67" s="53" t="s">
+        <v>528</v>
+      </c>
+      <c r="K67" s="53" t="s">
         <v>529</v>
       </c>
-      <c r="I67" s="54" t="s">
-        <v>530</v>
-      </c>
-      <c r="J67" s="53" t="s">
-        <v>531</v>
-      </c>
-      <c r="K67" s="53" t="s">
-        <v>532</v>
-      </c>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
+      <c r="L67" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="M67" s="54" t="s">
+        <v>611</v>
+      </c>
+      <c r="N67" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O67" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P67" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q67" s="77"/>
       <c r="R67" s="53"/>
     </row>
@@ -24796,16 +25047,16 @@
         <v>116</v>
       </c>
       <c r="E68" s="73" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F68" s="68" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G68" s="57"/>
       <c r="H68" s="58"/>
       <c r="I68" s="58"/>
       <c r="J68" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K68" s="57"/>
       <c r="L68" s="58"/>
@@ -24834,13 +25085,13 @@
       <c r="D69" s="118"/>
       <c r="E69" s="73"/>
       <c r="F69" s="66" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G69" s="57"/>
       <c r="H69" s="45"/>
       <c r="I69" s="45"/>
       <c r="J69" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K69" s="56"/>
       <c r="L69" s="58"/>
@@ -24869,13 +25120,13 @@
       <c r="D70" s="118"/>
       <c r="E70" s="73"/>
       <c r="F70" s="68" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G70" s="57"/>
       <c r="H70" s="58"/>
       <c r="I70" s="58"/>
       <c r="J70" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K70" s="57"/>
       <c r="L70" s="58"/>
@@ -24904,13 +25155,13 @@
       <c r="D71" s="118"/>
       <c r="E71" s="73"/>
       <c r="F71" s="68" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G71" s="57"/>
       <c r="H71" s="58"/>
       <c r="I71" s="58"/>
       <c r="J71" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K71" s="57"/>
       <c r="L71" s="58"/>
@@ -24945,7 +25196,7 @@
       <c r="H72" s="58"/>
       <c r="I72" s="58"/>
       <c r="J72" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K72" s="57"/>
       <c r="L72" s="58"/>
@@ -24982,7 +25233,7 @@
       <c r="H73" s="58"/>
       <c r="I73" s="58"/>
       <c r="J73" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K73" s="57"/>
       <c r="L73" s="58"/>
@@ -25017,7 +25268,7 @@
       <c r="H74" s="58"/>
       <c r="I74" s="58"/>
       <c r="J74" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K74" s="57"/>
       <c r="L74" s="58"/>
@@ -25052,7 +25303,7 @@
       <c r="H75" s="58"/>
       <c r="I75" s="58"/>
       <c r="J75" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K75" s="57"/>
       <c r="L75" s="58"/>
@@ -25087,7 +25338,7 @@
       <c r="H76" s="58"/>
       <c r="I76" s="58"/>
       <c r="J76" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K76" s="57"/>
       <c r="L76" s="58"/>
@@ -25122,7 +25373,7 @@
       <c r="H77" s="58"/>
       <c r="I77" s="58"/>
       <c r="J77" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K77" s="57"/>
       <c r="L77" s="58"/>
@@ -25157,7 +25408,7 @@
       <c r="H78" s="58"/>
       <c r="I78" s="58"/>
       <c r="J78" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K78" s="57"/>
       <c r="L78" s="58"/>
@@ -25192,7 +25443,7 @@
       <c r="H79" s="58"/>
       <c r="I79" s="58"/>
       <c r="J79" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K79" s="57"/>
       <c r="L79" s="58"/>
@@ -25227,7 +25478,7 @@
       <c r="H80" s="58"/>
       <c r="I80" s="58"/>
       <c r="J80" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K80" s="57"/>
       <c r="L80" s="58"/>
@@ -25264,7 +25515,7 @@
       <c r="H81" s="45"/>
       <c r="I81" s="45"/>
       <c r="J81" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K81" s="56"/>
       <c r="L81" s="120"/>
@@ -25301,7 +25552,7 @@
       <c r="H82" s="58"/>
       <c r="I82" s="58"/>
       <c r="J82" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K82" s="57"/>
       <c r="L82" s="58"/>
@@ -25336,7 +25587,7 @@
       <c r="H83" s="58"/>
       <c r="I83" s="58"/>
       <c r="J83" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K83" s="57"/>
       <c r="L83" s="58"/>
@@ -25371,7 +25622,7 @@
       <c r="H84" s="58"/>
       <c r="I84" s="58"/>
       <c r="J84" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K84" s="57"/>
       <c r="L84" s="58"/>
@@ -25406,7 +25657,7 @@
       <c r="H85" s="58"/>
       <c r="I85" s="58"/>
       <c r="J85" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K85" s="57"/>
       <c r="L85" s="58"/>
@@ -25479,22 +25730,30 @@
       </c>
       <c r="G87" s="107"/>
       <c r="H87" s="106" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I87" s="106" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J87" s="79" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="K87" s="145" t="s">
-        <v>574</v>
-      </c>
-      <c r="L87" s="108"/>
+        <v>571</v>
+      </c>
+      <c r="L87" s="54" t="s">
+        <v>593</v>
+      </c>
       <c r="M87" s="108"/>
-      <c r="N87" s="108"/>
-      <c r="O87" s="108"/>
-      <c r="P87" s="108"/>
+      <c r="N87" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O87" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P87" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q87" s="114"/>
       <c r="R87" s="107"/>
     </row>
@@ -25517,22 +25776,30 @@
       <c r="F88" s="111"/>
       <c r="G88" s="107"/>
       <c r="H88" s="106" t="s">
+        <v>564</v>
+      </c>
+      <c r="I88" s="106" t="s">
+        <v>565</v>
+      </c>
+      <c r="J88" s="79" t="s">
+        <v>566</v>
+      </c>
+      <c r="K88" s="145" t="s">
         <v>567</v>
       </c>
-      <c r="I88" s="106" t="s">
-        <v>568</v>
-      </c>
-      <c r="J88" s="79" t="s">
-        <v>569</v>
-      </c>
-      <c r="K88" s="145" t="s">
-        <v>570</v>
-      </c>
-      <c r="L88" s="108"/>
+      <c r="L88" s="54" t="s">
+        <v>594</v>
+      </c>
       <c r="M88" s="108"/>
-      <c r="N88" s="108"/>
-      <c r="O88" s="108"/>
-      <c r="P88" s="108"/>
+      <c r="N88" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O88" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P88" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q88" s="114"/>
       <c r="R88" s="107"/>
     </row>
@@ -25555,22 +25822,30 @@
       <c r="F89" s="111"/>
       <c r="G89" s="107"/>
       <c r="H89" s="106" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I89" s="106" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J89" s="79" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="K89" s="145" t="s">
-        <v>577</v>
-      </c>
-      <c r="L89" s="108"/>
+        <v>574</v>
+      </c>
+      <c r="L89" s="54" t="s">
+        <v>599</v>
+      </c>
       <c r="M89" s="108"/>
-      <c r="N89" s="108"/>
-      <c r="O89" s="108"/>
-      <c r="P89" s="108"/>
+      <c r="N89" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O89" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P89" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q89" s="114"/>
       <c r="R89" s="107"/>
     </row>
@@ -25593,22 +25868,30 @@
       <c r="F90" s="116"/>
       <c r="G90" s="107"/>
       <c r="H90" s="106" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I90" s="106" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J90" s="79" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="K90" s="145" t="s">
-        <v>579</v>
-      </c>
-      <c r="L90" s="108"/>
+        <v>576</v>
+      </c>
+      <c r="L90" s="54" t="s">
+        <v>592</v>
+      </c>
       <c r="M90" s="108"/>
-      <c r="N90" s="108"/>
-      <c r="O90" s="108"/>
-      <c r="P90" s="108"/>
+      <c r="N90" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O90" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P90" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q90" s="114"/>
       <c r="R90" s="107"/>
     </row>
@@ -25634,22 +25917,32 @@
       </c>
       <c r="G91" s="53"/>
       <c r="H91" s="52" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I91" s="52" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J91" s="52" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K91" s="81" t="s">
-        <v>518</v>
-      </c>
-      <c r="L91" s="54"/>
-      <c r="M91" s="54"/>
-      <c r="N91" s="54"/>
-      <c r="O91" s="54"/>
-      <c r="P91" s="54"/>
+        <v>515</v>
+      </c>
+      <c r="L91" s="54" t="s">
+        <v>595</v>
+      </c>
+      <c r="M91" s="54" t="s">
+        <v>606</v>
+      </c>
+      <c r="N91" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O91" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P91" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q91" s="77"/>
       <c r="R91" s="53"/>
     </row>
@@ -25677,22 +25970,30 @@
       </c>
       <c r="G92" s="53"/>
       <c r="H92" s="54" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I92" s="54" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J92" s="82" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K92" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="L92" s="54"/>
+        <v>515</v>
+      </c>
+      <c r="L92" s="54" t="s">
+        <v>596</v>
+      </c>
       <c r="M92" s="54"/>
-      <c r="N92" s="54"/>
-      <c r="O92" s="54"/>
-      <c r="P92" s="54"/>
+      <c r="N92" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O92" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P92" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q92" s="77"/>
       <c r="R92" s="53"/>
     </row>
@@ -25716,22 +26017,30 @@
       <c r="F93" s="70"/>
       <c r="G93" s="53"/>
       <c r="H93" s="54" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I93" s="54" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J93" s="137" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="K93" s="53" t="s">
-        <v>537</v>
-      </c>
-      <c r="L93" s="54"/>
+        <v>534</v>
+      </c>
+      <c r="L93" s="54" t="s">
+        <v>599</v>
+      </c>
       <c r="M93" s="54"/>
-      <c r="N93" s="54"/>
-      <c r="O93" s="54"/>
-      <c r="P93" s="54"/>
+      <c r="N93" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O93" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P93" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q93" s="77"/>
       <c r="R93" s="53"/>
     </row>
@@ -25755,22 +26064,32 @@
       <c r="F94" s="76"/>
       <c r="G94" s="53"/>
       <c r="H94" s="54" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I94" s="54" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J94" s="138" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K94" s="53" t="s">
-        <v>539</v>
-      </c>
-      <c r="L94" s="54"/>
-      <c r="M94" s="54"/>
-      <c r="N94" s="54"/>
-      <c r="O94" s="54"/>
-      <c r="P94" s="54"/>
+        <v>536</v>
+      </c>
+      <c r="L94" s="54" t="s">
+        <v>603</v>
+      </c>
+      <c r="M94" s="54" t="s">
+        <v>610</v>
+      </c>
+      <c r="N94" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O94" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P94" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q94" s="77"/>
       <c r="R94" s="53"/>
     </row>
@@ -25800,7 +26119,7 @@
       <c r="H95" s="58"/>
       <c r="I95" s="58"/>
       <c r="J95" s="57" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="K95" s="57"/>
       <c r="L95" s="58"/>
@@ -25835,7 +26154,7 @@
       <c r="H96" s="58"/>
       <c r="I96" s="58"/>
       <c r="J96" s="57" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="K96" s="57"/>
       <c r="L96" s="58"/>
@@ -25870,22 +26189,30 @@
       </c>
       <c r="G97" s="53"/>
       <c r="H97" s="54" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I97" s="54" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J97" s="53" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K97" s="53" t="s">
-        <v>542</v>
-      </c>
-      <c r="L97" s="54"/>
+        <v>539</v>
+      </c>
+      <c r="L97" s="54" t="s">
+        <v>592</v>
+      </c>
       <c r="M97" s="54"/>
-      <c r="N97" s="54"/>
-      <c r="O97" s="54"/>
-      <c r="P97" s="54"/>
+      <c r="N97" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O97" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P97" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q97" s="77"/>
       <c r="R97" s="53"/>
     </row>
@@ -25915,7 +26242,7 @@
       <c r="H98" s="58"/>
       <c r="I98" s="58"/>
       <c r="J98" s="57" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="K98" s="57"/>
       <c r="L98" s="58"/>
@@ -25947,7 +26274,7 @@
         <v>141</v>
       </c>
       <c r="E99" s="68" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F99" s="68" t="s">
         <v>154</v>
@@ -25956,7 +26283,7 @@
       <c r="H99" s="58"/>
       <c r="I99" s="58"/>
       <c r="J99" s="57" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K99" s="57"/>
       <c r="L99" s="58"/>
@@ -25993,7 +26320,7 @@
       <c r="H100" s="58"/>
       <c r="I100" s="58"/>
       <c r="J100" s="57" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K100" s="57"/>
       <c r="L100" s="58"/>
@@ -26021,7 +26348,7 @@
       <c r="C101" s="72"/>
       <c r="D101" s="72"/>
       <c r="E101" s="72" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F101" s="68" t="s">
         <v>157</v>
@@ -26030,7 +26357,7 @@
       <c r="H101" s="58"/>
       <c r="I101" s="58"/>
       <c r="J101" s="57" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K101" s="57"/>
       <c r="L101" s="58"/>
@@ -26062,7 +26389,7 @@
         <v>141</v>
       </c>
       <c r="E102" s="73" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F102" s="66" t="s">
         <v>159</v>
@@ -26071,7 +26398,7 @@
       <c r="H102" s="45"/>
       <c r="I102" s="45"/>
       <c r="J102" s="56" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="K102" s="58"/>
       <c r="L102" s="58"/>
@@ -26106,7 +26433,7 @@
       <c r="H103" s="58"/>
       <c r="I103" s="58"/>
       <c r="J103" s="56" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="K103" s="57"/>
       <c r="L103" s="58"/>
@@ -26143,7 +26470,7 @@
       <c r="H104" s="58"/>
       <c r="I104" s="58"/>
       <c r="J104" s="56" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="K104" s="57"/>
       <c r="L104" s="58"/>
@@ -26180,7 +26507,7 @@
       <c r="H105" s="58"/>
       <c r="I105" s="58"/>
       <c r="J105" s="56" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="K105" s="57"/>
       <c r="L105" s="58"/>
@@ -26215,7 +26542,7 @@
       <c r="H106" s="58"/>
       <c r="I106" s="58"/>
       <c r="J106" s="56" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="K106" s="57"/>
       <c r="L106" s="58"/>
@@ -26243,7 +26570,7 @@
       <c r="C107" s="72"/>
       <c r="D107" s="72"/>
       <c r="E107" s="72" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F107" s="68" t="s">
         <v>164</v>
@@ -26252,7 +26579,7 @@
       <c r="H107" s="58"/>
       <c r="I107" s="58"/>
       <c r="J107" s="56" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="K107" s="57"/>
       <c r="L107" s="58"/>
@@ -26293,7 +26620,7 @@
       <c r="H108" s="58"/>
       <c r="I108" s="58"/>
       <c r="J108" s="57" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K108" s="57"/>
       <c r="L108" s="58"/>
@@ -26328,7 +26655,7 @@
       <c r="H109" s="58"/>
       <c r="I109" s="58"/>
       <c r="J109" s="57" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K109" s="57"/>
       <c r="L109" s="58"/>
@@ -26363,7 +26690,7 @@
       <c r="H110" s="58"/>
       <c r="I110" s="58"/>
       <c r="J110" s="57" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K110" s="57"/>
       <c r="L110" s="58"/>
@@ -26398,7 +26725,7 @@
       <c r="H111" s="58"/>
       <c r="I111" s="58"/>
       <c r="J111" s="57" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K111" s="57"/>
       <c r="L111" s="58"/>
@@ -26433,7 +26760,7 @@
       <c r="H112" s="58"/>
       <c r="I112" s="58"/>
       <c r="J112" s="57" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K112" s="57"/>
       <c r="L112" s="58"/>
@@ -26470,7 +26797,7 @@
       <c r="H113" s="58"/>
       <c r="I113" s="58"/>
       <c r="J113" s="57" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K113" s="57"/>
       <c r="L113" s="58"/>
@@ -26505,7 +26832,7 @@
       <c r="H114" s="58"/>
       <c r="I114" s="58"/>
       <c r="J114" s="57" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K114" s="57"/>
       <c r="L114" s="58"/>
@@ -26540,7 +26867,7 @@
       <c r="H115" s="58"/>
       <c r="I115" s="58"/>
       <c r="J115" s="57" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K115" s="57"/>
       <c r="L115" s="58"/>
@@ -26575,7 +26902,7 @@
       <c r="H116" s="58"/>
       <c r="I116" s="58"/>
       <c r="J116" s="57" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K116" s="57"/>
       <c r="L116" s="58"/>
@@ -26610,7 +26937,7 @@
       <c r="H117" s="58"/>
       <c r="I117" s="58"/>
       <c r="J117" s="57" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K117" s="57"/>
       <c r="L117" s="58"/>
@@ -26638,7 +26965,7 @@
       <c r="C118" s="72"/>
       <c r="D118" s="118"/>
       <c r="E118" s="74" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F118" s="68" t="s">
         <v>178</v>
@@ -26647,7 +26974,7 @@
       <c r="H118" s="58"/>
       <c r="I118" s="58"/>
       <c r="J118" s="57" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K118" s="57"/>
       <c r="L118" s="58"/>
@@ -26690,7 +27017,7 @@
       <c r="H119" s="58"/>
       <c r="I119" s="58"/>
       <c r="J119" s="57" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K119" s="57"/>
       <c r="L119" s="58"/>
@@ -26731,7 +27058,7 @@
       <c r="H120" s="58"/>
       <c r="I120" s="58"/>
       <c r="J120" s="57" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K120" s="57"/>
       <c r="L120" s="58"/>
@@ -26766,7 +27093,7 @@
       <c r="H121" s="58"/>
       <c r="I121" s="58"/>
       <c r="J121" s="57" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
@@ -26792,7 +27119,7 @@
       </c>
       <c r="B122" s="118"/>
       <c r="C122" s="68" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D122" s="68" t="s">
         <v>48</v>
@@ -26807,7 +27134,7 @@
       <c r="H122" s="58"/>
       <c r="I122" s="58"/>
       <c r="J122" s="57" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K122" s="57"/>
       <c r="L122" s="58"/>
@@ -26833,7 +27160,7 @@
       </c>
       <c r="B123" s="118"/>
       <c r="C123" s="118" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D123" s="118" t="s">
         <v>48</v>
@@ -26848,7 +27175,7 @@
       <c r="H123" s="58"/>
       <c r="I123" s="58"/>
       <c r="J123" s="57" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
@@ -26883,7 +27210,7 @@
       <c r="H124" s="58"/>
       <c r="I124" s="58"/>
       <c r="J124" s="57" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K124" s="57"/>
       <c r="L124" s="58"/>
@@ -26914,16 +27241,16 @@
         <v>191</v>
       </c>
       <c r="D125" s="66" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E125" s="110" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F125" s="68" t="s">
         <v>192</v>
       </c>
       <c r="G125" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H125" s="58"/>
       <c r="I125" s="58"/>
@@ -26950,8 +27277,8 @@
 )</f>
         <v>45-2-1</v>
       </c>
-      <c r="B126" s="208" t="s">
-        <v>440</v>
+      <c r="B126" s="221" t="s">
+        <v>438</v>
       </c>
       <c r="C126" s="73"/>
       <c r="D126" s="67"/>
@@ -26960,7 +27287,7 @@
         <v>194</v>
       </c>
       <c r="G126" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H126" s="58"/>
       <c r="I126" s="58"/>
@@ -26987,7 +27314,7 @@
 )</f>
         <v>45-3-1</v>
       </c>
-      <c r="B127" s="208"/>
+      <c r="B127" s="221"/>
       <c r="C127" s="73"/>
       <c r="D127" s="67"/>
       <c r="E127" s="85"/>
@@ -26995,7 +27322,7 @@
         <v>195</v>
       </c>
       <c r="G127" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H127" s="58"/>
       <c r="I127" s="58"/>
@@ -27030,7 +27357,7 @@
         <v>196</v>
       </c>
       <c r="G128" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H128" s="58"/>
       <c r="I128" s="58"/>
@@ -27067,7 +27394,7 @@
         <v>197</v>
       </c>
       <c r="G129" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H129" s="58"/>
       <c r="I129" s="58"/>
@@ -27102,7 +27429,7 @@
         <v>198</v>
       </c>
       <c r="G130" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H130" s="58"/>
       <c r="I130" s="58"/>
@@ -27137,7 +27464,7 @@
         <v>199</v>
       </c>
       <c r="G131" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H131" s="58"/>
       <c r="I131" s="58"/>
@@ -27172,7 +27499,7 @@
         <v>200</v>
       </c>
       <c r="G132" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H132" s="58"/>
       <c r="I132" s="58"/>
@@ -27207,7 +27534,7 @@
         <v>201</v>
       </c>
       <c r="G133" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H133" s="58"/>
       <c r="I133" s="58"/>
@@ -27244,7 +27571,7 @@
         <v>204</v>
       </c>
       <c r="G134" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H134" s="58"/>
       <c r="I134" s="58"/>
@@ -27279,7 +27606,7 @@
         <v>205</v>
       </c>
       <c r="G135" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H135" s="58"/>
       <c r="I135" s="58"/>
@@ -27314,7 +27641,7 @@
         <v>206</v>
       </c>
       <c r="G136" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H136" s="58"/>
       <c r="I136" s="58"/>
@@ -27349,7 +27676,7 @@
         <v>207</v>
       </c>
       <c r="G137" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H137" s="58"/>
       <c r="I137" s="58"/>
@@ -27384,7 +27711,7 @@
         <v>208</v>
       </c>
       <c r="G138" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H138" s="58"/>
       <c r="I138" s="58"/>
@@ -27415,13 +27742,13 @@
       <c r="C139" s="73"/>
       <c r="D139" s="72"/>
       <c r="E139" s="72" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F139" s="68" t="s">
         <v>210</v>
       </c>
       <c r="G139" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H139" s="58"/>
       <c r="I139" s="58"/>
@@ -27451,16 +27778,16 @@
       <c r="B140" s="67"/>
       <c r="C140" s="74"/>
       <c r="D140" s="72" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E140" s="72" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F140" s="68" t="s">
         <v>211</v>
       </c>
       <c r="G140" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H140" s="58"/>
       <c r="I140" s="58"/>
@@ -27489,7 +27816,7 @@
       </c>
       <c r="B141" s="67"/>
       <c r="C141" s="67" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D141" s="67" t="s">
         <v>212</v>
@@ -27501,7 +27828,7 @@
         <v>214</v>
       </c>
       <c r="G141" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H141" s="58"/>
       <c r="I141" s="58"/>
@@ -27532,13 +27859,13 @@
       <c r="C142" s="67"/>
       <c r="D142" s="67"/>
       <c r="E142" s="73" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F142" s="68" t="s">
         <v>216</v>
       </c>
       <c r="G142" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H142" s="58"/>
       <c r="I142" s="58"/>
@@ -27573,7 +27900,7 @@
         <v>217</v>
       </c>
       <c r="G143" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H143" s="58"/>
       <c r="I143" s="58"/>
@@ -27608,7 +27935,7 @@
         <v>218</v>
       </c>
       <c r="G144" s="45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H144" s="58"/>
       <c r="I144" s="58"/>
@@ -27642,16 +27969,16 @@
         <v>191</v>
       </c>
       <c r="D145" s="66" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E145" s="110" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F145" s="68" t="s">
         <v>220</v>
       </c>
       <c r="G145" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H145" s="58"/>
       <c r="I145" s="58"/>
@@ -27678,7 +28005,7 @@
 )</f>
         <v>52-2-1</v>
       </c>
-      <c r="B146" s="208" t="s">
+      <c r="B146" s="221" t="s">
         <v>221</v>
       </c>
       <c r="C146" s="73"/>
@@ -27688,7 +28015,7 @@
         <v>222</v>
       </c>
       <c r="G146" s="45" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H146" s="58"/>
       <c r="I146" s="58"/>
@@ -27715,7 +28042,7 @@
 )</f>
         <v>52-3-1</v>
       </c>
-      <c r="B147" s="208"/>
+      <c r="B147" s="221"/>
       <c r="C147" s="73"/>
       <c r="D147" s="67"/>
       <c r="E147" s="73"/>
@@ -27723,7 +28050,7 @@
         <v>223</v>
       </c>
       <c r="G147" s="45" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H147" s="58"/>
       <c r="I147" s="58"/>
@@ -27758,7 +28085,7 @@
         <v>224</v>
       </c>
       <c r="G148" s="45" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H148" s="58"/>
       <c r="I148" s="58"/>
@@ -27795,7 +28122,7 @@
         <v>226</v>
       </c>
       <c r="G149" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H149" s="58"/>
       <c r="I149" s="58"/>
@@ -27830,7 +28157,7 @@
         <v>227</v>
       </c>
       <c r="G150" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H150" s="58"/>
       <c r="I150" s="58"/>
@@ -27860,16 +28187,16 @@
       <c r="B151" s="67"/>
       <c r="C151" s="74"/>
       <c r="D151" s="72" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E151" s="72" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F151" s="68" t="s">
         <v>228</v>
       </c>
       <c r="G151" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H151" s="58"/>
       <c r="I151" s="58"/>
@@ -27910,7 +28237,7 @@
         <v>231</v>
       </c>
       <c r="G152" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H152" s="58"/>
       <c r="I152" s="58"/>
@@ -27947,7 +28274,7 @@
         <v>233</v>
       </c>
       <c r="G153" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H153" s="58"/>
       <c r="I153" s="58"/>
@@ -27984,7 +28311,7 @@
         <v>235</v>
       </c>
       <c r="G154" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H154" s="58"/>
       <c r="I154" s="58"/>
@@ -28052,13 +28379,13 @@
       <c r="C156" s="73"/>
       <c r="D156" s="67"/>
       <c r="E156" s="68" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F156" s="68" t="s">
         <v>239</v>
       </c>
       <c r="G156" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H156" s="58"/>
       <c r="I156" s="58"/>
@@ -28089,7 +28416,7 @@
       <c r="C157" s="73"/>
       <c r="D157" s="67"/>
       <c r="E157" s="85" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F157" s="68" t="s">
         <v>241</v>
@@ -28303,13 +28630,13 @@
         <v>248</v>
       </c>
       <c r="E163" s="66" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F163" s="68" t="s">
         <v>249</v>
       </c>
       <c r="G163" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H163" s="58"/>
       <c r="I163" s="58"/>
@@ -28344,7 +28671,7 @@
         <v>250</v>
       </c>
       <c r="G164" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H164" s="58"/>
       <c r="I164" s="58"/>
@@ -28381,7 +28708,7 @@
         <v>251</v>
       </c>
       <c r="G165" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H165" s="58"/>
       <c r="I165" s="58"/>
@@ -28416,7 +28743,7 @@
         <v>252</v>
       </c>
       <c r="G166" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H166" s="58"/>
       <c r="I166" s="58"/>
@@ -28448,10 +28775,10 @@
       <c r="D167" s="67"/>
       <c r="E167" s="85"/>
       <c r="F167" s="68" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G167" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H167" s="58"/>
       <c r="I167" s="58"/>
@@ -28483,10 +28810,10 @@
       <c r="D168" s="67"/>
       <c r="E168" s="85"/>
       <c r="F168" s="68" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G168" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H168" s="58"/>
       <c r="I168" s="58"/>
@@ -28521,7 +28848,7 @@
         <v>255</v>
       </c>
       <c r="G169" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H169" s="58"/>
       <c r="I169" s="58"/>
@@ -28556,7 +28883,7 @@
         <v>256</v>
       </c>
       <c r="G170" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H170" s="58"/>
       <c r="I170" s="58"/>
@@ -28591,7 +28918,7 @@
         <v>257</v>
       </c>
       <c r="G171" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H171" s="58"/>
       <c r="I171" s="58"/>
@@ -28626,7 +28953,7 @@
         <v>258</v>
       </c>
       <c r="G172" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H172" s="58"/>
       <c r="I172" s="58"/>
@@ -28661,7 +28988,7 @@
         <v>259</v>
       </c>
       <c r="G173" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H173" s="58"/>
       <c r="I173" s="58"/>
@@ -28696,7 +29023,7 @@
         <v>260</v>
       </c>
       <c r="G174" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H174" s="58"/>
       <c r="I174" s="58"/>
@@ -28731,7 +29058,7 @@
         <v>261</v>
       </c>
       <c r="G175" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H175" s="58"/>
       <c r="I175" s="58"/>
@@ -28768,7 +29095,7 @@
         <v>262</v>
       </c>
       <c r="G176" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H176" s="58"/>
       <c r="I176" s="58"/>
@@ -28803,7 +29130,7 @@
         <v>263</v>
       </c>
       <c r="G177" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H177" s="58"/>
       <c r="I177" s="58"/>
@@ -28838,7 +29165,7 @@
         <v>264</v>
       </c>
       <c r="G178" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H178" s="58"/>
       <c r="I178" s="58"/>
@@ -28873,7 +29200,7 @@
         <v>265</v>
       </c>
       <c r="G179" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H179" s="58"/>
       <c r="I179" s="58"/>
@@ -28908,7 +29235,7 @@
         <v>266</v>
       </c>
       <c r="G180" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H180" s="58"/>
       <c r="I180" s="58"/>
@@ -28943,7 +29270,7 @@
         <v>267</v>
       </c>
       <c r="G181" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H181" s="58"/>
       <c r="I181" s="58"/>
@@ -29015,7 +29342,7 @@
         <v>269</v>
       </c>
       <c r="G183" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H183" s="58"/>
       <c r="I183" s="58"/>
@@ -29050,7 +29377,7 @@
         <v>270</v>
       </c>
       <c r="G184" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H184" s="58"/>
       <c r="I184" s="58"/>
@@ -29085,7 +29412,7 @@
         <v>271</v>
       </c>
       <c r="G185" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H185" s="58"/>
       <c r="I185" s="58"/>
@@ -29120,7 +29447,7 @@
         <v>272</v>
       </c>
       <c r="G186" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H186" s="58"/>
       <c r="I186" s="58"/>
@@ -29155,7 +29482,7 @@
         <v>273</v>
       </c>
       <c r="G187" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H187" s="58"/>
       <c r="I187" s="58"/>
@@ -29190,7 +29517,7 @@
         <v>274</v>
       </c>
       <c r="G188" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H188" s="58"/>
       <c r="I188" s="58"/>
@@ -29332,7 +29659,7 @@
         <v>278</v>
       </c>
       <c r="G192" s="45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H192" s="58"/>
       <c r="I192" s="58"/>
@@ -29481,7 +29808,7 @@
       <c r="B196" s="72"/>
       <c r="C196" s="74"/>
       <c r="D196" s="74" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E196" s="74" t="s">
         <v>48</v>
@@ -29524,7 +29851,7 @@
         <v>191</v>
       </c>
       <c r="D197" s="86" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E197" s="87" t="s">
         <v>291</v>
@@ -29533,7 +29860,7 @@
         <v>292</v>
       </c>
       <c r="G197" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H197" s="43"/>
       <c r="I197" s="43"/>
@@ -29570,7 +29897,7 @@
         <v>294</v>
       </c>
       <c r="G198" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H198" s="43"/>
       <c r="I198" s="43"/>
@@ -29605,7 +29932,7 @@
         <v>295</v>
       </c>
       <c r="G199" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H199" s="43"/>
       <c r="I199" s="43"/>
@@ -29642,7 +29969,7 @@
         <v>297</v>
       </c>
       <c r="G200" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H200" s="43"/>
       <c r="I200" s="43"/>
@@ -29677,7 +30004,7 @@
         <v>298</v>
       </c>
       <c r="G201" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H201" s="43"/>
       <c r="I201" s="43"/>
@@ -29707,16 +30034,16 @@
       <c r="B202" s="89"/>
       <c r="C202" s="93"/>
       <c r="D202" s="93" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E202" s="93" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F202" s="87" t="s">
         <v>299</v>
       </c>
       <c r="G202" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H202" s="43"/>
       <c r="I202" s="43"/>
@@ -29748,7 +30075,7 @@
         <v>300</v>
       </c>
       <c r="D203" s="89" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E203" s="91" t="s">
         <v>302</v>
@@ -29757,7 +30084,7 @@
         <v>303</v>
       </c>
       <c r="G203" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H203" s="43"/>
       <c r="I203" s="43"/>
@@ -29792,7 +30119,7 @@
         <v>304</v>
       </c>
       <c r="G204" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H204" s="43"/>
       <c r="I204" s="43"/>
@@ -29827,7 +30154,7 @@
         <v>305</v>
       </c>
       <c r="G205" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H205" s="43"/>
       <c r="I205" s="43"/>
@@ -29862,7 +30189,7 @@
         <v>306</v>
       </c>
       <c r="G206" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H206" s="43"/>
       <c r="I206" s="43"/>
@@ -29897,7 +30224,7 @@
         <v>307</v>
       </c>
       <c r="G207" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H207" s="43"/>
       <c r="I207" s="43"/>
@@ -29932,7 +30259,7 @@
         <v>308</v>
       </c>
       <c r="G208" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H208" s="43"/>
       <c r="I208" s="43"/>
@@ -29967,7 +30294,7 @@
         <v>309</v>
       </c>
       <c r="G209" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H209" s="43"/>
       <c r="I209" s="43"/>
@@ -30001,10 +30328,10 @@
         <v>310</v>
       </c>
       <c r="F210" s="87" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G210" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H210" s="43"/>
       <c r="I210" s="43"/>
@@ -30043,7 +30370,7 @@
         <v>313</v>
       </c>
       <c r="G211" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H211" s="43"/>
       <c r="I211" s="43"/>
@@ -30078,7 +30405,7 @@
         <v>314</v>
       </c>
       <c r="G212" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H212" s="43"/>
       <c r="I212" s="43"/>
@@ -30113,7 +30440,7 @@
         <v>315</v>
       </c>
       <c r="G213" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H213" s="43"/>
       <c r="I213" s="43"/>
@@ -30148,7 +30475,7 @@
         <v>316</v>
       </c>
       <c r="G214" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H214" s="43"/>
       <c r="I214" s="43"/>
@@ -30183,7 +30510,7 @@
         <v>317</v>
       </c>
       <c r="G215" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H215" s="43"/>
       <c r="I215" s="43"/>
@@ -30218,7 +30545,7 @@
         <v>318</v>
       </c>
       <c r="G216" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H216" s="43"/>
       <c r="I216" s="43"/>
@@ -30250,10 +30577,10 @@
       <c r="D217" s="89"/>
       <c r="E217" s="91"/>
       <c r="F217" s="87" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G217" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H217" s="43"/>
       <c r="I217" s="43"/>
@@ -30288,7 +30615,7 @@
         <v>320</v>
       </c>
       <c r="G218" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H218" s="43"/>
       <c r="I218" s="43"/>
@@ -30323,7 +30650,7 @@
         <v>321</v>
       </c>
       <c r="G219" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H219" s="43"/>
       <c r="I219" s="43"/>
@@ -30358,7 +30685,7 @@
         <v>322</v>
       </c>
       <c r="G220" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H220" s="43"/>
       <c r="I220" s="43"/>
@@ -30393,7 +30720,7 @@
         <v>323</v>
       </c>
       <c r="G221" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H221" s="43"/>
       <c r="I221" s="43"/>
@@ -30428,7 +30755,7 @@
         <v>324</v>
       </c>
       <c r="G222" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H222" s="43"/>
       <c r="I222" s="43"/>
@@ -30463,7 +30790,7 @@
         <v>325</v>
       </c>
       <c r="G223" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H223" s="43"/>
       <c r="I223" s="43"/>
@@ -30493,7 +30820,7 @@
       <c r="B224" s="89"/>
       <c r="C224" s="90"/>
       <c r="D224" s="86" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E224" s="96" t="s">
         <v>122</v>
@@ -30502,7 +30829,7 @@
         <v>327</v>
       </c>
       <c r="G224" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H224" s="43"/>
       <c r="I224" s="43"/>
@@ -30537,7 +30864,7 @@
         <v>328</v>
       </c>
       <c r="G225" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H225" s="43"/>
       <c r="I225" s="43"/>
@@ -30572,7 +30899,7 @@
         <v>329</v>
       </c>
       <c r="G226" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H226" s="43"/>
       <c r="I226" s="43"/>
@@ -30607,7 +30934,7 @@
         <v>315</v>
       </c>
       <c r="G227" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H227" s="43"/>
       <c r="I227" s="43"/>
@@ -30642,7 +30969,7 @@
         <v>316</v>
       </c>
       <c r="G228" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H228" s="43"/>
       <c r="I228" s="43"/>
@@ -30677,7 +31004,7 @@
         <v>330</v>
       </c>
       <c r="G229" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H229" s="43"/>
       <c r="I229" s="43"/>
@@ -30712,7 +31039,7 @@
         <v>331</v>
       </c>
       <c r="G230" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H230" s="43"/>
       <c r="I230" s="43"/>
@@ -30744,10 +31071,10 @@
       <c r="D231" s="89"/>
       <c r="E231" s="91"/>
       <c r="F231" s="87" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G231" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H231" s="43"/>
       <c r="I231" s="43"/>
@@ -30779,10 +31106,10 @@
       <c r="D232" s="89"/>
       <c r="E232" s="91"/>
       <c r="F232" s="87" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G232" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H232" s="43"/>
       <c r="I232" s="43"/>
@@ -30817,7 +31144,7 @@
         <v>334</v>
       </c>
       <c r="G233" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H233" s="43"/>
       <c r="I233" s="43"/>
@@ -30852,7 +31179,7 @@
         <v>335</v>
       </c>
       <c r="G234" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H234" s="43"/>
       <c r="I234" s="43"/>
@@ -30887,7 +31214,7 @@
         <v>336</v>
       </c>
       <c r="G235" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H235" s="43"/>
       <c r="I235" s="43"/>
@@ -30922,7 +31249,7 @@
         <v>337</v>
       </c>
       <c r="G236" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H236" s="43"/>
       <c r="I236" s="43"/>
@@ -30957,7 +31284,7 @@
         <v>338</v>
       </c>
       <c r="G237" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H237" s="43"/>
       <c r="I237" s="43"/>
@@ -30992,7 +31319,7 @@
         <v>325</v>
       </c>
       <c r="G238" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H238" s="43"/>
       <c r="I238" s="43"/>
@@ -31029,7 +31356,7 @@
         <v>340</v>
       </c>
       <c r="G239" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H239" s="43"/>
       <c r="I239" s="43"/>
@@ -31064,7 +31391,7 @@
         <v>341</v>
       </c>
       <c r="G240" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H240" s="43"/>
       <c r="I240" s="43"/>
@@ -31099,7 +31426,7 @@
         <v>342</v>
       </c>
       <c r="G241" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H241" s="43"/>
       <c r="I241" s="43"/>
@@ -31133,10 +31460,10 @@
         <v>149</v>
       </c>
       <c r="F242" s="87" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G242" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H242" s="43"/>
       <c r="I242" s="43"/>
@@ -31173,7 +31500,7 @@
         <v>345</v>
       </c>
       <c r="G243" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H243" s="43"/>
       <c r="I243" s="43"/>
@@ -31207,16 +31534,16 @@
         <v>191</v>
       </c>
       <c r="D244" s="66" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E244" s="68" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F244" s="68" t="s">
         <v>347</v>
       </c>
       <c r="G244" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H244" s="58"/>
       <c r="I244" s="58"/>
@@ -31253,7 +31580,7 @@
         <v>348</v>
       </c>
       <c r="G245" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H245" s="58"/>
       <c r="I245" s="58"/>
@@ -31288,7 +31615,7 @@
         <v>349</v>
       </c>
       <c r="G246" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H246" s="58"/>
       <c r="I246" s="58"/>
@@ -31323,7 +31650,7 @@
         <v>350</v>
       </c>
       <c r="G247" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H247" s="58"/>
       <c r="I247" s="58"/>
@@ -31358,7 +31685,7 @@
         <v>351</v>
       </c>
       <c r="G248" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H248" s="58"/>
       <c r="I248" s="58"/>
@@ -31393,7 +31720,7 @@
         <v>352</v>
       </c>
       <c r="G249" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H249" s="58"/>
       <c r="I249" s="58"/>
@@ -31430,7 +31757,7 @@
         <v>353</v>
       </c>
       <c r="G250" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H250" s="58"/>
       <c r="I250" s="58"/>
@@ -31465,7 +31792,7 @@
         <v>354</v>
       </c>
       <c r="G251" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H251" s="58"/>
       <c r="I251" s="58"/>
@@ -31500,7 +31827,7 @@
         <v>355</v>
       </c>
       <c r="G252" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H252" s="58"/>
       <c r="I252" s="58"/>
@@ -31535,7 +31862,7 @@
         <v>356</v>
       </c>
       <c r="G253" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H253" s="58"/>
       <c r="I253" s="58"/>
@@ -31570,7 +31897,7 @@
         <v>357</v>
       </c>
       <c r="G254" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H254" s="58"/>
       <c r="I254" s="58"/>
@@ -31601,13 +31928,13 @@
       <c r="C255" s="72"/>
       <c r="D255" s="72"/>
       <c r="E255" s="72" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F255" s="68" t="s">
         <v>358</v>
       </c>
       <c r="G255" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H255" s="58"/>
       <c r="I255" s="58"/>
@@ -31636,7 +31963,7 @@
       </c>
       <c r="B256" s="72"/>
       <c r="C256" s="72" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D256" s="72" t="s">
         <v>212</v>
@@ -31648,7 +31975,7 @@
         <v>359</v>
       </c>
       <c r="G256" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H256" s="58"/>
       <c r="I256" s="58"/>
@@ -31682,16 +32009,16 @@
         <v>361</v>
       </c>
       <c r="D257" s="66" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E257" s="98" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F257" s="68" t="s">
         <v>362</v>
       </c>
       <c r="G257" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H257" s="58"/>
       <c r="I257" s="58"/>
@@ -31726,7 +32053,7 @@
         <v>363</v>
       </c>
       <c r="G258" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H258" s="58"/>
       <c r="I258" s="58"/>
@@ -31756,16 +32083,16 @@
       <c r="B259" s="67"/>
       <c r="C259" s="67"/>
       <c r="D259" s="67" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E259" s="73" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F259" s="68" t="s">
         <v>364</v>
       </c>
       <c r="G259" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H259" s="58"/>
       <c r="I259" s="58"/>
@@ -31800,7 +32127,7 @@
         <v>365</v>
       </c>
       <c r="G260" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H260" s="58"/>
       <c r="I260" s="58"/>
@@ -31841,7 +32168,7 @@
         <v>367</v>
       </c>
       <c r="G261" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H261" s="58"/>
       <c r="I261" s="58"/>
@@ -31878,7 +32205,7 @@
         <v>368</v>
       </c>
       <c r="G262" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H262" s="58"/>
       <c r="I262" s="58"/>
@@ -31915,7 +32242,7 @@
         <v>369</v>
       </c>
       <c r="G263" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H263" s="58"/>
       <c r="I263" s="58"/>
@@ -31952,7 +32279,7 @@
         <v>370</v>
       </c>
       <c r="G264" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H264" s="58"/>
       <c r="I264" s="58"/>
@@ -31985,13 +32312,13 @@
         <v>248</v>
       </c>
       <c r="E265" s="85" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F265" s="68" t="s">
         <v>371</v>
       </c>
       <c r="G265" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H265" s="58"/>
       <c r="I265" s="58"/>
@@ -32026,7 +32353,7 @@
         <v>372</v>
       </c>
       <c r="G266" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H266" s="58"/>
       <c r="I266" s="58"/>
@@ -32063,7 +32390,7 @@
         <v>373</v>
       </c>
       <c r="G267" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H267" s="58"/>
       <c r="I267" s="58"/>
@@ -32098,7 +32425,7 @@
         <v>374</v>
       </c>
       <c r="G268" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H268" s="58"/>
       <c r="I268" s="58"/>
@@ -32130,10 +32457,10 @@
       <c r="D269" s="73"/>
       <c r="E269" s="73"/>
       <c r="F269" s="68" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G269" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H269" s="58"/>
       <c r="I269" s="58"/>
@@ -32168,7 +32495,7 @@
         <v>376</v>
       </c>
       <c r="G270" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H270" s="58"/>
       <c r="I270" s="58"/>
@@ -32203,7 +32530,7 @@
         <v>377</v>
       </c>
       <c r="G271" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H271" s="58"/>
       <c r="I271" s="58"/>
@@ -32238,7 +32565,7 @@
         <v>378</v>
       </c>
       <c r="G272" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H272" s="58"/>
       <c r="I272" s="58"/>
@@ -32273,7 +32600,7 @@
         <v>379</v>
       </c>
       <c r="G273" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H273" s="58"/>
       <c r="I273" s="58"/>
@@ -32308,7 +32635,7 @@
         <v>380</v>
       </c>
       <c r="G274" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H274" s="58"/>
       <c r="I274" s="58"/>
@@ -32343,7 +32670,7 @@
         <v>381</v>
       </c>
       <c r="G275" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H275" s="58"/>
       <c r="I275" s="58"/>
@@ -32378,7 +32705,7 @@
         <v>382</v>
       </c>
       <c r="G276" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H276" s="58"/>
       <c r="I276" s="58"/>
@@ -32413,7 +32740,7 @@
         <v>383</v>
       </c>
       <c r="G277" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H277" s="58"/>
       <c r="I277" s="58"/>
@@ -32450,7 +32777,7 @@
         <v>384</v>
       </c>
       <c r="G278" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H278" s="58"/>
       <c r="I278" s="58"/>
@@ -32485,7 +32812,7 @@
         <v>385</v>
       </c>
       <c r="G279" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H279" s="58"/>
       <c r="I279" s="58"/>
@@ -32520,7 +32847,7 @@
         <v>386</v>
       </c>
       <c r="G280" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H280" s="58"/>
       <c r="I280" s="58"/>
@@ -32555,7 +32882,7 @@
         <v>387</v>
       </c>
       <c r="G281" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H281" s="58"/>
       <c r="I281" s="58"/>
@@ -32590,7 +32917,7 @@
         <v>388</v>
       </c>
       <c r="G282" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H282" s="58"/>
       <c r="I282" s="58"/>
@@ -32625,7 +32952,7 @@
         <v>389</v>
       </c>
       <c r="G283" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H283" s="58"/>
       <c r="I283" s="58"/>
@@ -32662,7 +32989,7 @@
         <v>390</v>
       </c>
       <c r="G284" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H284" s="58"/>
       <c r="I284" s="58"/>
@@ -32697,7 +33024,7 @@
         <v>391</v>
       </c>
       <c r="G285" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H285" s="58"/>
       <c r="I285" s="58"/>
@@ -32732,7 +33059,7 @@
         <v>392</v>
       </c>
       <c r="G286" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H286" s="58"/>
       <c r="I286" s="58"/>
@@ -32767,7 +33094,7 @@
         <v>393</v>
       </c>
       <c r="G287" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H287" s="58"/>
       <c r="I287" s="58"/>
@@ -32802,7 +33129,7 @@
         <v>394</v>
       </c>
       <c r="G288" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H288" s="58"/>
       <c r="I288" s="58"/>
@@ -32837,7 +33164,7 @@
         <v>395</v>
       </c>
       <c r="G289" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H289" s="58"/>
       <c r="I289" s="58"/>
@@ -32872,7 +33199,7 @@
         <v>396</v>
       </c>
       <c r="G290" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H290" s="58"/>
       <c r="I290" s="58"/>
@@ -32907,7 +33234,7 @@
         <v>397</v>
       </c>
       <c r="G291" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H291" s="58"/>
       <c r="I291" s="58"/>
@@ -32944,7 +33271,7 @@
         <v>398</v>
       </c>
       <c r="G292" s="45" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H292" s="58"/>
       <c r="I292" s="58"/>
@@ -32978,10 +33305,10 @@
         <v>400</v>
       </c>
       <c r="D293" s="66" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E293" s="98" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F293" s="68" t="s">
         <v>401</v>
@@ -32990,7 +33317,7 @@
       <c r="H293" s="58"/>
       <c r="I293" s="58"/>
       <c r="J293" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K293" s="57"/>
       <c r="L293" s="58"/>
@@ -33025,7 +33352,7 @@
       <c r="H294" s="58"/>
       <c r="I294" s="58"/>
       <c r="J294" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K294" s="57"/>
       <c r="L294" s="58"/>
@@ -33060,7 +33387,7 @@
       <c r="H295" s="58"/>
       <c r="I295" s="58"/>
       <c r="J295" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K295" s="57"/>
       <c r="L295" s="58"/>
@@ -33095,7 +33422,7 @@
       <c r="H296" s="58"/>
       <c r="I296" s="58"/>
       <c r="J296" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K296" s="57"/>
       <c r="L296" s="58"/>
@@ -33136,7 +33463,7 @@
       <c r="H297" s="58"/>
       <c r="I297" s="58"/>
       <c r="J297" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K297" s="57"/>
       <c r="L297" s="58"/>
@@ -33173,7 +33500,7 @@
       <c r="H298" s="58"/>
       <c r="I298" s="58"/>
       <c r="J298" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K298" s="57"/>
       <c r="L298" s="58"/>
@@ -33210,7 +33537,7 @@
       <c r="H299" s="58"/>
       <c r="I299" s="58"/>
       <c r="J299" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K299" s="57"/>
       <c r="L299" s="58"/>
@@ -33247,7 +33574,7 @@
       <c r="H300" s="58"/>
       <c r="I300" s="58"/>
       <c r="J300" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K300" s="57"/>
       <c r="L300" s="58"/>
@@ -33286,7 +33613,7 @@
       <c r="H301" s="58"/>
       <c r="I301" s="58"/>
       <c r="J301" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K301" s="57"/>
       <c r="L301" s="58"/>
@@ -33321,7 +33648,7 @@
       <c r="H302" s="58"/>
       <c r="I302" s="58"/>
       <c r="J302" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K302" s="57"/>
       <c r="L302" s="58"/>
@@ -33356,7 +33683,7 @@
       <c r="H303" s="58"/>
       <c r="I303" s="58"/>
       <c r="J303" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K303" s="57"/>
       <c r="L303" s="58"/>
@@ -33385,13 +33712,13 @@
       <c r="D304" s="73"/>
       <c r="E304" s="73"/>
       <c r="F304" s="68" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G304" s="57"/>
       <c r="H304" s="58"/>
       <c r="I304" s="58"/>
       <c r="J304" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K304" s="57"/>
       <c r="L304" s="58"/>
@@ -33420,13 +33747,13 @@
       <c r="D305" s="73"/>
       <c r="E305" s="73"/>
       <c r="F305" s="68" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G305" s="57"/>
       <c r="H305" s="58"/>
       <c r="I305" s="58"/>
       <c r="J305" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K305" s="57"/>
       <c r="L305" s="58"/>
@@ -33455,13 +33782,13 @@
       <c r="D306" s="73"/>
       <c r="E306" s="73"/>
       <c r="F306" s="68" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G306" s="57"/>
       <c r="H306" s="58"/>
       <c r="I306" s="58"/>
       <c r="J306" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K306" s="57"/>
       <c r="L306" s="58"/>
@@ -33490,13 +33817,13 @@
       <c r="D307" s="73"/>
       <c r="E307" s="73"/>
       <c r="F307" s="68" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G307" s="57"/>
       <c r="H307" s="58"/>
       <c r="I307" s="58"/>
       <c r="J307" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K307" s="57"/>
       <c r="L307" s="58"/>
@@ -33531,7 +33858,7 @@
       <c r="H308" s="58"/>
       <c r="I308" s="58"/>
       <c r="J308" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K308" s="57"/>
       <c r="L308" s="58"/>
@@ -33566,7 +33893,7 @@
       <c r="H309" s="141"/>
       <c r="I309" s="141"/>
       <c r="J309" s="139" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K309" s="140"/>
       <c r="L309" s="141"/>
@@ -33577,7 +33904,7 @@
       <c r="Q309" s="142"/>
       <c r="R309" s="140"/>
     </row>
-    <row r="310" spans="1:18" ht="33.75">
+    <row r="310" spans="1:18" ht="45">
       <c r="A310" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A310" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E310),
@@ -33591,7 +33918,7 @@
         <v>103-1-1</v>
       </c>
       <c r="B310" s="100" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C310" s="100" t="s">
         <v>140</v>
@@ -33603,26 +33930,34 @@
         <v>48</v>
       </c>
       <c r="F310" s="53" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G310" s="53"/>
       <c r="H310" s="54" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I310" s="54" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J310" s="54" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="K310" s="54" t="s">
-        <v>509</v>
-      </c>
-      <c r="L310" s="54"/>
+        <v>506</v>
+      </c>
+      <c r="L310" s="54" t="s">
+        <v>602</v>
+      </c>
       <c r="M310" s="54"/>
-      <c r="N310" s="54"/>
-      <c r="O310" s="54"/>
-      <c r="P310" s="54"/>
+      <c r="N310" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O310" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P310" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q310" s="54"/>
       <c r="R310" s="54"/>
     </row>
@@ -33642,32 +33977,40 @@
       <c r="B311" s="102"/>
       <c r="C311" s="102"/>
       <c r="D311" s="101" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E311" s="101" t="s">
         <v>48</v>
       </c>
       <c r="F311" s="101" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G311" s="53"/>
       <c r="H311" s="54" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I311" s="54" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J311" s="54" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K311" s="54" t="s">
-        <v>509</v>
-      </c>
-      <c r="L311" s="54"/>
+        <v>506</v>
+      </c>
+      <c r="L311" s="54" t="s">
+        <v>592</v>
+      </c>
       <c r="M311" s="54"/>
-      <c r="N311" s="54"/>
-      <c r="O311" s="54"/>
-      <c r="P311" s="54"/>
+      <c r="N311" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O311" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P311" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q311" s="54"/>
       <c r="R311" s="54"/>
     </row>
@@ -33691,22 +34034,30 @@
       <c r="F312" s="103"/>
       <c r="G312" s="53"/>
       <c r="H312" s="54" t="s">
+        <v>548</v>
+      </c>
+      <c r="I312" s="54" t="s">
+        <v>549</v>
+      </c>
+      <c r="J312" s="54" t="s">
+        <v>550</v>
+      </c>
+      <c r="K312" s="54" t="s">
         <v>551</v>
       </c>
-      <c r="I312" s="54" t="s">
-        <v>552</v>
-      </c>
-      <c r="J312" s="54" t="s">
-        <v>553</v>
-      </c>
-      <c r="K312" s="54" t="s">
-        <v>554</v>
-      </c>
-      <c r="L312" s="54"/>
+      <c r="L312" s="54" t="s">
+        <v>604</v>
+      </c>
       <c r="M312" s="54"/>
-      <c r="N312" s="54"/>
-      <c r="O312" s="54"/>
-      <c r="P312" s="54"/>
+      <c r="N312" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O312" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P312" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q312" s="54"/>
       <c r="R312" s="54"/>
     </row>
@@ -33730,22 +34081,32 @@
       <c r="F313" s="104"/>
       <c r="G313" s="53"/>
       <c r="H313" s="54" t="s">
+        <v>548</v>
+      </c>
+      <c r="I313" s="54" t="s">
+        <v>549</v>
+      </c>
+      <c r="J313" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="K313" s="54" t="s">
         <v>551</v>
       </c>
-      <c r="I313" s="54" t="s">
-        <v>552</v>
-      </c>
-      <c r="J313" s="54" t="s">
-        <v>531</v>
-      </c>
-      <c r="K313" s="54" t="s">
-        <v>554</v>
-      </c>
-      <c r="L313" s="54"/>
-      <c r="M313" s="54"/>
-      <c r="N313" s="54"/>
-      <c r="O313" s="54"/>
-      <c r="P313" s="54"/>
+      <c r="L313" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="M313" s="54" t="s">
+        <v>611</v>
+      </c>
+      <c r="N313" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O313" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P313" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q313" s="54"/>
       <c r="R313" s="54"/>
     </row>
@@ -33765,32 +34126,40 @@
       <c r="B314" s="102"/>
       <c r="C314" s="102"/>
       <c r="D314" s="101" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E314" s="101" t="s">
         <v>48</v>
       </c>
       <c r="F314" s="53" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G314" s="53"/>
       <c r="H314" s="54" t="s">
+        <v>552</v>
+      </c>
+      <c r="I314" s="54" t="s">
+        <v>553</v>
+      </c>
+      <c r="J314" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="K314" s="54" t="s">
         <v>555</v>
       </c>
-      <c r="I314" s="54" t="s">
-        <v>556</v>
-      </c>
-      <c r="J314" s="54" t="s">
-        <v>557</v>
-      </c>
-      <c r="K314" s="54" t="s">
-        <v>558</v>
-      </c>
-      <c r="L314" s="54"/>
+      <c r="L314" s="54" t="s">
+        <v>599</v>
+      </c>
       <c r="M314" s="54"/>
-      <c r="N314" s="54"/>
-      <c r="O314" s="54"/>
-      <c r="P314" s="54"/>
+      <c r="N314" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O314" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P314" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q314" s="54"/>
       <c r="R314" s="54"/>
     </row>
@@ -33812,26 +34181,34 @@
       <c r="D315" s="103"/>
       <c r="E315" s="103"/>
       <c r="F315" s="53" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G315" s="53"/>
       <c r="H315" s="54" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I315" s="54" t="s">
+        <v>553</v>
+      </c>
+      <c r="J315" s="54" t="s">
+        <v>550</v>
+      </c>
+      <c r="K315" s="54" t="s">
         <v>556</v>
       </c>
-      <c r="J315" s="54" t="s">
-        <v>553</v>
-      </c>
-      <c r="K315" s="54" t="s">
-        <v>559</v>
-      </c>
-      <c r="L315" s="54"/>
+      <c r="L315" s="54" t="s">
+        <v>604</v>
+      </c>
       <c r="M315" s="54"/>
-      <c r="N315" s="54"/>
-      <c r="O315" s="54"/>
-      <c r="P315" s="54"/>
+      <c r="N315" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O315" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P315" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q315" s="54"/>
       <c r="R315" s="54"/>
     </row>
@@ -33853,13 +34230,13 @@
       <c r="D316" s="104"/>
       <c r="E316" s="104"/>
       <c r="F316" s="57" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G316" s="57"/>
       <c r="H316" s="58"/>
       <c r="I316" s="58"/>
       <c r="J316" s="58" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K316" s="58"/>
       <c r="L316" s="58"/>
@@ -33886,19 +34263,19 @@
       <c r="B317" s="102"/>
       <c r="C317" s="102"/>
       <c r="D317" s="140" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E317" s="57" t="s">
         <v>48</v>
       </c>
       <c r="F317" s="57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G317" s="57"/>
       <c r="H317" s="58"/>
       <c r="I317" s="58"/>
       <c r="J317" s="58" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K317" s="58"/>
       <c r="L317" s="58"/>
@@ -33926,16 +34303,16 @@
       <c r="C318" s="102"/>
       <c r="D318" s="143"/>
       <c r="E318" s="57" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F318" s="57" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G318" s="57"/>
       <c r="H318" s="58"/>
       <c r="I318" s="58"/>
       <c r="J318" s="58" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K318" s="58"/>
       <c r="L318" s="58"/>
@@ -33968,26 +34345,34 @@
         <v>48</v>
       </c>
       <c r="F319" s="101" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G319" s="53"/>
       <c r="H319" s="54" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I319" s="54" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J319" s="54" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K319" s="54" t="s">
-        <v>559</v>
-      </c>
-      <c r="L319" s="54"/>
+        <v>556</v>
+      </c>
+      <c r="L319" s="54" t="s">
+        <v>604</v>
+      </c>
       <c r="M319" s="54"/>
-      <c r="N319" s="54"/>
-      <c r="O319" s="54"/>
-      <c r="P319" s="54"/>
+      <c r="N319" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O319" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P319" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q319" s="54"/>
       <c r="R319" s="54"/>
     </row>
@@ -34011,22 +34396,32 @@
       <c r="F320" s="104"/>
       <c r="G320" s="53"/>
       <c r="H320" s="54" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I320" s="54" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J320" s="54" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="K320" s="54" t="s">
-        <v>554</v>
-      </c>
-      <c r="L320" s="54"/>
-      <c r="M320" s="54"/>
-      <c r="N320" s="54"/>
-      <c r="O320" s="54"/>
-      <c r="P320" s="54"/>
+        <v>551</v>
+      </c>
+      <c r="L320" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="M320" s="54" t="s">
+        <v>611</v>
+      </c>
+      <c r="N320" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O320" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P320" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q320" s="54"/>
       <c r="R320" s="54"/>
     </row>
@@ -34048,26 +34443,34 @@
       <c r="D321" s="103"/>
       <c r="E321" s="103"/>
       <c r="F321" s="53" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G321" s="53"/>
       <c r="H321" s="54" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I321" s="54" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J321" s="54" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K321" s="54" t="s">
-        <v>559</v>
-      </c>
-      <c r="L321" s="54"/>
+        <v>556</v>
+      </c>
+      <c r="L321" s="54" t="s">
+        <v>604</v>
+      </c>
       <c r="M321" s="54"/>
-      <c r="N321" s="54"/>
-      <c r="O321" s="54"/>
-      <c r="P321" s="54"/>
+      <c r="N321" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="O321" s="160">
+        <v>44858</v>
+      </c>
+      <c r="P321" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="Q321" s="54"/>
       <c r="R321" s="54"/>
     </row>
@@ -34089,13 +34492,13 @@
       <c r="D322" s="103"/>
       <c r="E322" s="103"/>
       <c r="F322" s="57" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G322" s="57"/>
       <c r="H322" s="58"/>
       <c r="I322" s="58"/>
       <c r="J322" s="58" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K322" s="58"/>
       <c r="L322" s="58"/>
@@ -34124,13 +34527,13 @@
       <c r="D323" s="103"/>
       <c r="E323" s="103"/>
       <c r="F323" s="57" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G323" s="57"/>
       <c r="H323" s="58"/>
       <c r="I323" s="58"/>
       <c r="J323" s="58" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="K323" s="58"/>
       <c r="L323" s="58"/>
@@ -34159,13 +34562,13 @@
       <c r="D324" s="103"/>
       <c r="E324" s="103"/>
       <c r="F324" s="57" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G324" s="57"/>
       <c r="H324" s="58"/>
       <c r="I324" s="58"/>
       <c r="J324" s="58" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="K324" s="58"/>
       <c r="L324" s="58"/>
@@ -34194,13 +34597,13 @@
       <c r="D325" s="103"/>
       <c r="E325" s="103"/>
       <c r="F325" s="57" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G325" s="57"/>
       <c r="H325" s="58"/>
       <c r="I325" s="58"/>
       <c r="J325" s="58" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="K325" s="58"/>
       <c r="L325" s="58"/>
@@ -34229,13 +34632,13 @@
       <c r="D326" s="103"/>
       <c r="E326" s="103"/>
       <c r="F326" s="57" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G326" s="57"/>
       <c r="H326" s="58"/>
       <c r="I326" s="58"/>
       <c r="J326" s="58" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="K326" s="58"/>
       <c r="L326" s="58"/>
@@ -34264,13 +34667,13 @@
       <c r="D327" s="104"/>
       <c r="E327" s="104"/>
       <c r="F327" s="57" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G327" s="57"/>
       <c r="H327" s="58"/>
       <c r="I327" s="58"/>
       <c r="J327" s="58" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="K327" s="58"/>
       <c r="L327" s="58"/>
@@ -34289,7 +34692,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P11:Q309" xr:uid="{F3017212-E498-4A3A-B13C-7310AB81317B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P11:Q309 P310:P315 P319:P321" xr:uid="{F3017212-E498-4A3A-B13C-7310AB81317B}">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10101_顧客検索.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10101_顧客検索.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D305928-7B0F-4F0C-A34C-8854B95E79BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA943A5-BF20-40AC-B9DB-401503C3E4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="613">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -8006,32 +8006,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DBの検索結果が1000件となる場合</t>
-    <rPh sb="3" eb="7">
-      <t>ケンサクケッカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
-    <t>DBの検索結果が1001件となる場合</t>
-    <rPh sb="3" eb="7">
-      <t>ケンサクケッカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
     <t>処理が正常終了すること</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
@@ -8062,9 +8036,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientSearchFormInvalidClientName()</t>
-  </si>
-  <si>
     <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindAll()</t>
   </si>
   <si>
@@ -8101,9 +8072,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindCodeAndName1000()</t>
-  </si>
-  <si>
     <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientSearchForm()</t>
   </si>
   <si>
@@ -8118,14 +8086,6 @@
   </si>
   <si>
     <t>testFindIndustryCodeNoClients</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>testFindIndustryCodeAndClientNa</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>testFindCodeAndName1000</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -8177,6 +8137,23 @@
       <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBの検索結果が上限件数と同じ場合</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>DBの検索結果が上限件数+1の場合</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientNameForSearch()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindCodeAndNameUpperLimit()</t>
+  </si>
+  <si>
+    <t>testFindCodeAndNameUpperLimit</t>
   </si>
 </sst>
 </file>
@@ -9215,8 +9192,80 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -9326,83 +9375,11 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -10338,12 +10315,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="161" t="str">
+      <c r="I25" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -10903,57 +10880,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="171" t="s">
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="195" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="177" t="s">
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="186" t="s">
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="210" t="s">
         <v>494</v>
       </c>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="168" t="s">
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="212"/>
+      <c r="AA1" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="194"/>
+      <c r="AC1" s="219" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="162" t="str">
+      <c r="AD1" s="220"/>
+      <c r="AE1" s="220"/>
+      <c r="AF1" s="221"/>
+      <c r="AG1" s="186" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="187"/>
+      <c r="AI1" s="188"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10961,53 +10938,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="171" t="s">
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="195" t="s">
         <v>461</v>
       </c>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="168" t="s">
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="174" t="str">
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="198" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="176"/>
-      <c r="AG2" s="162" t="str">
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="186" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+      <c r="AH2" s="187"/>
+      <c r="AI2" s="188"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -11015,45 +10992,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171" t="s">
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="195" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="195"/>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="216"/>
+      <c r="T3" s="217"/>
+      <c r="U3" s="217"/>
+      <c r="V3" s="217"/>
+      <c r="W3" s="217"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="217"/>
+      <c r="Z3" s="218"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="219"/>
+      <c r="AD3" s="220"/>
+      <c r="AE3" s="220"/>
+      <c r="AF3" s="221"/>
+      <c r="AG3" s="186"/>
+      <c r="AH3" s="187"/>
+      <c r="AI3" s="188"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -11090,85 +11067,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="165" t="s">
+      <c r="C7" s="190"/>
+      <c r="D7" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="167"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="165" t="s">
+      <c r="E7" s="191"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="165" t="s">
+      <c r="H7" s="191"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="165" t="s">
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="191"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="190"/>
+      <c r="Q7" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="167"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="167"/>
-      <c r="U7" s="167"/>
-      <c r="V7" s="167"/>
-      <c r="W7" s="167"/>
-      <c r="X7" s="167"/>
-      <c r="Y7" s="167"/>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="167"/>
-      <c r="AB7" s="167"/>
-      <c r="AC7" s="167"/>
-      <c r="AD7" s="167"/>
-      <c r="AE7" s="166"/>
-      <c r="AF7" s="165" t="s">
+      <c r="R7" s="191"/>
+      <c r="S7" s="191"/>
+      <c r="T7" s="191"/>
+      <c r="U7" s="191"/>
+      <c r="V7" s="191"/>
+      <c r="W7" s="191"/>
+      <c r="X7" s="191"/>
+      <c r="Y7" s="191"/>
+      <c r="Z7" s="191"/>
+      <c r="AA7" s="191"/>
+      <c r="AB7" s="191"/>
+      <c r="AC7" s="191"/>
+      <c r="AD7" s="191"/>
+      <c r="AE7" s="190"/>
+      <c r="AF7" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="167"/>
-      <c r="AH7" s="167"/>
-      <c r="AI7" s="166"/>
+      <c r="AG7" s="191"/>
+      <c r="AH7" s="191"/>
+      <c r="AI7" s="190"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="210"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="216"/>
-      <c r="K8" s="217"/>
-      <c r="L8" s="217"/>
-      <c r="M8" s="217"/>
-      <c r="N8" s="217"/>
-      <c r="O8" s="217"/>
-      <c r="P8" s="218"/>
-      <c r="Q8" s="216"/>
-      <c r="R8" s="217"/>
-      <c r="S8" s="217"/>
-      <c r="T8" s="217"/>
-      <c r="U8" s="217"/>
-      <c r="V8" s="217"/>
-      <c r="W8" s="217"/>
-      <c r="X8" s="217"/>
-      <c r="Y8" s="217"/>
-      <c r="Z8" s="217"/>
-      <c r="AA8" s="217"/>
-      <c r="AB8" s="217"/>
-      <c r="AC8" s="217"/>
-      <c r="AD8" s="217"/>
-      <c r="AE8" s="218"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="185"/>
+      <c r="Q8" s="183"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="184"/>
+      <c r="V8" s="184"/>
+      <c r="W8" s="184"/>
+      <c r="X8" s="184"/>
+      <c r="Y8" s="184"/>
+      <c r="Z8" s="184"/>
+      <c r="AA8" s="184"/>
+      <c r="AB8" s="184"/>
+      <c r="AC8" s="184"/>
+      <c r="AD8" s="184"/>
+      <c r="AE8" s="185"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -11176,1089 +11153,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="205"/>
-      <c r="L9" s="205"/>
-      <c r="M9" s="205"/>
-      <c r="N9" s="205"/>
-      <c r="O9" s="205"/>
-      <c r="P9" s="206"/>
-      <c r="Q9" s="207"/>
-      <c r="R9" s="208"/>
-      <c r="S9" s="208"/>
-      <c r="T9" s="208"/>
-      <c r="U9" s="208"/>
-      <c r="V9" s="208"/>
-      <c r="W9" s="208"/>
-      <c r="X9" s="208"/>
-      <c r="Y9" s="208"/>
-      <c r="Z9" s="208"/>
-      <c r="AA9" s="208"/>
-      <c r="AB9" s="208"/>
-      <c r="AC9" s="208"/>
-      <c r="AD9" s="208"/>
-      <c r="AE9" s="209"/>
-      <c r="AF9" s="204"/>
-      <c r="AG9" s="205"/>
-      <c r="AH9" s="205"/>
-      <c r="AI9" s="206"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="174"/>
+      <c r="S9" s="174"/>
+      <c r="T9" s="174"/>
+      <c r="U9" s="174"/>
+      <c r="V9" s="174"/>
+      <c r="W9" s="174"/>
+      <c r="X9" s="174"/>
+      <c r="Y9" s="174"/>
+      <c r="Z9" s="174"/>
+      <c r="AA9" s="174"/>
+      <c r="AB9" s="174"/>
+      <c r="AC9" s="174"/>
+      <c r="AD9" s="174"/>
+      <c r="AE9" s="175"/>
+      <c r="AF9" s="170"/>
+      <c r="AG9" s="171"/>
+      <c r="AH9" s="171"/>
+      <c r="AI9" s="172"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="198"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="205"/>
-      <c r="O10" s="205"/>
-      <c r="P10" s="206"/>
-      <c r="Q10" s="207"/>
-      <c r="R10" s="208"/>
-      <c r="S10" s="208"/>
-      <c r="T10" s="208"/>
-      <c r="U10" s="208"/>
-      <c r="V10" s="208"/>
-      <c r="W10" s="208"/>
-      <c r="X10" s="208"/>
-      <c r="Y10" s="208"/>
-      <c r="Z10" s="208"/>
-      <c r="AA10" s="208"/>
-      <c r="AB10" s="208"/>
-      <c r="AC10" s="208"/>
-      <c r="AD10" s="208"/>
-      <c r="AE10" s="209"/>
-      <c r="AF10" s="204"/>
-      <c r="AG10" s="205"/>
-      <c r="AH10" s="205"/>
-      <c r="AI10" s="206"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="173"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="174"/>
+      <c r="T10" s="174"/>
+      <c r="U10" s="174"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="174"/>
+      <c r="Y10" s="174"/>
+      <c r="Z10" s="174"/>
+      <c r="AA10" s="174"/>
+      <c r="AB10" s="174"/>
+      <c r="AC10" s="174"/>
+      <c r="AD10" s="174"/>
+      <c r="AE10" s="175"/>
+      <c r="AF10" s="170"/>
+      <c r="AG10" s="171"/>
+      <c r="AH10" s="171"/>
+      <c r="AI10" s="172"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="198"/>
-      <c r="C11" s="199"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="199"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="205"/>
-      <c r="N11" s="205"/>
-      <c r="O11" s="205"/>
-      <c r="P11" s="206"/>
-      <c r="Q11" s="207"/>
-      <c r="R11" s="208"/>
-      <c r="S11" s="208"/>
-      <c r="T11" s="208"/>
-      <c r="U11" s="208"/>
-      <c r="V11" s="208"/>
-      <c r="W11" s="208"/>
-      <c r="X11" s="208"/>
-      <c r="Y11" s="208"/>
-      <c r="Z11" s="208"/>
-      <c r="AA11" s="208"/>
-      <c r="AB11" s="208"/>
-      <c r="AC11" s="208"/>
-      <c r="AD11" s="208"/>
-      <c r="AE11" s="209"/>
-      <c r="AF11" s="204"/>
-      <c r="AG11" s="205"/>
-      <c r="AH11" s="205"/>
-      <c r="AI11" s="206"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="173"/>
+      <c r="R11" s="174"/>
+      <c r="S11" s="174"/>
+      <c r="T11" s="174"/>
+      <c r="U11" s="174"/>
+      <c r="V11" s="174"/>
+      <c r="W11" s="174"/>
+      <c r="X11" s="174"/>
+      <c r="Y11" s="174"/>
+      <c r="Z11" s="174"/>
+      <c r="AA11" s="174"/>
+      <c r="AB11" s="174"/>
+      <c r="AC11" s="174"/>
+      <c r="AD11" s="174"/>
+      <c r="AE11" s="175"/>
+      <c r="AF11" s="170"/>
+      <c r="AG11" s="171"/>
+      <c r="AH11" s="171"/>
+      <c r="AI11" s="172"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="198"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="203"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="205"/>
-      <c r="L12" s="205"/>
-      <c r="M12" s="205"/>
-      <c r="N12" s="205"/>
-      <c r="O12" s="205"/>
-      <c r="P12" s="206"/>
-      <c r="Q12" s="207"/>
-      <c r="R12" s="208"/>
-      <c r="S12" s="208"/>
-      <c r="T12" s="208"/>
-      <c r="U12" s="208"/>
-      <c r="V12" s="208"/>
-      <c r="W12" s="208"/>
-      <c r="X12" s="208"/>
-      <c r="Y12" s="208"/>
-      <c r="Z12" s="208"/>
-      <c r="AA12" s="208"/>
-      <c r="AB12" s="208"/>
-      <c r="AC12" s="208"/>
-      <c r="AD12" s="208"/>
-      <c r="AE12" s="209"/>
-      <c r="AF12" s="204"/>
-      <c r="AG12" s="205"/>
-      <c r="AH12" s="205"/>
-      <c r="AI12" s="206"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="172"/>
+      <c r="Q12" s="173"/>
+      <c r="R12" s="174"/>
+      <c r="S12" s="174"/>
+      <c r="T12" s="174"/>
+      <c r="U12" s="174"/>
+      <c r="V12" s="174"/>
+      <c r="W12" s="174"/>
+      <c r="X12" s="174"/>
+      <c r="Y12" s="174"/>
+      <c r="Z12" s="174"/>
+      <c r="AA12" s="174"/>
+      <c r="AB12" s="174"/>
+      <c r="AC12" s="174"/>
+      <c r="AD12" s="174"/>
+      <c r="AE12" s="175"/>
+      <c r="AF12" s="170"/>
+      <c r="AG12" s="171"/>
+      <c r="AH12" s="171"/>
+      <c r="AI12" s="172"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="198"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="200"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="205"/>
-      <c r="L13" s="205"/>
-      <c r="M13" s="205"/>
-      <c r="N13" s="205"/>
-      <c r="O13" s="205"/>
-      <c r="P13" s="206"/>
-      <c r="Q13" s="207"/>
-      <c r="R13" s="208"/>
-      <c r="S13" s="208"/>
-      <c r="T13" s="208"/>
-      <c r="U13" s="208"/>
-      <c r="V13" s="208"/>
-      <c r="W13" s="208"/>
-      <c r="X13" s="208"/>
-      <c r="Y13" s="208"/>
-      <c r="Z13" s="208"/>
-      <c r="AA13" s="208"/>
-      <c r="AB13" s="208"/>
-      <c r="AC13" s="208"/>
-      <c r="AD13" s="208"/>
-      <c r="AE13" s="209"/>
-      <c r="AF13" s="204"/>
-      <c r="AG13" s="205"/>
-      <c r="AH13" s="205"/>
-      <c r="AI13" s="206"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="171"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="172"/>
+      <c r="Q13" s="173"/>
+      <c r="R13" s="174"/>
+      <c r="S13" s="174"/>
+      <c r="T13" s="174"/>
+      <c r="U13" s="174"/>
+      <c r="V13" s="174"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="174"/>
+      <c r="Z13" s="174"/>
+      <c r="AA13" s="174"/>
+      <c r="AB13" s="174"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="174"/>
+      <c r="AE13" s="175"/>
+      <c r="AF13" s="170"/>
+      <c r="AG13" s="171"/>
+      <c r="AH13" s="171"/>
+      <c r="AI13" s="172"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="205"/>
-      <c r="L14" s="205"/>
-      <c r="M14" s="205"/>
-      <c r="N14" s="205"/>
-      <c r="O14" s="205"/>
-      <c r="P14" s="206"/>
-      <c r="Q14" s="207"/>
-      <c r="R14" s="208"/>
-      <c r="S14" s="208"/>
-      <c r="T14" s="208"/>
-      <c r="U14" s="208"/>
-      <c r="V14" s="208"/>
-      <c r="W14" s="208"/>
-      <c r="X14" s="208"/>
-      <c r="Y14" s="208"/>
-      <c r="Z14" s="208"/>
-      <c r="AA14" s="208"/>
-      <c r="AB14" s="208"/>
-      <c r="AC14" s="208"/>
-      <c r="AD14" s="208"/>
-      <c r="AE14" s="209"/>
-      <c r="AF14" s="204"/>
-      <c r="AG14" s="205"/>
-      <c r="AH14" s="205"/>
-      <c r="AI14" s="206"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="171"/>
+      <c r="P14" s="172"/>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="174"/>
+      <c r="S14" s="174"/>
+      <c r="T14" s="174"/>
+      <c r="U14" s="174"/>
+      <c r="V14" s="174"/>
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="174"/>
+      <c r="Z14" s="174"/>
+      <c r="AA14" s="174"/>
+      <c r="AB14" s="174"/>
+      <c r="AC14" s="174"/>
+      <c r="AD14" s="174"/>
+      <c r="AE14" s="175"/>
+      <c r="AF14" s="170"/>
+      <c r="AG14" s="171"/>
+      <c r="AH14" s="171"/>
+      <c r="AI14" s="172"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="198"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="205"/>
-      <c r="L15" s="205"/>
-      <c r="M15" s="205"/>
-      <c r="N15" s="205"/>
-      <c r="O15" s="205"/>
-      <c r="P15" s="206"/>
-      <c r="Q15" s="207"/>
-      <c r="R15" s="208"/>
-      <c r="S15" s="208"/>
-      <c r="T15" s="208"/>
-      <c r="U15" s="208"/>
-      <c r="V15" s="208"/>
-      <c r="W15" s="208"/>
-      <c r="X15" s="208"/>
-      <c r="Y15" s="208"/>
-      <c r="Z15" s="208"/>
-      <c r="AA15" s="208"/>
-      <c r="AB15" s="208"/>
-      <c r="AC15" s="208"/>
-      <c r="AD15" s="208"/>
-      <c r="AE15" s="209"/>
-      <c r="AF15" s="204"/>
-      <c r="AG15" s="205"/>
-      <c r="AH15" s="205"/>
-      <c r="AI15" s="206"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="172"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="174"/>
+      <c r="S15" s="174"/>
+      <c r="T15" s="174"/>
+      <c r="U15" s="174"/>
+      <c r="V15" s="174"/>
+      <c r="W15" s="174"/>
+      <c r="X15" s="174"/>
+      <c r="Y15" s="174"/>
+      <c r="Z15" s="174"/>
+      <c r="AA15" s="174"/>
+      <c r="AB15" s="174"/>
+      <c r="AC15" s="174"/>
+      <c r="AD15" s="174"/>
+      <c r="AE15" s="175"/>
+      <c r="AF15" s="170"/>
+      <c r="AG15" s="171"/>
+      <c r="AH15" s="171"/>
+      <c r="AI15" s="172"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="205"/>
-      <c r="M16" s="205"/>
-      <c r="N16" s="205"/>
-      <c r="O16" s="205"/>
-      <c r="P16" s="206"/>
-      <c r="Q16" s="207"/>
-      <c r="R16" s="208"/>
-      <c r="S16" s="208"/>
-      <c r="T16" s="208"/>
-      <c r="U16" s="208"/>
-      <c r="V16" s="208"/>
-      <c r="W16" s="208"/>
-      <c r="X16" s="208"/>
-      <c r="Y16" s="208"/>
-      <c r="Z16" s="208"/>
-      <c r="AA16" s="208"/>
-      <c r="AB16" s="208"/>
-      <c r="AC16" s="208"/>
-      <c r="AD16" s="208"/>
-      <c r="AE16" s="209"/>
-      <c r="AF16" s="204"/>
-      <c r="AG16" s="205"/>
-      <c r="AH16" s="205"/>
-      <c r="AI16" s="206"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="171"/>
+      <c r="M16" s="171"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="173"/>
+      <c r="R16" s="174"/>
+      <c r="S16" s="174"/>
+      <c r="T16" s="174"/>
+      <c r="U16" s="174"/>
+      <c r="V16" s="174"/>
+      <c r="W16" s="174"/>
+      <c r="X16" s="174"/>
+      <c r="Y16" s="174"/>
+      <c r="Z16" s="174"/>
+      <c r="AA16" s="174"/>
+      <c r="AB16" s="174"/>
+      <c r="AC16" s="174"/>
+      <c r="AD16" s="174"/>
+      <c r="AE16" s="175"/>
+      <c r="AF16" s="170"/>
+      <c r="AG16" s="171"/>
+      <c r="AH16" s="171"/>
+      <c r="AI16" s="172"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="205"/>
-      <c r="L17" s="205"/>
-      <c r="M17" s="205"/>
-      <c r="N17" s="205"/>
-      <c r="O17" s="205"/>
-      <c r="P17" s="206"/>
-      <c r="Q17" s="207"/>
-      <c r="R17" s="208"/>
-      <c r="S17" s="208"/>
-      <c r="T17" s="208"/>
-      <c r="U17" s="208"/>
-      <c r="V17" s="208"/>
-      <c r="W17" s="208"/>
-      <c r="X17" s="208"/>
-      <c r="Y17" s="208"/>
-      <c r="Z17" s="208"/>
-      <c r="AA17" s="208"/>
-      <c r="AB17" s="208"/>
-      <c r="AC17" s="208"/>
-      <c r="AD17" s="208"/>
-      <c r="AE17" s="209"/>
-      <c r="AF17" s="204"/>
-      <c r="AG17" s="205"/>
-      <c r="AH17" s="205"/>
-      <c r="AI17" s="206"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="171"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="173"/>
+      <c r="R17" s="174"/>
+      <c r="S17" s="174"/>
+      <c r="T17" s="174"/>
+      <c r="U17" s="174"/>
+      <c r="V17" s="174"/>
+      <c r="W17" s="174"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="174"/>
+      <c r="Z17" s="174"/>
+      <c r="AA17" s="174"/>
+      <c r="AB17" s="174"/>
+      <c r="AC17" s="174"/>
+      <c r="AD17" s="174"/>
+      <c r="AE17" s="175"/>
+      <c r="AF17" s="170"/>
+      <c r="AG17" s="171"/>
+      <c r="AH17" s="171"/>
+      <c r="AI17" s="172"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="198"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="205"/>
-      <c r="L18" s="205"/>
-      <c r="M18" s="205"/>
-      <c r="N18" s="205"/>
-      <c r="O18" s="205"/>
-      <c r="P18" s="206"/>
-      <c r="Q18" s="207"/>
-      <c r="R18" s="208"/>
-      <c r="S18" s="208"/>
-      <c r="T18" s="208"/>
-      <c r="U18" s="208"/>
-      <c r="V18" s="208"/>
-      <c r="W18" s="208"/>
-      <c r="X18" s="208"/>
-      <c r="Y18" s="208"/>
-      <c r="Z18" s="208"/>
-      <c r="AA18" s="208"/>
-      <c r="AB18" s="208"/>
-      <c r="AC18" s="208"/>
-      <c r="AD18" s="208"/>
-      <c r="AE18" s="209"/>
-      <c r="AF18" s="204"/>
-      <c r="AG18" s="205"/>
-      <c r="AH18" s="205"/>
-      <c r="AI18" s="206"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="171"/>
+      <c r="L18" s="171"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="173"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="174"/>
+      <c r="T18" s="174"/>
+      <c r="U18" s="174"/>
+      <c r="V18" s="174"/>
+      <c r="W18" s="174"/>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="174"/>
+      <c r="Z18" s="174"/>
+      <c r="AA18" s="174"/>
+      <c r="AB18" s="174"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="174"/>
+      <c r="AE18" s="175"/>
+      <c r="AF18" s="170"/>
+      <c r="AG18" s="171"/>
+      <c r="AH18" s="171"/>
+      <c r="AI18" s="172"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="205"/>
-      <c r="M19" s="205"/>
-      <c r="N19" s="205"/>
-      <c r="O19" s="205"/>
-      <c r="P19" s="206"/>
-      <c r="Q19" s="207"/>
-      <c r="R19" s="208"/>
-      <c r="S19" s="208"/>
-      <c r="T19" s="208"/>
-      <c r="U19" s="208"/>
-      <c r="V19" s="208"/>
-      <c r="W19" s="208"/>
-      <c r="X19" s="208"/>
-      <c r="Y19" s="208"/>
-      <c r="Z19" s="208"/>
-      <c r="AA19" s="208"/>
-      <c r="AB19" s="208"/>
-      <c r="AC19" s="208"/>
-      <c r="AD19" s="208"/>
-      <c r="AE19" s="209"/>
-      <c r="AF19" s="204"/>
-      <c r="AG19" s="205"/>
-      <c r="AH19" s="205"/>
-      <c r="AI19" s="206"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="171"/>
+      <c r="O19" s="171"/>
+      <c r="P19" s="172"/>
+      <c r="Q19" s="173"/>
+      <c r="R19" s="174"/>
+      <c r="S19" s="174"/>
+      <c r="T19" s="174"/>
+      <c r="U19" s="174"/>
+      <c r="V19" s="174"/>
+      <c r="W19" s="174"/>
+      <c r="X19" s="174"/>
+      <c r="Y19" s="174"/>
+      <c r="Z19" s="174"/>
+      <c r="AA19" s="174"/>
+      <c r="AB19" s="174"/>
+      <c r="AC19" s="174"/>
+      <c r="AD19" s="174"/>
+      <c r="AE19" s="175"/>
+      <c r="AF19" s="170"/>
+      <c r="AG19" s="171"/>
+      <c r="AH19" s="171"/>
+      <c r="AI19" s="172"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="198"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="205"/>
-      <c r="L20" s="205"/>
-      <c r="M20" s="205"/>
-      <c r="N20" s="205"/>
-      <c r="O20" s="205"/>
-      <c r="P20" s="206"/>
-      <c r="Q20" s="207"/>
-      <c r="R20" s="208"/>
-      <c r="S20" s="208"/>
-      <c r="T20" s="208"/>
-      <c r="U20" s="208"/>
-      <c r="V20" s="208"/>
-      <c r="W20" s="208"/>
-      <c r="X20" s="208"/>
-      <c r="Y20" s="208"/>
-      <c r="Z20" s="208"/>
-      <c r="AA20" s="208"/>
-      <c r="AB20" s="208"/>
-      <c r="AC20" s="208"/>
-      <c r="AD20" s="208"/>
-      <c r="AE20" s="209"/>
-      <c r="AF20" s="204"/>
-      <c r="AG20" s="205"/>
-      <c r="AH20" s="205"/>
-      <c r="AI20" s="206"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="171"/>
+      <c r="M20" s="171"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="171"/>
+      <c r="P20" s="172"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="174"/>
+      <c r="S20" s="174"/>
+      <c r="T20" s="174"/>
+      <c r="U20" s="174"/>
+      <c r="V20" s="174"/>
+      <c r="W20" s="174"/>
+      <c r="X20" s="174"/>
+      <c r="Y20" s="174"/>
+      <c r="Z20" s="174"/>
+      <c r="AA20" s="174"/>
+      <c r="AB20" s="174"/>
+      <c r="AC20" s="174"/>
+      <c r="AD20" s="174"/>
+      <c r="AE20" s="175"/>
+      <c r="AF20" s="170"/>
+      <c r="AG20" s="171"/>
+      <c r="AH20" s="171"/>
+      <c r="AI20" s="172"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="198"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="204"/>
-      <c r="K21" s="205"/>
-      <c r="L21" s="205"/>
-      <c r="M21" s="205"/>
-      <c r="N21" s="205"/>
-      <c r="O21" s="205"/>
-      <c r="P21" s="206"/>
-      <c r="Q21" s="207"/>
-      <c r="R21" s="208"/>
-      <c r="S21" s="208"/>
-      <c r="T21" s="208"/>
-      <c r="U21" s="208"/>
-      <c r="V21" s="208"/>
-      <c r="W21" s="208"/>
-      <c r="X21" s="208"/>
-      <c r="Y21" s="208"/>
-      <c r="Z21" s="208"/>
-      <c r="AA21" s="208"/>
-      <c r="AB21" s="208"/>
-      <c r="AC21" s="208"/>
-      <c r="AD21" s="208"/>
-      <c r="AE21" s="209"/>
-      <c r="AF21" s="204"/>
-      <c r="AG21" s="205"/>
-      <c r="AH21" s="205"/>
-      <c r="AI21" s="206"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="171"/>
+      <c r="N21" s="171"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="174"/>
+      <c r="S21" s="174"/>
+      <c r="T21" s="174"/>
+      <c r="U21" s="174"/>
+      <c r="V21" s="174"/>
+      <c r="W21" s="174"/>
+      <c r="X21" s="174"/>
+      <c r="Y21" s="174"/>
+      <c r="Z21" s="174"/>
+      <c r="AA21" s="174"/>
+      <c r="AB21" s="174"/>
+      <c r="AC21" s="174"/>
+      <c r="AD21" s="174"/>
+      <c r="AE21" s="175"/>
+      <c r="AF21" s="170"/>
+      <c r="AG21" s="171"/>
+      <c r="AH21" s="171"/>
+      <c r="AI21" s="172"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="198"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="205"/>
-      <c r="M22" s="205"/>
-      <c r="N22" s="205"/>
-      <c r="O22" s="205"/>
-      <c r="P22" s="206"/>
-      <c r="Q22" s="207"/>
-      <c r="R22" s="208"/>
-      <c r="S22" s="208"/>
-      <c r="T22" s="208"/>
-      <c r="U22" s="208"/>
-      <c r="V22" s="208"/>
-      <c r="W22" s="208"/>
-      <c r="X22" s="208"/>
-      <c r="Y22" s="208"/>
-      <c r="Z22" s="208"/>
-      <c r="AA22" s="208"/>
-      <c r="AB22" s="208"/>
-      <c r="AC22" s="208"/>
-      <c r="AD22" s="208"/>
-      <c r="AE22" s="209"/>
-      <c r="AF22" s="204"/>
-      <c r="AG22" s="205"/>
-      <c r="AH22" s="205"/>
-      <c r="AI22" s="206"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="171"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="171"/>
+      <c r="P22" s="172"/>
+      <c r="Q22" s="173"/>
+      <c r="R22" s="174"/>
+      <c r="S22" s="174"/>
+      <c r="T22" s="174"/>
+      <c r="U22" s="174"/>
+      <c r="V22" s="174"/>
+      <c r="W22" s="174"/>
+      <c r="X22" s="174"/>
+      <c r="Y22" s="174"/>
+      <c r="Z22" s="174"/>
+      <c r="AA22" s="174"/>
+      <c r="AB22" s="174"/>
+      <c r="AC22" s="174"/>
+      <c r="AD22" s="174"/>
+      <c r="AE22" s="175"/>
+      <c r="AF22" s="170"/>
+      <c r="AG22" s="171"/>
+      <c r="AH22" s="171"/>
+      <c r="AI22" s="172"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="198"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="205"/>
-      <c r="L23" s="205"/>
-      <c r="M23" s="205"/>
-      <c r="N23" s="205"/>
-      <c r="O23" s="205"/>
-      <c r="P23" s="206"/>
-      <c r="Q23" s="207"/>
-      <c r="R23" s="208"/>
-      <c r="S23" s="208"/>
-      <c r="T23" s="208"/>
-      <c r="U23" s="208"/>
-      <c r="V23" s="208"/>
-      <c r="W23" s="208"/>
-      <c r="X23" s="208"/>
-      <c r="Y23" s="208"/>
-      <c r="Z23" s="208"/>
-      <c r="AA23" s="208"/>
-      <c r="AB23" s="208"/>
-      <c r="AC23" s="208"/>
-      <c r="AD23" s="208"/>
-      <c r="AE23" s="209"/>
-      <c r="AF23" s="204"/>
-      <c r="AG23" s="205"/>
-      <c r="AH23" s="205"/>
-      <c r="AI23" s="206"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="171"/>
+      <c r="N23" s="171"/>
+      <c r="O23" s="171"/>
+      <c r="P23" s="172"/>
+      <c r="Q23" s="173"/>
+      <c r="R23" s="174"/>
+      <c r="S23" s="174"/>
+      <c r="T23" s="174"/>
+      <c r="U23" s="174"/>
+      <c r="V23" s="174"/>
+      <c r="W23" s="174"/>
+      <c r="X23" s="174"/>
+      <c r="Y23" s="174"/>
+      <c r="Z23" s="174"/>
+      <c r="AA23" s="174"/>
+      <c r="AB23" s="174"/>
+      <c r="AC23" s="174"/>
+      <c r="AD23" s="174"/>
+      <c r="AE23" s="175"/>
+      <c r="AF23" s="170"/>
+      <c r="AG23" s="171"/>
+      <c r="AH23" s="171"/>
+      <c r="AI23" s="172"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="198"/>
-      <c r="C24" s="199"/>
-      <c r="D24" s="200"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="203"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="204"/>
-      <c r="K24" s="205"/>
-      <c r="L24" s="205"/>
-      <c r="M24" s="205"/>
-      <c r="N24" s="205"/>
-      <c r="O24" s="205"/>
-      <c r="P24" s="206"/>
-      <c r="Q24" s="207"/>
-      <c r="R24" s="208"/>
-      <c r="S24" s="208"/>
-      <c r="T24" s="208"/>
-      <c r="U24" s="208"/>
-      <c r="V24" s="208"/>
-      <c r="W24" s="208"/>
-      <c r="X24" s="208"/>
-      <c r="Y24" s="208"/>
-      <c r="Z24" s="208"/>
-      <c r="AA24" s="208"/>
-      <c r="AB24" s="208"/>
-      <c r="AC24" s="208"/>
-      <c r="AD24" s="208"/>
-      <c r="AE24" s="209"/>
-      <c r="AF24" s="204"/>
-      <c r="AG24" s="205"/>
-      <c r="AH24" s="205"/>
-      <c r="AI24" s="206"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="171"/>
+      <c r="P24" s="172"/>
+      <c r="Q24" s="173"/>
+      <c r="R24" s="174"/>
+      <c r="S24" s="174"/>
+      <c r="T24" s="174"/>
+      <c r="U24" s="174"/>
+      <c r="V24" s="174"/>
+      <c r="W24" s="174"/>
+      <c r="X24" s="174"/>
+      <c r="Y24" s="174"/>
+      <c r="Z24" s="174"/>
+      <c r="AA24" s="174"/>
+      <c r="AB24" s="174"/>
+      <c r="AC24" s="174"/>
+      <c r="AD24" s="174"/>
+      <c r="AE24" s="175"/>
+      <c r="AF24" s="170"/>
+      <c r="AG24" s="171"/>
+      <c r="AH24" s="171"/>
+      <c r="AI24" s="172"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="198"/>
-      <c r="C25" s="199"/>
-      <c r="D25" s="200"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="198"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="205"/>
-      <c r="L25" s="205"/>
-      <c r="M25" s="205"/>
-      <c r="N25" s="205"/>
-      <c r="O25" s="205"/>
-      <c r="P25" s="206"/>
-      <c r="Q25" s="207"/>
-      <c r="R25" s="208"/>
-      <c r="S25" s="208"/>
-      <c r="T25" s="208"/>
-      <c r="U25" s="208"/>
-      <c r="V25" s="208"/>
-      <c r="W25" s="208"/>
-      <c r="X25" s="208"/>
-      <c r="Y25" s="208"/>
-      <c r="Z25" s="208"/>
-      <c r="AA25" s="208"/>
-      <c r="AB25" s="208"/>
-      <c r="AC25" s="208"/>
-      <c r="AD25" s="208"/>
-      <c r="AE25" s="209"/>
-      <c r="AF25" s="204"/>
-      <c r="AG25" s="205"/>
-      <c r="AH25" s="205"/>
-      <c r="AI25" s="206"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="171"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="171"/>
+      <c r="P25" s="172"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="174"/>
+      <c r="S25" s="174"/>
+      <c r="T25" s="174"/>
+      <c r="U25" s="174"/>
+      <c r="V25" s="174"/>
+      <c r="W25" s="174"/>
+      <c r="X25" s="174"/>
+      <c r="Y25" s="174"/>
+      <c r="Z25" s="174"/>
+      <c r="AA25" s="174"/>
+      <c r="AB25" s="174"/>
+      <c r="AC25" s="174"/>
+      <c r="AD25" s="174"/>
+      <c r="AE25" s="175"/>
+      <c r="AF25" s="170"/>
+      <c r="AG25" s="171"/>
+      <c r="AH25" s="171"/>
+      <c r="AI25" s="172"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="198"/>
-      <c r="C26" s="199"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="204"/>
-      <c r="K26" s="205"/>
-      <c r="L26" s="205"/>
-      <c r="M26" s="205"/>
-      <c r="N26" s="205"/>
-      <c r="O26" s="205"/>
-      <c r="P26" s="206"/>
-      <c r="Q26" s="207"/>
-      <c r="R26" s="208"/>
-      <c r="S26" s="208"/>
-      <c r="T26" s="208"/>
-      <c r="U26" s="208"/>
-      <c r="V26" s="208"/>
-      <c r="W26" s="208"/>
-      <c r="X26" s="208"/>
-      <c r="Y26" s="208"/>
-      <c r="Z26" s="208"/>
-      <c r="AA26" s="208"/>
-      <c r="AB26" s="208"/>
-      <c r="AC26" s="208"/>
-      <c r="AD26" s="208"/>
-      <c r="AE26" s="209"/>
-      <c r="AF26" s="204"/>
-      <c r="AG26" s="205"/>
-      <c r="AH26" s="205"/>
-      <c r="AI26" s="206"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="171"/>
+      <c r="O26" s="171"/>
+      <c r="P26" s="172"/>
+      <c r="Q26" s="173"/>
+      <c r="R26" s="174"/>
+      <c r="S26" s="174"/>
+      <c r="T26" s="174"/>
+      <c r="U26" s="174"/>
+      <c r="V26" s="174"/>
+      <c r="W26" s="174"/>
+      <c r="X26" s="174"/>
+      <c r="Y26" s="174"/>
+      <c r="Z26" s="174"/>
+      <c r="AA26" s="174"/>
+      <c r="AB26" s="174"/>
+      <c r="AC26" s="174"/>
+      <c r="AD26" s="174"/>
+      <c r="AE26" s="175"/>
+      <c r="AF26" s="170"/>
+      <c r="AG26" s="171"/>
+      <c r="AH26" s="171"/>
+      <c r="AI26" s="172"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="198"/>
-      <c r="C27" s="199"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="198"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="204"/>
-      <c r="K27" s="205"/>
-      <c r="L27" s="205"/>
-      <c r="M27" s="205"/>
-      <c r="N27" s="205"/>
-      <c r="O27" s="205"/>
-      <c r="P27" s="206"/>
-      <c r="Q27" s="207"/>
-      <c r="R27" s="208"/>
-      <c r="S27" s="208"/>
-      <c r="T27" s="208"/>
-      <c r="U27" s="208"/>
-      <c r="V27" s="208"/>
-      <c r="W27" s="208"/>
-      <c r="X27" s="208"/>
-      <c r="Y27" s="208"/>
-      <c r="Z27" s="208"/>
-      <c r="AA27" s="208"/>
-      <c r="AB27" s="208"/>
-      <c r="AC27" s="208"/>
-      <c r="AD27" s="208"/>
-      <c r="AE27" s="209"/>
-      <c r="AF27" s="204"/>
-      <c r="AG27" s="205"/>
-      <c r="AH27" s="205"/>
-      <c r="AI27" s="206"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="171"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="171"/>
+      <c r="O27" s="171"/>
+      <c r="P27" s="172"/>
+      <c r="Q27" s="173"/>
+      <c r="R27" s="174"/>
+      <c r="S27" s="174"/>
+      <c r="T27" s="174"/>
+      <c r="U27" s="174"/>
+      <c r="V27" s="174"/>
+      <c r="W27" s="174"/>
+      <c r="X27" s="174"/>
+      <c r="Y27" s="174"/>
+      <c r="Z27" s="174"/>
+      <c r="AA27" s="174"/>
+      <c r="AB27" s="174"/>
+      <c r="AC27" s="174"/>
+      <c r="AD27" s="174"/>
+      <c r="AE27" s="175"/>
+      <c r="AF27" s="170"/>
+      <c r="AG27" s="171"/>
+      <c r="AH27" s="171"/>
+      <c r="AI27" s="172"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="198"/>
-      <c r="C28" s="199"/>
-      <c r="D28" s="200"/>
-      <c r="E28" s="201"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="204"/>
-      <c r="K28" s="205"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="205"/>
-      <c r="N28" s="205"/>
-      <c r="O28" s="205"/>
-      <c r="P28" s="206"/>
-      <c r="Q28" s="207"/>
-      <c r="R28" s="208"/>
-      <c r="S28" s="208"/>
-      <c r="T28" s="208"/>
-      <c r="U28" s="208"/>
-      <c r="V28" s="208"/>
-      <c r="W28" s="208"/>
-      <c r="X28" s="208"/>
-      <c r="Y28" s="208"/>
-      <c r="Z28" s="208"/>
-      <c r="AA28" s="208"/>
-      <c r="AB28" s="208"/>
-      <c r="AC28" s="208"/>
-      <c r="AD28" s="208"/>
-      <c r="AE28" s="209"/>
-      <c r="AF28" s="204"/>
-      <c r="AG28" s="205"/>
-      <c r="AH28" s="205"/>
-      <c r="AI28" s="206"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="171"/>
+      <c r="L28" s="171"/>
+      <c r="M28" s="171"/>
+      <c r="N28" s="171"/>
+      <c r="O28" s="171"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="173"/>
+      <c r="R28" s="174"/>
+      <c r="S28" s="174"/>
+      <c r="T28" s="174"/>
+      <c r="U28" s="174"/>
+      <c r="V28" s="174"/>
+      <c r="W28" s="174"/>
+      <c r="X28" s="174"/>
+      <c r="Y28" s="174"/>
+      <c r="Z28" s="174"/>
+      <c r="AA28" s="174"/>
+      <c r="AB28" s="174"/>
+      <c r="AC28" s="174"/>
+      <c r="AD28" s="174"/>
+      <c r="AE28" s="175"/>
+      <c r="AF28" s="170"/>
+      <c r="AG28" s="171"/>
+      <c r="AH28" s="171"/>
+      <c r="AI28" s="172"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="198"/>
-      <c r="C29" s="199"/>
-      <c r="D29" s="200"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="203"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="205"/>
-      <c r="L29" s="205"/>
-      <c r="M29" s="205"/>
-      <c r="N29" s="205"/>
-      <c r="O29" s="205"/>
-      <c r="P29" s="206"/>
-      <c r="Q29" s="207"/>
-      <c r="R29" s="208"/>
-      <c r="S29" s="208"/>
-      <c r="T29" s="208"/>
-      <c r="U29" s="208"/>
-      <c r="V29" s="208"/>
-      <c r="W29" s="208"/>
-      <c r="X29" s="208"/>
-      <c r="Y29" s="208"/>
-      <c r="Z29" s="208"/>
-      <c r="AA29" s="208"/>
-      <c r="AB29" s="208"/>
-      <c r="AC29" s="208"/>
-      <c r="AD29" s="208"/>
-      <c r="AE29" s="209"/>
-      <c r="AF29" s="204"/>
-      <c r="AG29" s="205"/>
-      <c r="AH29" s="205"/>
-      <c r="AI29" s="206"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="171"/>
+      <c r="M29" s="171"/>
+      <c r="N29" s="171"/>
+      <c r="O29" s="171"/>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="173"/>
+      <c r="R29" s="174"/>
+      <c r="S29" s="174"/>
+      <c r="T29" s="174"/>
+      <c r="U29" s="174"/>
+      <c r="V29" s="174"/>
+      <c r="W29" s="174"/>
+      <c r="X29" s="174"/>
+      <c r="Y29" s="174"/>
+      <c r="Z29" s="174"/>
+      <c r="AA29" s="174"/>
+      <c r="AB29" s="174"/>
+      <c r="AC29" s="174"/>
+      <c r="AD29" s="174"/>
+      <c r="AE29" s="175"/>
+      <c r="AF29" s="170"/>
+      <c r="AG29" s="171"/>
+      <c r="AH29" s="171"/>
+      <c r="AI29" s="172"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="198"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="200"/>
-      <c r="E30" s="201"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="198"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="204"/>
-      <c r="K30" s="205"/>
-      <c r="L30" s="205"/>
-      <c r="M30" s="205"/>
-      <c r="N30" s="205"/>
-      <c r="O30" s="205"/>
-      <c r="P30" s="206"/>
-      <c r="Q30" s="207"/>
-      <c r="R30" s="208"/>
-      <c r="S30" s="208"/>
-      <c r="T30" s="208"/>
-      <c r="U30" s="208"/>
-      <c r="V30" s="208"/>
-      <c r="W30" s="208"/>
-      <c r="X30" s="208"/>
-      <c r="Y30" s="208"/>
-      <c r="Z30" s="208"/>
-      <c r="AA30" s="208"/>
-      <c r="AB30" s="208"/>
-      <c r="AC30" s="208"/>
-      <c r="AD30" s="208"/>
-      <c r="AE30" s="209"/>
-      <c r="AF30" s="204"/>
-      <c r="AG30" s="205"/>
-      <c r="AH30" s="205"/>
-      <c r="AI30" s="206"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="171"/>
+      <c r="L30" s="171"/>
+      <c r="M30" s="171"/>
+      <c r="N30" s="171"/>
+      <c r="O30" s="171"/>
+      <c r="P30" s="172"/>
+      <c r="Q30" s="173"/>
+      <c r="R30" s="174"/>
+      <c r="S30" s="174"/>
+      <c r="T30" s="174"/>
+      <c r="U30" s="174"/>
+      <c r="V30" s="174"/>
+      <c r="W30" s="174"/>
+      <c r="X30" s="174"/>
+      <c r="Y30" s="174"/>
+      <c r="Z30" s="174"/>
+      <c r="AA30" s="174"/>
+      <c r="AB30" s="174"/>
+      <c r="AC30" s="174"/>
+      <c r="AD30" s="174"/>
+      <c r="AE30" s="175"/>
+      <c r="AF30" s="170"/>
+      <c r="AG30" s="171"/>
+      <c r="AH30" s="171"/>
+      <c r="AI30" s="172"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="200"/>
-      <c r="E31" s="201"/>
-      <c r="F31" s="202"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="203"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="205"/>
-      <c r="L31" s="205"/>
-      <c r="M31" s="205"/>
-      <c r="N31" s="205"/>
-      <c r="O31" s="205"/>
-      <c r="P31" s="206"/>
-      <c r="Q31" s="207"/>
-      <c r="R31" s="208"/>
-      <c r="S31" s="208"/>
-      <c r="T31" s="208"/>
-      <c r="U31" s="208"/>
-      <c r="V31" s="208"/>
-      <c r="W31" s="208"/>
-      <c r="X31" s="208"/>
-      <c r="Y31" s="208"/>
-      <c r="Z31" s="208"/>
-      <c r="AA31" s="208"/>
-      <c r="AB31" s="208"/>
-      <c r="AC31" s="208"/>
-      <c r="AD31" s="208"/>
-      <c r="AE31" s="209"/>
-      <c r="AF31" s="204"/>
-      <c r="AG31" s="205"/>
-      <c r="AH31" s="205"/>
-      <c r="AI31" s="206"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="171"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="171"/>
+      <c r="P31" s="172"/>
+      <c r="Q31" s="173"/>
+      <c r="R31" s="174"/>
+      <c r="S31" s="174"/>
+      <c r="T31" s="174"/>
+      <c r="U31" s="174"/>
+      <c r="V31" s="174"/>
+      <c r="W31" s="174"/>
+      <c r="X31" s="174"/>
+      <c r="Y31" s="174"/>
+      <c r="Z31" s="174"/>
+      <c r="AA31" s="174"/>
+      <c r="AB31" s="174"/>
+      <c r="AC31" s="174"/>
+      <c r="AD31" s="174"/>
+      <c r="AE31" s="175"/>
+      <c r="AF31" s="170"/>
+      <c r="AG31" s="171"/>
+      <c r="AH31" s="171"/>
+      <c r="AI31" s="172"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="200"/>
-      <c r="E32" s="201"/>
-      <c r="F32" s="202"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="203"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="219"/>
-      <c r="L32" s="205"/>
-      <c r="M32" s="205"/>
-      <c r="N32" s="205"/>
-      <c r="O32" s="205"/>
-      <c r="P32" s="206"/>
-      <c r="Q32" s="207"/>
-      <c r="R32" s="208"/>
-      <c r="S32" s="208"/>
-      <c r="T32" s="208"/>
-      <c r="U32" s="208"/>
-      <c r="V32" s="208"/>
-      <c r="W32" s="208"/>
-      <c r="X32" s="208"/>
-      <c r="Y32" s="208"/>
-      <c r="Z32" s="208"/>
-      <c r="AA32" s="208"/>
-      <c r="AB32" s="208"/>
-      <c r="AC32" s="208"/>
-      <c r="AD32" s="208"/>
-      <c r="AE32" s="209"/>
-      <c r="AF32" s="204"/>
-      <c r="AG32" s="205"/>
-      <c r="AH32" s="205"/>
-      <c r="AI32" s="206"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="170"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="171"/>
+      <c r="M32" s="171"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="171"/>
+      <c r="P32" s="172"/>
+      <c r="Q32" s="173"/>
+      <c r="R32" s="174"/>
+      <c r="S32" s="174"/>
+      <c r="T32" s="174"/>
+      <c r="U32" s="174"/>
+      <c r="V32" s="174"/>
+      <c r="W32" s="174"/>
+      <c r="X32" s="174"/>
+      <c r="Y32" s="174"/>
+      <c r="Z32" s="174"/>
+      <c r="AA32" s="174"/>
+      <c r="AB32" s="174"/>
+      <c r="AC32" s="174"/>
+      <c r="AD32" s="174"/>
+      <c r="AE32" s="175"/>
+      <c r="AF32" s="170"/>
+      <c r="AG32" s="171"/>
+      <c r="AH32" s="171"/>
+      <c r="AI32" s="172"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="200"/>
-      <c r="E33" s="201"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="198"/>
-      <c r="H33" s="203"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="205"/>
-      <c r="L33" s="205"/>
-      <c r="M33" s="205"/>
-      <c r="N33" s="205"/>
-      <c r="O33" s="205"/>
-      <c r="P33" s="206"/>
-      <c r="Q33" s="207"/>
-      <c r="R33" s="208"/>
-      <c r="S33" s="208"/>
-      <c r="T33" s="208"/>
-      <c r="U33" s="208"/>
-      <c r="V33" s="208"/>
-      <c r="W33" s="208"/>
-      <c r="X33" s="208"/>
-      <c r="Y33" s="208"/>
-      <c r="Z33" s="208"/>
-      <c r="AA33" s="208"/>
-      <c r="AB33" s="208"/>
-      <c r="AC33" s="208"/>
-      <c r="AD33" s="208"/>
-      <c r="AE33" s="209"/>
-      <c r="AF33" s="204"/>
-      <c r="AG33" s="205"/>
-      <c r="AH33" s="205"/>
-      <c r="AI33" s="206"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="171"/>
+      <c r="L33" s="171"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="171"/>
+      <c r="P33" s="172"/>
+      <c r="Q33" s="173"/>
+      <c r="R33" s="174"/>
+      <c r="S33" s="174"/>
+      <c r="T33" s="174"/>
+      <c r="U33" s="174"/>
+      <c r="V33" s="174"/>
+      <c r="W33" s="174"/>
+      <c r="X33" s="174"/>
+      <c r="Y33" s="174"/>
+      <c r="Z33" s="174"/>
+      <c r="AA33" s="174"/>
+      <c r="AB33" s="174"/>
+      <c r="AC33" s="174"/>
+      <c r="AD33" s="174"/>
+      <c r="AE33" s="175"/>
+      <c r="AF33" s="170"/>
+      <c r="AG33" s="171"/>
+      <c r="AH33" s="171"/>
+      <c r="AI33" s="172"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12282,6 +12104,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -13482,7 +13459,7 @@
         <v>48</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G40" s="45"/>
       <c r="H40" s="58" t="s">
@@ -13518,7 +13495,7 @@
       <c r="D41" s="152"/>
       <c r="E41" s="153"/>
       <c r="F41" s="154" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="G41" s="154"/>
       <c r="H41" s="54" t="s">
@@ -13528,22 +13505,22 @@
         <v>578</v>
       </c>
       <c r="J41" s="53" t="s">
+        <v>608</v>
+      </c>
+      <c r="K41" s="155" t="s">
         <v>581</v>
       </c>
-      <c r="K41" s="155" t="s">
+      <c r="L41" s="107" t="s">
         <v>583</v>
       </c>
-      <c r="L41" s="107" t="s">
-        <v>585</v>
-      </c>
       <c r="M41" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="N41" s="160">
         <v>44858</v>
       </c>
       <c r="O41" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="P41" s="156"/>
       <c r="Q41" s="108"/>
@@ -13561,12 +13538,12 @@
 )</f>
         <v>12-3-1</v>
       </c>
-      <c r="B42" s="222"/>
+      <c r="B42" s="161"/>
       <c r="C42" s="149"/>
       <c r="D42" s="152"/>
       <c r="E42" s="153"/>
       <c r="F42" s="45" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G42" s="45"/>
       <c r="H42" s="58" t="s">
@@ -13597,12 +13574,12 @@
 )</f>
         <v>12-4-1</v>
       </c>
-      <c r="B43" s="223"/>
+      <c r="B43" s="162"/>
       <c r="C43" s="150"/>
       <c r="D43" s="157"/>
       <c r="E43" s="158"/>
       <c r="F43" s="154" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="G43" s="154"/>
       <c r="H43" s="54" t="s">
@@ -13612,22 +13589,22 @@
         <v>578</v>
       </c>
       <c r="J43" s="53" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="K43" s="53" t="s">
         <v>580</v>
       </c>
       <c r="L43" s="107" t="s">
+        <v>582</v>
+      </c>
+      <c r="M43" s="159" t="s">
         <v>584</v>
-      </c>
-      <c r="M43" s="159" t="s">
-        <v>586</v>
       </c>
       <c r="N43" s="160">
         <v>44858</v>
       </c>
       <c r="O43" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="P43" s="156"/>
       <c r="Q43" s="108"/>
@@ -16135,7 +16112,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B114" s="220" t="s">
+      <c r="B114" s="222" t="s">
         <v>193</v>
       </c>
       <c r="C114" s="48"/>
@@ -16171,7 +16148,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B115" s="220"/>
+      <c r="B115" s="222"/>
       <c r="C115" s="48"/>
       <c r="D115" s="117"/>
       <c r="E115" s="60"/>
@@ -16843,7 +16820,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B134" s="220" t="s">
+      <c r="B134" s="222" t="s">
         <v>221</v>
       </c>
       <c r="C134" s="48"/>
@@ -16879,7 +16856,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B135" s="220"/>
+      <c r="B135" s="222"/>
       <c r="C135" s="48"/>
       <c r="D135" s="117"/>
       <c r="E135" s="117"/>
@@ -22728,7 +22705,7 @@
         <v>28</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="N10" s="38" t="s">
         <v>2</v>
@@ -23909,23 +23886,23 @@
         <v>502</v>
       </c>
       <c r="J42" s="107" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K42" s="107" t="s">
         <v>503</v>
       </c>
       <c r="L42" s="108" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="M42" s="108"/>
       <c r="N42" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O42" s="160">
         <v>44858</v>
       </c>
       <c r="P42" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q42" s="114"/>
       <c r="R42" s="107"/>
@@ -23964,17 +23941,17 @@
         <v>506</v>
       </c>
       <c r="L43" s="108" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M43" s="108"/>
       <c r="N43" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O43" s="160">
         <v>44858</v>
       </c>
       <c r="P43" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q43" s="114"/>
       <c r="R43" s="107"/>
@@ -24095,17 +24072,17 @@
         <v>511</v>
       </c>
       <c r="L46" s="54" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M46" s="54"/>
       <c r="N46" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O46" s="160">
         <v>44858</v>
       </c>
       <c r="P46" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q46" s="77"/>
       <c r="R46" s="53"/>
@@ -24142,17 +24119,17 @@
         <v>513</v>
       </c>
       <c r="L47" s="54" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M47" s="54"/>
       <c r="N47" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O47" s="160">
         <v>44858</v>
       </c>
       <c r="P47" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q47" s="77"/>
       <c r="R47" s="53"/>
@@ -24191,17 +24168,17 @@
         <v>515</v>
       </c>
       <c r="L48" s="54" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M48" s="54"/>
       <c r="N48" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O48" s="160">
         <v>44858</v>
       </c>
       <c r="P48" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q48" s="77"/>
       <c r="R48" s="53"/>
@@ -24238,19 +24215,19 @@
         <v>515</v>
       </c>
       <c r="L49" s="54" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M49" s="54" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="N49" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O49" s="160">
         <v>44858</v>
       </c>
       <c r="P49" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q49" s="77"/>
       <c r="R49" s="53"/>
@@ -24289,17 +24266,17 @@
         <v>511</v>
       </c>
       <c r="L50" s="54" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M50" s="108"/>
       <c r="N50" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O50" s="160">
         <v>44858</v>
       </c>
       <c r="P50" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q50" s="114"/>
       <c r="R50" s="107"/>
@@ -24336,17 +24313,17 @@
         <v>515</v>
       </c>
       <c r="L51" s="54" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M51" s="108"/>
       <c r="N51" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O51" s="160">
         <v>44858</v>
       </c>
       <c r="P51" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q51" s="114"/>
       <c r="R51" s="107"/>
@@ -24383,17 +24360,17 @@
         <v>513</v>
       </c>
       <c r="L52" s="54" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M52" s="108"/>
       <c r="N52" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O52" s="160">
         <v>44858</v>
       </c>
       <c r="P52" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q52" s="114"/>
       <c r="R52" s="107"/>
@@ -24430,19 +24407,19 @@
         <v>515</v>
       </c>
       <c r="L53" s="54" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M53" s="108" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="N53" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O53" s="160">
         <v>44858</v>
       </c>
       <c r="P53" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q53" s="114"/>
       <c r="R53" s="107"/>
@@ -24483,17 +24460,17 @@
         <v>518</v>
       </c>
       <c r="L54" s="54" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="M54" s="54"/>
       <c r="N54" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O54" s="160">
         <v>44858</v>
       </c>
       <c r="P54" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q54" s="77"/>
       <c r="R54" s="53"/>
@@ -24532,19 +24509,17 @@
         <v>515</v>
       </c>
       <c r="L55" s="54" t="s">
-        <v>598</v>
-      </c>
-      <c r="M55" s="54" t="s">
-        <v>607</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="M55" s="54"/>
       <c r="N55" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O55" s="160">
         <v>44858</v>
       </c>
       <c r="P55" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q55" s="77"/>
       <c r="R55" s="53"/>
@@ -24583,17 +24558,17 @@
         <v>521</v>
       </c>
       <c r="L56" s="54" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M56" s="54"/>
       <c r="N56" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O56" s="160">
         <v>44858</v>
       </c>
       <c r="P56" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q56" s="77"/>
       <c r="R56" s="53"/>
@@ -24634,17 +24609,17 @@
         <v>567</v>
       </c>
       <c r="L57" s="54" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M57" s="108"/>
       <c r="N57" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O57" s="160">
         <v>44858</v>
       </c>
       <c r="P57" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q57" s="114"/>
       <c r="R57" s="107"/>
@@ -24683,19 +24658,19 @@
         <v>569</v>
       </c>
       <c r="L58" s="54" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M58" s="108" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="N58" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O58" s="160">
         <v>44858</v>
       </c>
       <c r="P58" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q58" s="114"/>
       <c r="R58" s="107"/>
@@ -24736,17 +24711,17 @@
         <v>571</v>
       </c>
       <c r="L59" s="54" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M59" s="108"/>
       <c r="N59" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O59" s="160">
         <v>44858</v>
       </c>
       <c r="P59" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q59" s="114"/>
       <c r="R59" s="107"/>
@@ -24785,19 +24760,19 @@
         <v>569</v>
       </c>
       <c r="L60" s="54" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M60" s="108" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="N60" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O60" s="160">
         <v>44858</v>
       </c>
       <c r="P60" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q60" s="114"/>
       <c r="R60" s="107"/>
@@ -25052,19 +25027,19 @@
         <v>529</v>
       </c>
       <c r="L67" s="54" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M67" s="54" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="N67" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O67" s="160">
         <v>44858</v>
       </c>
       <c r="P67" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q67" s="77"/>
       <c r="R67" s="53"/>
@@ -25783,17 +25758,17 @@
         <v>571</v>
       </c>
       <c r="L87" s="54" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M87" s="108"/>
       <c r="N87" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O87" s="160">
         <v>44858</v>
       </c>
       <c r="P87" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q87" s="114"/>
       <c r="R87" s="107"/>
@@ -25829,17 +25804,17 @@
         <v>567</v>
       </c>
       <c r="L88" s="54" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M88" s="108"/>
       <c r="N88" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O88" s="160">
         <v>44858</v>
       </c>
       <c r="P88" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q88" s="114"/>
       <c r="R88" s="107"/>
@@ -25875,17 +25850,17 @@
         <v>574</v>
       </c>
       <c r="L89" s="54" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="M89" s="108"/>
       <c r="N89" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O89" s="160">
         <v>44858</v>
       </c>
       <c r="P89" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q89" s="114"/>
       <c r="R89" s="107"/>
@@ -25921,17 +25896,17 @@
         <v>576</v>
       </c>
       <c r="L90" s="54" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M90" s="108"/>
       <c r="N90" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O90" s="160">
         <v>44858</v>
       </c>
       <c r="P90" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q90" s="114"/>
       <c r="R90" s="107"/>
@@ -25970,19 +25945,19 @@
         <v>515</v>
       </c>
       <c r="L91" s="54" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M91" s="54" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="N91" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O91" s="160">
         <v>44858</v>
       </c>
       <c r="P91" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q91" s="77"/>
       <c r="R91" s="53"/>
@@ -26023,17 +25998,17 @@
         <v>515</v>
       </c>
       <c r="L92" s="54" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M92" s="54"/>
       <c r="N92" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O92" s="160">
         <v>44858</v>
       </c>
       <c r="P92" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q92" s="77"/>
       <c r="R92" s="53"/>
@@ -26070,17 +26045,17 @@
         <v>534</v>
       </c>
       <c r="L93" s="54" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="M93" s="54"/>
       <c r="N93" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O93" s="160">
         <v>44858</v>
       </c>
       <c r="P93" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q93" s="77"/>
       <c r="R93" s="53"/>
@@ -26117,19 +26092,19 @@
         <v>536</v>
       </c>
       <c r="L94" s="54" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="M94" s="54" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="N94" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O94" s="160">
         <v>44858</v>
       </c>
       <c r="P94" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q94" s="77"/>
       <c r="R94" s="53"/>
@@ -26242,17 +26217,17 @@
         <v>539</v>
       </c>
       <c r="L97" s="54" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M97" s="54"/>
       <c r="N97" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O97" s="160">
         <v>44858</v>
       </c>
       <c r="P97" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q97" s="77"/>
       <c r="R97" s="53"/>
@@ -27318,7 +27293,7 @@
 )</f>
         <v>45-2-1</v>
       </c>
-      <c r="B126" s="221" t="s">
+      <c r="B126" s="223" t="s">
         <v>438</v>
       </c>
       <c r="C126" s="73"/>
@@ -27355,7 +27330,7 @@
 )</f>
         <v>45-3-1</v>
       </c>
-      <c r="B127" s="221"/>
+      <c r="B127" s="223"/>
       <c r="C127" s="73"/>
       <c r="D127" s="67"/>
       <c r="E127" s="85"/>
@@ -28046,7 +28021,7 @@
 )</f>
         <v>52-2-1</v>
       </c>
-      <c r="B146" s="221" t="s">
+      <c r="B146" s="223" t="s">
         <v>221</v>
       </c>
       <c r="C146" s="73"/>
@@ -28083,7 +28058,7 @@
 )</f>
         <v>52-3-1</v>
       </c>
-      <c r="B147" s="221"/>
+      <c r="B147" s="223"/>
       <c r="C147" s="73"/>
       <c r="D147" s="67"/>
       <c r="E147" s="73"/>
@@ -33987,17 +33962,17 @@
         <v>506</v>
       </c>
       <c r="L310" s="54" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="M310" s="54"/>
       <c r="N310" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O310" s="160">
         <v>44858</v>
       </c>
       <c r="P310" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q310" s="54"/>
       <c r="R310" s="54"/>
@@ -34040,17 +34015,17 @@
         <v>506</v>
       </c>
       <c r="L311" s="54" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M311" s="54"/>
       <c r="N311" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O311" s="160">
         <v>44858</v>
       </c>
       <c r="P311" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q311" s="54"/>
       <c r="R311" s="54"/>
@@ -34087,17 +34062,17 @@
         <v>551</v>
       </c>
       <c r="L312" s="54" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M312" s="54"/>
       <c r="N312" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O312" s="160">
         <v>44858</v>
       </c>
       <c r="P312" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q312" s="54"/>
       <c r="R312" s="54"/>
@@ -34134,19 +34109,19 @@
         <v>551</v>
       </c>
       <c r="L313" s="54" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M313" s="54" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="N313" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O313" s="160">
         <v>44858</v>
       </c>
       <c r="P313" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q313" s="54"/>
       <c r="R313" s="54"/>
@@ -34189,17 +34164,17 @@
         <v>555</v>
       </c>
       <c r="L314" s="54" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="M314" s="54"/>
       <c r="N314" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O314" s="160">
         <v>44858</v>
       </c>
       <c r="P314" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q314" s="54"/>
       <c r="R314" s="54"/>
@@ -34238,17 +34213,17 @@
         <v>556</v>
       </c>
       <c r="L315" s="54" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M315" s="54"/>
       <c r="N315" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O315" s="160">
         <v>44858</v>
       </c>
       <c r="P315" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q315" s="54"/>
       <c r="R315" s="54"/>
@@ -34402,17 +34377,17 @@
         <v>556</v>
       </c>
       <c r="L319" s="54" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M319" s="54"/>
       <c r="N319" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O319" s="160">
         <v>44858</v>
       </c>
       <c r="P319" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q319" s="54"/>
       <c r="R319" s="54"/>
@@ -34449,19 +34424,19 @@
         <v>551</v>
       </c>
       <c r="L320" s="54" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M320" s="54" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="N320" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O320" s="160">
         <v>44858</v>
       </c>
       <c r="P320" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q320" s="54"/>
       <c r="R320" s="54"/>
@@ -34500,17 +34475,17 @@
         <v>556</v>
       </c>
       <c r="L321" s="54" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M321" s="54"/>
       <c r="N321" s="159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O321" s="160">
         <v>44858</v>
       </c>
       <c r="P321" s="160" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q321" s="54"/>
       <c r="R321" s="54"/>

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10101_顧客検索.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10101_顧客検索.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA943A5-BF20-40AC-B9DB-401503C3E4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2BB220-1FE2-45D3-A6E2-9D1E302CF1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="611">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -6742,22 +6742,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下のレスポンスが返される。
-・ステータスコード：400
-・障害コード：FB1999901
-・メッセージ：clientName:不正な文字種の値が指定されました。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(a)システム機能設計書
 (b)ドメイン定義書
 (c)外部インタフェース設計書</t>
@@ -8031,11 +8015,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>以下のリクエストを送信する。
-・「顧客名」："invalid parameter"</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindAll()</t>
   </si>
   <si>
@@ -8147,13 +8126,14 @@
     <phoneticPr fontId="21"/>
   </si>
   <si>
-    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientNameForSearch()</t>
-  </si>
-  <si>
     <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindCodeAndNameUpperLimit()</t>
   </si>
   <si>
     <t>testFindCodeAndNameUpperLimit</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientSearchForm()</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -9201,72 +9181,6 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -9373,6 +9287,72 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10880,57 +10860,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="195" t="s">
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="173" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="201" t="s">
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="210" t="s">
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="188" t="s">
         <v>494</v>
       </c>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="212"/>
-      <c r="AA1" s="192" t="s">
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="219" t="str">
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="197" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="221"/>
-      <c r="AG1" s="186" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="164" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="187"/>
-      <c r="AI1" s="188"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="166"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10938,53 +10918,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="195" t="s">
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173" t="s">
         <v>461</v>
       </c>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="204"/>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="192" t="s">
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="198" t="str">
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="176" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="199"/>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="200"/>
-      <c r="AG2" s="186" t="str">
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="164" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="187"/>
-      <c r="AI2" s="188"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="166"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10992,45 +10972,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="195" t="s">
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="219"/>
-      <c r="AD3" s="220"/>
-      <c r="AE3" s="220"/>
-      <c r="AF3" s="221"/>
-      <c r="AG3" s="186"/>
-      <c r="AH3" s="187"/>
-      <c r="AI3" s="188"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="164"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="166"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -11067,85 +11047,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="189" t="s">
+      <c r="C7" s="168"/>
+      <c r="D7" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="191"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="189" t="s">
+      <c r="E7" s="169"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="191"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="189" t="s">
+      <c r="H7" s="169"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="191"/>
-      <c r="L7" s="191"/>
-      <c r="M7" s="191"/>
-      <c r="N7" s="191"/>
-      <c r="O7" s="191"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="189" t="s">
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="191"/>
-      <c r="S7" s="191"/>
-      <c r="T7" s="191"/>
-      <c r="U7" s="191"/>
-      <c r="V7" s="191"/>
-      <c r="W7" s="191"/>
-      <c r="X7" s="191"/>
-      <c r="Y7" s="191"/>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="191"/>
-      <c r="AB7" s="191"/>
-      <c r="AC7" s="191"/>
-      <c r="AD7" s="191"/>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="189" t="s">
+      <c r="R7" s="169"/>
+      <c r="S7" s="169"/>
+      <c r="T7" s="169"/>
+      <c r="U7" s="169"/>
+      <c r="V7" s="169"/>
+      <c r="W7" s="169"/>
+      <c r="X7" s="169"/>
+      <c r="Y7" s="169"/>
+      <c r="Z7" s="169"/>
+      <c r="AA7" s="169"/>
+      <c r="AB7" s="169"/>
+      <c r="AC7" s="169"/>
+      <c r="AD7" s="169"/>
+      <c r="AE7" s="168"/>
+      <c r="AF7" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="191"/>
-      <c r="AH7" s="191"/>
-      <c r="AI7" s="190"/>
+      <c r="AG7" s="169"/>
+      <c r="AH7" s="169"/>
+      <c r="AI7" s="168"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="183"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="184"/>
-      <c r="W8" s="184"/>
-      <c r="X8" s="184"/>
-      <c r="Y8" s="184"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184"/>
-      <c r="AC8" s="184"/>
-      <c r="AD8" s="184"/>
-      <c r="AE8" s="185"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="217"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="219"/>
+      <c r="L8" s="219"/>
+      <c r="M8" s="219"/>
+      <c r="N8" s="219"/>
+      <c r="O8" s="219"/>
+      <c r="P8" s="220"/>
+      <c r="Q8" s="218"/>
+      <c r="R8" s="219"/>
+      <c r="S8" s="219"/>
+      <c r="T8" s="219"/>
+      <c r="U8" s="219"/>
+      <c r="V8" s="219"/>
+      <c r="W8" s="219"/>
+      <c r="X8" s="219"/>
+      <c r="Y8" s="219"/>
+      <c r="Z8" s="219"/>
+      <c r="AA8" s="219"/>
+      <c r="AB8" s="219"/>
+      <c r="AC8" s="219"/>
+      <c r="AD8" s="219"/>
+      <c r="AE8" s="220"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -11153,934 +11133,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="171"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="174"/>
-      <c r="S9" s="174"/>
-      <c r="T9" s="174"/>
-      <c r="U9" s="174"/>
-      <c r="V9" s="174"/>
-      <c r="W9" s="174"/>
-      <c r="X9" s="174"/>
-      <c r="Y9" s="174"/>
-      <c r="Z9" s="174"/>
-      <c r="AA9" s="174"/>
-      <c r="AB9" s="174"/>
-      <c r="AC9" s="174"/>
-      <c r="AD9" s="174"/>
-      <c r="AE9" s="175"/>
-      <c r="AF9" s="170"/>
-      <c r="AG9" s="171"/>
-      <c r="AH9" s="171"/>
-      <c r="AI9" s="172"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="207"/>
+      <c r="P9" s="208"/>
+      <c r="Q9" s="209"/>
+      <c r="R9" s="210"/>
+      <c r="S9" s="210"/>
+      <c r="T9" s="210"/>
+      <c r="U9" s="210"/>
+      <c r="V9" s="210"/>
+      <c r="W9" s="210"/>
+      <c r="X9" s="210"/>
+      <c r="Y9" s="210"/>
+      <c r="Z9" s="210"/>
+      <c r="AA9" s="210"/>
+      <c r="AB9" s="210"/>
+      <c r="AC9" s="210"/>
+      <c r="AD9" s="210"/>
+      <c r="AE9" s="211"/>
+      <c r="AF9" s="206"/>
+      <c r="AG9" s="207"/>
+      <c r="AH9" s="207"/>
+      <c r="AI9" s="208"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="171"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="174"/>
-      <c r="T10" s="174"/>
-      <c r="U10" s="174"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="174"/>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="174"/>
-      <c r="AC10" s="174"/>
-      <c r="AD10" s="174"/>
-      <c r="AE10" s="175"/>
-      <c r="AF10" s="170"/>
-      <c r="AG10" s="171"/>
-      <c r="AH10" s="171"/>
-      <c r="AI10" s="172"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="206"/>
+      <c r="K10" s="207"/>
+      <c r="L10" s="207"/>
+      <c r="M10" s="207"/>
+      <c r="N10" s="207"/>
+      <c r="O10" s="207"/>
+      <c r="P10" s="208"/>
+      <c r="Q10" s="209"/>
+      <c r="R10" s="210"/>
+      <c r="S10" s="210"/>
+      <c r="T10" s="210"/>
+      <c r="U10" s="210"/>
+      <c r="V10" s="210"/>
+      <c r="W10" s="210"/>
+      <c r="X10" s="210"/>
+      <c r="Y10" s="210"/>
+      <c r="Z10" s="210"/>
+      <c r="AA10" s="210"/>
+      <c r="AB10" s="210"/>
+      <c r="AC10" s="210"/>
+      <c r="AD10" s="210"/>
+      <c r="AE10" s="211"/>
+      <c r="AF10" s="206"/>
+      <c r="AG10" s="207"/>
+      <c r="AH10" s="207"/>
+      <c r="AI10" s="208"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="171"/>
-      <c r="M11" s="171"/>
-      <c r="N11" s="171"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="174"/>
-      <c r="S11" s="174"/>
-      <c r="T11" s="174"/>
-      <c r="U11" s="174"/>
-      <c r="V11" s="174"/>
-      <c r="W11" s="174"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="174"/>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="174"/>
-      <c r="AB11" s="174"/>
-      <c r="AC11" s="174"/>
-      <c r="AD11" s="174"/>
-      <c r="AE11" s="175"/>
-      <c r="AF11" s="170"/>
-      <c r="AG11" s="171"/>
-      <c r="AH11" s="171"/>
-      <c r="AI11" s="172"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="207"/>
+      <c r="L11" s="207"/>
+      <c r="M11" s="207"/>
+      <c r="N11" s="207"/>
+      <c r="O11" s="207"/>
+      <c r="P11" s="208"/>
+      <c r="Q11" s="209"/>
+      <c r="R11" s="210"/>
+      <c r="S11" s="210"/>
+      <c r="T11" s="210"/>
+      <c r="U11" s="210"/>
+      <c r="V11" s="210"/>
+      <c r="W11" s="210"/>
+      <c r="X11" s="210"/>
+      <c r="Y11" s="210"/>
+      <c r="Z11" s="210"/>
+      <c r="AA11" s="210"/>
+      <c r="AB11" s="210"/>
+      <c r="AC11" s="210"/>
+      <c r="AD11" s="210"/>
+      <c r="AE11" s="211"/>
+      <c r="AF11" s="206"/>
+      <c r="AG11" s="207"/>
+      <c r="AH11" s="207"/>
+      <c r="AI11" s="208"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="171"/>
-      <c r="N12" s="171"/>
-      <c r="O12" s="171"/>
-      <c r="P12" s="172"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="174"/>
-      <c r="S12" s="174"/>
-      <c r="T12" s="174"/>
-      <c r="U12" s="174"/>
-      <c r="V12" s="174"/>
-      <c r="W12" s="174"/>
-      <c r="X12" s="174"/>
-      <c r="Y12" s="174"/>
-      <c r="Z12" s="174"/>
-      <c r="AA12" s="174"/>
-      <c r="AB12" s="174"/>
-      <c r="AC12" s="174"/>
-      <c r="AD12" s="174"/>
-      <c r="AE12" s="175"/>
-      <c r="AF12" s="170"/>
-      <c r="AG12" s="171"/>
-      <c r="AH12" s="171"/>
-      <c r="AI12" s="172"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="204"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="205"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="206"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="207"/>
+      <c r="M12" s="207"/>
+      <c r="N12" s="207"/>
+      <c r="O12" s="207"/>
+      <c r="P12" s="208"/>
+      <c r="Q12" s="209"/>
+      <c r="R12" s="210"/>
+      <c r="S12" s="210"/>
+      <c r="T12" s="210"/>
+      <c r="U12" s="210"/>
+      <c r="V12" s="210"/>
+      <c r="W12" s="210"/>
+      <c r="X12" s="210"/>
+      <c r="Y12" s="210"/>
+      <c r="Z12" s="210"/>
+      <c r="AA12" s="210"/>
+      <c r="AB12" s="210"/>
+      <c r="AC12" s="210"/>
+      <c r="AD12" s="210"/>
+      <c r="AE12" s="211"/>
+      <c r="AF12" s="206"/>
+      <c r="AG12" s="207"/>
+      <c r="AH12" s="207"/>
+      <c r="AI12" s="208"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="171"/>
-      <c r="N13" s="171"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="172"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="174"/>
-      <c r="S13" s="174"/>
-      <c r="T13" s="174"/>
-      <c r="U13" s="174"/>
-      <c r="V13" s="174"/>
-      <c r="W13" s="174"/>
-      <c r="X13" s="174"/>
-      <c r="Y13" s="174"/>
-      <c r="Z13" s="174"/>
-      <c r="AA13" s="174"/>
-      <c r="AB13" s="174"/>
-      <c r="AC13" s="174"/>
-      <c r="AD13" s="174"/>
-      <c r="AE13" s="175"/>
-      <c r="AF13" s="170"/>
-      <c r="AG13" s="171"/>
-      <c r="AH13" s="171"/>
-      <c r="AI13" s="172"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="205"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="206"/>
+      <c r="K13" s="207"/>
+      <c r="L13" s="207"/>
+      <c r="M13" s="207"/>
+      <c r="N13" s="207"/>
+      <c r="O13" s="207"/>
+      <c r="P13" s="208"/>
+      <c r="Q13" s="209"/>
+      <c r="R13" s="210"/>
+      <c r="S13" s="210"/>
+      <c r="T13" s="210"/>
+      <c r="U13" s="210"/>
+      <c r="V13" s="210"/>
+      <c r="W13" s="210"/>
+      <c r="X13" s="210"/>
+      <c r="Y13" s="210"/>
+      <c r="Z13" s="210"/>
+      <c r="AA13" s="210"/>
+      <c r="AB13" s="210"/>
+      <c r="AC13" s="210"/>
+      <c r="AD13" s="210"/>
+      <c r="AE13" s="211"/>
+      <c r="AF13" s="206"/>
+      <c r="AG13" s="207"/>
+      <c r="AH13" s="207"/>
+      <c r="AI13" s="208"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="164"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="171"/>
-      <c r="P14" s="172"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="174"/>
-      <c r="S14" s="174"/>
-      <c r="T14" s="174"/>
-      <c r="U14" s="174"/>
-      <c r="V14" s="174"/>
-      <c r="W14" s="174"/>
-      <c r="X14" s="174"/>
-      <c r="Y14" s="174"/>
-      <c r="Z14" s="174"/>
-      <c r="AA14" s="174"/>
-      <c r="AB14" s="174"/>
-      <c r="AC14" s="174"/>
-      <c r="AD14" s="174"/>
-      <c r="AE14" s="175"/>
-      <c r="AF14" s="170"/>
-      <c r="AG14" s="171"/>
-      <c r="AH14" s="171"/>
-      <c r="AI14" s="172"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="207"/>
+      <c r="L14" s="207"/>
+      <c r="M14" s="207"/>
+      <c r="N14" s="207"/>
+      <c r="O14" s="207"/>
+      <c r="P14" s="208"/>
+      <c r="Q14" s="209"/>
+      <c r="R14" s="210"/>
+      <c r="S14" s="210"/>
+      <c r="T14" s="210"/>
+      <c r="U14" s="210"/>
+      <c r="V14" s="210"/>
+      <c r="W14" s="210"/>
+      <c r="X14" s="210"/>
+      <c r="Y14" s="210"/>
+      <c r="Z14" s="210"/>
+      <c r="AA14" s="210"/>
+      <c r="AB14" s="210"/>
+      <c r="AC14" s="210"/>
+      <c r="AD14" s="210"/>
+      <c r="AE14" s="211"/>
+      <c r="AF14" s="206"/>
+      <c r="AG14" s="207"/>
+      <c r="AH14" s="207"/>
+      <c r="AI14" s="208"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="171"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="172"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="174"/>
-      <c r="T15" s="174"/>
-      <c r="U15" s="174"/>
-      <c r="V15" s="174"/>
-      <c r="W15" s="174"/>
-      <c r="X15" s="174"/>
-      <c r="Y15" s="174"/>
-      <c r="Z15" s="174"/>
-      <c r="AA15" s="174"/>
-      <c r="AB15" s="174"/>
-      <c r="AC15" s="174"/>
-      <c r="AD15" s="174"/>
-      <c r="AE15" s="175"/>
-      <c r="AF15" s="170"/>
-      <c r="AG15" s="171"/>
-      <c r="AH15" s="171"/>
-      <c r="AI15" s="172"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="205"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="206"/>
+      <c r="K15" s="207"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
+      <c r="P15" s="208"/>
+      <c r="Q15" s="209"/>
+      <c r="R15" s="210"/>
+      <c r="S15" s="210"/>
+      <c r="T15" s="210"/>
+      <c r="U15" s="210"/>
+      <c r="V15" s="210"/>
+      <c r="W15" s="210"/>
+      <c r="X15" s="210"/>
+      <c r="Y15" s="210"/>
+      <c r="Z15" s="210"/>
+      <c r="AA15" s="210"/>
+      <c r="AB15" s="210"/>
+      <c r="AC15" s="210"/>
+      <c r="AD15" s="210"/>
+      <c r="AE15" s="211"/>
+      <c r="AF15" s="206"/>
+      <c r="AG15" s="207"/>
+      <c r="AH15" s="207"/>
+      <c r="AI15" s="208"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="171"/>
-      <c r="P16" s="172"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="174"/>
-      <c r="T16" s="174"/>
-      <c r="U16" s="174"/>
-      <c r="V16" s="174"/>
-      <c r="W16" s="174"/>
-      <c r="X16" s="174"/>
-      <c r="Y16" s="174"/>
-      <c r="Z16" s="174"/>
-      <c r="AA16" s="174"/>
-      <c r="AB16" s="174"/>
-      <c r="AC16" s="174"/>
-      <c r="AD16" s="174"/>
-      <c r="AE16" s="175"/>
-      <c r="AF16" s="170"/>
-      <c r="AG16" s="171"/>
-      <c r="AH16" s="171"/>
-      <c r="AI16" s="172"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="207"/>
+      <c r="L16" s="207"/>
+      <c r="M16" s="207"/>
+      <c r="N16" s="207"/>
+      <c r="O16" s="207"/>
+      <c r="P16" s="208"/>
+      <c r="Q16" s="209"/>
+      <c r="R16" s="210"/>
+      <c r="S16" s="210"/>
+      <c r="T16" s="210"/>
+      <c r="U16" s="210"/>
+      <c r="V16" s="210"/>
+      <c r="W16" s="210"/>
+      <c r="X16" s="210"/>
+      <c r="Y16" s="210"/>
+      <c r="Z16" s="210"/>
+      <c r="AA16" s="210"/>
+      <c r="AB16" s="210"/>
+      <c r="AC16" s="210"/>
+      <c r="AD16" s="210"/>
+      <c r="AE16" s="211"/>
+      <c r="AF16" s="206"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="207"/>
+      <c r="AI16" s="208"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="164"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="171"/>
-      <c r="P17" s="172"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="174"/>
-      <c r="S17" s="174"/>
-      <c r="T17" s="174"/>
-      <c r="U17" s="174"/>
-      <c r="V17" s="174"/>
-      <c r="W17" s="174"/>
-      <c r="X17" s="174"/>
-      <c r="Y17" s="174"/>
-      <c r="Z17" s="174"/>
-      <c r="AA17" s="174"/>
-      <c r="AB17" s="174"/>
-      <c r="AC17" s="174"/>
-      <c r="AD17" s="174"/>
-      <c r="AE17" s="175"/>
-      <c r="AF17" s="170"/>
-      <c r="AG17" s="171"/>
-      <c r="AH17" s="171"/>
-      <c r="AI17" s="172"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="205"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="207"/>
+      <c r="L17" s="207"/>
+      <c r="M17" s="207"/>
+      <c r="N17" s="207"/>
+      <c r="O17" s="207"/>
+      <c r="P17" s="208"/>
+      <c r="Q17" s="209"/>
+      <c r="R17" s="210"/>
+      <c r="S17" s="210"/>
+      <c r="T17" s="210"/>
+      <c r="U17" s="210"/>
+      <c r="V17" s="210"/>
+      <c r="W17" s="210"/>
+      <c r="X17" s="210"/>
+      <c r="Y17" s="210"/>
+      <c r="Z17" s="210"/>
+      <c r="AA17" s="210"/>
+      <c r="AB17" s="210"/>
+      <c r="AC17" s="210"/>
+      <c r="AD17" s="210"/>
+      <c r="AE17" s="211"/>
+      <c r="AF17" s="206"/>
+      <c r="AG17" s="207"/>
+      <c r="AH17" s="207"/>
+      <c r="AI17" s="208"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="171"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="174"/>
-      <c r="T18" s="174"/>
-      <c r="U18" s="174"/>
-      <c r="V18" s="174"/>
-      <c r="W18" s="174"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="174"/>
-      <c r="Z18" s="174"/>
-      <c r="AA18" s="174"/>
-      <c r="AB18" s="174"/>
-      <c r="AC18" s="174"/>
-      <c r="AD18" s="174"/>
-      <c r="AE18" s="175"/>
-      <c r="AF18" s="170"/>
-      <c r="AG18" s="171"/>
-      <c r="AH18" s="171"/>
-      <c r="AI18" s="172"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="207"/>
+      <c r="L18" s="207"/>
+      <c r="M18" s="207"/>
+      <c r="N18" s="207"/>
+      <c r="O18" s="207"/>
+      <c r="P18" s="208"/>
+      <c r="Q18" s="209"/>
+      <c r="R18" s="210"/>
+      <c r="S18" s="210"/>
+      <c r="T18" s="210"/>
+      <c r="U18" s="210"/>
+      <c r="V18" s="210"/>
+      <c r="W18" s="210"/>
+      <c r="X18" s="210"/>
+      <c r="Y18" s="210"/>
+      <c r="Z18" s="210"/>
+      <c r="AA18" s="210"/>
+      <c r="AB18" s="210"/>
+      <c r="AC18" s="210"/>
+      <c r="AD18" s="210"/>
+      <c r="AE18" s="211"/>
+      <c r="AF18" s="206"/>
+      <c r="AG18" s="207"/>
+      <c r="AH18" s="207"/>
+      <c r="AI18" s="208"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="171"/>
-      <c r="M19" s="171"/>
-      <c r="N19" s="171"/>
-      <c r="O19" s="171"/>
-      <c r="P19" s="172"/>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="174"/>
-      <c r="S19" s="174"/>
-      <c r="T19" s="174"/>
-      <c r="U19" s="174"/>
-      <c r="V19" s="174"/>
-      <c r="W19" s="174"/>
-      <c r="X19" s="174"/>
-      <c r="Y19" s="174"/>
-      <c r="Z19" s="174"/>
-      <c r="AA19" s="174"/>
-      <c r="AB19" s="174"/>
-      <c r="AC19" s="174"/>
-      <c r="AD19" s="174"/>
-      <c r="AE19" s="175"/>
-      <c r="AF19" s="170"/>
-      <c r="AG19" s="171"/>
-      <c r="AH19" s="171"/>
-      <c r="AI19" s="172"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="207"/>
+      <c r="L19" s="207"/>
+      <c r="M19" s="207"/>
+      <c r="N19" s="207"/>
+      <c r="O19" s="207"/>
+      <c r="P19" s="208"/>
+      <c r="Q19" s="209"/>
+      <c r="R19" s="210"/>
+      <c r="S19" s="210"/>
+      <c r="T19" s="210"/>
+      <c r="U19" s="210"/>
+      <c r="V19" s="210"/>
+      <c r="W19" s="210"/>
+      <c r="X19" s="210"/>
+      <c r="Y19" s="210"/>
+      <c r="Z19" s="210"/>
+      <c r="AA19" s="210"/>
+      <c r="AB19" s="210"/>
+      <c r="AC19" s="210"/>
+      <c r="AD19" s="210"/>
+      <c r="AE19" s="211"/>
+      <c r="AF19" s="206"/>
+      <c r="AG19" s="207"/>
+      <c r="AH19" s="207"/>
+      <c r="AI19" s="208"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="171"/>
-      <c r="P20" s="172"/>
-      <c r="Q20" s="173"/>
-      <c r="R20" s="174"/>
-      <c r="S20" s="174"/>
-      <c r="T20" s="174"/>
-      <c r="U20" s="174"/>
-      <c r="V20" s="174"/>
-      <c r="W20" s="174"/>
-      <c r="X20" s="174"/>
-      <c r="Y20" s="174"/>
-      <c r="Z20" s="174"/>
-      <c r="AA20" s="174"/>
-      <c r="AB20" s="174"/>
-      <c r="AC20" s="174"/>
-      <c r="AD20" s="174"/>
-      <c r="AE20" s="175"/>
-      <c r="AF20" s="170"/>
-      <c r="AG20" s="171"/>
-      <c r="AH20" s="171"/>
-      <c r="AI20" s="172"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="207"/>
+      <c r="L20" s="207"/>
+      <c r="M20" s="207"/>
+      <c r="N20" s="207"/>
+      <c r="O20" s="207"/>
+      <c r="P20" s="208"/>
+      <c r="Q20" s="209"/>
+      <c r="R20" s="210"/>
+      <c r="S20" s="210"/>
+      <c r="T20" s="210"/>
+      <c r="U20" s="210"/>
+      <c r="V20" s="210"/>
+      <c r="W20" s="210"/>
+      <c r="X20" s="210"/>
+      <c r="Y20" s="210"/>
+      <c r="Z20" s="210"/>
+      <c r="AA20" s="210"/>
+      <c r="AB20" s="210"/>
+      <c r="AC20" s="210"/>
+      <c r="AD20" s="210"/>
+      <c r="AE20" s="211"/>
+      <c r="AF20" s="206"/>
+      <c r="AG20" s="207"/>
+      <c r="AH20" s="207"/>
+      <c r="AI20" s="208"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="164"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="171"/>
-      <c r="P21" s="172"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="174"/>
-      <c r="S21" s="174"/>
-      <c r="T21" s="174"/>
-      <c r="U21" s="174"/>
-      <c r="V21" s="174"/>
-      <c r="W21" s="174"/>
-      <c r="X21" s="174"/>
-      <c r="Y21" s="174"/>
-      <c r="Z21" s="174"/>
-      <c r="AA21" s="174"/>
-      <c r="AB21" s="174"/>
-      <c r="AC21" s="174"/>
-      <c r="AD21" s="174"/>
-      <c r="AE21" s="175"/>
-      <c r="AF21" s="170"/>
-      <c r="AG21" s="171"/>
-      <c r="AH21" s="171"/>
-      <c r="AI21" s="172"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="202"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="207"/>
+      <c r="L21" s="207"/>
+      <c r="M21" s="207"/>
+      <c r="N21" s="207"/>
+      <c r="O21" s="207"/>
+      <c r="P21" s="208"/>
+      <c r="Q21" s="209"/>
+      <c r="R21" s="210"/>
+      <c r="S21" s="210"/>
+      <c r="T21" s="210"/>
+      <c r="U21" s="210"/>
+      <c r="V21" s="210"/>
+      <c r="W21" s="210"/>
+      <c r="X21" s="210"/>
+      <c r="Y21" s="210"/>
+      <c r="Z21" s="210"/>
+      <c r="AA21" s="210"/>
+      <c r="AB21" s="210"/>
+      <c r="AC21" s="210"/>
+      <c r="AD21" s="210"/>
+      <c r="AE21" s="211"/>
+      <c r="AF21" s="206"/>
+      <c r="AG21" s="207"/>
+      <c r="AH21" s="207"/>
+      <c r="AI21" s="208"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="171"/>
-      <c r="P22" s="172"/>
-      <c r="Q22" s="173"/>
-      <c r="R22" s="174"/>
-      <c r="S22" s="174"/>
-      <c r="T22" s="174"/>
-      <c r="U22" s="174"/>
-      <c r="V22" s="174"/>
-      <c r="W22" s="174"/>
-      <c r="X22" s="174"/>
-      <c r="Y22" s="174"/>
-      <c r="Z22" s="174"/>
-      <c r="AA22" s="174"/>
-      <c r="AB22" s="174"/>
-      <c r="AC22" s="174"/>
-      <c r="AD22" s="174"/>
-      <c r="AE22" s="175"/>
-      <c r="AF22" s="170"/>
-      <c r="AG22" s="171"/>
-      <c r="AH22" s="171"/>
-      <c r="AI22" s="172"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="206"/>
+      <c r="K22" s="207"/>
+      <c r="L22" s="207"/>
+      <c r="M22" s="207"/>
+      <c r="N22" s="207"/>
+      <c r="O22" s="207"/>
+      <c r="P22" s="208"/>
+      <c r="Q22" s="209"/>
+      <c r="R22" s="210"/>
+      <c r="S22" s="210"/>
+      <c r="T22" s="210"/>
+      <c r="U22" s="210"/>
+      <c r="V22" s="210"/>
+      <c r="W22" s="210"/>
+      <c r="X22" s="210"/>
+      <c r="Y22" s="210"/>
+      <c r="Z22" s="210"/>
+      <c r="AA22" s="210"/>
+      <c r="AB22" s="210"/>
+      <c r="AC22" s="210"/>
+      <c r="AD22" s="210"/>
+      <c r="AE22" s="211"/>
+      <c r="AF22" s="206"/>
+      <c r="AG22" s="207"/>
+      <c r="AH22" s="207"/>
+      <c r="AI22" s="208"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="171"/>
-      <c r="N23" s="171"/>
-      <c r="O23" s="171"/>
-      <c r="P23" s="172"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="174"/>
-      <c r="S23" s="174"/>
-      <c r="T23" s="174"/>
-      <c r="U23" s="174"/>
-      <c r="V23" s="174"/>
-      <c r="W23" s="174"/>
-      <c r="X23" s="174"/>
-      <c r="Y23" s="174"/>
-      <c r="Z23" s="174"/>
-      <c r="AA23" s="174"/>
-      <c r="AB23" s="174"/>
-      <c r="AC23" s="174"/>
-      <c r="AD23" s="174"/>
-      <c r="AE23" s="175"/>
-      <c r="AF23" s="170"/>
-      <c r="AG23" s="171"/>
-      <c r="AH23" s="171"/>
-      <c r="AI23" s="172"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="206"/>
+      <c r="K23" s="207"/>
+      <c r="L23" s="207"/>
+      <c r="M23" s="207"/>
+      <c r="N23" s="207"/>
+      <c r="O23" s="207"/>
+      <c r="P23" s="208"/>
+      <c r="Q23" s="209"/>
+      <c r="R23" s="210"/>
+      <c r="S23" s="210"/>
+      <c r="T23" s="210"/>
+      <c r="U23" s="210"/>
+      <c r="V23" s="210"/>
+      <c r="W23" s="210"/>
+      <c r="X23" s="210"/>
+      <c r="Y23" s="210"/>
+      <c r="Z23" s="210"/>
+      <c r="AA23" s="210"/>
+      <c r="AB23" s="210"/>
+      <c r="AC23" s="210"/>
+      <c r="AD23" s="210"/>
+      <c r="AE23" s="211"/>
+      <c r="AF23" s="206"/>
+      <c r="AG23" s="207"/>
+      <c r="AH23" s="207"/>
+      <c r="AI23" s="208"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="164"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="171"/>
-      <c r="N24" s="171"/>
-      <c r="O24" s="171"/>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="173"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="174"/>
-      <c r="U24" s="174"/>
-      <c r="V24" s="174"/>
-      <c r="W24" s="174"/>
-      <c r="X24" s="174"/>
-      <c r="Y24" s="174"/>
-      <c r="Z24" s="174"/>
-      <c r="AA24" s="174"/>
-      <c r="AB24" s="174"/>
-      <c r="AC24" s="174"/>
-      <c r="AD24" s="174"/>
-      <c r="AE24" s="175"/>
-      <c r="AF24" s="170"/>
-      <c r="AG24" s="171"/>
-      <c r="AH24" s="171"/>
-      <c r="AI24" s="172"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="206"/>
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
+      <c r="M24" s="207"/>
+      <c r="N24" s="207"/>
+      <c r="O24" s="207"/>
+      <c r="P24" s="208"/>
+      <c r="Q24" s="209"/>
+      <c r="R24" s="210"/>
+      <c r="S24" s="210"/>
+      <c r="T24" s="210"/>
+      <c r="U24" s="210"/>
+      <c r="V24" s="210"/>
+      <c r="W24" s="210"/>
+      <c r="X24" s="210"/>
+      <c r="Y24" s="210"/>
+      <c r="Z24" s="210"/>
+      <c r="AA24" s="210"/>
+      <c r="AB24" s="210"/>
+      <c r="AC24" s="210"/>
+      <c r="AD24" s="210"/>
+      <c r="AE24" s="211"/>
+      <c r="AF24" s="206"/>
+      <c r="AG24" s="207"/>
+      <c r="AH24" s="207"/>
+      <c r="AI24" s="208"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="164"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="171"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="171"/>
-      <c r="N25" s="171"/>
-      <c r="O25" s="171"/>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="173"/>
-      <c r="R25" s="174"/>
-      <c r="S25" s="174"/>
-      <c r="T25" s="174"/>
-      <c r="U25" s="174"/>
-      <c r="V25" s="174"/>
-      <c r="W25" s="174"/>
-      <c r="X25" s="174"/>
-      <c r="Y25" s="174"/>
-      <c r="Z25" s="174"/>
-      <c r="AA25" s="174"/>
-      <c r="AB25" s="174"/>
-      <c r="AC25" s="174"/>
-      <c r="AD25" s="174"/>
-      <c r="AE25" s="175"/>
-      <c r="AF25" s="170"/>
-      <c r="AG25" s="171"/>
-      <c r="AH25" s="171"/>
-      <c r="AI25" s="172"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="207"/>
+      <c r="L25" s="207"/>
+      <c r="M25" s="207"/>
+      <c r="N25" s="207"/>
+      <c r="O25" s="207"/>
+      <c r="P25" s="208"/>
+      <c r="Q25" s="209"/>
+      <c r="R25" s="210"/>
+      <c r="S25" s="210"/>
+      <c r="T25" s="210"/>
+      <c r="U25" s="210"/>
+      <c r="V25" s="210"/>
+      <c r="W25" s="210"/>
+      <c r="X25" s="210"/>
+      <c r="Y25" s="210"/>
+      <c r="Z25" s="210"/>
+      <c r="AA25" s="210"/>
+      <c r="AB25" s="210"/>
+      <c r="AC25" s="210"/>
+      <c r="AD25" s="210"/>
+      <c r="AE25" s="211"/>
+      <c r="AF25" s="206"/>
+      <c r="AG25" s="207"/>
+      <c r="AH25" s="207"/>
+      <c r="AI25" s="208"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="171"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="171"/>
-      <c r="O26" s="171"/>
-      <c r="P26" s="172"/>
-      <c r="Q26" s="173"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="174"/>
-      <c r="T26" s="174"/>
-      <c r="U26" s="174"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="174"/>
-      <c r="X26" s="174"/>
-      <c r="Y26" s="174"/>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="174"/>
-      <c r="AB26" s="174"/>
-      <c r="AC26" s="174"/>
-      <c r="AD26" s="174"/>
-      <c r="AE26" s="175"/>
-      <c r="AF26" s="170"/>
-      <c r="AG26" s="171"/>
-      <c r="AH26" s="171"/>
-      <c r="AI26" s="172"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="207"/>
+      <c r="L26" s="207"/>
+      <c r="M26" s="207"/>
+      <c r="N26" s="207"/>
+      <c r="O26" s="207"/>
+      <c r="P26" s="208"/>
+      <c r="Q26" s="209"/>
+      <c r="R26" s="210"/>
+      <c r="S26" s="210"/>
+      <c r="T26" s="210"/>
+      <c r="U26" s="210"/>
+      <c r="V26" s="210"/>
+      <c r="W26" s="210"/>
+      <c r="X26" s="210"/>
+      <c r="Y26" s="210"/>
+      <c r="Z26" s="210"/>
+      <c r="AA26" s="210"/>
+      <c r="AB26" s="210"/>
+      <c r="AC26" s="210"/>
+      <c r="AD26" s="210"/>
+      <c r="AE26" s="211"/>
+      <c r="AF26" s="206"/>
+      <c r="AG26" s="207"/>
+      <c r="AH26" s="207"/>
+      <c r="AI26" s="208"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="171"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="171"/>
-      <c r="O27" s="171"/>
-      <c r="P27" s="172"/>
-      <c r="Q27" s="173"/>
-      <c r="R27" s="174"/>
-      <c r="S27" s="174"/>
-      <c r="T27" s="174"/>
-      <c r="U27" s="174"/>
-      <c r="V27" s="174"/>
-      <c r="W27" s="174"/>
-      <c r="X27" s="174"/>
-      <c r="Y27" s="174"/>
-      <c r="Z27" s="174"/>
-      <c r="AA27" s="174"/>
-      <c r="AB27" s="174"/>
-      <c r="AC27" s="174"/>
-      <c r="AD27" s="174"/>
-      <c r="AE27" s="175"/>
-      <c r="AF27" s="170"/>
-      <c r="AG27" s="171"/>
-      <c r="AH27" s="171"/>
-      <c r="AI27" s="172"/>
+      <c r="B27" s="200"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="204"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="206"/>
+      <c r="K27" s="207"/>
+      <c r="L27" s="207"/>
+      <c r="M27" s="207"/>
+      <c r="N27" s="207"/>
+      <c r="O27" s="207"/>
+      <c r="P27" s="208"/>
+      <c r="Q27" s="209"/>
+      <c r="R27" s="210"/>
+      <c r="S27" s="210"/>
+      <c r="T27" s="210"/>
+      <c r="U27" s="210"/>
+      <c r="V27" s="210"/>
+      <c r="W27" s="210"/>
+      <c r="X27" s="210"/>
+      <c r="Y27" s="210"/>
+      <c r="Z27" s="210"/>
+      <c r="AA27" s="210"/>
+      <c r="AB27" s="210"/>
+      <c r="AC27" s="210"/>
+      <c r="AD27" s="210"/>
+      <c r="AE27" s="211"/>
+      <c r="AF27" s="206"/>
+      <c r="AG27" s="207"/>
+      <c r="AH27" s="207"/>
+      <c r="AI27" s="208"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="171"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="171"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="171"/>
-      <c r="P28" s="172"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="174"/>
-      <c r="S28" s="174"/>
-      <c r="T28" s="174"/>
-      <c r="U28" s="174"/>
-      <c r="V28" s="174"/>
-      <c r="W28" s="174"/>
-      <c r="X28" s="174"/>
-      <c r="Y28" s="174"/>
-      <c r="Z28" s="174"/>
-      <c r="AA28" s="174"/>
-      <c r="AB28" s="174"/>
-      <c r="AC28" s="174"/>
-      <c r="AD28" s="174"/>
-      <c r="AE28" s="175"/>
-      <c r="AF28" s="170"/>
-      <c r="AG28" s="171"/>
-      <c r="AH28" s="171"/>
-      <c r="AI28" s="172"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="205"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="206"/>
+      <c r="K28" s="207"/>
+      <c r="L28" s="207"/>
+      <c r="M28" s="207"/>
+      <c r="N28" s="207"/>
+      <c r="O28" s="207"/>
+      <c r="P28" s="208"/>
+      <c r="Q28" s="209"/>
+      <c r="R28" s="210"/>
+      <c r="S28" s="210"/>
+      <c r="T28" s="210"/>
+      <c r="U28" s="210"/>
+      <c r="V28" s="210"/>
+      <c r="W28" s="210"/>
+      <c r="X28" s="210"/>
+      <c r="Y28" s="210"/>
+      <c r="Z28" s="210"/>
+      <c r="AA28" s="210"/>
+      <c r="AB28" s="210"/>
+      <c r="AC28" s="210"/>
+      <c r="AD28" s="210"/>
+      <c r="AE28" s="211"/>
+      <c r="AF28" s="206"/>
+      <c r="AG28" s="207"/>
+      <c r="AH28" s="207"/>
+      <c r="AI28" s="208"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="171"/>
-      <c r="M29" s="171"/>
-      <c r="N29" s="171"/>
-      <c r="O29" s="171"/>
-      <c r="P29" s="172"/>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="174"/>
-      <c r="S29" s="174"/>
-      <c r="T29" s="174"/>
-      <c r="U29" s="174"/>
-      <c r="V29" s="174"/>
-      <c r="W29" s="174"/>
-      <c r="X29" s="174"/>
-      <c r="Y29" s="174"/>
-      <c r="Z29" s="174"/>
-      <c r="AA29" s="174"/>
-      <c r="AB29" s="174"/>
-      <c r="AC29" s="174"/>
-      <c r="AD29" s="174"/>
-      <c r="AE29" s="175"/>
-      <c r="AF29" s="170"/>
-      <c r="AG29" s="171"/>
-      <c r="AH29" s="171"/>
-      <c r="AI29" s="172"/>
+      <c r="B29" s="200"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="205"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="206"/>
+      <c r="K29" s="207"/>
+      <c r="L29" s="207"/>
+      <c r="M29" s="207"/>
+      <c r="N29" s="207"/>
+      <c r="O29" s="207"/>
+      <c r="P29" s="208"/>
+      <c r="Q29" s="209"/>
+      <c r="R29" s="210"/>
+      <c r="S29" s="210"/>
+      <c r="T29" s="210"/>
+      <c r="U29" s="210"/>
+      <c r="V29" s="210"/>
+      <c r="W29" s="210"/>
+      <c r="X29" s="210"/>
+      <c r="Y29" s="210"/>
+      <c r="Z29" s="210"/>
+      <c r="AA29" s="210"/>
+      <c r="AB29" s="210"/>
+      <c r="AC29" s="210"/>
+      <c r="AD29" s="210"/>
+      <c r="AE29" s="211"/>
+      <c r="AF29" s="206"/>
+      <c r="AG29" s="207"/>
+      <c r="AH29" s="207"/>
+      <c r="AI29" s="208"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="171"/>
-      <c r="O30" s="171"/>
-      <c r="P30" s="172"/>
-      <c r="Q30" s="173"/>
-      <c r="R30" s="174"/>
-      <c r="S30" s="174"/>
-      <c r="T30" s="174"/>
-      <c r="U30" s="174"/>
-      <c r="V30" s="174"/>
-      <c r="W30" s="174"/>
-      <c r="X30" s="174"/>
-      <c r="Y30" s="174"/>
-      <c r="Z30" s="174"/>
-      <c r="AA30" s="174"/>
-      <c r="AB30" s="174"/>
-      <c r="AC30" s="174"/>
-      <c r="AD30" s="174"/>
-      <c r="AE30" s="175"/>
-      <c r="AF30" s="170"/>
-      <c r="AG30" s="171"/>
-      <c r="AH30" s="171"/>
-      <c r="AI30" s="172"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="205"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="207"/>
+      <c r="L30" s="207"/>
+      <c r="M30" s="207"/>
+      <c r="N30" s="207"/>
+      <c r="O30" s="207"/>
+      <c r="P30" s="208"/>
+      <c r="Q30" s="209"/>
+      <c r="R30" s="210"/>
+      <c r="S30" s="210"/>
+      <c r="T30" s="210"/>
+      <c r="U30" s="210"/>
+      <c r="V30" s="210"/>
+      <c r="W30" s="210"/>
+      <c r="X30" s="210"/>
+      <c r="Y30" s="210"/>
+      <c r="Z30" s="210"/>
+      <c r="AA30" s="210"/>
+      <c r="AB30" s="210"/>
+      <c r="AC30" s="210"/>
+      <c r="AD30" s="210"/>
+      <c r="AE30" s="211"/>
+      <c r="AF30" s="206"/>
+      <c r="AG30" s="207"/>
+      <c r="AH30" s="207"/>
+      <c r="AI30" s="208"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="171"/>
-      <c r="N31" s="171"/>
-      <c r="O31" s="171"/>
-      <c r="P31" s="172"/>
-      <c r="Q31" s="173"/>
-      <c r="R31" s="174"/>
-      <c r="S31" s="174"/>
-      <c r="T31" s="174"/>
-      <c r="U31" s="174"/>
-      <c r="V31" s="174"/>
-      <c r="W31" s="174"/>
-      <c r="X31" s="174"/>
-      <c r="Y31" s="174"/>
-      <c r="Z31" s="174"/>
-      <c r="AA31" s="174"/>
-      <c r="AB31" s="174"/>
-      <c r="AC31" s="174"/>
-      <c r="AD31" s="174"/>
-      <c r="AE31" s="175"/>
-      <c r="AF31" s="170"/>
-      <c r="AG31" s="171"/>
-      <c r="AH31" s="171"/>
-      <c r="AI31" s="172"/>
+      <c r="B31" s="200"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="205"/>
+      <c r="I31" s="201"/>
+      <c r="J31" s="206"/>
+      <c r="K31" s="207"/>
+      <c r="L31" s="207"/>
+      <c r="M31" s="207"/>
+      <c r="N31" s="207"/>
+      <c r="O31" s="207"/>
+      <c r="P31" s="208"/>
+      <c r="Q31" s="209"/>
+      <c r="R31" s="210"/>
+      <c r="S31" s="210"/>
+      <c r="T31" s="210"/>
+      <c r="U31" s="210"/>
+      <c r="V31" s="210"/>
+      <c r="W31" s="210"/>
+      <c r="X31" s="210"/>
+      <c r="Y31" s="210"/>
+      <c r="Z31" s="210"/>
+      <c r="AA31" s="210"/>
+      <c r="AB31" s="210"/>
+      <c r="AC31" s="210"/>
+      <c r="AD31" s="210"/>
+      <c r="AE31" s="211"/>
+      <c r="AF31" s="206"/>
+      <c r="AG31" s="207"/>
+      <c r="AH31" s="207"/>
+      <c r="AI31" s="208"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="171"/>
-      <c r="M32" s="171"/>
-      <c r="N32" s="171"/>
-      <c r="O32" s="171"/>
-      <c r="P32" s="172"/>
-      <c r="Q32" s="173"/>
-      <c r="R32" s="174"/>
-      <c r="S32" s="174"/>
-      <c r="T32" s="174"/>
-      <c r="U32" s="174"/>
-      <c r="V32" s="174"/>
-      <c r="W32" s="174"/>
-      <c r="X32" s="174"/>
-      <c r="Y32" s="174"/>
-      <c r="Z32" s="174"/>
-      <c r="AA32" s="174"/>
-      <c r="AB32" s="174"/>
-      <c r="AC32" s="174"/>
-      <c r="AD32" s="174"/>
-      <c r="AE32" s="175"/>
-      <c r="AF32" s="170"/>
-      <c r="AG32" s="171"/>
-      <c r="AH32" s="171"/>
-      <c r="AI32" s="172"/>
+      <c r="B32" s="200"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="202"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="205"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="206"/>
+      <c r="K32" s="221"/>
+      <c r="L32" s="207"/>
+      <c r="M32" s="207"/>
+      <c r="N32" s="207"/>
+      <c r="O32" s="207"/>
+      <c r="P32" s="208"/>
+      <c r="Q32" s="209"/>
+      <c r="R32" s="210"/>
+      <c r="S32" s="210"/>
+      <c r="T32" s="210"/>
+      <c r="U32" s="210"/>
+      <c r="V32" s="210"/>
+      <c r="W32" s="210"/>
+      <c r="X32" s="210"/>
+      <c r="Y32" s="210"/>
+      <c r="Z32" s="210"/>
+      <c r="AA32" s="210"/>
+      <c r="AB32" s="210"/>
+      <c r="AC32" s="210"/>
+      <c r="AD32" s="210"/>
+      <c r="AE32" s="211"/>
+      <c r="AF32" s="206"/>
+      <c r="AG32" s="207"/>
+      <c r="AH32" s="207"/>
+      <c r="AI32" s="208"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="171"/>
-      <c r="L33" s="171"/>
-      <c r="M33" s="171"/>
-      <c r="N33" s="171"/>
-      <c r="O33" s="171"/>
-      <c r="P33" s="172"/>
-      <c r="Q33" s="173"/>
-      <c r="R33" s="174"/>
-      <c r="S33" s="174"/>
-      <c r="T33" s="174"/>
-      <c r="U33" s="174"/>
-      <c r="V33" s="174"/>
-      <c r="W33" s="174"/>
-      <c r="X33" s="174"/>
-      <c r="Y33" s="174"/>
-      <c r="Z33" s="174"/>
-      <c r="AA33" s="174"/>
-      <c r="AB33" s="174"/>
-      <c r="AC33" s="174"/>
-      <c r="AD33" s="174"/>
-      <c r="AE33" s="175"/>
-      <c r="AF33" s="170"/>
-      <c r="AG33" s="171"/>
-      <c r="AH33" s="171"/>
-      <c r="AI33" s="172"/>
+      <c r="B33" s="200"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="205"/>
+      <c r="I33" s="201"/>
+      <c r="J33" s="206"/>
+      <c r="K33" s="207"/>
+      <c r="L33" s="207"/>
+      <c r="M33" s="207"/>
+      <c r="N33" s="207"/>
+      <c r="O33" s="207"/>
+      <c r="P33" s="208"/>
+      <c r="Q33" s="209"/>
+      <c r="R33" s="210"/>
+      <c r="S33" s="210"/>
+      <c r="T33" s="210"/>
+      <c r="U33" s="210"/>
+      <c r="V33" s="210"/>
+      <c r="W33" s="210"/>
+      <c r="X33" s="210"/>
+      <c r="Y33" s="210"/>
+      <c r="Z33" s="210"/>
+      <c r="AA33" s="210"/>
+      <c r="AB33" s="210"/>
+      <c r="AC33" s="210"/>
+      <c r="AD33" s="210"/>
+      <c r="AE33" s="211"/>
+      <c r="AF33" s="206"/>
+      <c r="AG33" s="207"/>
+      <c r="AH33" s="207"/>
+      <c r="AI33" s="208"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12104,161 +12239,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -12329,7 +12309,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="28" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N7" s="28" t="s">
         <v>9</v>
@@ -13459,14 +13439,14 @@
         <v>48</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G40" s="45"/>
       <c r="H40" s="58" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I40" s="58" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J40" s="57"/>
       <c r="K40" s="56"/>
@@ -13495,32 +13475,32 @@
       <c r="D41" s="152"/>
       <c r="E41" s="153"/>
       <c r="F41" s="154" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G41" s="154"/>
       <c r="H41" s="54" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I41" s="54" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J41" s="53" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K41" s="155" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L41" s="107" t="s">
+        <v>582</v>
+      </c>
+      <c r="M41" s="159" t="s">
         <v>583</v>
-      </c>
-      <c r="M41" s="159" t="s">
-        <v>584</v>
       </c>
       <c r="N41" s="160">
         <v>44858</v>
       </c>
       <c r="O41" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P41" s="156"/>
       <c r="Q41" s="108"/>
@@ -13543,14 +13523,14 @@
       <c r="D42" s="152"/>
       <c r="E42" s="153"/>
       <c r="F42" s="45" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G42" s="45"/>
       <c r="H42" s="58" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I42" s="58" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J42" s="57"/>
       <c r="K42" s="57"/>
@@ -13579,32 +13559,32 @@
       <c r="D43" s="157"/>
       <c r="E43" s="158"/>
       <c r="F43" s="154" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G43" s="154"/>
       <c r="H43" s="54" t="s">
+        <v>578</v>
+      </c>
+      <c r="I43" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="J43" s="53" t="s">
+        <v>607</v>
+      </c>
+      <c r="K43" s="53" t="s">
         <v>579</v>
       </c>
-      <c r="I43" s="54" t="s">
-        <v>578</v>
-      </c>
-      <c r="J43" s="53" t="s">
-        <v>609</v>
-      </c>
-      <c r="K43" s="53" t="s">
-        <v>580</v>
-      </c>
       <c r="L43" s="107" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M43" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N43" s="160">
         <v>44858</v>
       </c>
       <c r="O43" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P43" s="156"/>
       <c r="Q43" s="108"/>
@@ -22705,7 +22685,7 @@
         <v>28</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="N10" s="38" t="s">
         <v>2</v>
@@ -23885,24 +23865,24 @@
       <c r="I42" s="108" t="s">
         <v>502</v>
       </c>
-      <c r="J42" s="107" t="s">
-        <v>586</v>
+      <c r="J42" s="54" t="s">
+        <v>549</v>
       </c>
       <c r="K42" s="107" t="s">
-        <v>503</v>
+        <v>555</v>
       </c>
       <c r="L42" s="108" t="s">
         <v>610</v>
       </c>
       <c r="M42" s="108"/>
       <c r="N42" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O42" s="160">
         <v>44858</v>
       </c>
       <c r="P42" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q42" s="114"/>
       <c r="R42" s="107"/>
@@ -23929,29 +23909,29 @@
       </c>
       <c r="G43" s="113"/>
       <c r="H43" s="108" t="s">
+        <v>503</v>
+      </c>
+      <c r="I43" s="108" t="s">
         <v>504</v>
       </c>
-      <c r="I43" s="108" t="s">
+      <c r="J43" s="107" t="s">
+        <v>506</v>
+      </c>
+      <c r="K43" s="107" t="s">
         <v>505</v>
       </c>
-      <c r="J43" s="107" t="s">
-        <v>507</v>
-      </c>
-      <c r="K43" s="107" t="s">
-        <v>506</v>
-      </c>
       <c r="L43" s="108" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M43" s="108"/>
       <c r="N43" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O43" s="160">
         <v>44858</v>
       </c>
       <c r="P43" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q43" s="114"/>
       <c r="R43" s="107"/>
@@ -24060,29 +24040,29 @@
       </c>
       <c r="G46" s="53"/>
       <c r="H46" s="52" t="s">
+        <v>507</v>
+      </c>
+      <c r="I46" s="52" t="s">
         <v>508</v>
       </c>
-      <c r="I46" s="52" t="s">
+      <c r="J46" s="81" t="s">
         <v>509</v>
       </c>
-      <c r="J46" s="81" t="s">
+      <c r="K46" s="81" t="s">
         <v>510</v>
       </c>
-      <c r="K46" s="81" t="s">
-        <v>511</v>
-      </c>
       <c r="L46" s="54" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M46" s="54"/>
       <c r="N46" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O46" s="160">
         <v>44858</v>
       </c>
       <c r="P46" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q46" s="77"/>
       <c r="R46" s="53"/>
@@ -24107,29 +24087,29 @@
       <c r="F47" s="76"/>
       <c r="G47" s="53"/>
       <c r="H47" s="52" t="s">
+        <v>507</v>
+      </c>
+      <c r="I47" s="52" t="s">
         <v>508</v>
       </c>
-      <c r="I47" s="52" t="s">
-        <v>509</v>
-      </c>
       <c r="J47" s="81" t="s">
+        <v>511</v>
+      </c>
+      <c r="K47" s="81" t="s">
         <v>512</v>
       </c>
-      <c r="K47" s="81" t="s">
-        <v>513</v>
-      </c>
       <c r="L47" s="54" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M47" s="54"/>
       <c r="N47" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O47" s="160">
         <v>44858</v>
       </c>
       <c r="P47" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q47" s="77"/>
       <c r="R47" s="53"/>
@@ -24156,29 +24136,29 @@
       </c>
       <c r="G48" s="53"/>
       <c r="H48" s="51" t="s">
+        <v>507</v>
+      </c>
+      <c r="I48" s="52" t="s">
         <v>508</v>
       </c>
-      <c r="I48" s="52" t="s">
-        <v>509</v>
-      </c>
       <c r="J48" s="81" t="s">
+        <v>513</v>
+      </c>
+      <c r="K48" s="81" t="s">
         <v>514</v>
       </c>
-      <c r="K48" s="81" t="s">
-        <v>515</v>
-      </c>
       <c r="L48" s="54" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M48" s="54"/>
       <c r="N48" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O48" s="160">
         <v>44858</v>
       </c>
       <c r="P48" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q48" s="77"/>
       <c r="R48" s="53"/>
@@ -24203,31 +24183,31 @@
       <c r="F49" s="76"/>
       <c r="G49" s="53"/>
       <c r="H49" s="51" t="s">
+        <v>507</v>
+      </c>
+      <c r="I49" s="52" t="s">
         <v>508</v>
       </c>
-      <c r="I49" s="52" t="s">
-        <v>509</v>
-      </c>
       <c r="J49" s="81" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K49" s="81" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L49" s="54" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M49" s="54" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N49" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O49" s="160">
         <v>44858</v>
       </c>
       <c r="P49" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q49" s="77"/>
       <c r="R49" s="53"/>
@@ -24254,29 +24234,29 @@
       </c>
       <c r="G50" s="107"/>
       <c r="H50" s="52" t="s">
+        <v>507</v>
+      </c>
+      <c r="I50" s="52" t="s">
         <v>508</v>
       </c>
-      <c r="I50" s="52" t="s">
+      <c r="J50" s="81" t="s">
         <v>509</v>
       </c>
-      <c r="J50" s="81" t="s">
+      <c r="K50" s="81" t="s">
         <v>510</v>
       </c>
-      <c r="K50" s="81" t="s">
-        <v>511</v>
-      </c>
       <c r="L50" s="54" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M50" s="108"/>
       <c r="N50" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O50" s="160">
         <v>44858</v>
       </c>
       <c r="P50" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q50" s="114"/>
       <c r="R50" s="107"/>
@@ -24301,29 +24281,29 @@
       <c r="F51" s="111"/>
       <c r="G51" s="107"/>
       <c r="H51" s="51" t="s">
+        <v>507</v>
+      </c>
+      <c r="I51" s="52" t="s">
         <v>508</v>
       </c>
-      <c r="I51" s="52" t="s">
-        <v>509</v>
-      </c>
       <c r="J51" s="81" t="s">
+        <v>513</v>
+      </c>
+      <c r="K51" s="81" t="s">
         <v>514</v>
       </c>
-      <c r="K51" s="81" t="s">
-        <v>515</v>
-      </c>
       <c r="L51" s="54" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M51" s="108"/>
       <c r="N51" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O51" s="160">
         <v>44858</v>
       </c>
       <c r="P51" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q51" s="114"/>
       <c r="R51" s="107"/>
@@ -24348,29 +24328,29 @@
       <c r="F52" s="111"/>
       <c r="G52" s="107"/>
       <c r="H52" s="52" t="s">
+        <v>507</v>
+      </c>
+      <c r="I52" s="52" t="s">
         <v>508</v>
       </c>
-      <c r="I52" s="52" t="s">
-        <v>509</v>
-      </c>
       <c r="J52" s="81" t="s">
+        <v>511</v>
+      </c>
+      <c r="K52" s="81" t="s">
         <v>512</v>
       </c>
-      <c r="K52" s="81" t="s">
-        <v>513</v>
-      </c>
       <c r="L52" s="54" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M52" s="108"/>
       <c r="N52" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O52" s="160">
         <v>44858</v>
       </c>
       <c r="P52" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q52" s="114"/>
       <c r="R52" s="107"/>
@@ -24395,31 +24375,31 @@
       <c r="F53" s="116"/>
       <c r="G53" s="107"/>
       <c r="H53" s="51" t="s">
+        <v>507</v>
+      </c>
+      <c r="I53" s="52" t="s">
         <v>508</v>
       </c>
-      <c r="I53" s="52" t="s">
-        <v>509</v>
-      </c>
       <c r="J53" s="81" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K53" s="81" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L53" s="54" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M53" s="108" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N53" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O53" s="160">
         <v>44858</v>
       </c>
       <c r="P53" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q53" s="114"/>
       <c r="R53" s="107"/>
@@ -24448,29 +24428,29 @@
       </c>
       <c r="G54" s="53"/>
       <c r="H54" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="I54" s="54" t="s">
         <v>508</v>
       </c>
-      <c r="I54" s="54" t="s">
-        <v>509</v>
-      </c>
       <c r="J54" s="82" t="s">
+        <v>516</v>
+      </c>
+      <c r="K54" s="53" t="s">
         <v>517</v>
       </c>
-      <c r="K54" s="53" t="s">
-        <v>518</v>
-      </c>
       <c r="L54" s="54" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M54" s="54"/>
       <c r="N54" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O54" s="160">
         <v>44858</v>
       </c>
       <c r="P54" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q54" s="77"/>
       <c r="R54" s="53"/>
@@ -24497,29 +24477,29 @@
       </c>
       <c r="G55" s="53"/>
       <c r="H55" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="I55" s="54" t="s">
         <v>508</v>
       </c>
-      <c r="I55" s="54" t="s">
-        <v>509</v>
-      </c>
       <c r="J55" s="82" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K55" s="53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L55" s="54" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M55" s="54"/>
       <c r="N55" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O55" s="160">
         <v>44858</v>
       </c>
       <c r="P55" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q55" s="77"/>
       <c r="R55" s="53"/>
@@ -24546,29 +24526,29 @@
       </c>
       <c r="G56" s="53"/>
       <c r="H56" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="I56" s="54" t="s">
         <v>508</v>
       </c>
-      <c r="I56" s="54" t="s">
-        <v>509</v>
-      </c>
       <c r="J56" s="82" t="s">
+        <v>519</v>
+      </c>
+      <c r="K56" s="53" t="s">
         <v>520</v>
       </c>
-      <c r="K56" s="53" t="s">
-        <v>521</v>
-      </c>
       <c r="L56" s="54" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M56" s="54"/>
       <c r="N56" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O56" s="160">
         <v>44858</v>
       </c>
       <c r="P56" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q56" s="77"/>
       <c r="R56" s="53"/>
@@ -24597,29 +24577,29 @@
       </c>
       <c r="G57" s="107"/>
       <c r="H57" s="106" t="s">
+        <v>563</v>
+      </c>
+      <c r="I57" s="106" t="s">
         <v>564</v>
       </c>
-      <c r="I57" s="106" t="s">
+      <c r="J57" s="79" t="s">
         <v>565</v>
       </c>
-      <c r="J57" s="79" t="s">
+      <c r="K57" s="145" t="s">
         <v>566</v>
       </c>
-      <c r="K57" s="145" t="s">
-        <v>567</v>
-      </c>
       <c r="L57" s="54" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M57" s="108"/>
       <c r="N57" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O57" s="160">
         <v>44858</v>
       </c>
       <c r="P57" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q57" s="114"/>
       <c r="R57" s="107"/>
@@ -24646,31 +24626,31 @@
       </c>
       <c r="G58" s="107"/>
       <c r="H58" s="106" t="s">
+        <v>563</v>
+      </c>
+      <c r="I58" s="106" t="s">
         <v>564</v>
       </c>
-      <c r="I58" s="106" t="s">
-        <v>565</v>
-      </c>
       <c r="J58" s="79" t="s">
+        <v>567</v>
+      </c>
+      <c r="K58" s="145" t="s">
         <v>568</v>
       </c>
-      <c r="K58" s="145" t="s">
-        <v>569</v>
-      </c>
       <c r="L58" s="54" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M58" s="108" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N58" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O58" s="160">
         <v>44858</v>
       </c>
       <c r="P58" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q58" s="114"/>
       <c r="R58" s="107"/>
@@ -24699,29 +24679,29 @@
       </c>
       <c r="G59" s="107"/>
       <c r="H59" s="146" t="s">
+        <v>563</v>
+      </c>
+      <c r="I59" s="146" t="s">
         <v>564</v>
       </c>
-      <c r="I59" s="146" t="s">
-        <v>565</v>
-      </c>
       <c r="J59" s="112" t="s">
+        <v>569</v>
+      </c>
+      <c r="K59" s="147" t="s">
         <v>570</v>
       </c>
-      <c r="K59" s="147" t="s">
-        <v>571</v>
-      </c>
       <c r="L59" s="54" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M59" s="108"/>
       <c r="N59" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O59" s="160">
         <v>44858</v>
       </c>
       <c r="P59" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q59" s="114"/>
       <c r="R59" s="107"/>
@@ -24748,31 +24728,31 @@
       </c>
       <c r="G60" s="107"/>
       <c r="H60" s="146" t="s">
+        <v>563</v>
+      </c>
+      <c r="I60" s="146" t="s">
         <v>564</v>
       </c>
-      <c r="I60" s="146" t="s">
-        <v>565</v>
-      </c>
       <c r="J60" s="112" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K60" s="147" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L60" s="54" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M60" s="108" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="N60" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O60" s="160">
         <v>44858</v>
       </c>
       <c r="P60" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q60" s="114"/>
       <c r="R60" s="107"/>
@@ -24801,7 +24781,7 @@
       <c r="H61" s="58"/>
       <c r="I61" s="58"/>
       <c r="J61" s="57" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K61" s="57"/>
       <c r="L61" s="58"/>
@@ -24836,7 +24816,7 @@
       <c r="H62" s="58"/>
       <c r="I62" s="58"/>
       <c r="J62" s="57" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K62" s="57"/>
       <c r="L62" s="58"/>
@@ -24871,7 +24851,7 @@
       <c r="H63" s="58"/>
       <c r="I63" s="58"/>
       <c r="J63" s="57" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K63" s="57"/>
       <c r="L63" s="58"/>
@@ -24906,7 +24886,7 @@
       <c r="H64" s="58"/>
       <c r="I64" s="58"/>
       <c r="J64" s="57" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K64" s="57"/>
       <c r="L64" s="58"/>
@@ -24943,7 +24923,7 @@
       <c r="H65" s="45"/>
       <c r="I65" s="45"/>
       <c r="J65" s="56" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K65" s="56"/>
       <c r="L65" s="58"/>
@@ -24980,7 +24960,7 @@
       <c r="H66" s="58"/>
       <c r="I66" s="58"/>
       <c r="J66" s="57" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K66" s="57"/>
       <c r="L66" s="58"/>
@@ -25015,31 +24995,31 @@
       </c>
       <c r="G67" s="53"/>
       <c r="H67" s="54" t="s">
+        <v>525</v>
+      </c>
+      <c r="I67" s="54" t="s">
         <v>526</v>
       </c>
-      <c r="I67" s="54" t="s">
+      <c r="J67" s="53" t="s">
         <v>527</v>
       </c>
-      <c r="J67" s="53" t="s">
+      <c r="K67" s="53" t="s">
         <v>528</v>
       </c>
-      <c r="K67" s="53" t="s">
-        <v>529</v>
-      </c>
       <c r="L67" s="54" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M67" s="54" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="N67" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O67" s="160">
         <v>44858</v>
       </c>
       <c r="P67" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q67" s="77"/>
       <c r="R67" s="53"/>
@@ -25072,7 +25052,7 @@
       <c r="H68" s="58"/>
       <c r="I68" s="58"/>
       <c r="J68" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K68" s="57"/>
       <c r="L68" s="58"/>
@@ -25107,7 +25087,7 @@
       <c r="H69" s="45"/>
       <c r="I69" s="45"/>
       <c r="J69" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K69" s="56"/>
       <c r="L69" s="58"/>
@@ -25142,7 +25122,7 @@
       <c r="H70" s="58"/>
       <c r="I70" s="58"/>
       <c r="J70" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K70" s="57"/>
       <c r="L70" s="58"/>
@@ -25177,7 +25157,7 @@
       <c r="H71" s="58"/>
       <c r="I71" s="58"/>
       <c r="J71" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K71" s="57"/>
       <c r="L71" s="58"/>
@@ -25212,7 +25192,7 @@
       <c r="H72" s="58"/>
       <c r="I72" s="58"/>
       <c r="J72" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K72" s="57"/>
       <c r="L72" s="58"/>
@@ -25249,7 +25229,7 @@
       <c r="H73" s="58"/>
       <c r="I73" s="58"/>
       <c r="J73" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K73" s="57"/>
       <c r="L73" s="58"/>
@@ -25284,7 +25264,7 @@
       <c r="H74" s="58"/>
       <c r="I74" s="58"/>
       <c r="J74" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K74" s="57"/>
       <c r="L74" s="58"/>
@@ -25319,7 +25299,7 @@
       <c r="H75" s="58"/>
       <c r="I75" s="58"/>
       <c r="J75" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K75" s="57"/>
       <c r="L75" s="58"/>
@@ -25354,7 +25334,7 @@
       <c r="H76" s="58"/>
       <c r="I76" s="58"/>
       <c r="J76" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K76" s="57"/>
       <c r="L76" s="58"/>
@@ -25389,7 +25369,7 @@
       <c r="H77" s="58"/>
       <c r="I77" s="58"/>
       <c r="J77" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K77" s="57"/>
       <c r="L77" s="58"/>
@@ -25424,7 +25404,7 @@
       <c r="H78" s="58"/>
       <c r="I78" s="58"/>
       <c r="J78" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K78" s="57"/>
       <c r="L78" s="58"/>
@@ -25459,7 +25439,7 @@
       <c r="H79" s="58"/>
       <c r="I79" s="58"/>
       <c r="J79" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K79" s="57"/>
       <c r="L79" s="58"/>
@@ -25494,7 +25474,7 @@
       <c r="H80" s="58"/>
       <c r="I80" s="58"/>
       <c r="J80" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K80" s="57"/>
       <c r="L80" s="58"/>
@@ -25531,7 +25511,7 @@
       <c r="H81" s="45"/>
       <c r="I81" s="45"/>
       <c r="J81" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K81" s="56"/>
       <c r="L81" s="120"/>
@@ -25568,7 +25548,7 @@
       <c r="H82" s="58"/>
       <c r="I82" s="58"/>
       <c r="J82" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K82" s="57"/>
       <c r="L82" s="58"/>
@@ -25603,7 +25583,7 @@
       <c r="H83" s="58"/>
       <c r="I83" s="58"/>
       <c r="J83" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K83" s="57"/>
       <c r="L83" s="58"/>
@@ -25638,7 +25618,7 @@
       <c r="H84" s="58"/>
       <c r="I84" s="58"/>
       <c r="J84" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K84" s="57"/>
       <c r="L84" s="58"/>
@@ -25673,7 +25653,7 @@
       <c r="H85" s="58"/>
       <c r="I85" s="58"/>
       <c r="J85" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K85" s="57"/>
       <c r="L85" s="58"/>
@@ -25746,29 +25726,29 @@
       </c>
       <c r="G87" s="107"/>
       <c r="H87" s="106" t="s">
+        <v>563</v>
+      </c>
+      <c r="I87" s="106" t="s">
         <v>564</v>
       </c>
-      <c r="I87" s="106" t="s">
-        <v>565</v>
-      </c>
       <c r="J87" s="79" t="s">
+        <v>569</v>
+      </c>
+      <c r="K87" s="145" t="s">
         <v>570</v>
       </c>
-      <c r="K87" s="145" t="s">
-        <v>571</v>
-      </c>
       <c r="L87" s="54" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M87" s="108"/>
       <c r="N87" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O87" s="160">
         <v>44858</v>
       </c>
       <c r="P87" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q87" s="114"/>
       <c r="R87" s="107"/>
@@ -25792,29 +25772,29 @@
       <c r="F88" s="111"/>
       <c r="G88" s="107"/>
       <c r="H88" s="106" t="s">
+        <v>563</v>
+      </c>
+      <c r="I88" s="106" t="s">
         <v>564</v>
       </c>
-      <c r="I88" s="106" t="s">
+      <c r="J88" s="79" t="s">
         <v>565</v>
       </c>
-      <c r="J88" s="79" t="s">
+      <c r="K88" s="145" t="s">
         <v>566</v>
       </c>
-      <c r="K88" s="145" t="s">
-        <v>567</v>
-      </c>
       <c r="L88" s="54" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M88" s="108"/>
       <c r="N88" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O88" s="160">
         <v>44858</v>
       </c>
       <c r="P88" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q88" s="114"/>
       <c r="R88" s="107"/>
@@ -25838,29 +25818,29 @@
       <c r="F89" s="111"/>
       <c r="G89" s="107"/>
       <c r="H89" s="106" t="s">
+        <v>563</v>
+      </c>
+      <c r="I89" s="106" t="s">
         <v>564</v>
       </c>
-      <c r="I89" s="106" t="s">
-        <v>565</v>
-      </c>
       <c r="J89" s="79" t="s">
+        <v>572</v>
+      </c>
+      <c r="K89" s="145" t="s">
         <v>573</v>
       </c>
-      <c r="K89" s="145" t="s">
-        <v>574</v>
-      </c>
       <c r="L89" s="54" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M89" s="108"/>
       <c r="N89" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O89" s="160">
         <v>44858</v>
       </c>
       <c r="P89" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q89" s="114"/>
       <c r="R89" s="107"/>
@@ -25884,29 +25864,29 @@
       <c r="F90" s="116"/>
       <c r="G90" s="107"/>
       <c r="H90" s="106" t="s">
+        <v>563</v>
+      </c>
+      <c r="I90" s="106" t="s">
         <v>564</v>
       </c>
-      <c r="I90" s="106" t="s">
-        <v>565</v>
-      </c>
       <c r="J90" s="79" t="s">
+        <v>574</v>
+      </c>
+      <c r="K90" s="145" t="s">
         <v>575</v>
       </c>
-      <c r="K90" s="145" t="s">
-        <v>576</v>
-      </c>
       <c r="L90" s="54" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M90" s="108"/>
       <c r="N90" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O90" s="160">
         <v>44858</v>
       </c>
       <c r="P90" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q90" s="114"/>
       <c r="R90" s="107"/>
@@ -25933,31 +25913,31 @@
       </c>
       <c r="G91" s="53"/>
       <c r="H91" s="52" t="s">
+        <v>507</v>
+      </c>
+      <c r="I91" s="52" t="s">
         <v>508</v>
       </c>
-      <c r="I91" s="52" t="s">
-        <v>509</v>
-      </c>
       <c r="J91" s="52" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K91" s="81" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L91" s="54" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M91" s="54" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="N91" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O91" s="160">
         <v>44858</v>
       </c>
       <c r="P91" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q91" s="77"/>
       <c r="R91" s="53"/>
@@ -25986,29 +25966,29 @@
       </c>
       <c r="G92" s="53"/>
       <c r="H92" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="I92" s="54" t="s">
         <v>508</v>
       </c>
-      <c r="I92" s="54" t="s">
-        <v>509</v>
-      </c>
       <c r="J92" s="82" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K92" s="53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L92" s="54" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M92" s="54"/>
       <c r="N92" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O92" s="160">
         <v>44858</v>
       </c>
       <c r="P92" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q92" s="77"/>
       <c r="R92" s="53"/>
@@ -26033,29 +26013,29 @@
       <c r="F93" s="70"/>
       <c r="G93" s="53"/>
       <c r="H93" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="I93" s="54" t="s">
         <v>508</v>
       </c>
-      <c r="I93" s="54" t="s">
-        <v>509</v>
-      </c>
       <c r="J93" s="137" t="s">
+        <v>532</v>
+      </c>
+      <c r="K93" s="53" t="s">
         <v>533</v>
       </c>
-      <c r="K93" s="53" t="s">
-        <v>534</v>
-      </c>
       <c r="L93" s="54" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M93" s="54"/>
       <c r="N93" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O93" s="160">
         <v>44858</v>
       </c>
       <c r="P93" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q93" s="77"/>
       <c r="R93" s="53"/>
@@ -26080,31 +26060,31 @@
       <c r="F94" s="76"/>
       <c r="G94" s="53"/>
       <c r="H94" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="I94" s="54" t="s">
         <v>508</v>
       </c>
-      <c r="I94" s="54" t="s">
-        <v>509</v>
-      </c>
       <c r="J94" s="138" t="s">
+        <v>534</v>
+      </c>
+      <c r="K94" s="53" t="s">
         <v>535</v>
       </c>
-      <c r="K94" s="53" t="s">
-        <v>536</v>
-      </c>
       <c r="L94" s="54" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M94" s="54" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N94" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O94" s="160">
         <v>44858</v>
       </c>
       <c r="P94" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q94" s="77"/>
       <c r="R94" s="53"/>
@@ -26135,7 +26115,7 @@
       <c r="H95" s="58"/>
       <c r="I95" s="58"/>
       <c r="J95" s="57" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K95" s="57"/>
       <c r="L95" s="58"/>
@@ -26170,7 +26150,7 @@
       <c r="H96" s="58"/>
       <c r="I96" s="58"/>
       <c r="J96" s="57" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K96" s="57"/>
       <c r="L96" s="58"/>
@@ -26205,29 +26185,29 @@
       </c>
       <c r="G97" s="53"/>
       <c r="H97" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="I97" s="54" t="s">
         <v>508</v>
       </c>
-      <c r="I97" s="54" t="s">
-        <v>509</v>
-      </c>
       <c r="J97" s="53" t="s">
+        <v>537</v>
+      </c>
+      <c r="K97" s="53" t="s">
         <v>538</v>
       </c>
-      <c r="K97" s="53" t="s">
-        <v>539</v>
-      </c>
       <c r="L97" s="54" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M97" s="54"/>
       <c r="N97" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O97" s="160">
         <v>44858</v>
       </c>
       <c r="P97" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q97" s="77"/>
       <c r="R97" s="53"/>
@@ -26258,7 +26238,7 @@
       <c r="H98" s="58"/>
       <c r="I98" s="58"/>
       <c r="J98" s="57" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K98" s="57"/>
       <c r="L98" s="58"/>
@@ -26299,7 +26279,7 @@
       <c r="H99" s="58"/>
       <c r="I99" s="58"/>
       <c r="J99" s="57" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K99" s="57"/>
       <c r="L99" s="58"/>
@@ -26336,7 +26316,7 @@
       <c r="H100" s="58"/>
       <c r="I100" s="58"/>
       <c r="J100" s="57" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K100" s="57"/>
       <c r="L100" s="58"/>
@@ -26373,7 +26353,7 @@
       <c r="H101" s="58"/>
       <c r="I101" s="58"/>
       <c r="J101" s="57" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K101" s="57"/>
       <c r="L101" s="58"/>
@@ -26414,7 +26394,7 @@
       <c r="H102" s="45"/>
       <c r="I102" s="45"/>
       <c r="J102" s="56" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K102" s="58"/>
       <c r="L102" s="58"/>
@@ -26449,7 +26429,7 @@
       <c r="H103" s="58"/>
       <c r="I103" s="58"/>
       <c r="J103" s="56" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K103" s="57"/>
       <c r="L103" s="58"/>
@@ -26486,7 +26466,7 @@
       <c r="H104" s="58"/>
       <c r="I104" s="58"/>
       <c r="J104" s="56" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K104" s="57"/>
       <c r="L104" s="58"/>
@@ -26523,7 +26503,7 @@
       <c r="H105" s="58"/>
       <c r="I105" s="58"/>
       <c r="J105" s="56" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K105" s="57"/>
       <c r="L105" s="58"/>
@@ -26558,7 +26538,7 @@
       <c r="H106" s="58"/>
       <c r="I106" s="58"/>
       <c r="J106" s="56" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K106" s="57"/>
       <c r="L106" s="58"/>
@@ -26595,7 +26575,7 @@
       <c r="H107" s="58"/>
       <c r="I107" s="58"/>
       <c r="J107" s="56" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K107" s="57"/>
       <c r="L107" s="58"/>
@@ -26636,7 +26616,7 @@
       <c r="H108" s="58"/>
       <c r="I108" s="58"/>
       <c r="J108" s="57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K108" s="57"/>
       <c r="L108" s="58"/>
@@ -26671,7 +26651,7 @@
       <c r="H109" s="58"/>
       <c r="I109" s="58"/>
       <c r="J109" s="57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K109" s="57"/>
       <c r="L109" s="58"/>
@@ -26706,7 +26686,7 @@
       <c r="H110" s="58"/>
       <c r="I110" s="58"/>
       <c r="J110" s="57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K110" s="57"/>
       <c r="L110" s="58"/>
@@ -26741,7 +26721,7 @@
       <c r="H111" s="58"/>
       <c r="I111" s="58"/>
       <c r="J111" s="57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K111" s="57"/>
       <c r="L111" s="58"/>
@@ -26776,7 +26756,7 @@
       <c r="H112" s="58"/>
       <c r="I112" s="58"/>
       <c r="J112" s="57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K112" s="57"/>
       <c r="L112" s="58"/>
@@ -26813,7 +26793,7 @@
       <c r="H113" s="58"/>
       <c r="I113" s="58"/>
       <c r="J113" s="57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K113" s="57"/>
       <c r="L113" s="58"/>
@@ -26848,7 +26828,7 @@
       <c r="H114" s="58"/>
       <c r="I114" s="58"/>
       <c r="J114" s="57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K114" s="57"/>
       <c r="L114" s="58"/>
@@ -26883,7 +26863,7 @@
       <c r="H115" s="58"/>
       <c r="I115" s="58"/>
       <c r="J115" s="57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K115" s="57"/>
       <c r="L115" s="58"/>
@@ -26918,7 +26898,7 @@
       <c r="H116" s="58"/>
       <c r="I116" s="58"/>
       <c r="J116" s="57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K116" s="57"/>
       <c r="L116" s="58"/>
@@ -26953,7 +26933,7 @@
       <c r="H117" s="58"/>
       <c r="I117" s="58"/>
       <c r="J117" s="57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K117" s="57"/>
       <c r="L117" s="58"/>
@@ -26990,7 +26970,7 @@
       <c r="H118" s="58"/>
       <c r="I118" s="58"/>
       <c r="J118" s="57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K118" s="57"/>
       <c r="L118" s="58"/>
@@ -27033,7 +27013,7 @@
       <c r="H119" s="58"/>
       <c r="I119" s="58"/>
       <c r="J119" s="57" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K119" s="57"/>
       <c r="L119" s="58"/>
@@ -27074,7 +27054,7 @@
       <c r="H120" s="58"/>
       <c r="I120" s="58"/>
       <c r="J120" s="57" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K120" s="57"/>
       <c r="L120" s="58"/>
@@ -27109,7 +27089,7 @@
       <c r="H121" s="58"/>
       <c r="I121" s="58"/>
       <c r="J121" s="57" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
@@ -27150,7 +27130,7 @@
       <c r="H122" s="58"/>
       <c r="I122" s="58"/>
       <c r="J122" s="57" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K122" s="57"/>
       <c r="L122" s="58"/>
@@ -27191,7 +27171,7 @@
       <c r="H123" s="58"/>
       <c r="I123" s="58"/>
       <c r="J123" s="57" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
@@ -27226,7 +27206,7 @@
       <c r="H124" s="58"/>
       <c r="I124" s="58"/>
       <c r="J124" s="57" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K124" s="57"/>
       <c r="L124" s="58"/>
@@ -33950,29 +33930,29 @@
       </c>
       <c r="G310" s="53"/>
       <c r="H310" s="54" t="s">
+        <v>544</v>
+      </c>
+      <c r="I310" s="54" t="s">
         <v>545</v>
       </c>
-      <c r="I310" s="54" t="s">
+      <c r="J310" s="54" t="s">
         <v>546</v>
       </c>
-      <c r="J310" s="54" t="s">
-        <v>547</v>
-      </c>
       <c r="K310" s="54" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L310" s="54" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="M310" s="54"/>
       <c r="N310" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O310" s="160">
         <v>44858</v>
       </c>
       <c r="P310" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q310" s="54"/>
       <c r="R310" s="54"/>
@@ -34003,29 +33983,29 @@
       </c>
       <c r="G311" s="53"/>
       <c r="H311" s="54" t="s">
+        <v>547</v>
+      </c>
+      <c r="I311" s="54" t="s">
         <v>548</v>
       </c>
-      <c r="I311" s="54" t="s">
-        <v>549</v>
-      </c>
       <c r="J311" s="54" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K311" s="54" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L311" s="54" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M311" s="54"/>
       <c r="N311" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O311" s="160">
         <v>44858</v>
       </c>
       <c r="P311" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q311" s="54"/>
       <c r="R311" s="54"/>
@@ -34050,29 +34030,29 @@
       <c r="F312" s="103"/>
       <c r="G312" s="53"/>
       <c r="H312" s="54" t="s">
+        <v>547</v>
+      </c>
+      <c r="I312" s="54" t="s">
         <v>548</v>
       </c>
-      <c r="I312" s="54" t="s">
+      <c r="J312" s="54" t="s">
         <v>549</v>
       </c>
-      <c r="J312" s="54" t="s">
+      <c r="K312" s="54" t="s">
         <v>550</v>
       </c>
-      <c r="K312" s="54" t="s">
-        <v>551</v>
-      </c>
       <c r="L312" s="54" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M312" s="54"/>
       <c r="N312" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O312" s="160">
         <v>44858</v>
       </c>
       <c r="P312" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q312" s="54"/>
       <c r="R312" s="54"/>
@@ -34097,31 +34077,31 @@
       <c r="F313" s="104"/>
       <c r="G313" s="53"/>
       <c r="H313" s="54" t="s">
+        <v>547</v>
+      </c>
+      <c r="I313" s="54" t="s">
         <v>548</v>
       </c>
-      <c r="I313" s="54" t="s">
-        <v>549</v>
-      </c>
       <c r="J313" s="54" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K313" s="54" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L313" s="54" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M313" s="54" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="N313" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O313" s="160">
         <v>44858</v>
       </c>
       <c r="P313" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q313" s="54"/>
       <c r="R313" s="54"/>
@@ -34152,29 +34132,29 @@
       </c>
       <c r="G314" s="53"/>
       <c r="H314" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="I314" s="54" t="s">
         <v>552</v>
       </c>
-      <c r="I314" s="54" t="s">
+      <c r="J314" s="54" t="s">
         <v>553</v>
       </c>
-      <c r="J314" s="54" t="s">
+      <c r="K314" s="54" t="s">
         <v>554</v>
       </c>
-      <c r="K314" s="54" t="s">
-        <v>555</v>
-      </c>
       <c r="L314" s="54" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M314" s="54"/>
       <c r="N314" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O314" s="160">
         <v>44858</v>
       </c>
       <c r="P314" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q314" s="54"/>
       <c r="R314" s="54"/>
@@ -34201,29 +34181,29 @@
       </c>
       <c r="G315" s="53"/>
       <c r="H315" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="I315" s="54" t="s">
         <v>552</v>
       </c>
-      <c r="I315" s="54" t="s">
-        <v>553</v>
-      </c>
       <c r="J315" s="54" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K315" s="54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L315" s="54" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M315" s="54"/>
       <c r="N315" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O315" s="160">
         <v>44858</v>
       </c>
       <c r="P315" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q315" s="54"/>
       <c r="R315" s="54"/>
@@ -34252,7 +34232,7 @@
       <c r="H316" s="58"/>
       <c r="I316" s="58"/>
       <c r="J316" s="58" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K316" s="58"/>
       <c r="L316" s="58"/>
@@ -34291,7 +34271,7 @@
       <c r="H317" s="58"/>
       <c r="I317" s="58"/>
       <c r="J317" s="58" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K317" s="58"/>
       <c r="L317" s="58"/>
@@ -34328,7 +34308,7 @@
       <c r="H318" s="58"/>
       <c r="I318" s="58"/>
       <c r="J318" s="58" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K318" s="58"/>
       <c r="L318" s="58"/>
@@ -34365,29 +34345,29 @@
       </c>
       <c r="G319" s="53"/>
       <c r="H319" s="54" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I319" s="54" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J319" s="54" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K319" s="54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L319" s="54" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M319" s="54"/>
       <c r="N319" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O319" s="160">
         <v>44858</v>
       </c>
       <c r="P319" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q319" s="54"/>
       <c r="R319" s="54"/>
@@ -34412,31 +34392,31 @@
       <c r="F320" s="104"/>
       <c r="G320" s="53"/>
       <c r="H320" s="54" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I320" s="54" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J320" s="54" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K320" s="54" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L320" s="54" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M320" s="54" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="N320" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O320" s="160">
         <v>44858</v>
       </c>
       <c r="P320" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q320" s="54"/>
       <c r="R320" s="54"/>
@@ -34463,29 +34443,29 @@
       </c>
       <c r="G321" s="53"/>
       <c r="H321" s="54" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I321" s="54" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J321" s="54" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K321" s="54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L321" s="54" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M321" s="54"/>
       <c r="N321" s="159" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O321" s="160">
         <v>44858</v>
       </c>
       <c r="P321" s="160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q321" s="54"/>
       <c r="R321" s="54"/>
@@ -34514,7 +34494,7 @@
       <c r="H322" s="58"/>
       <c r="I322" s="58"/>
       <c r="J322" s="58" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K322" s="58"/>
       <c r="L322" s="58"/>
@@ -34549,7 +34529,7 @@
       <c r="H323" s="58"/>
       <c r="I323" s="58"/>
       <c r="J323" s="58" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K323" s="58"/>
       <c r="L323" s="58"/>
@@ -34584,7 +34564,7 @@
       <c r="H324" s="58"/>
       <c r="I324" s="58"/>
       <c r="J324" s="58" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K324" s="58"/>
       <c r="L324" s="58"/>
@@ -34619,7 +34599,7 @@
       <c r="H325" s="58"/>
       <c r="I325" s="58"/>
       <c r="J325" s="58" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K325" s="58"/>
       <c r="L325" s="58"/>
@@ -34654,7 +34634,7 @@
       <c r="H326" s="58"/>
       <c r="I326" s="58"/>
       <c r="J326" s="58" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K326" s="58"/>
       <c r="L326" s="58"/>
@@ -34689,7 +34669,7 @@
       <c r="H327" s="58"/>
       <c r="I327" s="58"/>
       <c r="J327" s="58" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K327" s="58"/>
       <c r="L327" s="58"/>

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10101_顧客検索.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10101_顧客検索.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2BB220-1FE2-45D3-A6E2-9D1E302CF1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4103851-4352-4416-A492-61FAC0C1DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="612">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -8133,6 +8133,10 @@
   </si>
   <si>
     <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientSearchForm()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindCodeAndNameUpperLimit()</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -9181,6 +9185,72 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -9287,72 +9357,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10860,57 +10864,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="173" t="s">
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="195" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="179" t="s">
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="188" t="s">
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="210" t="s">
         <v>494</v>
       </c>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="170" t="s">
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="212"/>
+      <c r="AA1" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="197" t="str">
+      <c r="AB1" s="194"/>
+      <c r="AC1" s="219" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="164" t="str">
+      <c r="AD1" s="220"/>
+      <c r="AE1" s="220"/>
+      <c r="AF1" s="221"/>
+      <c r="AG1" s="186" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="166"/>
+      <c r="AH1" s="187"/>
+      <c r="AI1" s="188"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10918,53 +10922,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173" t="s">
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="195" t="s">
         <v>461</v>
       </c>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="170" t="s">
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="176" t="str">
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="198" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="164" t="str">
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="186" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="166"/>
+      <c r="AH2" s="187"/>
+      <c r="AI2" s="188"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10972,45 +10976,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173" t="s">
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="195" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="197"/>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="166"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="216"/>
+      <c r="T3" s="217"/>
+      <c r="U3" s="217"/>
+      <c r="V3" s="217"/>
+      <c r="W3" s="217"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="217"/>
+      <c r="Z3" s="218"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="219"/>
+      <c r="AD3" s="220"/>
+      <c r="AE3" s="220"/>
+      <c r="AF3" s="221"/>
+      <c r="AG3" s="186"/>
+      <c r="AH3" s="187"/>
+      <c r="AI3" s="188"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -11047,85 +11051,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="167" t="s">
+      <c r="C7" s="190"/>
+      <c r="D7" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="169"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="167" t="s">
+      <c r="E7" s="191"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="167" t="s">
+      <c r="H7" s="191"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="169"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="167" t="s">
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="191"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="190"/>
+      <c r="Q7" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="169"/>
-      <c r="S7" s="169"/>
-      <c r="T7" s="169"/>
-      <c r="U7" s="169"/>
-      <c r="V7" s="169"/>
-      <c r="W7" s="169"/>
-      <c r="X7" s="169"/>
-      <c r="Y7" s="169"/>
-      <c r="Z7" s="169"/>
-      <c r="AA7" s="169"/>
-      <c r="AB7" s="169"/>
-      <c r="AC7" s="169"/>
-      <c r="AD7" s="169"/>
-      <c r="AE7" s="168"/>
-      <c r="AF7" s="167" t="s">
+      <c r="R7" s="191"/>
+      <c r="S7" s="191"/>
+      <c r="T7" s="191"/>
+      <c r="U7" s="191"/>
+      <c r="V7" s="191"/>
+      <c r="W7" s="191"/>
+      <c r="X7" s="191"/>
+      <c r="Y7" s="191"/>
+      <c r="Z7" s="191"/>
+      <c r="AA7" s="191"/>
+      <c r="AB7" s="191"/>
+      <c r="AC7" s="191"/>
+      <c r="AD7" s="191"/>
+      <c r="AE7" s="190"/>
+      <c r="AF7" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="169"/>
-      <c r="AH7" s="169"/>
-      <c r="AI7" s="168"/>
+      <c r="AG7" s="191"/>
+      <c r="AH7" s="191"/>
+      <c r="AI7" s="190"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="212"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="217"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="219"/>
-      <c r="L8" s="219"/>
-      <c r="M8" s="219"/>
-      <c r="N8" s="219"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="220"/>
-      <c r="Q8" s="218"/>
-      <c r="R8" s="219"/>
-      <c r="S8" s="219"/>
-      <c r="T8" s="219"/>
-      <c r="U8" s="219"/>
-      <c r="V8" s="219"/>
-      <c r="W8" s="219"/>
-      <c r="X8" s="219"/>
-      <c r="Y8" s="219"/>
-      <c r="Z8" s="219"/>
-      <c r="AA8" s="219"/>
-      <c r="AB8" s="219"/>
-      <c r="AC8" s="219"/>
-      <c r="AD8" s="219"/>
-      <c r="AE8" s="220"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="185"/>
+      <c r="Q8" s="183"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="184"/>
+      <c r="V8" s="184"/>
+      <c r="W8" s="184"/>
+      <c r="X8" s="184"/>
+      <c r="Y8" s="184"/>
+      <c r="Z8" s="184"/>
+      <c r="AA8" s="184"/>
+      <c r="AB8" s="184"/>
+      <c r="AC8" s="184"/>
+      <c r="AD8" s="184"/>
+      <c r="AE8" s="185"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -11133,1089 +11137,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="203"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="205"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="206"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="207"/>
-      <c r="N9" s="207"/>
-      <c r="O9" s="207"/>
-      <c r="P9" s="208"/>
-      <c r="Q9" s="209"/>
-      <c r="R9" s="210"/>
-      <c r="S9" s="210"/>
-      <c r="T9" s="210"/>
-      <c r="U9" s="210"/>
-      <c r="V9" s="210"/>
-      <c r="W9" s="210"/>
-      <c r="X9" s="210"/>
-      <c r="Y9" s="210"/>
-      <c r="Z9" s="210"/>
-      <c r="AA9" s="210"/>
-      <c r="AB9" s="210"/>
-      <c r="AC9" s="210"/>
-      <c r="AD9" s="210"/>
-      <c r="AE9" s="211"/>
-      <c r="AF9" s="206"/>
-      <c r="AG9" s="207"/>
-      <c r="AH9" s="207"/>
-      <c r="AI9" s="208"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="174"/>
+      <c r="S9" s="174"/>
+      <c r="T9" s="174"/>
+      <c r="U9" s="174"/>
+      <c r="V9" s="174"/>
+      <c r="W9" s="174"/>
+      <c r="X9" s="174"/>
+      <c r="Y9" s="174"/>
+      <c r="Z9" s="174"/>
+      <c r="AA9" s="174"/>
+      <c r="AB9" s="174"/>
+      <c r="AC9" s="174"/>
+      <c r="AD9" s="174"/>
+      <c r="AE9" s="175"/>
+      <c r="AF9" s="170"/>
+      <c r="AG9" s="171"/>
+      <c r="AH9" s="171"/>
+      <c r="AI9" s="172"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="206"/>
-      <c r="K10" s="207"/>
-      <c r="L10" s="207"/>
-      <c r="M10" s="207"/>
-      <c r="N10" s="207"/>
-      <c r="O10" s="207"/>
-      <c r="P10" s="208"/>
-      <c r="Q10" s="209"/>
-      <c r="R10" s="210"/>
-      <c r="S10" s="210"/>
-      <c r="T10" s="210"/>
-      <c r="U10" s="210"/>
-      <c r="V10" s="210"/>
-      <c r="W10" s="210"/>
-      <c r="X10" s="210"/>
-      <c r="Y10" s="210"/>
-      <c r="Z10" s="210"/>
-      <c r="AA10" s="210"/>
-      <c r="AB10" s="210"/>
-      <c r="AC10" s="210"/>
-      <c r="AD10" s="210"/>
-      <c r="AE10" s="211"/>
-      <c r="AF10" s="206"/>
-      <c r="AG10" s="207"/>
-      <c r="AH10" s="207"/>
-      <c r="AI10" s="208"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="173"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="174"/>
+      <c r="T10" s="174"/>
+      <c r="U10" s="174"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="174"/>
+      <c r="Y10" s="174"/>
+      <c r="Z10" s="174"/>
+      <c r="AA10" s="174"/>
+      <c r="AB10" s="174"/>
+      <c r="AC10" s="174"/>
+      <c r="AD10" s="174"/>
+      <c r="AE10" s="175"/>
+      <c r="AF10" s="170"/>
+      <c r="AG10" s="171"/>
+      <c r="AH10" s="171"/>
+      <c r="AI10" s="172"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="200"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="206"/>
-      <c r="K11" s="207"/>
-      <c r="L11" s="207"/>
-      <c r="M11" s="207"/>
-      <c r="N11" s="207"/>
-      <c r="O11" s="207"/>
-      <c r="P11" s="208"/>
-      <c r="Q11" s="209"/>
-      <c r="R11" s="210"/>
-      <c r="S11" s="210"/>
-      <c r="T11" s="210"/>
-      <c r="U11" s="210"/>
-      <c r="V11" s="210"/>
-      <c r="W11" s="210"/>
-      <c r="X11" s="210"/>
-      <c r="Y11" s="210"/>
-      <c r="Z11" s="210"/>
-      <c r="AA11" s="210"/>
-      <c r="AB11" s="210"/>
-      <c r="AC11" s="210"/>
-      <c r="AD11" s="210"/>
-      <c r="AE11" s="211"/>
-      <c r="AF11" s="206"/>
-      <c r="AG11" s="207"/>
-      <c r="AH11" s="207"/>
-      <c r="AI11" s="208"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="173"/>
+      <c r="R11" s="174"/>
+      <c r="S11" s="174"/>
+      <c r="T11" s="174"/>
+      <c r="U11" s="174"/>
+      <c r="V11" s="174"/>
+      <c r="W11" s="174"/>
+      <c r="X11" s="174"/>
+      <c r="Y11" s="174"/>
+      <c r="Z11" s="174"/>
+      <c r="AA11" s="174"/>
+      <c r="AB11" s="174"/>
+      <c r="AC11" s="174"/>
+      <c r="AD11" s="174"/>
+      <c r="AE11" s="175"/>
+      <c r="AF11" s="170"/>
+      <c r="AG11" s="171"/>
+      <c r="AH11" s="171"/>
+      <c r="AI11" s="172"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="200"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="204"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="205"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="206"/>
-      <c r="K12" s="207"/>
-      <c r="L12" s="207"/>
-      <c r="M12" s="207"/>
-      <c r="N12" s="207"/>
-      <c r="O12" s="207"/>
-      <c r="P12" s="208"/>
-      <c r="Q12" s="209"/>
-      <c r="R12" s="210"/>
-      <c r="S12" s="210"/>
-      <c r="T12" s="210"/>
-      <c r="U12" s="210"/>
-      <c r="V12" s="210"/>
-      <c r="W12" s="210"/>
-      <c r="X12" s="210"/>
-      <c r="Y12" s="210"/>
-      <c r="Z12" s="210"/>
-      <c r="AA12" s="210"/>
-      <c r="AB12" s="210"/>
-      <c r="AC12" s="210"/>
-      <c r="AD12" s="210"/>
-      <c r="AE12" s="211"/>
-      <c r="AF12" s="206"/>
-      <c r="AG12" s="207"/>
-      <c r="AH12" s="207"/>
-      <c r="AI12" s="208"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="172"/>
+      <c r="Q12" s="173"/>
+      <c r="R12" s="174"/>
+      <c r="S12" s="174"/>
+      <c r="T12" s="174"/>
+      <c r="U12" s="174"/>
+      <c r="V12" s="174"/>
+      <c r="W12" s="174"/>
+      <c r="X12" s="174"/>
+      <c r="Y12" s="174"/>
+      <c r="Z12" s="174"/>
+      <c r="AA12" s="174"/>
+      <c r="AB12" s="174"/>
+      <c r="AC12" s="174"/>
+      <c r="AD12" s="174"/>
+      <c r="AE12" s="175"/>
+      <c r="AF12" s="170"/>
+      <c r="AG12" s="171"/>
+      <c r="AH12" s="171"/>
+      <c r="AI12" s="172"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="200"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="205"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="206"/>
-      <c r="K13" s="207"/>
-      <c r="L13" s="207"/>
-      <c r="M13" s="207"/>
-      <c r="N13" s="207"/>
-      <c r="O13" s="207"/>
-      <c r="P13" s="208"/>
-      <c r="Q13" s="209"/>
-      <c r="R13" s="210"/>
-      <c r="S13" s="210"/>
-      <c r="T13" s="210"/>
-      <c r="U13" s="210"/>
-      <c r="V13" s="210"/>
-      <c r="W13" s="210"/>
-      <c r="X13" s="210"/>
-      <c r="Y13" s="210"/>
-      <c r="Z13" s="210"/>
-      <c r="AA13" s="210"/>
-      <c r="AB13" s="210"/>
-      <c r="AC13" s="210"/>
-      <c r="AD13" s="210"/>
-      <c r="AE13" s="211"/>
-      <c r="AF13" s="206"/>
-      <c r="AG13" s="207"/>
-      <c r="AH13" s="207"/>
-      <c r="AI13" s="208"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="171"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="172"/>
+      <c r="Q13" s="173"/>
+      <c r="R13" s="174"/>
+      <c r="S13" s="174"/>
+      <c r="T13" s="174"/>
+      <c r="U13" s="174"/>
+      <c r="V13" s="174"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="174"/>
+      <c r="Z13" s="174"/>
+      <c r="AA13" s="174"/>
+      <c r="AB13" s="174"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="174"/>
+      <c r="AE13" s="175"/>
+      <c r="AF13" s="170"/>
+      <c r="AG13" s="171"/>
+      <c r="AH13" s="171"/>
+      <c r="AI13" s="172"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="200"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="204"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="205"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="207"/>
-      <c r="L14" s="207"/>
-      <c r="M14" s="207"/>
-      <c r="N14" s="207"/>
-      <c r="O14" s="207"/>
-      <c r="P14" s="208"/>
-      <c r="Q14" s="209"/>
-      <c r="R14" s="210"/>
-      <c r="S14" s="210"/>
-      <c r="T14" s="210"/>
-      <c r="U14" s="210"/>
-      <c r="V14" s="210"/>
-      <c r="W14" s="210"/>
-      <c r="X14" s="210"/>
-      <c r="Y14" s="210"/>
-      <c r="Z14" s="210"/>
-      <c r="AA14" s="210"/>
-      <c r="AB14" s="210"/>
-      <c r="AC14" s="210"/>
-      <c r="AD14" s="210"/>
-      <c r="AE14" s="211"/>
-      <c r="AF14" s="206"/>
-      <c r="AG14" s="207"/>
-      <c r="AH14" s="207"/>
-      <c r="AI14" s="208"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="171"/>
+      <c r="P14" s="172"/>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="174"/>
+      <c r="S14" s="174"/>
+      <c r="T14" s="174"/>
+      <c r="U14" s="174"/>
+      <c r="V14" s="174"/>
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="174"/>
+      <c r="Z14" s="174"/>
+      <c r="AA14" s="174"/>
+      <c r="AB14" s="174"/>
+      <c r="AC14" s="174"/>
+      <c r="AD14" s="174"/>
+      <c r="AE14" s="175"/>
+      <c r="AF14" s="170"/>
+      <c r="AG14" s="171"/>
+      <c r="AH14" s="171"/>
+      <c r="AI14" s="172"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="200"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="205"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="206"/>
-      <c r="K15" s="207"/>
-      <c r="L15" s="207"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="207"/>
-      <c r="P15" s="208"/>
-      <c r="Q15" s="209"/>
-      <c r="R15" s="210"/>
-      <c r="S15" s="210"/>
-      <c r="T15" s="210"/>
-      <c r="U15" s="210"/>
-      <c r="V15" s="210"/>
-      <c r="W15" s="210"/>
-      <c r="X15" s="210"/>
-      <c r="Y15" s="210"/>
-      <c r="Z15" s="210"/>
-      <c r="AA15" s="210"/>
-      <c r="AB15" s="210"/>
-      <c r="AC15" s="210"/>
-      <c r="AD15" s="210"/>
-      <c r="AE15" s="211"/>
-      <c r="AF15" s="206"/>
-      <c r="AG15" s="207"/>
-      <c r="AH15" s="207"/>
-      <c r="AI15" s="208"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="172"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="174"/>
+      <c r="S15" s="174"/>
+      <c r="T15" s="174"/>
+      <c r="U15" s="174"/>
+      <c r="V15" s="174"/>
+      <c r="W15" s="174"/>
+      <c r="X15" s="174"/>
+      <c r="Y15" s="174"/>
+      <c r="Z15" s="174"/>
+      <c r="AA15" s="174"/>
+      <c r="AB15" s="174"/>
+      <c r="AC15" s="174"/>
+      <c r="AD15" s="174"/>
+      <c r="AE15" s="175"/>
+      <c r="AF15" s="170"/>
+      <c r="AG15" s="171"/>
+      <c r="AH15" s="171"/>
+      <c r="AI15" s="172"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="200"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="207"/>
-      <c r="L16" s="207"/>
-      <c r="M16" s="207"/>
-      <c r="N16" s="207"/>
-      <c r="O16" s="207"/>
-      <c r="P16" s="208"/>
-      <c r="Q16" s="209"/>
-      <c r="R16" s="210"/>
-      <c r="S16" s="210"/>
-      <c r="T16" s="210"/>
-      <c r="U16" s="210"/>
-      <c r="V16" s="210"/>
-      <c r="W16" s="210"/>
-      <c r="X16" s="210"/>
-      <c r="Y16" s="210"/>
-      <c r="Z16" s="210"/>
-      <c r="AA16" s="210"/>
-      <c r="AB16" s="210"/>
-      <c r="AC16" s="210"/>
-      <c r="AD16" s="210"/>
-      <c r="AE16" s="211"/>
-      <c r="AF16" s="206"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="207"/>
-      <c r="AI16" s="208"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="171"/>
+      <c r="M16" s="171"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="173"/>
+      <c r="R16" s="174"/>
+      <c r="S16" s="174"/>
+      <c r="T16" s="174"/>
+      <c r="U16" s="174"/>
+      <c r="V16" s="174"/>
+      <c r="W16" s="174"/>
+      <c r="X16" s="174"/>
+      <c r="Y16" s="174"/>
+      <c r="Z16" s="174"/>
+      <c r="AA16" s="174"/>
+      <c r="AB16" s="174"/>
+      <c r="AC16" s="174"/>
+      <c r="AD16" s="174"/>
+      <c r="AE16" s="175"/>
+      <c r="AF16" s="170"/>
+      <c r="AG16" s="171"/>
+      <c r="AH16" s="171"/>
+      <c r="AI16" s="172"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="200"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="206"/>
-      <c r="K17" s="207"/>
-      <c r="L17" s="207"/>
-      <c r="M17" s="207"/>
-      <c r="N17" s="207"/>
-      <c r="O17" s="207"/>
-      <c r="P17" s="208"/>
-      <c r="Q17" s="209"/>
-      <c r="R17" s="210"/>
-      <c r="S17" s="210"/>
-      <c r="T17" s="210"/>
-      <c r="U17" s="210"/>
-      <c r="V17" s="210"/>
-      <c r="W17" s="210"/>
-      <c r="X17" s="210"/>
-      <c r="Y17" s="210"/>
-      <c r="Z17" s="210"/>
-      <c r="AA17" s="210"/>
-      <c r="AB17" s="210"/>
-      <c r="AC17" s="210"/>
-      <c r="AD17" s="210"/>
-      <c r="AE17" s="211"/>
-      <c r="AF17" s="206"/>
-      <c r="AG17" s="207"/>
-      <c r="AH17" s="207"/>
-      <c r="AI17" s="208"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="171"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="173"/>
+      <c r="R17" s="174"/>
+      <c r="S17" s="174"/>
+      <c r="T17" s="174"/>
+      <c r="U17" s="174"/>
+      <c r="V17" s="174"/>
+      <c r="W17" s="174"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="174"/>
+      <c r="Z17" s="174"/>
+      <c r="AA17" s="174"/>
+      <c r="AB17" s="174"/>
+      <c r="AC17" s="174"/>
+      <c r="AD17" s="174"/>
+      <c r="AE17" s="175"/>
+      <c r="AF17" s="170"/>
+      <c r="AG17" s="171"/>
+      <c r="AH17" s="171"/>
+      <c r="AI17" s="172"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="200"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="206"/>
-      <c r="K18" s="207"/>
-      <c r="L18" s="207"/>
-      <c r="M18" s="207"/>
-      <c r="N18" s="207"/>
-      <c r="O18" s="207"/>
-      <c r="P18" s="208"/>
-      <c r="Q18" s="209"/>
-      <c r="R18" s="210"/>
-      <c r="S18" s="210"/>
-      <c r="T18" s="210"/>
-      <c r="U18" s="210"/>
-      <c r="V18" s="210"/>
-      <c r="W18" s="210"/>
-      <c r="X18" s="210"/>
-      <c r="Y18" s="210"/>
-      <c r="Z18" s="210"/>
-      <c r="AA18" s="210"/>
-      <c r="AB18" s="210"/>
-      <c r="AC18" s="210"/>
-      <c r="AD18" s="210"/>
-      <c r="AE18" s="211"/>
-      <c r="AF18" s="206"/>
-      <c r="AG18" s="207"/>
-      <c r="AH18" s="207"/>
-      <c r="AI18" s="208"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="171"/>
+      <c r="L18" s="171"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="173"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="174"/>
+      <c r="T18" s="174"/>
+      <c r="U18" s="174"/>
+      <c r="V18" s="174"/>
+      <c r="W18" s="174"/>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="174"/>
+      <c r="Z18" s="174"/>
+      <c r="AA18" s="174"/>
+      <c r="AB18" s="174"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="174"/>
+      <c r="AE18" s="175"/>
+      <c r="AF18" s="170"/>
+      <c r="AG18" s="171"/>
+      <c r="AH18" s="171"/>
+      <c r="AI18" s="172"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="200"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="201"/>
-      <c r="J19" s="206"/>
-      <c r="K19" s="207"/>
-      <c r="L19" s="207"/>
-      <c r="M19" s="207"/>
-      <c r="N19" s="207"/>
-      <c r="O19" s="207"/>
-      <c r="P19" s="208"/>
-      <c r="Q19" s="209"/>
-      <c r="R19" s="210"/>
-      <c r="S19" s="210"/>
-      <c r="T19" s="210"/>
-      <c r="U19" s="210"/>
-      <c r="V19" s="210"/>
-      <c r="W19" s="210"/>
-      <c r="X19" s="210"/>
-      <c r="Y19" s="210"/>
-      <c r="Z19" s="210"/>
-      <c r="AA19" s="210"/>
-      <c r="AB19" s="210"/>
-      <c r="AC19" s="210"/>
-      <c r="AD19" s="210"/>
-      <c r="AE19" s="211"/>
-      <c r="AF19" s="206"/>
-      <c r="AG19" s="207"/>
-      <c r="AH19" s="207"/>
-      <c r="AI19" s="208"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="171"/>
+      <c r="O19" s="171"/>
+      <c r="P19" s="172"/>
+      <c r="Q19" s="173"/>
+      <c r="R19" s="174"/>
+      <c r="S19" s="174"/>
+      <c r="T19" s="174"/>
+      <c r="U19" s="174"/>
+      <c r="V19" s="174"/>
+      <c r="W19" s="174"/>
+      <c r="X19" s="174"/>
+      <c r="Y19" s="174"/>
+      <c r="Z19" s="174"/>
+      <c r="AA19" s="174"/>
+      <c r="AB19" s="174"/>
+      <c r="AC19" s="174"/>
+      <c r="AD19" s="174"/>
+      <c r="AE19" s="175"/>
+      <c r="AF19" s="170"/>
+      <c r="AG19" s="171"/>
+      <c r="AH19" s="171"/>
+      <c r="AI19" s="172"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="200"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="206"/>
-      <c r="K20" s="207"/>
-      <c r="L20" s="207"/>
-      <c r="M20" s="207"/>
-      <c r="N20" s="207"/>
-      <c r="O20" s="207"/>
-      <c r="P20" s="208"/>
-      <c r="Q20" s="209"/>
-      <c r="R20" s="210"/>
-      <c r="S20" s="210"/>
-      <c r="T20" s="210"/>
-      <c r="U20" s="210"/>
-      <c r="V20" s="210"/>
-      <c r="W20" s="210"/>
-      <c r="X20" s="210"/>
-      <c r="Y20" s="210"/>
-      <c r="Z20" s="210"/>
-      <c r="AA20" s="210"/>
-      <c r="AB20" s="210"/>
-      <c r="AC20" s="210"/>
-      <c r="AD20" s="210"/>
-      <c r="AE20" s="211"/>
-      <c r="AF20" s="206"/>
-      <c r="AG20" s="207"/>
-      <c r="AH20" s="207"/>
-      <c r="AI20" s="208"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="171"/>
+      <c r="M20" s="171"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="171"/>
+      <c r="P20" s="172"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="174"/>
+      <c r="S20" s="174"/>
+      <c r="T20" s="174"/>
+      <c r="U20" s="174"/>
+      <c r="V20" s="174"/>
+      <c r="W20" s="174"/>
+      <c r="X20" s="174"/>
+      <c r="Y20" s="174"/>
+      <c r="Z20" s="174"/>
+      <c r="AA20" s="174"/>
+      <c r="AB20" s="174"/>
+      <c r="AC20" s="174"/>
+      <c r="AD20" s="174"/>
+      <c r="AE20" s="175"/>
+      <c r="AF20" s="170"/>
+      <c r="AG20" s="171"/>
+      <c r="AH20" s="171"/>
+      <c r="AI20" s="172"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="200"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="201"/>
-      <c r="J21" s="206"/>
-      <c r="K21" s="207"/>
-      <c r="L21" s="207"/>
-      <c r="M21" s="207"/>
-      <c r="N21" s="207"/>
-      <c r="O21" s="207"/>
-      <c r="P21" s="208"/>
-      <c r="Q21" s="209"/>
-      <c r="R21" s="210"/>
-      <c r="S21" s="210"/>
-      <c r="T21" s="210"/>
-      <c r="U21" s="210"/>
-      <c r="V21" s="210"/>
-      <c r="W21" s="210"/>
-      <c r="X21" s="210"/>
-      <c r="Y21" s="210"/>
-      <c r="Z21" s="210"/>
-      <c r="AA21" s="210"/>
-      <c r="AB21" s="210"/>
-      <c r="AC21" s="210"/>
-      <c r="AD21" s="210"/>
-      <c r="AE21" s="211"/>
-      <c r="AF21" s="206"/>
-      <c r="AG21" s="207"/>
-      <c r="AH21" s="207"/>
-      <c r="AI21" s="208"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="171"/>
+      <c r="N21" s="171"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="174"/>
+      <c r="S21" s="174"/>
+      <c r="T21" s="174"/>
+      <c r="U21" s="174"/>
+      <c r="V21" s="174"/>
+      <c r="W21" s="174"/>
+      <c r="X21" s="174"/>
+      <c r="Y21" s="174"/>
+      <c r="Z21" s="174"/>
+      <c r="AA21" s="174"/>
+      <c r="AB21" s="174"/>
+      <c r="AC21" s="174"/>
+      <c r="AD21" s="174"/>
+      <c r="AE21" s="175"/>
+      <c r="AF21" s="170"/>
+      <c r="AG21" s="171"/>
+      <c r="AH21" s="171"/>
+      <c r="AI21" s="172"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="200"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="200"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="201"/>
-      <c r="J22" s="206"/>
-      <c r="K22" s="207"/>
-      <c r="L22" s="207"/>
-      <c r="M22" s="207"/>
-      <c r="N22" s="207"/>
-      <c r="O22" s="207"/>
-      <c r="P22" s="208"/>
-      <c r="Q22" s="209"/>
-      <c r="R22" s="210"/>
-      <c r="S22" s="210"/>
-      <c r="T22" s="210"/>
-      <c r="U22" s="210"/>
-      <c r="V22" s="210"/>
-      <c r="W22" s="210"/>
-      <c r="X22" s="210"/>
-      <c r="Y22" s="210"/>
-      <c r="Z22" s="210"/>
-      <c r="AA22" s="210"/>
-      <c r="AB22" s="210"/>
-      <c r="AC22" s="210"/>
-      <c r="AD22" s="210"/>
-      <c r="AE22" s="211"/>
-      <c r="AF22" s="206"/>
-      <c r="AG22" s="207"/>
-      <c r="AH22" s="207"/>
-      <c r="AI22" s="208"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="171"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="171"/>
+      <c r="P22" s="172"/>
+      <c r="Q22" s="173"/>
+      <c r="R22" s="174"/>
+      <c r="S22" s="174"/>
+      <c r="T22" s="174"/>
+      <c r="U22" s="174"/>
+      <c r="V22" s="174"/>
+      <c r="W22" s="174"/>
+      <c r="X22" s="174"/>
+      <c r="Y22" s="174"/>
+      <c r="Z22" s="174"/>
+      <c r="AA22" s="174"/>
+      <c r="AB22" s="174"/>
+      <c r="AC22" s="174"/>
+      <c r="AD22" s="174"/>
+      <c r="AE22" s="175"/>
+      <c r="AF22" s="170"/>
+      <c r="AG22" s="171"/>
+      <c r="AH22" s="171"/>
+      <c r="AI22" s="172"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="200"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="205"/>
-      <c r="I23" s="201"/>
-      <c r="J23" s="206"/>
-      <c r="K23" s="207"/>
-      <c r="L23" s="207"/>
-      <c r="M23" s="207"/>
-      <c r="N23" s="207"/>
-      <c r="O23" s="207"/>
-      <c r="P23" s="208"/>
-      <c r="Q23" s="209"/>
-      <c r="R23" s="210"/>
-      <c r="S23" s="210"/>
-      <c r="T23" s="210"/>
-      <c r="U23" s="210"/>
-      <c r="V23" s="210"/>
-      <c r="W23" s="210"/>
-      <c r="X23" s="210"/>
-      <c r="Y23" s="210"/>
-      <c r="Z23" s="210"/>
-      <c r="AA23" s="210"/>
-      <c r="AB23" s="210"/>
-      <c r="AC23" s="210"/>
-      <c r="AD23" s="210"/>
-      <c r="AE23" s="211"/>
-      <c r="AF23" s="206"/>
-      <c r="AG23" s="207"/>
-      <c r="AH23" s="207"/>
-      <c r="AI23" s="208"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="171"/>
+      <c r="N23" s="171"/>
+      <c r="O23" s="171"/>
+      <c r="P23" s="172"/>
+      <c r="Q23" s="173"/>
+      <c r="R23" s="174"/>
+      <c r="S23" s="174"/>
+      <c r="T23" s="174"/>
+      <c r="U23" s="174"/>
+      <c r="V23" s="174"/>
+      <c r="W23" s="174"/>
+      <c r="X23" s="174"/>
+      <c r="Y23" s="174"/>
+      <c r="Z23" s="174"/>
+      <c r="AA23" s="174"/>
+      <c r="AB23" s="174"/>
+      <c r="AC23" s="174"/>
+      <c r="AD23" s="174"/>
+      <c r="AE23" s="175"/>
+      <c r="AF23" s="170"/>
+      <c r="AG23" s="171"/>
+      <c r="AH23" s="171"/>
+      <c r="AI23" s="172"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="200"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="200"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="206"/>
-      <c r="K24" s="207"/>
-      <c r="L24" s="207"/>
-      <c r="M24" s="207"/>
-      <c r="N24" s="207"/>
-      <c r="O24" s="207"/>
-      <c r="P24" s="208"/>
-      <c r="Q24" s="209"/>
-      <c r="R24" s="210"/>
-      <c r="S24" s="210"/>
-      <c r="T24" s="210"/>
-      <c r="U24" s="210"/>
-      <c r="V24" s="210"/>
-      <c r="W24" s="210"/>
-      <c r="X24" s="210"/>
-      <c r="Y24" s="210"/>
-      <c r="Z24" s="210"/>
-      <c r="AA24" s="210"/>
-      <c r="AB24" s="210"/>
-      <c r="AC24" s="210"/>
-      <c r="AD24" s="210"/>
-      <c r="AE24" s="211"/>
-      <c r="AF24" s="206"/>
-      <c r="AG24" s="207"/>
-      <c r="AH24" s="207"/>
-      <c r="AI24" s="208"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="171"/>
+      <c r="P24" s="172"/>
+      <c r="Q24" s="173"/>
+      <c r="R24" s="174"/>
+      <c r="S24" s="174"/>
+      <c r="T24" s="174"/>
+      <c r="U24" s="174"/>
+      <c r="V24" s="174"/>
+      <c r="W24" s="174"/>
+      <c r="X24" s="174"/>
+      <c r="Y24" s="174"/>
+      <c r="Z24" s="174"/>
+      <c r="AA24" s="174"/>
+      <c r="AB24" s="174"/>
+      <c r="AC24" s="174"/>
+      <c r="AD24" s="174"/>
+      <c r="AE24" s="175"/>
+      <c r="AF24" s="170"/>
+      <c r="AG24" s="171"/>
+      <c r="AH24" s="171"/>
+      <c r="AI24" s="172"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="200"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="201"/>
-      <c r="J25" s="206"/>
-      <c r="K25" s="207"/>
-      <c r="L25" s="207"/>
-      <c r="M25" s="207"/>
-      <c r="N25" s="207"/>
-      <c r="O25" s="207"/>
-      <c r="P25" s="208"/>
-      <c r="Q25" s="209"/>
-      <c r="R25" s="210"/>
-      <c r="S25" s="210"/>
-      <c r="T25" s="210"/>
-      <c r="U25" s="210"/>
-      <c r="V25" s="210"/>
-      <c r="W25" s="210"/>
-      <c r="X25" s="210"/>
-      <c r="Y25" s="210"/>
-      <c r="Z25" s="210"/>
-      <c r="AA25" s="210"/>
-      <c r="AB25" s="210"/>
-      <c r="AC25" s="210"/>
-      <c r="AD25" s="210"/>
-      <c r="AE25" s="211"/>
-      <c r="AF25" s="206"/>
-      <c r="AG25" s="207"/>
-      <c r="AH25" s="207"/>
-      <c r="AI25" s="208"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="171"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="171"/>
+      <c r="P25" s="172"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="174"/>
+      <c r="S25" s="174"/>
+      <c r="T25" s="174"/>
+      <c r="U25" s="174"/>
+      <c r="V25" s="174"/>
+      <c r="W25" s="174"/>
+      <c r="X25" s="174"/>
+      <c r="Y25" s="174"/>
+      <c r="Z25" s="174"/>
+      <c r="AA25" s="174"/>
+      <c r="AB25" s="174"/>
+      <c r="AC25" s="174"/>
+      <c r="AD25" s="174"/>
+      <c r="AE25" s="175"/>
+      <c r="AF25" s="170"/>
+      <c r="AG25" s="171"/>
+      <c r="AH25" s="171"/>
+      <c r="AI25" s="172"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="200"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="206"/>
-      <c r="K26" s="207"/>
-      <c r="L26" s="207"/>
-      <c r="M26" s="207"/>
-      <c r="N26" s="207"/>
-      <c r="O26" s="207"/>
-      <c r="P26" s="208"/>
-      <c r="Q26" s="209"/>
-      <c r="R26" s="210"/>
-      <c r="S26" s="210"/>
-      <c r="T26" s="210"/>
-      <c r="U26" s="210"/>
-      <c r="V26" s="210"/>
-      <c r="W26" s="210"/>
-      <c r="X26" s="210"/>
-      <c r="Y26" s="210"/>
-      <c r="Z26" s="210"/>
-      <c r="AA26" s="210"/>
-      <c r="AB26" s="210"/>
-      <c r="AC26" s="210"/>
-      <c r="AD26" s="210"/>
-      <c r="AE26" s="211"/>
-      <c r="AF26" s="206"/>
-      <c r="AG26" s="207"/>
-      <c r="AH26" s="207"/>
-      <c r="AI26" s="208"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="171"/>
+      <c r="O26" s="171"/>
+      <c r="P26" s="172"/>
+      <c r="Q26" s="173"/>
+      <c r="R26" s="174"/>
+      <c r="S26" s="174"/>
+      <c r="T26" s="174"/>
+      <c r="U26" s="174"/>
+      <c r="V26" s="174"/>
+      <c r="W26" s="174"/>
+      <c r="X26" s="174"/>
+      <c r="Y26" s="174"/>
+      <c r="Z26" s="174"/>
+      <c r="AA26" s="174"/>
+      <c r="AB26" s="174"/>
+      <c r="AC26" s="174"/>
+      <c r="AD26" s="174"/>
+      <c r="AE26" s="175"/>
+      <c r="AF26" s="170"/>
+      <c r="AG26" s="171"/>
+      <c r="AH26" s="171"/>
+      <c r="AI26" s="172"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="200"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="202"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="205"/>
-      <c r="I27" s="201"/>
-      <c r="J27" s="206"/>
-      <c r="K27" s="207"/>
-      <c r="L27" s="207"/>
-      <c r="M27" s="207"/>
-      <c r="N27" s="207"/>
-      <c r="O27" s="207"/>
-      <c r="P27" s="208"/>
-      <c r="Q27" s="209"/>
-      <c r="R27" s="210"/>
-      <c r="S27" s="210"/>
-      <c r="T27" s="210"/>
-      <c r="U27" s="210"/>
-      <c r="V27" s="210"/>
-      <c r="W27" s="210"/>
-      <c r="X27" s="210"/>
-      <c r="Y27" s="210"/>
-      <c r="Z27" s="210"/>
-      <c r="AA27" s="210"/>
-      <c r="AB27" s="210"/>
-      <c r="AC27" s="210"/>
-      <c r="AD27" s="210"/>
-      <c r="AE27" s="211"/>
-      <c r="AF27" s="206"/>
-      <c r="AG27" s="207"/>
-      <c r="AH27" s="207"/>
-      <c r="AI27" s="208"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="171"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="171"/>
+      <c r="O27" s="171"/>
+      <c r="P27" s="172"/>
+      <c r="Q27" s="173"/>
+      <c r="R27" s="174"/>
+      <c r="S27" s="174"/>
+      <c r="T27" s="174"/>
+      <c r="U27" s="174"/>
+      <c r="V27" s="174"/>
+      <c r="W27" s="174"/>
+      <c r="X27" s="174"/>
+      <c r="Y27" s="174"/>
+      <c r="Z27" s="174"/>
+      <c r="AA27" s="174"/>
+      <c r="AB27" s="174"/>
+      <c r="AC27" s="174"/>
+      <c r="AD27" s="174"/>
+      <c r="AE27" s="175"/>
+      <c r="AF27" s="170"/>
+      <c r="AG27" s="171"/>
+      <c r="AH27" s="171"/>
+      <c r="AI27" s="172"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="200"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="200"/>
-      <c r="H28" s="205"/>
-      <c r="I28" s="201"/>
-      <c r="J28" s="206"/>
-      <c r="K28" s="207"/>
-      <c r="L28" s="207"/>
-      <c r="M28" s="207"/>
-      <c r="N28" s="207"/>
-      <c r="O28" s="207"/>
-      <c r="P28" s="208"/>
-      <c r="Q28" s="209"/>
-      <c r="R28" s="210"/>
-      <c r="S28" s="210"/>
-      <c r="T28" s="210"/>
-      <c r="U28" s="210"/>
-      <c r="V28" s="210"/>
-      <c r="W28" s="210"/>
-      <c r="X28" s="210"/>
-      <c r="Y28" s="210"/>
-      <c r="Z28" s="210"/>
-      <c r="AA28" s="210"/>
-      <c r="AB28" s="210"/>
-      <c r="AC28" s="210"/>
-      <c r="AD28" s="210"/>
-      <c r="AE28" s="211"/>
-      <c r="AF28" s="206"/>
-      <c r="AG28" s="207"/>
-      <c r="AH28" s="207"/>
-      <c r="AI28" s="208"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="171"/>
+      <c r="L28" s="171"/>
+      <c r="M28" s="171"/>
+      <c r="N28" s="171"/>
+      <c r="O28" s="171"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="173"/>
+      <c r="R28" s="174"/>
+      <c r="S28" s="174"/>
+      <c r="T28" s="174"/>
+      <c r="U28" s="174"/>
+      <c r="V28" s="174"/>
+      <c r="W28" s="174"/>
+      <c r="X28" s="174"/>
+      <c r="Y28" s="174"/>
+      <c r="Z28" s="174"/>
+      <c r="AA28" s="174"/>
+      <c r="AB28" s="174"/>
+      <c r="AC28" s="174"/>
+      <c r="AD28" s="174"/>
+      <c r="AE28" s="175"/>
+      <c r="AF28" s="170"/>
+      <c r="AG28" s="171"/>
+      <c r="AH28" s="171"/>
+      <c r="AI28" s="172"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="200"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="205"/>
-      <c r="I29" s="201"/>
-      <c r="J29" s="206"/>
-      <c r="K29" s="207"/>
-      <c r="L29" s="207"/>
-      <c r="M29" s="207"/>
-      <c r="N29" s="207"/>
-      <c r="O29" s="207"/>
-      <c r="P29" s="208"/>
-      <c r="Q29" s="209"/>
-      <c r="R29" s="210"/>
-      <c r="S29" s="210"/>
-      <c r="T29" s="210"/>
-      <c r="U29" s="210"/>
-      <c r="V29" s="210"/>
-      <c r="W29" s="210"/>
-      <c r="X29" s="210"/>
-      <c r="Y29" s="210"/>
-      <c r="Z29" s="210"/>
-      <c r="AA29" s="210"/>
-      <c r="AB29" s="210"/>
-      <c r="AC29" s="210"/>
-      <c r="AD29" s="210"/>
-      <c r="AE29" s="211"/>
-      <c r="AF29" s="206"/>
-      <c r="AG29" s="207"/>
-      <c r="AH29" s="207"/>
-      <c r="AI29" s="208"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="171"/>
+      <c r="M29" s="171"/>
+      <c r="N29" s="171"/>
+      <c r="O29" s="171"/>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="173"/>
+      <c r="R29" s="174"/>
+      <c r="S29" s="174"/>
+      <c r="T29" s="174"/>
+      <c r="U29" s="174"/>
+      <c r="V29" s="174"/>
+      <c r="W29" s="174"/>
+      <c r="X29" s="174"/>
+      <c r="Y29" s="174"/>
+      <c r="Z29" s="174"/>
+      <c r="AA29" s="174"/>
+      <c r="AB29" s="174"/>
+      <c r="AC29" s="174"/>
+      <c r="AD29" s="174"/>
+      <c r="AE29" s="175"/>
+      <c r="AF29" s="170"/>
+      <c r="AG29" s="171"/>
+      <c r="AH29" s="171"/>
+      <c r="AI29" s="172"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="200"/>
-      <c r="C30" s="201"/>
-      <c r="D30" s="202"/>
-      <c r="E30" s="203"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="200"/>
-      <c r="H30" s="205"/>
-      <c r="I30" s="201"/>
-      <c r="J30" s="206"/>
-      <c r="K30" s="207"/>
-      <c r="L30" s="207"/>
-      <c r="M30" s="207"/>
-      <c r="N30" s="207"/>
-      <c r="O30" s="207"/>
-      <c r="P30" s="208"/>
-      <c r="Q30" s="209"/>
-      <c r="R30" s="210"/>
-      <c r="S30" s="210"/>
-      <c r="T30" s="210"/>
-      <c r="U30" s="210"/>
-      <c r="V30" s="210"/>
-      <c r="W30" s="210"/>
-      <c r="X30" s="210"/>
-      <c r="Y30" s="210"/>
-      <c r="Z30" s="210"/>
-      <c r="AA30" s="210"/>
-      <c r="AB30" s="210"/>
-      <c r="AC30" s="210"/>
-      <c r="AD30" s="210"/>
-      <c r="AE30" s="211"/>
-      <c r="AF30" s="206"/>
-      <c r="AG30" s="207"/>
-      <c r="AH30" s="207"/>
-      <c r="AI30" s="208"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="171"/>
+      <c r="L30" s="171"/>
+      <c r="M30" s="171"/>
+      <c r="N30" s="171"/>
+      <c r="O30" s="171"/>
+      <c r="P30" s="172"/>
+      <c r="Q30" s="173"/>
+      <c r="R30" s="174"/>
+      <c r="S30" s="174"/>
+      <c r="T30" s="174"/>
+      <c r="U30" s="174"/>
+      <c r="V30" s="174"/>
+      <c r="W30" s="174"/>
+      <c r="X30" s="174"/>
+      <c r="Y30" s="174"/>
+      <c r="Z30" s="174"/>
+      <c r="AA30" s="174"/>
+      <c r="AB30" s="174"/>
+      <c r="AC30" s="174"/>
+      <c r="AD30" s="174"/>
+      <c r="AE30" s="175"/>
+      <c r="AF30" s="170"/>
+      <c r="AG30" s="171"/>
+      <c r="AH30" s="171"/>
+      <c r="AI30" s="172"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="200"/>
-      <c r="C31" s="201"/>
-      <c r="D31" s="202"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="200"/>
-      <c r="H31" s="205"/>
-      <c r="I31" s="201"/>
-      <c r="J31" s="206"/>
-      <c r="K31" s="207"/>
-      <c r="L31" s="207"/>
-      <c r="M31" s="207"/>
-      <c r="N31" s="207"/>
-      <c r="O31" s="207"/>
-      <c r="P31" s="208"/>
-      <c r="Q31" s="209"/>
-      <c r="R31" s="210"/>
-      <c r="S31" s="210"/>
-      <c r="T31" s="210"/>
-      <c r="U31" s="210"/>
-      <c r="V31" s="210"/>
-      <c r="W31" s="210"/>
-      <c r="X31" s="210"/>
-      <c r="Y31" s="210"/>
-      <c r="Z31" s="210"/>
-      <c r="AA31" s="210"/>
-      <c r="AB31" s="210"/>
-      <c r="AC31" s="210"/>
-      <c r="AD31" s="210"/>
-      <c r="AE31" s="211"/>
-      <c r="AF31" s="206"/>
-      <c r="AG31" s="207"/>
-      <c r="AH31" s="207"/>
-      <c r="AI31" s="208"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="171"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="171"/>
+      <c r="P31" s="172"/>
+      <c r="Q31" s="173"/>
+      <c r="R31" s="174"/>
+      <c r="S31" s="174"/>
+      <c r="T31" s="174"/>
+      <c r="U31" s="174"/>
+      <c r="V31" s="174"/>
+      <c r="W31" s="174"/>
+      <c r="X31" s="174"/>
+      <c r="Y31" s="174"/>
+      <c r="Z31" s="174"/>
+      <c r="AA31" s="174"/>
+      <c r="AB31" s="174"/>
+      <c r="AC31" s="174"/>
+      <c r="AD31" s="174"/>
+      <c r="AE31" s="175"/>
+      <c r="AF31" s="170"/>
+      <c r="AG31" s="171"/>
+      <c r="AH31" s="171"/>
+      <c r="AI31" s="172"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="200"/>
-      <c r="C32" s="201"/>
-      <c r="D32" s="202"/>
-      <c r="E32" s="203"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="200"/>
-      <c r="H32" s="205"/>
-      <c r="I32" s="201"/>
-      <c r="J32" s="206"/>
-      <c r="K32" s="221"/>
-      <c r="L32" s="207"/>
-      <c r="M32" s="207"/>
-      <c r="N32" s="207"/>
-      <c r="O32" s="207"/>
-      <c r="P32" s="208"/>
-      <c r="Q32" s="209"/>
-      <c r="R32" s="210"/>
-      <c r="S32" s="210"/>
-      <c r="T32" s="210"/>
-      <c r="U32" s="210"/>
-      <c r="V32" s="210"/>
-      <c r="W32" s="210"/>
-      <c r="X32" s="210"/>
-      <c r="Y32" s="210"/>
-      <c r="Z32" s="210"/>
-      <c r="AA32" s="210"/>
-      <c r="AB32" s="210"/>
-      <c r="AC32" s="210"/>
-      <c r="AD32" s="210"/>
-      <c r="AE32" s="211"/>
-      <c r="AF32" s="206"/>
-      <c r="AG32" s="207"/>
-      <c r="AH32" s="207"/>
-      <c r="AI32" s="208"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="170"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="171"/>
+      <c r="M32" s="171"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="171"/>
+      <c r="P32" s="172"/>
+      <c r="Q32" s="173"/>
+      <c r="R32" s="174"/>
+      <c r="S32" s="174"/>
+      <c r="T32" s="174"/>
+      <c r="U32" s="174"/>
+      <c r="V32" s="174"/>
+      <c r="W32" s="174"/>
+      <c r="X32" s="174"/>
+      <c r="Y32" s="174"/>
+      <c r="Z32" s="174"/>
+      <c r="AA32" s="174"/>
+      <c r="AB32" s="174"/>
+      <c r="AC32" s="174"/>
+      <c r="AD32" s="174"/>
+      <c r="AE32" s="175"/>
+      <c r="AF32" s="170"/>
+      <c r="AG32" s="171"/>
+      <c r="AH32" s="171"/>
+      <c r="AI32" s="172"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="200"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="200"/>
-      <c r="H33" s="205"/>
-      <c r="I33" s="201"/>
-      <c r="J33" s="206"/>
-      <c r="K33" s="207"/>
-      <c r="L33" s="207"/>
-      <c r="M33" s="207"/>
-      <c r="N33" s="207"/>
-      <c r="O33" s="207"/>
-      <c r="P33" s="208"/>
-      <c r="Q33" s="209"/>
-      <c r="R33" s="210"/>
-      <c r="S33" s="210"/>
-      <c r="T33" s="210"/>
-      <c r="U33" s="210"/>
-      <c r="V33" s="210"/>
-      <c r="W33" s="210"/>
-      <c r="X33" s="210"/>
-      <c r="Y33" s="210"/>
-      <c r="Z33" s="210"/>
-      <c r="AA33" s="210"/>
-      <c r="AB33" s="210"/>
-      <c r="AC33" s="210"/>
-      <c r="AD33" s="210"/>
-      <c r="AE33" s="211"/>
-      <c r="AF33" s="206"/>
-      <c r="AG33" s="207"/>
-      <c r="AH33" s="207"/>
-      <c r="AI33" s="208"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="171"/>
+      <c r="L33" s="171"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="171"/>
+      <c r="P33" s="172"/>
+      <c r="Q33" s="173"/>
+      <c r="R33" s="174"/>
+      <c r="S33" s="174"/>
+      <c r="T33" s="174"/>
+      <c r="U33" s="174"/>
+      <c r="V33" s="174"/>
+      <c r="W33" s="174"/>
+      <c r="X33" s="174"/>
+      <c r="Y33" s="174"/>
+      <c r="Z33" s="174"/>
+      <c r="AA33" s="174"/>
+      <c r="AB33" s="174"/>
+      <c r="AC33" s="174"/>
+      <c r="AD33" s="174"/>
+      <c r="AE33" s="175"/>
+      <c r="AF33" s="170"/>
+      <c r="AG33" s="171"/>
+      <c r="AH33" s="171"/>
+      <c r="AI33" s="172"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12239,6 +12088,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -23921,7 +23925,7 @@
         <v>505</v>
       </c>
       <c r="L43" s="108" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="M43" s="108"/>
       <c r="N43" s="159" t="s">
@@ -24740,7 +24744,7 @@
         <v>568</v>
       </c>
       <c r="L60" s="54" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M60" s="108" t="s">
         <v>599</v>

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10101_顧客検索.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10101_顧客検索.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4103851-4352-4416-A492-61FAC0C1DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D251E2F9-E4E0-447C-A4BE-2D0818136E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="612">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -8062,9 +8062,6 @@
   </si>
   <si>
     <t>testFindIndustryCodeNoClients</t>
-  </si>
-  <si>
-    <t>testFindIndustryCodeNoClients</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -8137,6 +8134,10 @@
   </si>
   <si>
     <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindCodeAndNameUpperLimit()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testFindClientNameNoClients()</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -9185,72 +9186,6 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -9357,6 +9292,72 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10864,57 +10865,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="195" t="s">
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="173" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="201" t="s">
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="210" t="s">
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="188" t="s">
         <v>494</v>
       </c>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="212"/>
-      <c r="AA1" s="192" t="s">
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="219" t="str">
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="197" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="221"/>
-      <c r="AG1" s="186" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="164" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="187"/>
-      <c r="AI1" s="188"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="166"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10922,53 +10923,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="195" t="s">
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173" t="s">
         <v>461</v>
       </c>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="204"/>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="192" t="s">
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="198" t="str">
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="176" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="199"/>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="200"/>
-      <c r="AG2" s="186" t="str">
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="164" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="187"/>
-      <c r="AI2" s="188"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="166"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10976,45 +10977,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="195" t="s">
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="219"/>
-      <c r="AD3" s="220"/>
-      <c r="AE3" s="220"/>
-      <c r="AF3" s="221"/>
-      <c r="AG3" s="186"/>
-      <c r="AH3" s="187"/>
-      <c r="AI3" s="188"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="164"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="166"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -11051,85 +11052,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="189" t="s">
+      <c r="C7" s="168"/>
+      <c r="D7" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="191"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="189" t="s">
+      <c r="E7" s="169"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="191"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="189" t="s">
+      <c r="H7" s="169"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="191"/>
-      <c r="L7" s="191"/>
-      <c r="M7" s="191"/>
-      <c r="N7" s="191"/>
-      <c r="O7" s="191"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="189" t="s">
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="191"/>
-      <c r="S7" s="191"/>
-      <c r="T7" s="191"/>
-      <c r="U7" s="191"/>
-      <c r="V7" s="191"/>
-      <c r="W7" s="191"/>
-      <c r="X7" s="191"/>
-      <c r="Y7" s="191"/>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="191"/>
-      <c r="AB7" s="191"/>
-      <c r="AC7" s="191"/>
-      <c r="AD7" s="191"/>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="189" t="s">
+      <c r="R7" s="169"/>
+      <c r="S7" s="169"/>
+      <c r="T7" s="169"/>
+      <c r="U7" s="169"/>
+      <c r="V7" s="169"/>
+      <c r="W7" s="169"/>
+      <c r="X7" s="169"/>
+      <c r="Y7" s="169"/>
+      <c r="Z7" s="169"/>
+      <c r="AA7" s="169"/>
+      <c r="AB7" s="169"/>
+      <c r="AC7" s="169"/>
+      <c r="AD7" s="169"/>
+      <c r="AE7" s="168"/>
+      <c r="AF7" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="191"/>
-      <c r="AH7" s="191"/>
-      <c r="AI7" s="190"/>
+      <c r="AG7" s="169"/>
+      <c r="AH7" s="169"/>
+      <c r="AI7" s="168"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="183"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="184"/>
-      <c r="W8" s="184"/>
-      <c r="X8" s="184"/>
-      <c r="Y8" s="184"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184"/>
-      <c r="AC8" s="184"/>
-      <c r="AD8" s="184"/>
-      <c r="AE8" s="185"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="217"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="219"/>
+      <c r="L8" s="219"/>
+      <c r="M8" s="219"/>
+      <c r="N8" s="219"/>
+      <c r="O8" s="219"/>
+      <c r="P8" s="220"/>
+      <c r="Q8" s="218"/>
+      <c r="R8" s="219"/>
+      <c r="S8" s="219"/>
+      <c r="T8" s="219"/>
+      <c r="U8" s="219"/>
+      <c r="V8" s="219"/>
+      <c r="W8" s="219"/>
+      <c r="X8" s="219"/>
+      <c r="Y8" s="219"/>
+      <c r="Z8" s="219"/>
+      <c r="AA8" s="219"/>
+      <c r="AB8" s="219"/>
+      <c r="AC8" s="219"/>
+      <c r="AD8" s="219"/>
+      <c r="AE8" s="220"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -11137,934 +11138,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="171"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="174"/>
-      <c r="S9" s="174"/>
-      <c r="T9" s="174"/>
-      <c r="U9" s="174"/>
-      <c r="V9" s="174"/>
-      <c r="W9" s="174"/>
-      <c r="X9" s="174"/>
-      <c r="Y9" s="174"/>
-      <c r="Z9" s="174"/>
-      <c r="AA9" s="174"/>
-      <c r="AB9" s="174"/>
-      <c r="AC9" s="174"/>
-      <c r="AD9" s="174"/>
-      <c r="AE9" s="175"/>
-      <c r="AF9" s="170"/>
-      <c r="AG9" s="171"/>
-      <c r="AH9" s="171"/>
-      <c r="AI9" s="172"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="207"/>
+      <c r="P9" s="208"/>
+      <c r="Q9" s="209"/>
+      <c r="R9" s="210"/>
+      <c r="S9" s="210"/>
+      <c r="T9" s="210"/>
+      <c r="U9" s="210"/>
+      <c r="V9" s="210"/>
+      <c r="W9" s="210"/>
+      <c r="X9" s="210"/>
+      <c r="Y9" s="210"/>
+      <c r="Z9" s="210"/>
+      <c r="AA9" s="210"/>
+      <c r="AB9" s="210"/>
+      <c r="AC9" s="210"/>
+      <c r="AD9" s="210"/>
+      <c r="AE9" s="211"/>
+      <c r="AF9" s="206"/>
+      <c r="AG9" s="207"/>
+      <c r="AH9" s="207"/>
+      <c r="AI9" s="208"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="171"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="174"/>
-      <c r="T10" s="174"/>
-      <c r="U10" s="174"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="174"/>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="174"/>
-      <c r="AC10" s="174"/>
-      <c r="AD10" s="174"/>
-      <c r="AE10" s="175"/>
-      <c r="AF10" s="170"/>
-      <c r="AG10" s="171"/>
-      <c r="AH10" s="171"/>
-      <c r="AI10" s="172"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="206"/>
+      <c r="K10" s="207"/>
+      <c r="L10" s="207"/>
+      <c r="M10" s="207"/>
+      <c r="N10" s="207"/>
+      <c r="O10" s="207"/>
+      <c r="P10" s="208"/>
+      <c r="Q10" s="209"/>
+      <c r="R10" s="210"/>
+      <c r="S10" s="210"/>
+      <c r="T10" s="210"/>
+      <c r="U10" s="210"/>
+      <c r="V10" s="210"/>
+      <c r="W10" s="210"/>
+      <c r="X10" s="210"/>
+      <c r="Y10" s="210"/>
+      <c r="Z10" s="210"/>
+      <c r="AA10" s="210"/>
+      <c r="AB10" s="210"/>
+      <c r="AC10" s="210"/>
+      <c r="AD10" s="210"/>
+      <c r="AE10" s="211"/>
+      <c r="AF10" s="206"/>
+      <c r="AG10" s="207"/>
+      <c r="AH10" s="207"/>
+      <c r="AI10" s="208"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="171"/>
-      <c r="M11" s="171"/>
-      <c r="N11" s="171"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="174"/>
-      <c r="S11" s="174"/>
-      <c r="T11" s="174"/>
-      <c r="U11" s="174"/>
-      <c r="V11" s="174"/>
-      <c r="W11" s="174"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="174"/>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="174"/>
-      <c r="AB11" s="174"/>
-      <c r="AC11" s="174"/>
-      <c r="AD11" s="174"/>
-      <c r="AE11" s="175"/>
-      <c r="AF11" s="170"/>
-      <c r="AG11" s="171"/>
-      <c r="AH11" s="171"/>
-      <c r="AI11" s="172"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="207"/>
+      <c r="L11" s="207"/>
+      <c r="M11" s="207"/>
+      <c r="N11" s="207"/>
+      <c r="O11" s="207"/>
+      <c r="P11" s="208"/>
+      <c r="Q11" s="209"/>
+      <c r="R11" s="210"/>
+      <c r="S11" s="210"/>
+      <c r="T11" s="210"/>
+      <c r="U11" s="210"/>
+      <c r="V11" s="210"/>
+      <c r="W11" s="210"/>
+      <c r="X11" s="210"/>
+      <c r="Y11" s="210"/>
+      <c r="Z11" s="210"/>
+      <c r="AA11" s="210"/>
+      <c r="AB11" s="210"/>
+      <c r="AC11" s="210"/>
+      <c r="AD11" s="210"/>
+      <c r="AE11" s="211"/>
+      <c r="AF11" s="206"/>
+      <c r="AG11" s="207"/>
+      <c r="AH11" s="207"/>
+      <c r="AI11" s="208"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="171"/>
-      <c r="N12" s="171"/>
-      <c r="O12" s="171"/>
-      <c r="P12" s="172"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="174"/>
-      <c r="S12" s="174"/>
-      <c r="T12" s="174"/>
-      <c r="U12" s="174"/>
-      <c r="V12" s="174"/>
-      <c r="W12" s="174"/>
-      <c r="X12" s="174"/>
-      <c r="Y12" s="174"/>
-      <c r="Z12" s="174"/>
-      <c r="AA12" s="174"/>
-      <c r="AB12" s="174"/>
-      <c r="AC12" s="174"/>
-      <c r="AD12" s="174"/>
-      <c r="AE12" s="175"/>
-      <c r="AF12" s="170"/>
-      <c r="AG12" s="171"/>
-      <c r="AH12" s="171"/>
-      <c r="AI12" s="172"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="204"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="205"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="206"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="207"/>
+      <c r="M12" s="207"/>
+      <c r="N12" s="207"/>
+      <c r="O12" s="207"/>
+      <c r="P12" s="208"/>
+      <c r="Q12" s="209"/>
+      <c r="R12" s="210"/>
+      <c r="S12" s="210"/>
+      <c r="T12" s="210"/>
+      <c r="U12" s="210"/>
+      <c r="V12" s="210"/>
+      <c r="W12" s="210"/>
+      <c r="X12" s="210"/>
+      <c r="Y12" s="210"/>
+      <c r="Z12" s="210"/>
+      <c r="AA12" s="210"/>
+      <c r="AB12" s="210"/>
+      <c r="AC12" s="210"/>
+      <c r="AD12" s="210"/>
+      <c r="AE12" s="211"/>
+      <c r="AF12" s="206"/>
+      <c r="AG12" s="207"/>
+      <c r="AH12" s="207"/>
+      <c r="AI12" s="208"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="171"/>
-      <c r="N13" s="171"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="172"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="174"/>
-      <c r="S13" s="174"/>
-      <c r="T13" s="174"/>
-      <c r="U13" s="174"/>
-      <c r="V13" s="174"/>
-      <c r="W13" s="174"/>
-      <c r="X13" s="174"/>
-      <c r="Y13" s="174"/>
-      <c r="Z13" s="174"/>
-      <c r="AA13" s="174"/>
-      <c r="AB13" s="174"/>
-      <c r="AC13" s="174"/>
-      <c r="AD13" s="174"/>
-      <c r="AE13" s="175"/>
-      <c r="AF13" s="170"/>
-      <c r="AG13" s="171"/>
-      <c r="AH13" s="171"/>
-      <c r="AI13" s="172"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="205"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="206"/>
+      <c r="K13" s="207"/>
+      <c r="L13" s="207"/>
+      <c r="M13" s="207"/>
+      <c r="N13" s="207"/>
+      <c r="O13" s="207"/>
+      <c r="P13" s="208"/>
+      <c r="Q13" s="209"/>
+      <c r="R13" s="210"/>
+      <c r="S13" s="210"/>
+      <c r="T13" s="210"/>
+      <c r="U13" s="210"/>
+      <c r="V13" s="210"/>
+      <c r="W13" s="210"/>
+      <c r="X13" s="210"/>
+      <c r="Y13" s="210"/>
+      <c r="Z13" s="210"/>
+      <c r="AA13" s="210"/>
+      <c r="AB13" s="210"/>
+      <c r="AC13" s="210"/>
+      <c r="AD13" s="210"/>
+      <c r="AE13" s="211"/>
+      <c r="AF13" s="206"/>
+      <c r="AG13" s="207"/>
+      <c r="AH13" s="207"/>
+      <c r="AI13" s="208"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="164"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="171"/>
-      <c r="P14" s="172"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="174"/>
-      <c r="S14" s="174"/>
-      <c r="T14" s="174"/>
-      <c r="U14" s="174"/>
-      <c r="V14" s="174"/>
-      <c r="W14" s="174"/>
-      <c r="X14" s="174"/>
-      <c r="Y14" s="174"/>
-      <c r="Z14" s="174"/>
-      <c r="AA14" s="174"/>
-      <c r="AB14" s="174"/>
-      <c r="AC14" s="174"/>
-      <c r="AD14" s="174"/>
-      <c r="AE14" s="175"/>
-      <c r="AF14" s="170"/>
-      <c r="AG14" s="171"/>
-      <c r="AH14" s="171"/>
-      <c r="AI14" s="172"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="207"/>
+      <c r="L14" s="207"/>
+      <c r="M14" s="207"/>
+      <c r="N14" s="207"/>
+      <c r="O14" s="207"/>
+      <c r="P14" s="208"/>
+      <c r="Q14" s="209"/>
+      <c r="R14" s="210"/>
+      <c r="S14" s="210"/>
+      <c r="T14" s="210"/>
+      <c r="U14" s="210"/>
+      <c r="V14" s="210"/>
+      <c r="W14" s="210"/>
+      <c r="X14" s="210"/>
+      <c r="Y14" s="210"/>
+      <c r="Z14" s="210"/>
+      <c r="AA14" s="210"/>
+      <c r="AB14" s="210"/>
+      <c r="AC14" s="210"/>
+      <c r="AD14" s="210"/>
+      <c r="AE14" s="211"/>
+      <c r="AF14" s="206"/>
+      <c r="AG14" s="207"/>
+      <c r="AH14" s="207"/>
+      <c r="AI14" s="208"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="171"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="172"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="174"/>
-      <c r="T15" s="174"/>
-      <c r="U15" s="174"/>
-      <c r="V15" s="174"/>
-      <c r="W15" s="174"/>
-      <c r="X15" s="174"/>
-      <c r="Y15" s="174"/>
-      <c r="Z15" s="174"/>
-      <c r="AA15" s="174"/>
-      <c r="AB15" s="174"/>
-      <c r="AC15" s="174"/>
-      <c r="AD15" s="174"/>
-      <c r="AE15" s="175"/>
-      <c r="AF15" s="170"/>
-      <c r="AG15" s="171"/>
-      <c r="AH15" s="171"/>
-      <c r="AI15" s="172"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="205"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="206"/>
+      <c r="K15" s="207"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
+      <c r="P15" s="208"/>
+      <c r="Q15" s="209"/>
+      <c r="R15" s="210"/>
+      <c r="S15" s="210"/>
+      <c r="T15" s="210"/>
+      <c r="U15" s="210"/>
+      <c r="V15" s="210"/>
+      <c r="W15" s="210"/>
+      <c r="X15" s="210"/>
+      <c r="Y15" s="210"/>
+      <c r="Z15" s="210"/>
+      <c r="AA15" s="210"/>
+      <c r="AB15" s="210"/>
+      <c r="AC15" s="210"/>
+      <c r="AD15" s="210"/>
+      <c r="AE15" s="211"/>
+      <c r="AF15" s="206"/>
+      <c r="AG15" s="207"/>
+      <c r="AH15" s="207"/>
+      <c r="AI15" s="208"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="171"/>
-      <c r="P16" s="172"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="174"/>
-      <c r="T16" s="174"/>
-      <c r="U16" s="174"/>
-      <c r="V16" s="174"/>
-      <c r="W16" s="174"/>
-      <c r="X16" s="174"/>
-      <c r="Y16" s="174"/>
-      <c r="Z16" s="174"/>
-      <c r="AA16" s="174"/>
-      <c r="AB16" s="174"/>
-      <c r="AC16" s="174"/>
-      <c r="AD16" s="174"/>
-      <c r="AE16" s="175"/>
-      <c r="AF16" s="170"/>
-      <c r="AG16" s="171"/>
-      <c r="AH16" s="171"/>
-      <c r="AI16" s="172"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="207"/>
+      <c r="L16" s="207"/>
+      <c r="M16" s="207"/>
+      <c r="N16" s="207"/>
+      <c r="O16" s="207"/>
+      <c r="P16" s="208"/>
+      <c r="Q16" s="209"/>
+      <c r="R16" s="210"/>
+      <c r="S16" s="210"/>
+      <c r="T16" s="210"/>
+      <c r="U16" s="210"/>
+      <c r="V16" s="210"/>
+      <c r="W16" s="210"/>
+      <c r="X16" s="210"/>
+      <c r="Y16" s="210"/>
+      <c r="Z16" s="210"/>
+      <c r="AA16" s="210"/>
+      <c r="AB16" s="210"/>
+      <c r="AC16" s="210"/>
+      <c r="AD16" s="210"/>
+      <c r="AE16" s="211"/>
+      <c r="AF16" s="206"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="207"/>
+      <c r="AI16" s="208"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="164"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="171"/>
-      <c r="P17" s="172"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="174"/>
-      <c r="S17" s="174"/>
-      <c r="T17" s="174"/>
-      <c r="U17" s="174"/>
-      <c r="V17" s="174"/>
-      <c r="W17" s="174"/>
-      <c r="X17" s="174"/>
-      <c r="Y17" s="174"/>
-      <c r="Z17" s="174"/>
-      <c r="AA17" s="174"/>
-      <c r="AB17" s="174"/>
-      <c r="AC17" s="174"/>
-      <c r="AD17" s="174"/>
-      <c r="AE17" s="175"/>
-      <c r="AF17" s="170"/>
-      <c r="AG17" s="171"/>
-      <c r="AH17" s="171"/>
-      <c r="AI17" s="172"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="205"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="207"/>
+      <c r="L17" s="207"/>
+      <c r="M17" s="207"/>
+      <c r="N17" s="207"/>
+      <c r="O17" s="207"/>
+      <c r="P17" s="208"/>
+      <c r="Q17" s="209"/>
+      <c r="R17" s="210"/>
+      <c r="S17" s="210"/>
+      <c r="T17" s="210"/>
+      <c r="U17" s="210"/>
+      <c r="V17" s="210"/>
+      <c r="W17" s="210"/>
+      <c r="X17" s="210"/>
+      <c r="Y17" s="210"/>
+      <c r="Z17" s="210"/>
+      <c r="AA17" s="210"/>
+      <c r="AB17" s="210"/>
+      <c r="AC17" s="210"/>
+      <c r="AD17" s="210"/>
+      <c r="AE17" s="211"/>
+      <c r="AF17" s="206"/>
+      <c r="AG17" s="207"/>
+      <c r="AH17" s="207"/>
+      <c r="AI17" s="208"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="171"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="174"/>
-      <c r="T18" s="174"/>
-      <c r="U18" s="174"/>
-      <c r="V18" s="174"/>
-      <c r="W18" s="174"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="174"/>
-      <c r="Z18" s="174"/>
-      <c r="AA18" s="174"/>
-      <c r="AB18" s="174"/>
-      <c r="AC18" s="174"/>
-      <c r="AD18" s="174"/>
-      <c r="AE18" s="175"/>
-      <c r="AF18" s="170"/>
-      <c r="AG18" s="171"/>
-      <c r="AH18" s="171"/>
-      <c r="AI18" s="172"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="207"/>
+      <c r="L18" s="207"/>
+      <c r="M18" s="207"/>
+      <c r="N18" s="207"/>
+      <c r="O18" s="207"/>
+      <c r="P18" s="208"/>
+      <c r="Q18" s="209"/>
+      <c r="R18" s="210"/>
+      <c r="S18" s="210"/>
+      <c r="T18" s="210"/>
+      <c r="U18" s="210"/>
+      <c r="V18" s="210"/>
+      <c r="W18" s="210"/>
+      <c r="X18" s="210"/>
+      <c r="Y18" s="210"/>
+      <c r="Z18" s="210"/>
+      <c r="AA18" s="210"/>
+      <c r="AB18" s="210"/>
+      <c r="AC18" s="210"/>
+      <c r="AD18" s="210"/>
+      <c r="AE18" s="211"/>
+      <c r="AF18" s="206"/>
+      <c r="AG18" s="207"/>
+      <c r="AH18" s="207"/>
+      <c r="AI18" s="208"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="171"/>
-      <c r="M19" s="171"/>
-      <c r="N19" s="171"/>
-      <c r="O19" s="171"/>
-      <c r="P19" s="172"/>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="174"/>
-      <c r="S19" s="174"/>
-      <c r="T19" s="174"/>
-      <c r="U19" s="174"/>
-      <c r="V19" s="174"/>
-      <c r="W19" s="174"/>
-      <c r="X19" s="174"/>
-      <c r="Y19" s="174"/>
-      <c r="Z19" s="174"/>
-      <c r="AA19" s="174"/>
-      <c r="AB19" s="174"/>
-      <c r="AC19" s="174"/>
-      <c r="AD19" s="174"/>
-      <c r="AE19" s="175"/>
-      <c r="AF19" s="170"/>
-      <c r="AG19" s="171"/>
-      <c r="AH19" s="171"/>
-      <c r="AI19" s="172"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="207"/>
+      <c r="L19" s="207"/>
+      <c r="M19" s="207"/>
+      <c r="N19" s="207"/>
+      <c r="O19" s="207"/>
+      <c r="P19" s="208"/>
+      <c r="Q19" s="209"/>
+      <c r="R19" s="210"/>
+      <c r="S19" s="210"/>
+      <c r="T19" s="210"/>
+      <c r="U19" s="210"/>
+      <c r="V19" s="210"/>
+      <c r="W19" s="210"/>
+      <c r="X19" s="210"/>
+      <c r="Y19" s="210"/>
+      <c r="Z19" s="210"/>
+      <c r="AA19" s="210"/>
+      <c r="AB19" s="210"/>
+      <c r="AC19" s="210"/>
+      <c r="AD19" s="210"/>
+      <c r="AE19" s="211"/>
+      <c r="AF19" s="206"/>
+      <c r="AG19" s="207"/>
+      <c r="AH19" s="207"/>
+      <c r="AI19" s="208"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="171"/>
-      <c r="P20" s="172"/>
-      <c r="Q20" s="173"/>
-      <c r="R20" s="174"/>
-      <c r="S20" s="174"/>
-      <c r="T20" s="174"/>
-      <c r="U20" s="174"/>
-      <c r="V20" s="174"/>
-      <c r="W20" s="174"/>
-      <c r="X20" s="174"/>
-      <c r="Y20" s="174"/>
-      <c r="Z20" s="174"/>
-      <c r="AA20" s="174"/>
-      <c r="AB20" s="174"/>
-      <c r="AC20" s="174"/>
-      <c r="AD20" s="174"/>
-      <c r="AE20" s="175"/>
-      <c r="AF20" s="170"/>
-      <c r="AG20" s="171"/>
-      <c r="AH20" s="171"/>
-      <c r="AI20" s="172"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="207"/>
+      <c r="L20" s="207"/>
+      <c r="M20" s="207"/>
+      <c r="N20" s="207"/>
+      <c r="O20" s="207"/>
+      <c r="P20" s="208"/>
+      <c r="Q20" s="209"/>
+      <c r="R20" s="210"/>
+      <c r="S20" s="210"/>
+      <c r="T20" s="210"/>
+      <c r="U20" s="210"/>
+      <c r="V20" s="210"/>
+      <c r="W20" s="210"/>
+      <c r="X20" s="210"/>
+      <c r="Y20" s="210"/>
+      <c r="Z20" s="210"/>
+      <c r="AA20" s="210"/>
+      <c r="AB20" s="210"/>
+      <c r="AC20" s="210"/>
+      <c r="AD20" s="210"/>
+      <c r="AE20" s="211"/>
+      <c r="AF20" s="206"/>
+      <c r="AG20" s="207"/>
+      <c r="AH20" s="207"/>
+      <c r="AI20" s="208"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="164"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="171"/>
-      <c r="P21" s="172"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="174"/>
-      <c r="S21" s="174"/>
-      <c r="T21" s="174"/>
-      <c r="U21" s="174"/>
-      <c r="V21" s="174"/>
-      <c r="W21" s="174"/>
-      <c r="X21" s="174"/>
-      <c r="Y21" s="174"/>
-      <c r="Z21" s="174"/>
-      <c r="AA21" s="174"/>
-      <c r="AB21" s="174"/>
-      <c r="AC21" s="174"/>
-      <c r="AD21" s="174"/>
-      <c r="AE21" s="175"/>
-      <c r="AF21" s="170"/>
-      <c r="AG21" s="171"/>
-      <c r="AH21" s="171"/>
-      <c r="AI21" s="172"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="202"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="207"/>
+      <c r="L21" s="207"/>
+      <c r="M21" s="207"/>
+      <c r="N21" s="207"/>
+      <c r="O21" s="207"/>
+      <c r="P21" s="208"/>
+      <c r="Q21" s="209"/>
+      <c r="R21" s="210"/>
+      <c r="S21" s="210"/>
+      <c r="T21" s="210"/>
+      <c r="U21" s="210"/>
+      <c r="V21" s="210"/>
+      <c r="W21" s="210"/>
+      <c r="X21" s="210"/>
+      <c r="Y21" s="210"/>
+      <c r="Z21" s="210"/>
+      <c r="AA21" s="210"/>
+      <c r="AB21" s="210"/>
+      <c r="AC21" s="210"/>
+      <c r="AD21" s="210"/>
+      <c r="AE21" s="211"/>
+      <c r="AF21" s="206"/>
+      <c r="AG21" s="207"/>
+      <c r="AH21" s="207"/>
+      <c r="AI21" s="208"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="171"/>
-      <c r="P22" s="172"/>
-      <c r="Q22" s="173"/>
-      <c r="R22" s="174"/>
-      <c r="S22" s="174"/>
-      <c r="T22" s="174"/>
-      <c r="U22" s="174"/>
-      <c r="V22" s="174"/>
-      <c r="W22" s="174"/>
-      <c r="X22" s="174"/>
-      <c r="Y22" s="174"/>
-      <c r="Z22" s="174"/>
-      <c r="AA22" s="174"/>
-      <c r="AB22" s="174"/>
-      <c r="AC22" s="174"/>
-      <c r="AD22" s="174"/>
-      <c r="AE22" s="175"/>
-      <c r="AF22" s="170"/>
-      <c r="AG22" s="171"/>
-      <c r="AH22" s="171"/>
-      <c r="AI22" s="172"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="206"/>
+      <c r="K22" s="207"/>
+      <c r="L22" s="207"/>
+      <c r="M22" s="207"/>
+      <c r="N22" s="207"/>
+      <c r="O22" s="207"/>
+      <c r="P22" s="208"/>
+      <c r="Q22" s="209"/>
+      <c r="R22" s="210"/>
+      <c r="S22" s="210"/>
+      <c r="T22" s="210"/>
+      <c r="U22" s="210"/>
+      <c r="V22" s="210"/>
+      <c r="W22" s="210"/>
+      <c r="X22" s="210"/>
+      <c r="Y22" s="210"/>
+      <c r="Z22" s="210"/>
+      <c r="AA22" s="210"/>
+      <c r="AB22" s="210"/>
+      <c r="AC22" s="210"/>
+      <c r="AD22" s="210"/>
+      <c r="AE22" s="211"/>
+      <c r="AF22" s="206"/>
+      <c r="AG22" s="207"/>
+      <c r="AH22" s="207"/>
+      <c r="AI22" s="208"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="171"/>
-      <c r="N23" s="171"/>
-      <c r="O23" s="171"/>
-      <c r="P23" s="172"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="174"/>
-      <c r="S23" s="174"/>
-      <c r="T23" s="174"/>
-      <c r="U23" s="174"/>
-      <c r="V23" s="174"/>
-      <c r="W23" s="174"/>
-      <c r="X23" s="174"/>
-      <c r="Y23" s="174"/>
-      <c r="Z23" s="174"/>
-      <c r="AA23" s="174"/>
-      <c r="AB23" s="174"/>
-      <c r="AC23" s="174"/>
-      <c r="AD23" s="174"/>
-      <c r="AE23" s="175"/>
-      <c r="AF23" s="170"/>
-      <c r="AG23" s="171"/>
-      <c r="AH23" s="171"/>
-      <c r="AI23" s="172"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="206"/>
+      <c r="K23" s="207"/>
+      <c r="L23" s="207"/>
+      <c r="M23" s="207"/>
+      <c r="N23" s="207"/>
+      <c r="O23" s="207"/>
+      <c r="P23" s="208"/>
+      <c r="Q23" s="209"/>
+      <c r="R23" s="210"/>
+      <c r="S23" s="210"/>
+      <c r="T23" s="210"/>
+      <c r="U23" s="210"/>
+      <c r="V23" s="210"/>
+      <c r="W23" s="210"/>
+      <c r="X23" s="210"/>
+      <c r="Y23" s="210"/>
+      <c r="Z23" s="210"/>
+      <c r="AA23" s="210"/>
+      <c r="AB23" s="210"/>
+      <c r="AC23" s="210"/>
+      <c r="AD23" s="210"/>
+      <c r="AE23" s="211"/>
+      <c r="AF23" s="206"/>
+      <c r="AG23" s="207"/>
+      <c r="AH23" s="207"/>
+      <c r="AI23" s="208"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="164"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="171"/>
-      <c r="N24" s="171"/>
-      <c r="O24" s="171"/>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="173"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="174"/>
-      <c r="U24" s="174"/>
-      <c r="V24" s="174"/>
-      <c r="W24" s="174"/>
-      <c r="X24" s="174"/>
-      <c r="Y24" s="174"/>
-      <c r="Z24" s="174"/>
-      <c r="AA24" s="174"/>
-      <c r="AB24" s="174"/>
-      <c r="AC24" s="174"/>
-      <c r="AD24" s="174"/>
-      <c r="AE24" s="175"/>
-      <c r="AF24" s="170"/>
-      <c r="AG24" s="171"/>
-      <c r="AH24" s="171"/>
-      <c r="AI24" s="172"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="206"/>
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
+      <c r="M24" s="207"/>
+      <c r="N24" s="207"/>
+      <c r="O24" s="207"/>
+      <c r="P24" s="208"/>
+      <c r="Q24" s="209"/>
+      <c r="R24" s="210"/>
+      <c r="S24" s="210"/>
+      <c r="T24" s="210"/>
+      <c r="U24" s="210"/>
+      <c r="V24" s="210"/>
+      <c r="W24" s="210"/>
+      <c r="X24" s="210"/>
+      <c r="Y24" s="210"/>
+      <c r="Z24" s="210"/>
+      <c r="AA24" s="210"/>
+      <c r="AB24" s="210"/>
+      <c r="AC24" s="210"/>
+      <c r="AD24" s="210"/>
+      <c r="AE24" s="211"/>
+      <c r="AF24" s="206"/>
+      <c r="AG24" s="207"/>
+      <c r="AH24" s="207"/>
+      <c r="AI24" s="208"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="164"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="171"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="171"/>
-      <c r="N25" s="171"/>
-      <c r="O25" s="171"/>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="173"/>
-      <c r="R25" s="174"/>
-      <c r="S25" s="174"/>
-      <c r="T25" s="174"/>
-      <c r="U25" s="174"/>
-      <c r="V25" s="174"/>
-      <c r="W25" s="174"/>
-      <c r="X25" s="174"/>
-      <c r="Y25" s="174"/>
-      <c r="Z25" s="174"/>
-      <c r="AA25" s="174"/>
-      <c r="AB25" s="174"/>
-      <c r="AC25" s="174"/>
-      <c r="AD25" s="174"/>
-      <c r="AE25" s="175"/>
-      <c r="AF25" s="170"/>
-      <c r="AG25" s="171"/>
-      <c r="AH25" s="171"/>
-      <c r="AI25" s="172"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="207"/>
+      <c r="L25" s="207"/>
+      <c r="M25" s="207"/>
+      <c r="N25" s="207"/>
+      <c r="O25" s="207"/>
+      <c r="P25" s="208"/>
+      <c r="Q25" s="209"/>
+      <c r="R25" s="210"/>
+      <c r="S25" s="210"/>
+      <c r="T25" s="210"/>
+      <c r="U25" s="210"/>
+      <c r="V25" s="210"/>
+      <c r="W25" s="210"/>
+      <c r="X25" s="210"/>
+      <c r="Y25" s="210"/>
+      <c r="Z25" s="210"/>
+      <c r="AA25" s="210"/>
+      <c r="AB25" s="210"/>
+      <c r="AC25" s="210"/>
+      <c r="AD25" s="210"/>
+      <c r="AE25" s="211"/>
+      <c r="AF25" s="206"/>
+      <c r="AG25" s="207"/>
+      <c r="AH25" s="207"/>
+      <c r="AI25" s="208"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="171"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="171"/>
-      <c r="O26" s="171"/>
-      <c r="P26" s="172"/>
-      <c r="Q26" s="173"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="174"/>
-      <c r="T26" s="174"/>
-      <c r="U26" s="174"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="174"/>
-      <c r="X26" s="174"/>
-      <c r="Y26" s="174"/>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="174"/>
-      <c r="AB26" s="174"/>
-      <c r="AC26" s="174"/>
-      <c r="AD26" s="174"/>
-      <c r="AE26" s="175"/>
-      <c r="AF26" s="170"/>
-      <c r="AG26" s="171"/>
-      <c r="AH26" s="171"/>
-      <c r="AI26" s="172"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="207"/>
+      <c r="L26" s="207"/>
+      <c r="M26" s="207"/>
+      <c r="N26" s="207"/>
+      <c r="O26" s="207"/>
+      <c r="P26" s="208"/>
+      <c r="Q26" s="209"/>
+      <c r="R26" s="210"/>
+      <c r="S26" s="210"/>
+      <c r="T26" s="210"/>
+      <c r="U26" s="210"/>
+      <c r="V26" s="210"/>
+      <c r="W26" s="210"/>
+      <c r="X26" s="210"/>
+      <c r="Y26" s="210"/>
+      <c r="Z26" s="210"/>
+      <c r="AA26" s="210"/>
+      <c r="AB26" s="210"/>
+      <c r="AC26" s="210"/>
+      <c r="AD26" s="210"/>
+      <c r="AE26" s="211"/>
+      <c r="AF26" s="206"/>
+      <c r="AG26" s="207"/>
+      <c r="AH26" s="207"/>
+      <c r="AI26" s="208"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="171"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="171"/>
-      <c r="O27" s="171"/>
-      <c r="P27" s="172"/>
-      <c r="Q27" s="173"/>
-      <c r="R27" s="174"/>
-      <c r="S27" s="174"/>
-      <c r="T27" s="174"/>
-      <c r="U27" s="174"/>
-      <c r="V27" s="174"/>
-      <c r="W27" s="174"/>
-      <c r="X27" s="174"/>
-      <c r="Y27" s="174"/>
-      <c r="Z27" s="174"/>
-      <c r="AA27" s="174"/>
-      <c r="AB27" s="174"/>
-      <c r="AC27" s="174"/>
-      <c r="AD27" s="174"/>
-      <c r="AE27" s="175"/>
-      <c r="AF27" s="170"/>
-      <c r="AG27" s="171"/>
-      <c r="AH27" s="171"/>
-      <c r="AI27" s="172"/>
+      <c r="B27" s="200"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="204"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="206"/>
+      <c r="K27" s="207"/>
+      <c r="L27" s="207"/>
+      <c r="M27" s="207"/>
+      <c r="N27" s="207"/>
+      <c r="O27" s="207"/>
+      <c r="P27" s="208"/>
+      <c r="Q27" s="209"/>
+      <c r="R27" s="210"/>
+      <c r="S27" s="210"/>
+      <c r="T27" s="210"/>
+      <c r="U27" s="210"/>
+      <c r="V27" s="210"/>
+      <c r="W27" s="210"/>
+      <c r="X27" s="210"/>
+      <c r="Y27" s="210"/>
+      <c r="Z27" s="210"/>
+      <c r="AA27" s="210"/>
+      <c r="AB27" s="210"/>
+      <c r="AC27" s="210"/>
+      <c r="AD27" s="210"/>
+      <c r="AE27" s="211"/>
+      <c r="AF27" s="206"/>
+      <c r="AG27" s="207"/>
+      <c r="AH27" s="207"/>
+      <c r="AI27" s="208"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="171"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="171"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="171"/>
-      <c r="P28" s="172"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="174"/>
-      <c r="S28" s="174"/>
-      <c r="T28" s="174"/>
-      <c r="U28" s="174"/>
-      <c r="V28" s="174"/>
-      <c r="W28" s="174"/>
-      <c r="X28" s="174"/>
-      <c r="Y28" s="174"/>
-      <c r="Z28" s="174"/>
-      <c r="AA28" s="174"/>
-      <c r="AB28" s="174"/>
-      <c r="AC28" s="174"/>
-      <c r="AD28" s="174"/>
-      <c r="AE28" s="175"/>
-      <c r="AF28" s="170"/>
-      <c r="AG28" s="171"/>
-      <c r="AH28" s="171"/>
-      <c r="AI28" s="172"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="205"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="206"/>
+      <c r="K28" s="207"/>
+      <c r="L28" s="207"/>
+      <c r="M28" s="207"/>
+      <c r="N28" s="207"/>
+      <c r="O28" s="207"/>
+      <c r="P28" s="208"/>
+      <c r="Q28" s="209"/>
+      <c r="R28" s="210"/>
+      <c r="S28" s="210"/>
+      <c r="T28" s="210"/>
+      <c r="U28" s="210"/>
+      <c r="V28" s="210"/>
+      <c r="W28" s="210"/>
+      <c r="X28" s="210"/>
+      <c r="Y28" s="210"/>
+      <c r="Z28" s="210"/>
+      <c r="AA28" s="210"/>
+      <c r="AB28" s="210"/>
+      <c r="AC28" s="210"/>
+      <c r="AD28" s="210"/>
+      <c r="AE28" s="211"/>
+      <c r="AF28" s="206"/>
+      <c r="AG28" s="207"/>
+      <c r="AH28" s="207"/>
+      <c r="AI28" s="208"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="171"/>
-      <c r="M29" s="171"/>
-      <c r="N29" s="171"/>
-      <c r="O29" s="171"/>
-      <c r="P29" s="172"/>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="174"/>
-      <c r="S29" s="174"/>
-      <c r="T29" s="174"/>
-      <c r="U29" s="174"/>
-      <c r="V29" s="174"/>
-      <c r="W29" s="174"/>
-      <c r="X29" s="174"/>
-      <c r="Y29" s="174"/>
-      <c r="Z29" s="174"/>
-      <c r="AA29" s="174"/>
-      <c r="AB29" s="174"/>
-      <c r="AC29" s="174"/>
-      <c r="AD29" s="174"/>
-      <c r="AE29" s="175"/>
-      <c r="AF29" s="170"/>
-      <c r="AG29" s="171"/>
-      <c r="AH29" s="171"/>
-      <c r="AI29" s="172"/>
+      <c r="B29" s="200"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="205"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="206"/>
+      <c r="K29" s="207"/>
+      <c r="L29" s="207"/>
+      <c r="M29" s="207"/>
+      <c r="N29" s="207"/>
+      <c r="O29" s="207"/>
+      <c r="P29" s="208"/>
+      <c r="Q29" s="209"/>
+      <c r="R29" s="210"/>
+      <c r="S29" s="210"/>
+      <c r="T29" s="210"/>
+      <c r="U29" s="210"/>
+      <c r="V29" s="210"/>
+      <c r="W29" s="210"/>
+      <c r="X29" s="210"/>
+      <c r="Y29" s="210"/>
+      <c r="Z29" s="210"/>
+      <c r="AA29" s="210"/>
+      <c r="AB29" s="210"/>
+      <c r="AC29" s="210"/>
+      <c r="AD29" s="210"/>
+      <c r="AE29" s="211"/>
+      <c r="AF29" s="206"/>
+      <c r="AG29" s="207"/>
+      <c r="AH29" s="207"/>
+      <c r="AI29" s="208"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="171"/>
-      <c r="O30" s="171"/>
-      <c r="P30" s="172"/>
-      <c r="Q30" s="173"/>
-      <c r="R30" s="174"/>
-      <c r="S30" s="174"/>
-      <c r="T30" s="174"/>
-      <c r="U30" s="174"/>
-      <c r="V30" s="174"/>
-      <c r="W30" s="174"/>
-      <c r="X30" s="174"/>
-      <c r="Y30" s="174"/>
-      <c r="Z30" s="174"/>
-      <c r="AA30" s="174"/>
-      <c r="AB30" s="174"/>
-      <c r="AC30" s="174"/>
-      <c r="AD30" s="174"/>
-      <c r="AE30" s="175"/>
-      <c r="AF30" s="170"/>
-      <c r="AG30" s="171"/>
-      <c r="AH30" s="171"/>
-      <c r="AI30" s="172"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="205"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="207"/>
+      <c r="L30" s="207"/>
+      <c r="M30" s="207"/>
+      <c r="N30" s="207"/>
+      <c r="O30" s="207"/>
+      <c r="P30" s="208"/>
+      <c r="Q30" s="209"/>
+      <c r="R30" s="210"/>
+      <c r="S30" s="210"/>
+      <c r="T30" s="210"/>
+      <c r="U30" s="210"/>
+      <c r="V30" s="210"/>
+      <c r="W30" s="210"/>
+      <c r="X30" s="210"/>
+      <c r="Y30" s="210"/>
+      <c r="Z30" s="210"/>
+      <c r="AA30" s="210"/>
+      <c r="AB30" s="210"/>
+      <c r="AC30" s="210"/>
+      <c r="AD30" s="210"/>
+      <c r="AE30" s="211"/>
+      <c r="AF30" s="206"/>
+      <c r="AG30" s="207"/>
+      <c r="AH30" s="207"/>
+      <c r="AI30" s="208"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="171"/>
-      <c r="N31" s="171"/>
-      <c r="O31" s="171"/>
-      <c r="P31" s="172"/>
-      <c r="Q31" s="173"/>
-      <c r="R31" s="174"/>
-      <c r="S31" s="174"/>
-      <c r="T31" s="174"/>
-      <c r="U31" s="174"/>
-      <c r="V31" s="174"/>
-      <c r="W31" s="174"/>
-      <c r="X31" s="174"/>
-      <c r="Y31" s="174"/>
-      <c r="Z31" s="174"/>
-      <c r="AA31" s="174"/>
-      <c r="AB31" s="174"/>
-      <c r="AC31" s="174"/>
-      <c r="AD31" s="174"/>
-      <c r="AE31" s="175"/>
-      <c r="AF31" s="170"/>
-      <c r="AG31" s="171"/>
-      <c r="AH31" s="171"/>
-      <c r="AI31" s="172"/>
+      <c r="B31" s="200"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="205"/>
+      <c r="I31" s="201"/>
+      <c r="J31" s="206"/>
+      <c r="K31" s="207"/>
+      <c r="L31" s="207"/>
+      <c r="M31" s="207"/>
+      <c r="N31" s="207"/>
+      <c r="O31" s="207"/>
+      <c r="P31" s="208"/>
+      <c r="Q31" s="209"/>
+      <c r="R31" s="210"/>
+      <c r="S31" s="210"/>
+      <c r="T31" s="210"/>
+      <c r="U31" s="210"/>
+      <c r="V31" s="210"/>
+      <c r="W31" s="210"/>
+      <c r="X31" s="210"/>
+      <c r="Y31" s="210"/>
+      <c r="Z31" s="210"/>
+      <c r="AA31" s="210"/>
+      <c r="AB31" s="210"/>
+      <c r="AC31" s="210"/>
+      <c r="AD31" s="210"/>
+      <c r="AE31" s="211"/>
+      <c r="AF31" s="206"/>
+      <c r="AG31" s="207"/>
+      <c r="AH31" s="207"/>
+      <c r="AI31" s="208"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="171"/>
-      <c r="M32" s="171"/>
-      <c r="N32" s="171"/>
-      <c r="O32" s="171"/>
-      <c r="P32" s="172"/>
-      <c r="Q32" s="173"/>
-      <c r="R32" s="174"/>
-      <c r="S32" s="174"/>
-      <c r="T32" s="174"/>
-      <c r="U32" s="174"/>
-      <c r="V32" s="174"/>
-      <c r="W32" s="174"/>
-      <c r="X32" s="174"/>
-      <c r="Y32" s="174"/>
-      <c r="Z32" s="174"/>
-      <c r="AA32" s="174"/>
-      <c r="AB32" s="174"/>
-      <c r="AC32" s="174"/>
-      <c r="AD32" s="174"/>
-      <c r="AE32" s="175"/>
-      <c r="AF32" s="170"/>
-      <c r="AG32" s="171"/>
-      <c r="AH32" s="171"/>
-      <c r="AI32" s="172"/>
+      <c r="B32" s="200"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="202"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="205"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="206"/>
+      <c r="K32" s="221"/>
+      <c r="L32" s="207"/>
+      <c r="M32" s="207"/>
+      <c r="N32" s="207"/>
+      <c r="O32" s="207"/>
+      <c r="P32" s="208"/>
+      <c r="Q32" s="209"/>
+      <c r="R32" s="210"/>
+      <c r="S32" s="210"/>
+      <c r="T32" s="210"/>
+      <c r="U32" s="210"/>
+      <c r="V32" s="210"/>
+      <c r="W32" s="210"/>
+      <c r="X32" s="210"/>
+      <c r="Y32" s="210"/>
+      <c r="Z32" s="210"/>
+      <c r="AA32" s="210"/>
+      <c r="AB32" s="210"/>
+      <c r="AC32" s="210"/>
+      <c r="AD32" s="210"/>
+      <c r="AE32" s="211"/>
+      <c r="AF32" s="206"/>
+      <c r="AG32" s="207"/>
+      <c r="AH32" s="207"/>
+      <c r="AI32" s="208"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="171"/>
-      <c r="L33" s="171"/>
-      <c r="M33" s="171"/>
-      <c r="N33" s="171"/>
-      <c r="O33" s="171"/>
-      <c r="P33" s="172"/>
-      <c r="Q33" s="173"/>
-      <c r="R33" s="174"/>
-      <c r="S33" s="174"/>
-      <c r="T33" s="174"/>
-      <c r="U33" s="174"/>
-      <c r="V33" s="174"/>
-      <c r="W33" s="174"/>
-      <c r="X33" s="174"/>
-      <c r="Y33" s="174"/>
-      <c r="Z33" s="174"/>
-      <c r="AA33" s="174"/>
-      <c r="AB33" s="174"/>
-      <c r="AC33" s="174"/>
-      <c r="AD33" s="174"/>
-      <c r="AE33" s="175"/>
-      <c r="AF33" s="170"/>
-      <c r="AG33" s="171"/>
-      <c r="AH33" s="171"/>
-      <c r="AI33" s="172"/>
+      <c r="B33" s="200"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="205"/>
+      <c r="I33" s="201"/>
+      <c r="J33" s="206"/>
+      <c r="K33" s="207"/>
+      <c r="L33" s="207"/>
+      <c r="M33" s="207"/>
+      <c r="N33" s="207"/>
+      <c r="O33" s="207"/>
+      <c r="P33" s="208"/>
+      <c r="Q33" s="209"/>
+      <c r="R33" s="210"/>
+      <c r="S33" s="210"/>
+      <c r="T33" s="210"/>
+      <c r="U33" s="210"/>
+      <c r="V33" s="210"/>
+      <c r="W33" s="210"/>
+      <c r="X33" s="210"/>
+      <c r="Y33" s="210"/>
+      <c r="Z33" s="210"/>
+      <c r="AA33" s="210"/>
+      <c r="AB33" s="210"/>
+      <c r="AC33" s="210"/>
+      <c r="AD33" s="210"/>
+      <c r="AE33" s="211"/>
+      <c r="AF33" s="206"/>
+      <c r="AG33" s="207"/>
+      <c r="AH33" s="207"/>
+      <c r="AI33" s="208"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12088,161 +12244,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -13443,7 +13444,7 @@
         <v>48</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G40" s="45"/>
       <c r="H40" s="58" t="s">
@@ -13479,7 +13480,7 @@
       <c r="D41" s="152"/>
       <c r="E41" s="153"/>
       <c r="F41" s="154" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G41" s="154"/>
       <c r="H41" s="54" t="s">
@@ -13489,7 +13490,7 @@
         <v>577</v>
       </c>
       <c r="J41" s="53" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K41" s="155" t="s">
         <v>580</v>
@@ -13527,7 +13528,7 @@
       <c r="D42" s="152"/>
       <c r="E42" s="153"/>
       <c r="F42" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G42" s="45"/>
       <c r="H42" s="58" t="s">
@@ -13563,7 +13564,7 @@
       <c r="D43" s="157"/>
       <c r="E43" s="158"/>
       <c r="F43" s="154" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G43" s="154"/>
       <c r="H43" s="54" t="s">
@@ -13573,7 +13574,7 @@
         <v>577</v>
       </c>
       <c r="J43" s="53" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K43" s="53" t="s">
         <v>579</v>
@@ -23876,7 +23877,7 @@
         <v>555</v>
       </c>
       <c r="L42" s="108" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M42" s="108"/>
       <c r="N42" s="159" t="s">
@@ -23925,7 +23926,7 @@
         <v>505</v>
       </c>
       <c r="L43" s="108" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M43" s="108"/>
       <c r="N43" s="159" t="s">
@@ -24202,7 +24203,7 @@
         <v>591</v>
       </c>
       <c r="M49" s="54" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N49" s="159" t="s">
         <v>583</v>
@@ -24394,7 +24395,7 @@
         <v>590</v>
       </c>
       <c r="M53" s="108" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N53" s="159" t="s">
         <v>583</v>
@@ -24645,7 +24646,7 @@
         <v>591</v>
       </c>
       <c r="M58" s="108" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N58" s="159" t="s">
         <v>583</v>
@@ -24744,11 +24745,9 @@
         <v>568</v>
       </c>
       <c r="L60" s="54" t="s">
-        <v>589</v>
-      </c>
-      <c r="M60" s="108" t="s">
-        <v>599</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="M60" s="108"/>
       <c r="N60" s="159" t="s">
         <v>583</v>
       </c>
@@ -25014,7 +25013,7 @@
         <v>594</v>
       </c>
       <c r="M67" s="54" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N67" s="159" t="s">
         <v>583</v>
@@ -26076,10 +26075,10 @@
         <v>535</v>
       </c>
       <c r="L94" s="54" t="s">
+        <v>607</v>
+      </c>
+      <c r="M94" s="54" t="s">
         <v>608</v>
-      </c>
-      <c r="M94" s="54" t="s">
-        <v>609</v>
       </c>
       <c r="N94" s="159" t="s">
         <v>583</v>
@@ -34096,7 +34095,7 @@
         <v>594</v>
       </c>
       <c r="M313" s="54" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N313" s="159" t="s">
         <v>583</v>
@@ -34411,7 +34410,7 @@
         <v>594</v>
       </c>
       <c r="M320" s="54" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N320" s="159" t="s">
         <v>583</v>
